--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="51260" windowHeight="27580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="329">
+  <cellStyleXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,6 +682,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -970,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="52"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="329">
+  <cellStyles count="335">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
@@ -1135,6 +1141,9 @@
     <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1297,6 +1306,9 @@
     <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,64 +1351,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.00669285092428485</c:v>
+                  <c:v>0.0003493161923391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.0026823732796317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.993307149075715</c:v>
+                  <c:v>0.0202816018270946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.999954602131298</c:v>
+                  <c:v>0.137437932448154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.999999694097773</c:v>
+                  <c:v>0.550844062184243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999999997938846</c:v>
+                  <c:v>0.904209534038349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.999999999986112</c:v>
+                  <c:v>0.986423083056256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.999999999999906</c:v>
+                  <c:v>0.998214964975444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.999999999999999</c:v>
+                  <c:v>0.999767722839711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999969815845295</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999996078292897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999490479845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999933801783</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999991399355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999998882582</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999999854822</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999999981138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999999997549</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999999999682</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999999999999959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,11 +1502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656320216"/>
-        <c:axId val="656323528"/>
+        <c:axId val="2088701512"/>
+        <c:axId val="2088703304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="656320216"/>
+        <c:axId val="2088701512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656323528"/>
+        <c:crossAx val="2088703304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656323528"/>
+        <c:axId val="2088703304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656320216"/>
+        <c:crossAx val="2088701512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,11 +1740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="655515624"/>
-        <c:axId val="655512632"/>
+        <c:axId val="2087880184"/>
+        <c:axId val="2087877192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="655515624"/>
+        <c:axId val="2087880184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655512632"/>
+        <c:crossAx val="2087877192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +1761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="655512632"/>
+        <c:axId val="2087877192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,13 +1772,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655515624"/>
+        <c:crossAx val="2087880184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2059,8 +2072,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655461848"/>
-        <c:axId val="655458856"/>
+        <c:axId val="2087829352"/>
+        <c:axId val="2087826360"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2323,11 +2336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655452520"/>
-        <c:axId val="655455816"/>
+        <c:axId val="2087820024"/>
+        <c:axId val="2087823320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="655461848"/>
+        <c:axId val="2087829352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,12 +2350,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655458856"/>
+        <c:crossAx val="2087826360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655458856"/>
+        <c:axId val="2087826360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,12 +2366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655461848"/>
+        <c:crossAx val="2087829352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655455816"/>
+        <c:axId val="2087823320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -2370,12 +2383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655452520"/>
+        <c:crossAx val="2087820024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655452520"/>
+        <c:axId val="2087820024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +2398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655455816"/>
+        <c:crossAx val="2087823320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2684,8 +2697,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="670206632"/>
-        <c:axId val="670209624"/>
+        <c:axId val="2087768984"/>
+        <c:axId val="2087765992"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2948,11 +2961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="670215960"/>
-        <c:axId val="670212664"/>
+        <c:axId val="2087759656"/>
+        <c:axId val="2087762952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="670206632"/>
+        <c:axId val="2087768984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,12 +2975,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670209624"/>
+        <c:crossAx val="2087765992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="670209624"/>
+        <c:axId val="2087765992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,12 +2991,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670206632"/>
+        <c:crossAx val="2087768984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="670212664"/>
+        <c:axId val="2087762952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2995,12 +3008,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670215960"/>
+        <c:crossAx val="2087759656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="670215960"/>
+        <c:axId val="2087759656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,14 +3023,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670212664"/>
+        <c:crossAx val="2087762952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4158,101 +4170,101 @@
         <v>27</v>
       </c>
       <c r="B6" s="6">
-        <v>0.18755059610586713</v>
+        <v>0.83668503118770632</v>
       </c>
       <c r="C6">
         <f>B6+dh</f>
-        <v>0.18765059610586712</v>
+        <v>0.83678503118770631</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
-        <v>0.18745059610586715</v>
+        <v>0.83658503118770633</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6">
-        <f>1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
-        <v>6.6928509242848554E-3</v>
+        <f t="shared" ref="G6:Z6" si="4">1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
+        <v>3.4931619233910023E-4</v>
       </c>
       <c r="H6">
-        <f>1/(1+EXP(-(H1-ah)/(0.1*ah)))</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>2.6823732796317037E-3</v>
       </c>
       <c r="I6">
-        <f>1/(1+EXP(-(I1-ah)/(0.1*ah)))</f>
-        <v>0.99330714907571527</v>
+        <f t="shared" si="4"/>
+        <v>2.0281601827094563E-2</v>
       </c>
       <c r="J6">
-        <f>1/(1+EXP(-(J1-ah)/(0.1*ah)))</f>
-        <v>0.99995460213129761</v>
+        <f t="shared" si="4"/>
+        <v>0.13743793244815439</v>
       </c>
       <c r="K6">
-        <f>1/(1+EXP(-(K1-ah)/(0.1*ah)))</f>
-        <v>0.99999969409777301</v>
+        <f t="shared" si="4"/>
+        <v>0.55084406218424253</v>
       </c>
       <c r="L6">
-        <f>1/(1+EXP(-(L1-ah)/(0.1*ah)))</f>
-        <v>0.99999999793884631</v>
+        <f t="shared" si="4"/>
+        <v>0.90420953403834892</v>
       </c>
       <c r="M6">
-        <f>1/(1+EXP(-(M1-ah)/(0.1*ah)))</f>
-        <v>0.999999999986112</v>
+        <f t="shared" si="4"/>
+        <v>0.98642308305625559</v>
       </c>
       <c r="N6">
-        <f>1/(1+EXP(-(N1-ah)/(0.1*ah)))</f>
-        <v>0.99999999999990652</v>
+        <f t="shared" si="4"/>
+        <v>0.99821496497544382</v>
       </c>
       <c r="O6">
-        <f>1/(1+EXP(-(O1-ah)/(0.1*ah)))</f>
-        <v>0.99999999999999933</v>
+        <f t="shared" si="4"/>
+        <v>0.99976772283971149</v>
       </c>
       <c r="P6">
-        <f>1/(1+EXP(-(P1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99996981584529498</v>
       </c>
       <c r="Q6">
-        <f>1/(1+EXP(-(Q1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999607829289727</v>
       </c>
       <c r="R6">
-        <f>1/(1+EXP(-(R1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999949047984549</v>
       </c>
       <c r="S6">
-        <f>1/(1+EXP(-(S1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.9999999338017832</v>
       </c>
       <c r="T6">
-        <f>1/(1+EXP(-(T1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999999139935458</v>
       </c>
       <c r="U6">
-        <f>1/(1+EXP(-(U1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999999888258162</v>
       </c>
       <c r="V6">
-        <f>1/(1+EXP(-(V1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999999985482213</v>
       </c>
       <c r="W6">
-        <f>1/(1+EXP(-(W1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.9999999999811382</v>
       </c>
       <c r="X6">
-        <f>1/(1+EXP(-(X1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999999999754952</v>
       </c>
       <c r="Y6">
-        <f>1/(1+EXP(-(Y1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.99999999999968159</v>
       </c>
       <c r="Z6">
-        <f>1/(1+EXP(-(Z1-ah)/(0.1*ah)))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.9999999999999587</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4260,97 +4272,97 @@
         <v>28</v>
       </c>
       <c r="B7" s="6">
-        <v>0.49039531353329313</v>
+        <v>0.8807381382082371</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>0.49039531353329313</v>
+        <v>0.8807381382082371</v>
       </c>
       <c r="D7">
         <f>C7</f>
-        <v>0.49039531353329313</v>
+        <v>0.8807381382082371</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="G7">
-        <f>1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
+        <f t="shared" ref="G7:Z7" si="5">1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
         <v>3.3535013046647811E-4</v>
       </c>
       <c r="H7">
-        <f>1/(1+EXP(-(H1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>2.4726231566347743E-3</v>
       </c>
       <c r="I7">
-        <f>1/(1+EXP(-(I1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>1.7986209962091559E-2</v>
       </c>
       <c r="J7">
-        <f>1/(1+EXP(-(J1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.11920292202211755</v>
       </c>
       <c r="K7">
-        <f>1/(1+EXP(-(K1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="L7">
-        <f>1/(1+EXP(-(L1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.88079707797788231</v>
       </c>
       <c r="M7">
-        <f>1/(1+EXP(-(M1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.98201379003790845</v>
       </c>
       <c r="N7">
-        <f>1/(1+EXP(-(N1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99752737684336534</v>
       </c>
       <c r="O7">
-        <f>1/(1+EXP(-(O1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99966464986953363</v>
       </c>
       <c r="P7">
-        <f>1/(1+EXP(-(P1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99995460213129761</v>
       </c>
       <c r="Q7">
-        <f>1/(1+EXP(-(Q1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999385582539779</v>
       </c>
       <c r="R7">
-        <f>1/(1+EXP(-(R1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999916847197223</v>
       </c>
       <c r="S7">
-        <f>1/(1+EXP(-(S1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999988746483792</v>
       </c>
       <c r="T7">
-        <f>1/(1+EXP(-(T1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.9999999847700205</v>
       </c>
       <c r="U7">
-        <f>1/(1+EXP(-(U1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999999793884631</v>
       </c>
       <c r="V7">
-        <f>1/(1+EXP(-(V1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999999972105313</v>
       </c>
       <c r="W7">
-        <f>1/(1+EXP(-(W1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999999996224864</v>
       </c>
       <c r="X7">
-        <f>1/(1+EXP(-(X1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999489098</v>
       </c>
       <c r="Y7">
-        <f>1/(1+EXP(-(Y1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999930855</v>
       </c>
       <c r="Z7">
-        <f>1/(1+EXP(-(Z1-ah)/(0.1*ah)))</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999990652</v>
       </c>
     </row>
@@ -4369,84 +4381,84 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:Z8" si="4">m+SUMPRODUCT(fe,G6:G7)</f>
-        <v>0.30141970231287091</v>
+        <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
+        <v>0.30058762327883659</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>0.39498786086108117</v>
+        <f t="shared" si="6"/>
+        <v>0.30442203508659083</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
-        <v>0.49511570099900537</v>
+        <f t="shared" si="6"/>
+        <v>0.33281045373267426</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
-        <v>0.5459986360276512</v>
+        <f t="shared" si="6"/>
+        <v>0.51997882040749943</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.73274819550036874</v>
+        <f t="shared" si="6"/>
+        <v>1.2012520504523043</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
-        <v>0.91948935493346862</v>
+        <f t="shared" si="6"/>
+        <v>1.8322901607845929</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
-        <v>0.9691255565629201</v>
+        <f t="shared" si="6"/>
+        <v>1.9902224251439988</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
-        <v>0.97673334683099522</v>
+        <f t="shared" si="6"/>
+        <v>2.0137519237952866</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
-        <v>0.97778145550678675</v>
+        <f t="shared" si="6"/>
+        <v>2.0169334709232887</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
-        <v>0.9779236467371043</v>
+        <f t="shared" si="6"/>
+        <v>2.0173579311311629</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>0.97794289656472988</v>
+        <f t="shared" si="6"/>
+        <v>2.0174144767534141</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
-        <v>0.97794550186171247</v>
+        <f t="shared" si="6"/>
+        <v>2.0174220107296099</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
-        <v>0.9779458544524442</v>
+        <f t="shared" si="6"/>
+        <v>2.0174230148948773</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
-        <v>0.97794590217044974</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231487862881</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
-        <v>0.97794590862838016</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231666456794</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0.97794590950236604</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231690287963</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
-        <v>0.9779459096206472</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231693469133</v>
       </c>
       <c r="X8">
-        <f t="shared" si="4"/>
-        <v>0.97794590963665484</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231693893931</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="4"/>
-        <v>0.97794590963882122</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231693950677</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="4"/>
-        <v>0.97794590963911443</v>
+        <f t="shared" si="6"/>
+        <v>2.0174231693958262</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4454,84 +4466,84 @@
         <v>60</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:Z9" si="5">EXP(-za)</f>
-        <v>0.7397672255670249</v>
+        <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
+        <v>0.74038302652748966</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.67368821719408745</v>
+        <f t="shared" si="7"/>
+        <v>0.73754952897821635</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.60950038341329105</v>
+        <f t="shared" si="7"/>
+        <v>0.71690606814732871</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.57926302147898723</v>
+        <f t="shared" si="7"/>
+        <v>0.59453313980647804</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.48058642813385399</v>
+        <f t="shared" si="7"/>
+        <v>0.3008173375450402</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.39872259483419864</v>
+        <f t="shared" si="7"/>
+        <v>0.16004661526344732</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37941466975360477</v>
+        <f t="shared" si="7"/>
+        <v>0.13666502432694708</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37653911470074281</v>
+        <f t="shared" si="7"/>
+        <v>0.13348690126841559</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37614466753570741</v>
+        <f t="shared" si="7"/>
+        <v>0.13306288127851906</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37609118686498438</v>
+        <f t="shared" si="7"/>
+        <v>0.13300641336531011</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608394724414668</v>
+        <f t="shared" si="7"/>
+        <v>0.13299889264753681</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.3760829674350501</v>
+        <f t="shared" si="7"/>
+        <v>0.1329978906408201</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608283483170479</v>
+        <f t="shared" si="7"/>
+        <v>0.13299775708902473</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281688578243</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773928176858</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281445706576</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773690650993</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281412837469</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773658956079</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281408389116</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773654725194</v>
       </c>
       <c r="X9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281407787097</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773654160221</v>
       </c>
       <c r="Y9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281407705624</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773654084751</v>
       </c>
       <c r="Z9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37608281407694599</v>
+        <f t="shared" si="7"/>
+        <v>0.13299773654074665</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4539,84 +4551,84 @@
         <v>61</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:Z10" si="6">1-sa</f>
-        <v>0.2602327744329751</v>
+        <f t="shared" ref="G10:Z10" si="8">1-sa</f>
+        <v>0.25961697347251034</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
-        <v>0.32631178280591255</v>
+        <f t="shared" si="8"/>
+        <v>0.26245047102178365</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>0.39049961658670895</v>
+        <f t="shared" si="8"/>
+        <v>0.28309393185267129</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
-        <v>0.42073697852101277</v>
+        <f t="shared" si="8"/>
+        <v>0.40546686019352196</v>
       </c>
       <c r="K10">
-        <f t="shared" si="6"/>
-        <v>0.51941357186614601</v>
+        <f t="shared" si="8"/>
+        <v>0.69918266245495975</v>
       </c>
       <c r="L10">
-        <f t="shared" si="6"/>
-        <v>0.60127740516580142</v>
+        <f t="shared" si="8"/>
+        <v>0.83995338473655268</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
-        <v>0.62058533024639528</v>
+        <f t="shared" si="8"/>
+        <v>0.86333497567305295</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
-        <v>0.62346088529925714</v>
+        <f t="shared" si="8"/>
+        <v>0.86651309873158444</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
-        <v>0.62385533246429259</v>
+        <f t="shared" si="8"/>
+        <v>0.86693711872148094</v>
       </c>
       <c r="P10">
-        <f t="shared" si="6"/>
-        <v>0.62390881313501567</v>
+        <f t="shared" si="8"/>
+        <v>0.86699358663468984</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>0.62391605275585338</v>
+        <f t="shared" si="8"/>
+        <v>0.86700110735246316</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
-        <v>0.6239170325649499</v>
+        <f t="shared" si="8"/>
+        <v>0.86700210935917987</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
-        <v>0.62391716516829521</v>
+        <f t="shared" si="8"/>
+        <v>0.86700224291097527</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
-        <v>0.62391718311421762</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226071823139</v>
       </c>
       <c r="U10">
-        <f t="shared" si="6"/>
-        <v>0.62391718554293418</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226309349004</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
-        <v>0.62391718587162526</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226341043918</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
-        <v>0.62391718591610879</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226345274811</v>
       </c>
       <c r="X10">
-        <f t="shared" si="6"/>
-        <v>0.62391718592212908</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226345839781</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="6"/>
-        <v>0.62391718592294376</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226345915254</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="6"/>
-        <v>0.62391718592305401</v>
+        <f t="shared" si="8"/>
+        <v>0.86700226345925335</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4624,166 +4636,166 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:Z11" si="7">wa*G6/za*(1-EXP(-za))</f>
-        <v>3.4417070265770584E-5</v>
+        <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
+        <v>1.7970207722761125E-6</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
-        <v>1.4801190023297125E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.2864422585796242E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
-        <v>7.1956684818069189E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.5845630537516199E-3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
-        <v>0.12866964770594921</v>
+        <f t="shared" si="9"/>
+        <v>1.7895878607042046E-2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="7"/>
-        <v>0.17904333092462485</v>
+        <f t="shared" si="9"/>
+        <v>8.0981334087791249E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="7"/>
-        <v>0.22315039408368309</v>
+        <f t="shared" si="9"/>
+        <v>0.14144887493689123</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
-        <v>0.2738442061768615</v>
+        <f t="shared" si="9"/>
+        <v>0.18298818292344909</v>
       </c>
       <c r="N11">
-        <f t="shared" si="7"/>
-        <v>0.32449709507772717</v>
+        <f t="shared" si="9"/>
+        <v>0.21835887944399396</v>
       </c>
       <c r="O11">
-        <f t="shared" si="7"/>
-        <v>0.37105225157177718</v>
+        <f t="shared" si="9"/>
+        <v>0.24991257677319109</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
-        <v>0.41243867749436341</v>
+        <f t="shared" si="9"/>
+        <v>0.27781969411126828</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
-        <v>0.44854539012197109</v>
+        <f t="shared" si="9"/>
+        <v>0.30214579213221959</v>
       </c>
       <c r="R11">
-        <f t="shared" si="7"/>
-        <v>0.47963187467252733</v>
+        <f t="shared" si="9"/>
+        <v>0.32308666005049214</v>
       </c>
       <c r="S11">
-        <f t="shared" si="7"/>
-        <v>0.50612769493695786</v>
+        <f t="shared" si="9"/>
+        <v>0.34093469521790348</v>
       </c>
       <c r="T11">
-        <f t="shared" si="7"/>
-        <v>0.5285333642543989</v>
+        <f t="shared" si="9"/>
+        <v>0.3560274788108041</v>
       </c>
       <c r="U11">
-        <f t="shared" si="7"/>
-        <v>0.54736235291756719</v>
+        <f t="shared" si="9"/>
+        <v>0.36871095086952649</v>
       </c>
       <c r="V11">
-        <f t="shared" si="7"/>
-        <v>0.56310704612996421</v>
+        <f t="shared" si="9"/>
+        <v>0.37931679703929472</v>
       </c>
       <c r="W11">
-        <f t="shared" si="7"/>
-        <v>0.57622024848657605</v>
+        <f t="shared" si="9"/>
+        <v>0.38815003392681913</v>
       </c>
       <c r="X11">
-        <f t="shared" si="7"/>
-        <v>0.58710676711131005</v>
+        <f t="shared" si="9"/>
+        <v>0.39548334542809238</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="7"/>
-        <v>0.59612130773440553</v>
+        <f t="shared" si="9"/>
+        <v>0.40155566631262152</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="7"/>
-        <v>0.60357011947216666</v>
+        <f t="shared" si="9"/>
+        <v>0.40657329027911904</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="G12">
-        <f t="shared" ref="G12:Z12" si="8">wa*G7/za*(1-EXP(-za))</f>
-        <v>1.7244921685049144E-6</v>
+        <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
+        <v>1.7251738214550291E-6</v>
       </c>
       <c r="H12">
-        <f t="shared" si="8"/>
-        <v>7.3195530394712139E-5</v>
+        <f t="shared" si="10"/>
+        <v>7.6384778995018047E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="8"/>
-        <v>1.302948481260941E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.4052284442777866E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" si="8"/>
-        <v>1.5338494317056698E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.5521486565706564E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="8"/>
-        <v>8.9521692847197631E-2</v>
+        <f t="shared" si="10"/>
+        <v>7.3506587115307026E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="8"/>
-        <v>0.19655021546364118</v>
+        <f t="shared" si="10"/>
+        <v>0.13778637698194049</v>
       </c>
       <c r="M12">
-        <f t="shared" si="8"/>
-        <v>0.26891878679139697</v>
+        <f t="shared" si="10"/>
+        <v>0.18217022911512532</v>
       </c>
       <c r="N12">
-        <f t="shared" si="8"/>
-        <v>0.32369473604620758</v>
+        <f t="shared" si="10"/>
+        <v>0.21820846998379981</v>
       </c>
       <c r="O12">
-        <f t="shared" si="8"/>
-        <v>0.37092781915080297</v>
+        <f t="shared" si="10"/>
+        <v>0.249886811556947</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
-        <v>0.41241995365743472</v>
+        <f t="shared" si="10"/>
+        <v>0.27781546731431694</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>0.44854263418077717</v>
+        <f t="shared" si="10"/>
+        <v>0.30214512062038301</v>
       </c>
       <c r="R12">
-        <f t="shared" si="8"/>
-        <v>0.47963147584518045</v>
+        <f t="shared" si="10"/>
+        <v>0.32308655601399078</v>
       </c>
       <c r="S12">
-        <f t="shared" si="8"/>
-        <v>0.50612763797979565</v>
+        <f t="shared" si="10"/>
+        <v>0.34093467942003008</v>
       </c>
       <c r="T12">
-        <f t="shared" si="8"/>
-        <v>0.52853335620484654</v>
+        <f t="shared" si="10"/>
+        <v>0.35602747645057903</v>
       </c>
       <c r="U12">
-        <f t="shared" si="8"/>
-        <v>0.54736235178936921</v>
+        <f t="shared" si="10"/>
+        <v>0.36871095052156089</v>
       </c>
       <c r="V12">
-        <f t="shared" si="8"/>
-        <v>0.56310704597288741</v>
+        <f t="shared" si="10"/>
+        <v>0.37931679698855386</v>
       </c>
       <c r="W12">
-        <f t="shared" si="8"/>
-        <v>0.57622024846482289</v>
+        <f t="shared" si="10"/>
+        <v>0.38815003391948716</v>
       </c>
       <c r="X12">
-        <f t="shared" si="8"/>
-        <v>0.58710676710831045</v>
+        <f t="shared" si="10"/>
+        <v>0.395483345427041</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="8"/>
-        <v>0.5961213077339933</v>
+        <f t="shared" si="10"/>
+        <v>0.40155566631247175</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="8"/>
-        <v>0.60357011947211014</v>
+        <f t="shared" si="10"/>
+        <v>0.40657329027909783</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4803,80 +4815,80 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:Y14" si="9">G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
-        <v>0.7397672255670249</v>
+        <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
+        <v>0.74038302652748966</v>
       </c>
       <c r="I14">
-        <f t="shared" si="9"/>
-        <v>0.49837246333086532</v>
+        <f t="shared" ref="H14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
+        <v>0.54606915247881627</v>
       </c>
       <c r="J14">
-        <f t="shared" si="9"/>
-        <v>0.30375820748278876</v>
+        <f t="shared" si="11"/>
+        <v>0.39148028904013227</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
-        <v>0.17595589706552131</v>
+        <f t="shared" si="11"/>
+        <v>0.23274800541537738</v>
       </c>
       <c r="L14">
-        <f t="shared" si="9"/>
-        <v>8.456201607980697E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.0014635307972417E-2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
-        <v>3.3716786475751867E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1205605399945636E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
-        <v>1.2792643405850202E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.53141433458174E-3</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
-        <v>4.8169306227211304E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.0442375408134909E-4</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
-        <v>1.8118627676260077E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.7201213719835729E-5</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="9"/>
-        <v>6.8142561871294062E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.6179358760586158E-6</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
-        <v>2.5627323643884756E-4</v>
+        <f t="shared" si="11"/>
+        <v>4.8118146518559185E-7</v>
       </c>
       <c r="S14">
-        <f t="shared" si="9"/>
-        <v>9.6379999234106001E-5</v>
+        <f t="shared" si="11"/>
+        <v>6.3996119885142926E-8</v>
       </c>
       <c r="T14">
-        <f t="shared" si="9"/>
-        <v>3.624686333304012E-5</v>
+        <f t="shared" si="11"/>
+        <v>8.5113404071243431E-9</v>
       </c>
       <c r="U14">
-        <f t="shared" si="9"/>
-        <v>1.3631822465563708E-5</v>
+        <f t="shared" si="11"/>
+        <v>1.1319890324051055E-9</v>
       </c>
       <c r="V14">
-        <f t="shared" si="9"/>
-        <v>5.1266941590282571E-6</v>
+        <f t="shared" si="11"/>
+        <v>1.5055197951286896E-10</v>
       </c>
       <c r="W14">
-        <f t="shared" si="9"/>
-        <v>1.9280615665028482E-6</v>
+        <f t="shared" si="11"/>
+        <v>2.0023072514289499E-11</v>
       </c>
       <c r="X14">
-        <f t="shared" si="9"/>
-        <v>7.2511081965738663E-7</v>
+        <f t="shared" si="11"/>
+        <v>2.6630233231219963E-12</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="9"/>
-        <v>2.7270171757506156E-7</v>
+        <f t="shared" si="11"/>
+        <v>3.5417607433272128E-13</v>
       </c>
       <c r="Z14">
         <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
-        <v>1.643782727310929E-7</v>
+        <v>5.4330442039715243E-14</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4885,7 +4897,7 @@
       </c>
       <c r="B15">
         <f>phif/phie</f>
-        <v>0.1851387800309103</v>
+        <v>0.16531088332217048</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -4895,80 +4907,80 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:Y15" si="10">G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.73976673045201458</v>
+        <f>G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
+        <v>0.74038300066471219</v>
       </c>
       <c r="I15">
-        <f t="shared" si="10"/>
-        <v>0.49834721179418257</v>
+        <f t="shared" ref="H15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
+        <v>0.54606898692763139</v>
       </c>
       <c r="J15">
-        <f t="shared" si="10"/>
-        <v>0.30371264716877522</v>
+        <f t="shared" si="12"/>
+        <v>0.39147937637179459</v>
       </c>
       <c r="K15">
-        <f t="shared" si="10"/>
-        <v>0.17591191438802109</v>
+        <f t="shared" si="12"/>
+        <v>0.23274426399277992</v>
       </c>
       <c r="L15">
-        <f t="shared" si="10"/>
-        <v>8.4532424939343348E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.0009653276790901E-2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="10"/>
-        <v>3.3701617489186431E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.1203794939095554E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="10"/>
-        <v>1.2785609444947327E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.5310158775165392E-3</v>
       </c>
       <c r="O15">
-        <f t="shared" si="10"/>
-        <v>4.8138006571743991E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.0435016572493457E-4</v>
       </c>
       <c r="P15">
-        <f t="shared" si="10"/>
-        <v>1.8105043882843822E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.7188703466402603E-5</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="10"/>
-        <v>6.8084665614417473E-4</v>
+        <f t="shared" si="12"/>
+        <v>3.615910333921048E-6</v>
       </c>
       <c r="R15">
-        <f t="shared" si="10"/>
-        <v>2.5602989364112324E-4</v>
+        <f t="shared" si="12"/>
+        <v>4.8086398171031317E-7</v>
       </c>
       <c r="S15">
-        <f t="shared" si="10"/>
-        <v>9.627885378584499E-5</v>
+        <f t="shared" si="12"/>
+        <v>6.3947500186109322E-8</v>
       </c>
       <c r="T15">
-        <f t="shared" si="10"/>
-        <v>3.6205203564739273E-5</v>
+        <f t="shared" si="12"/>
+        <v>8.50402365137216E-9</v>
       </c>
       <c r="U15">
-        <f t="shared" si="10"/>
-        <v>1.3614793395134569E-5</v>
+        <f t="shared" si="12"/>
+        <v>1.1309028244950087E-9</v>
       </c>
       <c r="V15">
-        <f t="shared" si="10"/>
-        <v>5.1197778149124449E-6</v>
+        <f t="shared" si="12"/>
+        <v>1.5039247631941348E-10</v>
       </c>
       <c r="W15">
-        <f t="shared" si="10"/>
-        <v>1.9252679119264404E-6</v>
+        <f t="shared" si="12"/>
+        <v>1.9999858864692304E-11</v>
       </c>
       <c r="X15">
-        <f t="shared" si="10"/>
-        <v>7.239877717854748E-7</v>
+        <f t="shared" si="12"/>
+        <v>2.6596699799717833E-12</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="10"/>
-        <v>2.7225213199654312E-7</v>
+        <f t="shared" si="12"/>
+        <v>3.5369471604375885E-13</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>1.6408097313513935E-7</v>
+        <v>5.425034436117285E-14</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4980,80 +4992,80 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:Y16" si="11">G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
-        <v>0.73976772068236651</v>
+        <f>G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
+        <v>0.74038305239026803</v>
       </c>
       <c r="I16">
-        <f t="shared" si="11"/>
-        <v>0.49839771614705769</v>
+        <f t="shared" ref="H16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
+        <v>0.54606931803005143</v>
       </c>
       <c r="J16">
-        <f t="shared" si="11"/>
-        <v>0.30380377463136188</v>
+        <f t="shared" si="13"/>
+        <v>0.3914812017105978</v>
       </c>
       <c r="K16">
-        <f t="shared" si="11"/>
-        <v>0.17599989073986574</v>
+        <f t="shared" si="13"/>
+        <v>0.23275174689811928</v>
       </c>
       <c r="L16">
-        <f t="shared" si="11"/>
-        <v>8.4591617578847117E-2</v>
+        <f t="shared" si="13"/>
+        <v>7.0019617693685587E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="11"/>
-        <v>3.3731962289827978E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.1207416153354495E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="11"/>
-        <v>1.2799681236463488E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.5318128953480431E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="11"/>
-        <v>4.8200626233924999E-3</v>
+        <f t="shared" si="13"/>
+        <v>2.0449736893760138E-4</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
-        <v>1.8132221661280655E-3</v>
+        <f t="shared" si="13"/>
+        <v>2.7213729729572821E-5</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="11"/>
-        <v>6.8200507360645097E-4</v>
+        <f t="shared" si="13"/>
+        <v>3.6199625528540072E-6</v>
       </c>
       <c r="R16">
-        <f t="shared" si="11"/>
-        <v>2.5651681052095968E-4</v>
+        <f t="shared" si="13"/>
+        <v>4.8149915827473448E-7</v>
       </c>
       <c r="S16">
-        <f t="shared" si="11"/>
-        <v>9.6481250940400864E-5</v>
+        <f t="shared" si="13"/>
+        <v>6.4044776550048952E-8</v>
       </c>
       <c r="T16">
-        <f t="shared" si="11"/>
-        <v>3.6288571037441978E-5</v>
+        <f t="shared" si="13"/>
+        <v>8.5186634581218063E-9</v>
       </c>
       <c r="U16">
-        <f t="shared" si="11"/>
-        <v>1.3648872835562465E-5</v>
+        <f t="shared" si="13"/>
+        <v>1.1330762835946055E-9</v>
       </c>
       <c r="V16">
-        <f t="shared" si="11"/>
-        <v>5.1336198464823282E-6</v>
+        <f t="shared" si="13"/>
+        <v>1.5071165187215855E-10</v>
       </c>
       <c r="W16">
-        <f t="shared" si="11"/>
-        <v>1.9308592748038545E-6</v>
+        <f t="shared" si="13"/>
+        <v>2.0046313107753189E-11</v>
       </c>
       <c r="X16">
-        <f t="shared" si="11"/>
-        <v>7.2623560959811773E-7</v>
+        <f t="shared" si="13"/>
+        <v>2.6663808942066385E-12</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="11"/>
-        <v>2.7315204558006149E-7</v>
+        <f t="shared" si="13"/>
+        <v>3.5465808772279712E-13</v>
       </c>
       <c r="Z16">
         <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
-        <v>1.6467611259746845E-7</v>
+        <v>5.441065807438646E-14</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5062,7 +5074,7 @@
       </c>
       <c r="B17">
         <f>ro*(reck-phie/phif)/(reck-1)</f>
-        <v>0.59987695332066693</v>
+        <v>0.54098104574874695</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>31</v>
@@ -5072,80 +5084,80 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:Z17" si="12">(H15-H14)/dh</f>
-        <v>-4.9511501032384331E-3</v>
+        <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
+        <v>-2.5862777475182952E-4</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.25251536682757703</v>
+        <f t="shared" si="14"/>
+        <v>-1.655511848719371E-3</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.4556031401353744</v>
+        <f t="shared" si="14"/>
+        <v>-9.1266833768255395E-3</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.43982677500220557</v>
+        <f t="shared" si="14"/>
+        <v>-3.7414225974585769E-2</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.29591140463622323</v>
+        <f t="shared" si="14"/>
+        <v>-4.9820311815162999E-2</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.15168986565436415</v>
+        <f t="shared" si="14"/>
+        <v>-1.8104608500817132E-2</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="12"/>
-        <v>-7.0339609028746697E-2</v>
+        <f t="shared" si="14"/>
+        <v>-3.9845706520076976E-3</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.1299655467312629E-2</v>
+        <f t="shared" si="14"/>
+        <v>-7.3588356414516038E-4</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="12"/>
-        <v>-1.3583793416255176E-2</v>
+        <f t="shared" si="14"/>
+        <v>-1.2510253433126184E-4</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="12"/>
-        <v>-5.7896256876589867E-3</v>
+        <f t="shared" si="14"/>
+        <v>-2.0255421375677333E-5</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="12"/>
-        <v>-2.4334279772431988E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.1748347527867745E-6</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="12"/>
-        <v>-1.0114544826101096E-3</v>
+        <f t="shared" si="14"/>
+        <v>-4.8619699033603744E-7</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="12"/>
-        <v>-4.1659768300846326E-4</v>
+        <f t="shared" si="14"/>
+        <v>-7.3167557521830944E-8</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="12"/>
-        <v>-1.7029070429138869E-4</v>
+        <f t="shared" si="14"/>
+        <v>-1.0862079100968683E-8</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="12"/>
-        <v>-6.9163441158121523E-5</v>
+        <f t="shared" si="14"/>
+        <v>-1.5950319345547635E-9</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="12"/>
-        <v>-2.7936545764078866E-5</v>
+        <f t="shared" si="14"/>
+        <v>-2.3213649597194491E-10</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="12"/>
-        <v>-1.1230478719118282E-5</v>
+        <f t="shared" si="14"/>
+        <v>-3.353343150212966E-11</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="12"/>
-        <v>-4.4958557851843148E-6</v>
+        <f t="shared" si="14"/>
+        <v>-4.8135828896243483E-12</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="12"/>
-        <v>-2.972995959535537E-6</v>
+        <f>(Z15-Z14)/dh</f>
+        <v>-8.0097678542392797E-13</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5164,80 +5176,80 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:Y18" si="13">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
-        <v>-4.9511517593919061E-3</v>
+        <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
+        <v>-2.5862777969908171E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="13"/>
-        <v>-0.25252176426727474</v>
+        <f t="shared" si="15"/>
+        <v>-1.6555121005380469E-3</v>
       </c>
       <c r="J18">
-        <f t="shared" si="13"/>
-        <v>-0.45563731122418316</v>
+        <f t="shared" si="15"/>
+        <v>-9.1266940162349122E-3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="13"/>
-        <v>-0.43988175464109092</v>
+        <f t="shared" si="15"/>
+        <v>-3.7414526695246447E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="13"/>
-        <v>-0.29596319147631217</v>
+        <f t="shared" si="15"/>
+        <v>-4.9822084431363697E-2</v>
       </c>
       <c r="M18">
-        <f t="shared" si="13"/>
-        <v>-0.15172399808710235</v>
+        <f t="shared" si="15"/>
+        <v>-1.8106071215911901E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="13"/>
-        <v>-7.0358954033587037E-2</v>
+        <f t="shared" si="15"/>
+        <v>-3.9850891125426998E-3</v>
       </c>
       <c r="O18">
-        <f t="shared" si="13"/>
-        <v>-3.1309828885797801E-2</v>
+        <f t="shared" si="15"/>
+        <v>-7.3601604743228784E-4</v>
       </c>
       <c r="P18">
-        <f t="shared" si="13"/>
-        <v>-1.3588887944474309E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.2513131143772387E-4</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="13"/>
-        <v>-5.7920866139255615E-3</v>
+        <f t="shared" si="15"/>
+        <v>-2.0261093605751674E-5</v>
       </c>
       <c r="R18">
-        <f t="shared" si="13"/>
-        <v>-2.4345840329839568E-3</v>
+        <f t="shared" si="15"/>
+        <v>-3.1758825915258834E-6</v>
       </c>
       <c r="S18">
-        <f t="shared" si="13"/>
-        <v>-1.0119855868287043E-3</v>
+        <f t="shared" si="15"/>
+        <v>-4.8638177287367379E-7</v>
       </c>
       <c r="T18">
-        <f t="shared" si="13"/>
-        <v>-4.1683727163640557E-4</v>
+        <f t="shared" si="15"/>
+        <v>-7.3199024724870852E-8</v>
       </c>
       <c r="U18">
-        <f t="shared" si="13"/>
-        <v>-1.7039715776556716E-4</v>
+        <f t="shared" si="15"/>
+        <v>-1.0867293828707376E-8</v>
       </c>
       <c r="V18">
-        <f t="shared" si="13"/>
-        <v>-6.9210136826987426E-5</v>
+        <f t="shared" si="15"/>
+        <v>-1.5958774648608021E-9</v>
       </c>
       <c r="W18">
-        <f t="shared" si="13"/>
-        <v>-2.7956804590606141E-5</v>
+        <f t="shared" si="15"/>
+        <v>-2.3227116321215562E-10</v>
       </c>
       <c r="X18">
-        <f t="shared" si="13"/>
-        <v>-1.1239184562885991E-5</v>
+        <f t="shared" si="15"/>
+        <v>-3.3554562295485794E-11</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="13"/>
-        <v>-4.4995658759257918E-6</v>
+        <f t="shared" si="15"/>
+        <v>-4.8168569102756519E-12</v>
       </c>
       <c r="Z18">
         <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
-        <v>-2.9756956714177243E-6</v>
+        <v>-8.015682745448369E-13</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5246,7 +5258,7 @@
       </c>
       <c r="B19">
         <f>SUMPRODUCT(lz,fa)</f>
-        <v>9.8991632365557955E-2</v>
+        <v>8.8389878042416548E-2</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -5255,80 +5267,80 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:Y19" si="14">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
-        <v>-2.4808103560872635E-4</v>
+        <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
+        <v>-2.4828754454115959E-4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="14"/>
-        <v>-1.3994165640599182E-3</v>
+        <f t="shared" si="16"/>
+        <v>-1.5333475930705369E-3</v>
       </c>
       <c r="J19">
-        <f t="shared" si="14"/>
-        <v>-6.3164038298434404E-3</v>
+        <f t="shared" si="16"/>
+        <v>-8.1405128687474793E-3</v>
       </c>
       <c r="K19">
-        <f t="shared" si="14"/>
-        <v>-2.4633316244589636E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2584047015824097E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="14"/>
-        <v>-5.4119445506982458E-2</v>
+        <f t="shared" si="16"/>
+        <v>-4.4809163923728829E-2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="14"/>
-        <v>-5.1276292750178483E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.7041419512023068E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="14"/>
-        <v>-3.2017529915580545E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.8328360069973394E-3</v>
       </c>
       <c r="O19">
-        <f t="shared" si="14"/>
-        <v>-1.6860872537836736E-2</v>
+        <f t="shared" si="16"/>
+        <v>-7.155516928173234E-4</v>
       </c>
       <c r="P19">
-        <f t="shared" si="14"/>
-        <v>-8.1533824543170361E-3</v>
+        <f t="shared" si="16"/>
+        <v>-1.2240546173926078E-4</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="14"/>
-        <v>-3.7478099676504055E-3</v>
+        <f t="shared" si="16"/>
+        <v>-1.989848307174451E-5</v>
       </c>
       <c r="R19">
-        <f t="shared" si="14"/>
-        <v>-1.6657628280062591E-3</v>
+        <f t="shared" si="16"/>
+        <v>-3.127654722630431E-6</v>
       </c>
       <c r="S19">
-        <f t="shared" si="14"/>
-        <v>-7.2284494649103024E-4</v>
+        <f t="shared" si="16"/>
+        <v>-4.7996754743322217E-7</v>
       </c>
       <c r="T19">
-        <f t="shared" si="14"/>
-        <v>-3.0809643587411208E-4</v>
+        <f t="shared" si="16"/>
+        <v>-7.2345946733437909E-8</v>
       </c>
       <c r="U19">
-        <f t="shared" si="14"/>
-        <v>-1.2950159773395724E-4</v>
+        <f t="shared" si="16"/>
+        <v>-1.0753836376911428E-8</v>
       </c>
       <c r="V19">
-        <f t="shared" si="14"/>
-        <v>-5.383001950093476E-5</v>
+        <f t="shared" si="16"/>
+        <v>-1.5807878803946801E-9</v>
       </c>
       <c r="W19">
-        <f t="shared" si="14"/>
-        <v>-2.2172606784461856E-5</v>
+        <f t="shared" si="16"/>
+        <v>-2.3026428262940591E-10</v>
       </c>
       <c r="X19">
-        <f t="shared" si="14"/>
-        <v>-9.0638471747060051E-6</v>
+        <f t="shared" si="16"/>
+        <v>-3.328765172040915E-11</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="14"/>
-        <v>-3.6814588694088632E-6</v>
+        <f t="shared" si="16"/>
+        <v>-4.7813584079304996E-12</v>
       </c>
       <c r="Z19">
         <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-2.4825597358016395E-6</v>
+        <v>-7.9612282109967989E-13</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5337,11 +5349,11 @@
       </c>
       <c r="B20">
         <f>B6</f>
-        <v>0.18755059610586713</v>
+        <v>0.83668503118770632</v>
       </c>
       <c r="C20">
         <f>B7</f>
-        <v>0.49039531353329313</v>
+        <v>0.8807381382082371</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -5350,80 +5362,80 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:Y20" si="15">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
-        <v>3.3137320629120704E-5</v>
+        <f t="shared" ref="H20:Y20" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
+        <v>9.0342871237598882E-8</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="15"/>
-        <v>0.12461544005517355</v>
+        <f t="shared" si="17"/>
+        <v>3.9956689235146171E-6</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="15"/>
-        <v>0.37565895579835962</v>
+        <f t="shared" si="17"/>
+        <v>1.6389734172626811E-4</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="15"/>
-        <v>0.39354526316413485</v>
+        <f t="shared" si="17"/>
+        <v>4.4938625980053262E-3</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="15"/>
-        <v>0.27369447667744595</v>
+        <f t="shared" si="17"/>
+        <v>2.2596315220589306E-2</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="15"/>
-        <v>0.14284495826938021</v>
+        <f t="shared" si="17"/>
+        <v>1.2778109386978742E-2</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="15"/>
-        <v>6.6990116073239223E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.2364334840502603E-3</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="15"/>
-        <v>3.0041329622637728E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.3571607527242429E-4</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="15"/>
-        <v>1.3111748710863673E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.1177879139687629E-4</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="15"/>
-        <v>5.6126387532570883E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.8485013604690162E-5</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="15"/>
-        <v>2.3670965732192398E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.9396640310858973E-6</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="15"/>
-        <v>9.866047026957361E-4</v>
+        <f t="shared" si="17"/>
+        <v>4.5496516999764827E-7</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="15"/>
-        <v>4.0729195678114384E-4</v>
+        <f t="shared" si="17"/>
+        <v>6.9020686443567337E-8</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="15"/>
-        <v>1.6680732886673863E-4</v>
+        <f t="shared" si="17"/>
+        <v>1.0311584273603702E-8</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="15"/>
-        <v>6.786006387129667E-5</v>
+        <f t="shared" si="17"/>
+        <v>1.5219693514864602E-9</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="15"/>
-        <v>2.7449065354151348E-5</v>
+        <f t="shared" si="17"/>
+        <v>2.224415514148566E-10</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="15"/>
-        <v>1.1048232562019265E-5</v>
+        <f t="shared" si="17"/>
+        <v>3.2247246175256635E-11</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="15"/>
-        <v>4.4277521100860335E-6</v>
+        <f t="shared" si="17"/>
+        <v>4.6429868253399575E-12</v>
       </c>
       <c r="Z20" s="4">
         <f>Y20*EXP(-Y$8)/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
-        <v>3.0856469155816437E-6</v>
+        <v>7.3979171630401916E-13</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5432,11 +5444,11 @@
       </c>
       <c r="B21">
         <f>SUMPRODUCT(fa,G18:Z18)</f>
-        <v>-0.34704795836473157</v>
+        <v>-3.6746695310946972E-2</v>
       </c>
       <c r="C21">
         <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-8.2879803057473528E-2</v>
+        <v>-3.326931135686502E-2</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>59</v>
@@ -5445,80 +5457,80 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" ref="H21:Y21" si="16">G21*EXP(-G$8)+G$14*G7^2*EXP(-G$8)</f>
-        <v>8.3194007657645389E-8</v>
+        <f t="shared" ref="H21:Y21" si="18">G21*EXP(-G$8)+G$14*G7^2*EXP(-G$8)</f>
+        <v>8.3263260455079369E-8</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="16"/>
-        <v>3.1030289201386013E-6</v>
+        <f t="shared" si="18"/>
+        <v>3.4000040074694073E-6</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="16"/>
-        <v>1.0015821616615153E-4</v>
+        <f t="shared" si="18"/>
+        <v>1.2908282459064328E-4</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="16"/>
-        <v>2.5582345223560169E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.383938773256366E-3</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="16"/>
-        <v>2.2369956811379536E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.8521606279179512E-2</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="16"/>
-        <v>3.5077007932434984E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.1657668199913002E-2</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="16"/>
-        <v>2.5645330914042884E-2</v>
+        <f t="shared" si="18"/>
+        <v>3.070016581475044E-3</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="16"/>
-        <v>1.4449609362964008E-2</v>
+        <f t="shared" si="18"/>
+        <v>6.1322107838818294E-4</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="16"/>
-        <v>7.2457912644094897E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.0877993646878897E-4</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="16"/>
-        <v>3.4064419859834993E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.8086036586179228E-5</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="16"/>
-        <v>1.5373782354203655E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.8865983906225564E-6</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="16"/>
-        <v>6.7456160779578338E-4</v>
+        <f t="shared" si="18"/>
+        <v>4.4790751053603851E-7</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="16"/>
-        <v>2.8993789690341817E-4</v>
+        <f t="shared" si="18"/>
+        <v>6.8082032776096132E-8</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="16"/>
-        <v>1.2267248303971605E-4</v>
+        <f t="shared" si="18"/>
+        <v>1.0186745442852822E-8</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="16"/>
-        <v>5.1261706815907523E-5</v>
+        <f t="shared" si="18"/>
+        <v>1.5053660692343759E-9</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="16"/>
-        <v>2.1206708521777381E-5</v>
+        <f t="shared" si="18"/>
+        <v>2.2023335245001484E-10</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="16"/>
-        <v>8.7005894379295127E-6</v>
+        <f t="shared" si="18"/>
+        <v>3.195356071098609E-11</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" si="16"/>
-        <v>3.5448438775250081E-6</v>
+        <f t="shared" si="18"/>
+        <v>4.603927323334922E-12</v>
       </c>
       <c r="Z21" s="4">
         <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
-        <v>2.5534503033305885E-6</v>
+        <v>7.3380000719779153E-13</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5527,94 +5539,94 @@
       </c>
       <c r="B22">
         <f>SUMPRODUCT(fa,G20:Z20)</f>
-        <v>0.32097948073696986</v>
+        <v>1.6413374352863434E-2</v>
       </c>
       <c r="C22">
         <f>SUMPRODUCT(fa,G21:Z21)</f>
-        <v>5.3914420806147584E-2</v>
+        <v>1.4163446798239344E-2</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:Z22" si="17">G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.6345342768314766E-5</v>
+        <f t="shared" ref="G22:Z22" si="19">G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-8.5356450877766674E-7</v>
       </c>
       <c r="H22">
-        <f t="shared" si="17"/>
-        <v>-5.1885264277394842E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.9143142189788449E-5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="17"/>
-        <v>-3.4627632780915824E-2</v>
+        <f t="shared" si="19"/>
+        <v>-4.1131006962206697E-4</v>
       </c>
       <c r="J22">
-        <f t="shared" si="17"/>
-        <v>-7.6399358087910985E-2</v>
+        <f t="shared" si="19"/>
+        <v>-3.3640553998272316E-3</v>
       </c>
       <c r="K22">
-        <f t="shared" si="17"/>
-        <v>-9.2603065068798882E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.0611082044176096E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="17"/>
-        <v>-7.4053398346858354E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.0565224016429122E-2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="17"/>
-        <v>-4.5431055225976166E-2</v>
+        <f t="shared" si="19"/>
+        <v>-4.0188896366712057E-3</v>
       </c>
       <c r="N22">
-        <f t="shared" si="17"/>
-        <v>-2.4574234560434619E-2</v>
+        <f t="shared" si="19"/>
+        <v>-9.8472253467679063E-4</v>
       </c>
       <c r="O22">
-        <f t="shared" si="17"/>
-        <v>-1.2367882894622739E-2</v>
+        <f t="shared" si="19"/>
+        <v>-2.014279285892466E-4</v>
       </c>
       <c r="P22">
-        <f t="shared" si="17"/>
-        <v>-5.9182744368802553E-3</v>
+        <f t="shared" si="19"/>
+        <v>-3.7350615161081227E-5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="17"/>
-        <v>-2.726318072144851E-3</v>
+        <f t="shared" si="19"/>
+        <v>-6.4959687070321502E-6</v>
       </c>
       <c r="R22">
-        <f t="shared" si="17"/>
-        <v>-1.2193014670293556E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.0792976516686426E-6</v>
       </c>
       <c r="S22">
-        <f t="shared" si="17"/>
-        <v>-5.3267078523609897E-4</v>
+        <f t="shared" si="19"/>
+        <v>-1.7329250726503685E-7</v>
       </c>
       <c r="T22">
-        <f t="shared" si="17"/>
-        <v>-2.283543120942208E-4</v>
+        <f t="shared" si="19"/>
+        <v>-2.7098072377119118E-8</v>
       </c>
       <c r="U22">
-        <f t="shared" si="17"/>
-        <v>-9.6401157070801434E-5</v>
+        <f t="shared" si="19"/>
+        <v>-4.1497509156321501E-9</v>
       </c>
       <c r="V22">
-        <f t="shared" si="17"/>
-        <v>-4.0184553680532521E-5</v>
+        <f t="shared" si="19"/>
+        <v>-6.2488980765790384E-10</v>
       </c>
       <c r="W22">
-        <f t="shared" si="17"/>
-        <v>-1.657564150966997E-5</v>
+        <f t="shared" si="19"/>
+        <v>-9.2816262946428491E-11</v>
       </c>
       <c r="X22">
-        <f t="shared" si="17"/>
-        <v>-6.7773067055029592E-6</v>
+        <f t="shared" si="19"/>
+        <v>-1.3630755893021168E-11</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="17"/>
-        <v>-2.7505270447089789E-6</v>
+        <f t="shared" si="19"/>
+        <v>-1.9829160572218311E-12</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="17"/>
-        <v>-1.837688433556394E-6</v>
+        <f t="shared" si="19"/>
+        <v>-3.3345702941560832E-13</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5623,94 +5635,94 @@
       </c>
       <c r="B23">
         <f>SUMPRODUCT(lz*G11:Z11)</f>
-        <v>0.15273091106931747</v>
+        <v>3.9130858872943895E-2</v>
       </c>
       <c r="C23">
         <f>SUMPRODUCT(lz*G12:Z12)</f>
-        <v>5.3987592473051217E-2</v>
+        <v>3.6092970528264344E-2</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:Z23" si="18">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-8.1899520725681816E-7</v>
+        <f t="shared" ref="G23:Z23" si="20">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-8.1943802107597177E-7</v>
       </c>
       <c r="H23">
-        <f t="shared" si="18"/>
-        <v>-2.5314297431969152E-5</v>
+        <f t="shared" si="20"/>
+        <v>-2.686348322442814E-5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="18"/>
-        <v>-2.9981691943605578E-4</v>
+        <f t="shared" si="20"/>
+        <v>-3.6458794584634893E-4</v>
       </c>
       <c r="J23">
-        <f t="shared" si="18"/>
-        <v>-2.2155339984638962E-3</v>
+        <f t="shared" si="20"/>
+        <v>-2.9024117601238802E-3</v>
       </c>
       <c r="K23">
-        <f t="shared" si="18"/>
-        <v>-9.1278035407356371E-3</v>
+        <f t="shared" si="20"/>
+        <v>-9.2765848422944643E-3</v>
       </c>
       <c r="L23">
-        <f t="shared" si="18"/>
-        <v>-1.7691576633879963E-2</v>
+        <f t="shared" si="20"/>
+        <v>-9.6009493368125389E-3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="18"/>
-        <v>-1.7601647673316689E-2</v>
+        <f t="shared" si="20"/>
+        <v>-3.8069774291694808E-3</v>
       </c>
       <c r="N23">
-        <f t="shared" si="18"/>
-        <v>-1.21025545794924E-2</v>
+        <f t="shared" si="20"/>
+        <v>-9.5082132315812593E-4</v>
       </c>
       <c r="O23">
-        <f t="shared" si="18"/>
-        <v>-7.0042154563260918E-3</v>
+        <f t="shared" si="20"/>
+        <v>-1.9629338966545946E-4</v>
       </c>
       <c r="P23">
-        <f t="shared" si="18"/>
-        <v>-3.6762948374790302E-3</v>
+        <f t="shared" si="20"/>
+        <v>-3.6592763694545026E-5</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="18"/>
-        <v>-1.8093560892560915E-3</v>
+        <f t="shared" si="20"/>
+        <v>-6.3863932663603874E-6</v>
       </c>
       <c r="R23">
-        <f t="shared" si="18"/>
-        <v>-8.5054960394148843E-4</v>
+        <f t="shared" si="20"/>
+        <v>-1.0637155280607978E-6</v>
       </c>
       <c r="S23">
-        <f t="shared" si="18"/>
-        <v>-3.8632865595383332E-4</v>
+        <f t="shared" si="20"/>
+        <v>-1.7110566734092272E-7</v>
       </c>
       <c r="T23">
-        <f t="shared" si="18"/>
-        <v>-1.708811497344243E-4</v>
+        <f t="shared" si="20"/>
+        <v>-2.6794352992971547E-8</v>
       </c>
       <c r="U23">
-        <f t="shared" si="18"/>
-        <v>-7.4016466955458503E-5</v>
+        <f t="shared" si="20"/>
+        <v>-4.1079179068204447E-9</v>
       </c>
       <c r="V23">
-        <f t="shared" si="18"/>
-        <v>-3.1523901235133237E-5</v>
+        <f t="shared" si="20"/>
+        <v>-6.1916607472673523E-10</v>
       </c>
       <c r="W23">
-        <f t="shared" si="18"/>
-        <v>-1.324266961201807E-5</v>
+        <f t="shared" si="20"/>
+        <v>-9.203729217840859E-11</v>
       </c>
       <c r="X23">
-        <f t="shared" si="18"/>
-        <v>-5.5001514041241452E-6</v>
+        <f t="shared" si="20"/>
+        <v>-1.3525197205823766E-11</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="18"/>
-        <v>-2.2628360261158624E-6</v>
+        <f t="shared" si="20"/>
+        <v>-1.9686614324587892E-12</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="18"/>
-        <v>-1.5400463179804307E-6</v>
+        <f t="shared" si="20"/>
+        <v>-3.3124305349133181E-13</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -5719,94 +5731,94 @@
       </c>
       <c r="B24">
         <f>SUM(G22:Z22)</f>
-        <v>-0.37605094468385503</v>
+        <v>-3.0231839492193859E-2</v>
       </c>
       <c r="C24">
         <f>SUM(G23:Z23)</f>
-        <v>-7.3090778502205661E-2</v>
+        <v>-2.7170554555771474E-2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ref="G24:Z24" si="19">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>4.7561783761006712E-10</v>
+        <f t="shared" ref="G24:Z24" si="21">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
+        <v>6.766244323356963E-14</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="19"/>
-        <v>8.5849235278700337E-4</v>
+        <f t="shared" si="21"/>
+        <v>1.9813600528682218E-10</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="19"/>
-        <v>3.5896859146872684E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.6548822803315331E-7</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="19"/>
-        <v>0.1129411836598867</v>
+        <f t="shared" si="21"/>
+        <v>6.194610987647251E-5</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="19"/>
-        <v>0.14832716596968049</v>
+        <f t="shared" si="21"/>
+        <v>3.0758707444317537E-3</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="19"/>
-        <v>0.12204549722408362</v>
+        <f t="shared" si="21"/>
+        <v>9.3200262914944453E-3</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="19"/>
-        <v>7.6424787716861536E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.962000359710346E-3</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="19"/>
-        <v>4.1972333151990046E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.3637980331215988E-3</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="19"/>
-        <v>2.1357792163468069E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.942708756251006E-4</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="19"/>
-        <v>1.0304221004702172E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.6257106396979328E-5</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="19"/>
-        <v>4.776841521320358E-3</v>
+        <f t="shared" si="21"/>
+        <v>9.9791740337345133E-6</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="19"/>
-        <v>2.1471106589390824E-3</v>
+        <f t="shared" si="21"/>
+        <v>1.6810924729326668E-6</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="19"/>
-        <v>9.4183346617022839E-4</v>
+        <f t="shared" si="21"/>
+        <v>2.726875771813571E-7</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="19"/>
-        <v>4.051292271379796E-4</v>
+        <f t="shared" si="21"/>
+        <v>4.2977014271455491E-8</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="19"/>
-        <v>1.7151592068948362E-4</v>
+        <f t="shared" si="21"/>
+        <v>6.6225707354721173E-9</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="19"/>
-        <v>7.1670184959902032E-5</v>
+        <f t="shared" si="21"/>
+        <v>1.0023227121933395E-9</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="19"/>
-        <v>2.9625324408940976E-5</v>
+        <f t="shared" si="21"/>
+        <v>1.4950335691442935E-10</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="19"/>
-        <v>1.2135201204510242E-5</v>
+        <f t="shared" si="21"/>
+        <v>2.2033420776880338E-11</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="19"/>
-        <v>4.9329578359383597E-6</v>
+        <f t="shared" si="21"/>
+        <v>3.21497004522146E-12</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" si="19"/>
-        <v>3.3956386688718292E-6</v>
+        <f t="shared" si="21"/>
+        <v>5.279835803802328E-13</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -5815,94 +5827,94 @@
       </c>
       <c r="B25">
         <f>SUM(G24:Z24)</f>
-        <v>0.57869252296728579</v>
+        <v>1.9146318938359691E-2</v>
       </c>
       <c r="C25">
         <f>SUM(G25:Z25)</f>
-        <v>8.1815660333339271E-2</v>
+        <v>1.6414960953027753E-2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ref="G25:Z25" si="20">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
-        <v>5.9830153615523905E-14</v>
+        <f t="shared" ref="G25:Z25" si="22">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
+        <v>5.9866926422720834E-14</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="20"/>
-        <v>1.4766514887040699E-10</v>
+        <f t="shared" si="22"/>
+        <v>1.5746402629849699E-10</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="20"/>
-        <v>9.5676150763566828E-8</v>
+        <f t="shared" si="22"/>
+        <v>1.1733816986536485E-7</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="20"/>
-        <v>3.1164425291789878E-5</v>
+        <f t="shared" si="22"/>
+        <v>4.088596622934149E-5</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="20"/>
-        <v>2.2782777838143801E-3</v>
+        <f t="shared" si="22"/>
+        <v>2.2362056003787608E-3</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="20"/>
-        <v>1.5703484172650994E-2</v>
+        <f t="shared" si="22"/>
+        <v>7.8913611583684706E-3</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="20"/>
-        <v>2.3061904718827259E-2</v>
+        <f t="shared" si="22"/>
+        <v>4.5912797439913635E-3</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="20"/>
-        <v>1.8036742133565438E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.303346339089185E-3</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="20"/>
-        <v>1.1065438729611935E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.8510451989814867E-4</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="20"/>
-        <v>6.0023351384066335E-3</v>
+        <f t="shared" si="22"/>
+        <v>5.4904324864408088E-5</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="20"/>
-        <v>3.0174081054971402E-3</v>
+        <f t="shared" si="22"/>
+        <v>9.783591424014364E-6</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="20"/>
-        <v>1.4395647083507595E-3</v>
+        <f t="shared" si="22"/>
+        <v>1.653280165890839E-6</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="20"/>
-        <v>6.6103831180637225E-4</v>
+        <f t="shared" si="22"/>
+        <v>2.6878433046722945E-7</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="20"/>
-        <v>2.9485213586989017E-4</v>
+        <f t="shared" si="22"/>
+        <v>4.2434911951203564E-8</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="20"/>
-        <v>1.2856511747255021E-4</v>
+        <f t="shared" si="22"/>
+        <v>6.5479038883640231E-9</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="20"/>
-        <v>5.5052488832080047E-5</v>
+        <f t="shared" si="22"/>
+        <v>9.9210654327727645E-10</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="20"/>
-        <v>2.3230157932528423E-5</v>
+        <f t="shared" si="22"/>
+        <v>1.4811298859711184E-10</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="20"/>
-        <v>9.6846492589722407E-6</v>
+        <f t="shared" si="22"/>
+        <v>2.1845011326544307E-11</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="20"/>
-        <v>3.9971967948674901E-6</v>
+        <f t="shared" si="22"/>
+        <v>3.1895272693830548E-12</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="20"/>
-        <v>2.8245354799283255E-6</v>
+        <f t="shared" si="22"/>
+        <v>5.240319019538591E-13</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -5911,15 +5923,15 @@
       </c>
       <c r="B26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-1.7214758133519137</v>
+        <v>-0.22862389637820754</v>
       </c>
       <c r="C26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.4111119888187475</v>
+        <v>-0.20698894221272543</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>4.7561783761006712E-10</v>
+        <v>6.766244323356963E-14</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -5928,91 +5940,91 @@
       </c>
       <c r="B27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-10.478240104349368</v>
+        <v>-8.7975802454849747E-2</v>
       </c>
       <c r="C27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-0.42096535883514297</v>
+        <v>-6.7698730373253427E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:Z27" si="21">(G15-2*G14+G16)/dh^2</f>
+        <f t="shared" ref="G27:Z27" si="23">(G15-2*G14+G16)/dh^2</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="21"/>
-        <v>3.3129055054814671E-5</v>
+        <f t="shared" si="23"/>
+        <v>8.8817841970012523E-8</v>
       </c>
       <c r="I27">
-        <f t="shared" si="21"/>
-        <v>0.12795096093753955</v>
+        <f t="shared" si="23"/>
+        <v>5.0293103015519591E-6</v>
       </c>
       <c r="J27">
-        <f t="shared" si="21"/>
-        <v>0.68345595849450547</v>
+        <f t="shared" si="23"/>
+        <v>2.127853448996575E-4</v>
       </c>
       <c r="K27">
-        <f t="shared" si="21"/>
-        <v>1.0996844213018164</v>
+        <f t="shared" si="23"/>
+        <v>6.0144444979925993E-3</v>
       </c>
       <c r="L27">
-        <f t="shared" si="21"/>
-        <v>1.0358576524316376</v>
+        <f t="shared" si="23"/>
+        <v>3.5453165403431797E-2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="21"/>
-        <v>0.6827510674878301</v>
+        <f t="shared" si="23"/>
+        <v>2.9255877755096638E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="21"/>
-        <v>0.3869710411483207</v>
+        <f t="shared" si="23"/>
+        <v>1.0370110239271702E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="21"/>
-        <v>0.20351246382555033</v>
+        <f t="shared" si="23"/>
+        <v>2.6499837778781385E-3</v>
       </c>
       <c r="P27">
-        <f t="shared" si="21"/>
-        <v>0.10191604322626335</v>
+        <f t="shared" si="23"/>
+        <v>5.7563039655239654E-4</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="21"/>
-        <v>4.9232474444872026E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.134657823664701E-4</v>
       </c>
       <c r="R27">
-        <f t="shared" si="21"/>
-        <v>2.312843878004775E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.0961386395798798E-5</v>
       </c>
       <c r="S27">
-        <f t="shared" si="21"/>
-        <v>1.0625803385235725E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.6965872422383673E-6</v>
       </c>
       <c r="T27">
-        <f t="shared" si="21"/>
-        <v>4.7936101011465844E-3</v>
+        <f t="shared" si="23"/>
+        <v>6.2952452801661593E-7</v>
       </c>
       <c r="U27">
-        <f t="shared" si="21"/>
-        <v>2.1299569618086437E-3</v>
+        <f t="shared" si="23"/>
+        <v>1.0432794031167681E-7</v>
       </c>
       <c r="V27">
-        <f t="shared" si="21"/>
-        <v>9.3433382589120728E-4</v>
+        <f t="shared" si="23"/>
+        <v>1.6916583411333011E-8</v>
       </c>
       <c r="W27">
-        <f t="shared" si="21"/>
-        <v>4.0537245983431698E-4</v>
+        <f t="shared" si="23"/>
+        <v>2.6943866495549024E-9</v>
       </c>
       <c r="X27">
-        <f t="shared" si="21"/>
-        <v>1.742068819275729E-4</v>
+        <f t="shared" si="23"/>
+        <v>4.2279344292970485E-10</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="21"/>
-        <v>7.4242648150414184E-5</v>
+        <f t="shared" si="23"/>
+        <v>6.5510111340339891E-11</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="21"/>
-        <v>5.4027042199181788E-5</v>
+        <f t="shared" si="23"/>
+        <v>1.1835612882365823E-11</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -6032,18 +6044,18 @@
       </c>
       <c r="B29">
         <f>f*re*phiq</f>
-        <v>1.7183339404656658E-2</v>
+        <v>1.7711829731141989E-2</v>
       </c>
       <c r="C29">
         <f>f*re*phiq</f>
-        <v>1.5881899709522633E-2</v>
+        <v>1.7196951988642725E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
         <f>B29</f>
-        <v>1.7183339404656658E-2</v>
+        <v>1.7711829731141989E-2</v>
       </c>
       <c r="H29">
         <f>B30</f>
@@ -6067,14 +6079,14 @@
       </c>
       <c r="G30">
         <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
-        <v>1.7130828089458587E-2</v>
+        <v>8.6019778280879821E-3</v>
       </c>
       <c r="H30">
-        <v>-8.9838225016842452E-3</v>
+        <v>3.0956414063514761E-2</v>
       </c>
       <c r="Z30" s="4">
         <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
-        <v>3.2478641860351921E-20</v>
+        <v>7.2370579058249841E-39</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -6085,10 +6097,10 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G31">
-        <v>1.7078675811033679E-2</v>
+        <v>8.7617691891247462E-3</v>
       </c>
       <c r="H31">
-        <v>-1.2487795265615713E-2</v>
+        <v>3.0488580079952032E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -6098,22 +6110,22 @@
       </c>
       <c r="C32">
         <f>f*phiq*B26+f*re*B24</f>
-        <v>-0.15620200483650812</v>
+        <v>-2.1671942621530244E-2</v>
       </c>
       <c r="F32">
         <v>0.21</v>
       </c>
       <c r="G32">
-        <v>1.7009155508537873E-2</v>
+        <v>8.9193648362413704E-3</v>
       </c>
       <c r="H32">
-        <v>-1.5935537872598937E-2</v>
+        <v>3.0026867119453082E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33">
         <f>f*phiq*C26+f*re*C24</f>
-        <v>-1.999945446375959E-2</v>
+        <v>-1.9075088468176422E-2</v>
       </c>
       <c r="C33">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
@@ -6123,10 +6135,10 @@
         <v>0.215</v>
       </c>
       <c r="G33">
-        <v>1.6922541113979703E-2</v>
+        <v>9.0747940489639325E-3</v>
       </c>
       <c r="H33">
-        <v>-1.9329270096259121E-2</v>
+        <v>2.957117446688972E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6138,21 +6150,21 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>50.001363877803264</v>
+        <v>52.424396440851737</v>
       </c>
       <c r="F34">
         <v>0.22</v>
       </c>
       <c r="G34">
-        <v>1.6819095599914884E-2</v>
+        <v>9.2280856152883398E-3</v>
       </c>
       <c r="H34">
-        <v>-2.2671146524930914E-2</v>
+        <v>2.9121403422145677E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35">
-        <v>6.4019664859402381</v>
+        <v>46.14261016945192</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -6161,10 +6173,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G35">
-        <v>1.6699071298838464E-2</v>
+        <v>9.3792678415793203E-3</v>
       </c>
       <c r="H35">
-        <v>-2.5963259000362407E-2</v>
+        <v>2.8677457252874319E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6172,10 +6184,10 @@
         <v>0.23</v>
       </c>
       <c r="G36">
-        <v>1.6562710210618885E-2</v>
+        <v>9.528368562236952E-3</v>
       </c>
       <c r="H36">
-        <v>-2.920763896080858E-2</v>
+        <v>2.823924114852322E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6193,10 +6205,10 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="G37">
-        <v>1.6410244298441103E-2</v>
+        <v>9.6754151491369664E-3</v>
       </c>
       <c r="H37">
-        <v>-3.2406259692701486E-2</v>
+        <v>2.780666217558718E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6205,20 +6217,20 @@
       </c>
       <c r="B38">
         <f>f+delta</f>
-        <v>0.18755059610586713</v>
+        <v>0.83668503118770632</v>
       </c>
       <c r="C38">
         <f>f+delta</f>
-        <v>0.49039531353329313</v>
+        <v>0.8807381382082371</v>
       </c>
       <c r="F38">
         <v>0.24</v>
       </c>
       <c r="G38">
-        <v>1.6241895773706102E-2</v>
+        <v>9.8204345208507873E-3</v>
       </c>
       <c r="H38">
-        <v>-3.556103849488805E-2</v>
+        <v>2.737962923405303E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6226,10 +6238,10 @@
         <v>0.245</v>
       </c>
       <c r="G39">
-        <v>1.6057877370313799E-2</v>
+        <v>9.9634531516513431E-3</v>
       </c>
       <c r="H39">
-        <v>-3.8673838759235114E-2</v>
+        <v>2.6958053015000642E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6238,39 +6250,39 @@
       </c>
       <c r="B40">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.96922693519547165</v>
+        <v>-3.3250469374861646E-2</v>
       </c>
       <c r="C40">
         <f>f*B27*phiq+2*f*B26*B24+f*re*B25</f>
-        <v>0.52775096210234496</v>
+        <v>1.8500723217216748E-2</v>
       </c>
       <c r="F40">
         <v>0.25</v>
       </c>
       <c r="G40">
-        <v>1.5858392608738857E-2</v>
+        <v>1.0104497080310157E-2</v>
       </c>
       <c r="H40">
-        <v>-4.1746471971223352E-2</v>
+        <v>2.6541845959325322E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41">
         <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
-        <v>8.4176265179332944E-3</v>
+        <v>1.4624486244745702E-2</v>
       </c>
       <c r="C41">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-8.9686452862453331E-2</v>
+        <v>-2.8763573854503982E-2</v>
       </c>
       <c r="F41">
         <v>0.255</v>
       </c>
       <c r="G41">
-        <v>1.5643636050290323E-2</v>
+        <v>1.0243591918691314E-2</v>
       </c>
       <c r="H41">
-        <v>-4.4780699633978668E-2</v>
+        <v>2.6130922217548428E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6279,36 +6291,36 @@
       </c>
       <c r="B42">
         <f t="array" ref="B42:C43">-MINVERSE(B40:C41)</f>
-        <v>1.08731787313878</v>
+        <v>41.93926555222739</v>
       </c>
       <c r="C42">
-        <v>6.3982132791015776</v>
+        <v>26.975324688090367</v>
       </c>
       <c r="F42">
         <v>0.26</v>
       </c>
       <c r="G42">
-        <v>1.5413793541929607E-2</v>
+        <v>1.038076286014772E-2</v>
       </c>
       <c r="H42">
-        <v>-4.7778235119033036E-2</v>
+        <v>2.5725197610684029E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43">
-        <v>0.10205148570646078</v>
+        <v>21.323505044462546</v>
       </c>
       <c r="C43">
-        <v>11.750467725396566</v>
+        <v>48.481467285754796</v>
       </c>
       <c r="F43">
         <v>0.26500000000000001</v>
       </c>
       <c r="G43">
-        <v>1.5169042452005265E-2</v>
+        <v>1.0516034687724721E-2</v>
       </c>
       <c r="H43">
-        <v>-5.074074544694724E-2</v>
+        <v>2.5324589592130332E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6316,10 +6328,10 @@
         <v>0.27</v>
       </c>
       <c r="G44">
-        <v>1.4909551897247613E-2</v>
+        <v>1.0649431782176177E-2</v>
       </c>
       <c r="H44">
-        <v>-5.3669853000787707E-2</v>
+        <v>2.4929017210555415E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6337,10 +6349,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="G45">
-        <v>1.4635482961351583E-2</v>
+        <v>1.0780978129798001E-2</v>
       </c>
       <c r="H45">
-        <v>-5.6567137175309028E-2</v>
+        <v>2.4538401073748925E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6349,20 +6361,20 @@
       </c>
       <c r="B46" s="5">
         <f>f+dta</f>
-        <v>0.18755059610586713</v>
+        <v>0.83668503118770632</v>
       </c>
       <c r="C46" s="5">
         <f>f+dta</f>
-        <v>0.49039531353329313</v>
+        <v>0.8807381382082371</v>
       </c>
       <c r="F46">
         <v>0.28000000000000003</v>
       </c>
       <c r="G46">
-        <v>1.4346988905462385E-2</v>
+        <v>1.0910697330083647E-2</v>
       </c>
       <c r="H46">
-        <v>-5.9434135964561145E-2</v>
+        <v>2.4152663313410299E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6370,10 +6382,10 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="G47">
-        <v>1.4044215370865275E-2</v>
+        <v>1.1038612603206476E-2</v>
       </c>
       <c r="H47">
-        <v>-6.2272347490520741E-2</v>
+        <v>2.377172755084743E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6381,10 +6393,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G48">
-        <v>1.3727300574168003E-2</v>
+        <v>1.1164746797333239E-2</v>
       </c>
       <c r="H48">
-        <v>-6.5083231475219355E-2</v>
+        <v>2.3395518863558347E-2</v>
       </c>
     </row>
     <row r="49" spans="6:8">
@@ -6392,10 +6404,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G49">
-        <v>1.3396375495252126E-2</v>
+        <v>1.1289122395773087E-2</v>
       </c>
       <c r="H49">
-        <v>-6.7868210658738201E-2</v>
+        <v>2.3023963752670906E-2</v>
       </c>
     </row>
     <row r="50" spans="6:8">
@@ -6403,10 +6415,10 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="G50">
-        <v>1.3051564058258679E-2</v>
+        <v>1.1411761523966425E-2</v>
       </c>
       <c r="H50">
-        <v>-7.0628672165323106E-2</v>
+        <v>2.2656990111215754E-2</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -6414,10 +6426,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>1.2692983305861003E-2</v>
+        <v>1.1532685956317679E-2</v>
       </c>
       <c r="H51">
-        <v>-7.3365968819782662E-2</v>
+        <v>2.229452719320767E-2</v>
       </c>
     </row>
     <row r="52" spans="6:8">
@@ -6425,10 +6437,10 @@
         <v>0.309999999999999</v>
       </c>
       <c r="G52">
-        <v>1.2320743567070098E-2</v>
+        <v>1.1651917122875555E-2</v>
       </c>
       <c r="H52">
-        <v>-7.6081420416213755E-2</v>
+        <v>2.1936505583514256E-2</v>
       </c>
     </row>
     <row r="53" spans="6:8">
@@ -6436,10 +6448,10 @@
         <v>0.314999999999999</v>
       </c>
       <c r="G53">
-        <v>1.1934948618802468E-2</v>
+        <v>1.1769476115865676E-2</v>
       </c>
       <c r="H53">
-        <v>-7.8776314941047851E-2</v>
+        <v>2.1582857168486146E-2</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -6447,10 +6459,10 @@
         <v>0.31999999999999901</v>
       </c>
       <c r="G54">
-        <v>1.1535695841437963E-2</v>
+        <v>1.1885383696078014E-2</v>
       </c>
       <c r="H54">
-        <v>-8.1451909752268015E-2</v>
+        <v>2.1233515107330739E-2</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -6458,10 +6470,10 @@
         <v>0.32499999999999901</v>
       </c>
       <c r="G55">
-        <v>1.1123076368579041E-2</v>
+        <v>1.1999660299113906E-2</v>
       </c>
       <c r="H55">
-        <v>-8.410943271661564E-2</v>
+        <v>2.0888413804205488E-2</v>
       </c>
     </row>
     <row r="56" spans="6:8">
@@ -6469,10 +6481,10 @@
         <v>0.32999999999999902</v>
       </c>
       <c r="G56">
-        <v>1.0697175231218516E-2</v>
+        <v>1.2112326041495529E-2</v>
       </c>
       <c r="H56">
-        <v>-8.6750083306495335E-2</v>
+        <v>2.054748888101169E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6491,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6949,15 +6961,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="6">
-        <v>0.22286015898654604</v>
+        <v>0.17583914369018092</v>
       </c>
       <c r="C6">
         <f>B6+dh</f>
-        <v>0.22287015898654605</v>
+        <v>0.17584914369018093</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
-        <v>0.22285015898654603</v>
+        <v>0.17582914369018091</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -7051,15 +7063,15 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0.20739116074963881</v>
+        <v>0.25730116157848687</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>0.20739116074963881</v>
+        <v>0.25730116157848687</v>
       </c>
       <c r="D7">
         <f>C7</f>
-        <v>0.20739116074963881</v>
+        <v>0.25730116157848687</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -7161,83 +7173,83 @@
       </c>
       <c r="G8">
         <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
-        <v>0.38432397069839275</v>
+        <v>0.38361984398842086</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>0.43137996314360427</v>
+        <v>0.42885124973363531</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>0.48972867702551537</v>
+        <v>0.48506122446997213</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.55095184976934231</v>
+        <v>0.54483741486085813</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.60546219263811096</v>
+        <v>0.59931710783230474</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.64790966403109396</v>
+        <v>0.64298082541986223</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>0.67793883924238596</v>
+        <v>0.6747778830258816</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0.69785322559077478</v>
+        <v>0.69641244125863988</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>0.71051059411750705</v>
+        <v>0.710459227676006</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>0.71833945666757049</v>
+        <v>0.71929946269731682</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.72310143418417638</v>
+        <v>0.72475337061456613</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>0.72597008958485865</v>
+        <v>0.72807764861449598</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>0.72768946606447171</v>
+        <v>0.73008985775630353</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>0.72871776165533353</v>
+        <v>0.73130341008576305</v>
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>0.72933247296748238</v>
+        <v>0.73203408642680579</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>0.7297001424514622</v>
+        <v>0.73247381650110122</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>0.72992028269517562</v>
+        <v>0.73273850177912647</v>
       </c>
       <c r="X8">
         <f t="shared" si="6"/>
-        <v>0.73005225839523913</v>
+        <v>0.73289790801573307</v>
       </c>
       <c r="Y8">
         <f t="shared" si="6"/>
-        <v>0.7301314837841294</v>
+        <v>0.73299397612644013</v>
       </c>
       <c r="Z8">
         <f t="shared" si="6"/>
-        <v>0.73017910408278786</v>
+        <v>0.73305191499744649</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -7256,83 +7268,83 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
-        <v>0.68091079629628692</v>
+        <v>0.6813904126105802</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="7"/>
-        <v>0.64961203524488365</v>
+        <v>0.65125679659829261</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="7"/>
-        <v>0.61279263635157377</v>
+        <v>0.61565950218367704</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="7"/>
-        <v>0.57640090211709927</v>
+        <v>0.57993606466103409</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="7"/>
-        <v>0.54582209337763588</v>
+        <v>0.54918654325786842</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="7"/>
-        <v>0.52313816916139066</v>
+        <v>0.52572299763689445</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.50766228832082738</v>
+        <v>0.50926952545183535</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="7"/>
-        <v>0.49765250552440882</v>
+        <v>0.49837003223371268</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
-        <v>0.49139323090231168</v>
+        <v>0.49141847267224525</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48756120063110869</v>
+        <v>0.4870933635377781</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48524496446500265</v>
+        <v>0.48444403235714162</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48385495855423544</v>
+        <v>0.48283627950747576</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48302374450866625</v>
+        <v>0.48186568877511909</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48252730860707477</v>
+        <v>0.48128127422656053</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48223078475967218</v>
+        <v>0.48092974182993886</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="7"/>
-        <v>0.4820535158060697</v>
+        <v>0.48071830904891627</v>
       </c>
       <c r="W9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48194740810733311</v>
+        <v>0.48059108682730112</v>
       </c>
       <c r="X9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48188380695774979</v>
+        <v>0.48051448371647232</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48184563103801464</v>
+        <v>0.48046832381513704</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48182268595148758</v>
+        <v>0.48044048682933044</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -7341,94 +7353,94 @@
       </c>
       <c r="B10">
         <f>Ye/SUM(Ye)</f>
-        <v>0.39999999999999997</v>
+        <v>0.39986476469361926</v>
       </c>
       <c r="C10">
         <f>Ye/SUM(Ye)</f>
-        <v>0.60000000000000009</v>
+        <v>0.60013523530638069</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:Z10" si="8">1-sa</f>
-        <v>0.31908920370371308</v>
+        <v>0.3186095873894198</v>
       </c>
       <c r="H10">
         <f t="shared" si="8"/>
-        <v>0.35038796475511635</v>
+        <v>0.34874320340170739</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
-        <v>0.38720736364842623</v>
+        <v>0.38434049781632296</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.42359909788290073</v>
+        <v>0.42006393533896591</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.45417790662236412</v>
+        <v>0.45081345674213158</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.47686183083860934</v>
+        <v>0.47427700236310555</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>0.49233771167917262</v>
+        <v>0.49073047454816465</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>0.50234749447559124</v>
+        <v>0.50162996776628732</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0.50860676909768832</v>
+        <v>0.50858152732775475</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
-        <v>0.51243879936889125</v>
+        <v>0.5129066364622219</v>
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>0.51475503553499735</v>
+        <v>0.51555596764285838</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>0.51614504144576456</v>
+        <v>0.51716372049252424</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>0.51697625549133375</v>
+        <v>0.51813431122488085</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0.51747269139292529</v>
+        <v>0.51871872577343947</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
-        <v>0.51776921524032782</v>
+        <v>0.51907025817006114</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>0.5179464841939303</v>
+        <v>0.51928169095108379</v>
       </c>
       <c r="W10">
         <f t="shared" si="8"/>
-        <v>0.51805259189266684</v>
+        <v>0.51940891317269888</v>
       </c>
       <c r="X10">
         <f t="shared" si="8"/>
-        <v>0.51811619304225021</v>
+        <v>0.51948551628352768</v>
       </c>
       <c r="Y10">
         <f t="shared" si="8"/>
-        <v>0.51815436896198541</v>
+        <v>0.51953167618486296</v>
       </c>
       <c r="Z10">
         <f t="shared" si="8"/>
-        <v>0.51817731404851242</v>
+        <v>0.51955951317066962</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -7437,94 +7449,94 @@
       </c>
       <c r="B11">
         <f>ak/pk</f>
-        <v>1.0000000000000002</v>
+        <v>1.0003382026082852</v>
       </c>
       <c r="C11">
         <f>ak/pk</f>
-        <v>0.99999999999999978</v>
+        <v>0.99977465861288473</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
-        <v>1.0316184154362633E-3</v>
+        <v>1.0319584806456486E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>9.8736683913897595E-3</v>
+        <v>9.8852668687761588E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="9"/>
-        <v>3.6310459813753235E-2</v>
+        <v>3.6388425639684474E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>8.4831948268765001E-2</v>
+        <v>8.5068060890973393E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>0.14994434361751433</v>
+        <v>0.15035965088796308</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
-        <v>0.22121952210444493</v>
+        <v>0.2217069922213166</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.29038930442541888</v>
+        <v>0.29079719855610248</v>
       </c>
       <c r="N11">
         <f t="shared" si="9"/>
-        <v>0.35334153885412567</v>
+        <v>0.3535668167139373</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.40881059280034643</v>
+        <v>0.40881985951597388</v>
       </c>
       <c r="P11">
         <f t="shared" si="9"/>
-        <v>0.45686791867425314</v>
+        <v>0.45667471066627502</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.49808493739958148</v>
+        <v>0.49772287607800003</v>
       </c>
       <c r="R11">
         <f t="shared" si="9"/>
-        <v>0.53317982034674227</v>
+        <v>0.53268568340320688</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>0.56288560217709582</v>
+        <v>0.5622916948169373</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>0.58790167999703125</v>
+        <v>0.58723366972475666</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.60887454638785199</v>
+        <v>0.60815178485187382</v>
       </c>
       <c r="V11">
         <f t="shared" si="9"/>
-        <v>0.6263895632519183</v>
+        <v>0.62562624663708766</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>0.64096810437894403</v>
+        <v>0.64017452152570209</v>
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>0.65306810324270492</v>
+        <v>0.65225169625731516</v>
       </c>
       <c r="Y11">
         <f t="shared" si="9"/>
-        <v>0.66308697489182356</v>
+        <v>0.66225315353476844</v>
       </c>
       <c r="Z11">
         <f t="shared" si="9"/>
-        <v>0.67136611088612441</v>
+        <v>0.67051884557117292</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -7533,91 +7545,91 @@
       </c>
       <c r="B12">
         <f>B20*lambda</f>
-        <v>0.16193429419532765</v>
+        <v>0.12781117031898032</v>
       </c>
       <c r="C12">
         <f>C20*lambda</f>
-        <v>0.29747428124833997</v>
+        <v>0.23465762588556585</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
-        <v>9.0213728180970449E-4</v>
+        <v>9.0243466454254689E-4</v>
       </c>
       <c r="H12">
         <f t="shared" si="10"/>
-        <v>7.8275261989613678E-3</v>
+        <v>7.8367210981630936E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="10"/>
-        <v>2.7417350564905154E-2</v>
+        <v>2.7476221105036114E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="10"/>
-        <v>6.4193061375418095E-2</v>
+        <v>6.4371729817653031E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="10"/>
-        <v>0.11793689857473583</v>
+        <v>0.11826355345381019</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>0.1836114508533207</v>
+        <v>0.18401604939216121</v>
       </c>
       <c r="M12">
         <f t="shared" si="10"/>
-        <v>0.25391128893215886</v>
+        <v>0.25426794436984679</v>
       </c>
       <c r="N12">
         <f t="shared" si="10"/>
-        <v>0.32232473346311874</v>
+        <v>0.32253023612310716</v>
       </c>
       <c r="O12">
         <f t="shared" si="10"/>
-        <v>0.38471859467729314</v>
+        <v>0.38472731528746384</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>0.43929299438053082</v>
+        <v>0.43910721875284109</v>
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
-        <v>0.48581919797485734</v>
+        <v>0.48546605270251325</v>
       </c>
       <c r="R12">
         <f t="shared" si="10"/>
-        <v>0.52488778584434892</v>
+        <v>0.52440133373888942</v>
       </c>
       <c r="S12">
         <f t="shared" si="10"/>
-        <v>0.55740968713593797</v>
+        <v>0.55682155747951534</v>
       </c>
       <c r="T12">
         <f t="shared" si="10"/>
-        <v>0.58434850101088553</v>
+        <v>0.58368452808047055</v>
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>0.60659976644316715</v>
+        <v>0.60587970517353562</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>0.62494835564265416</v>
+        <v>0.62418679527948884</v>
       </c>
       <c r="W12">
         <f t="shared" si="10"/>
-        <v>0.64006248822748524</v>
+        <v>0.63927002661794408</v>
       </c>
       <c r="X12">
         <f t="shared" si="10"/>
-        <v>0.65250274700125688</v>
+        <v>0.65168704677337452</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>0.66273588199532019</v>
+        <v>0.6619025021320154</v>
       </c>
       <c r="Z12">
         <f t="shared" si="10"/>
-        <v>0.67114899991288934</v>
+        <v>0.67030200859240086</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -7647,79 +7659,79 @@
       </c>
       <c r="H14">
         <f t="shared" ref="H14:Y14" si="11">G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
-        <v>0.68091079629628692</v>
+        <v>0.6813904126105802</v>
       </c>
       <c r="I14">
         <f t="shared" si="11"/>
-        <v>0.44232784820224536</v>
+        <v>0.44376013734955533</v>
       </c>
       <c r="J14">
         <f t="shared" si="11"/>
-        <v>0.27105524823157268</v>
+        <v>0.27320514524958739</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>0.15623648960425277</v>
+        <v>0.15844151678119192</v>
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
-        <v>8.5277327817766493E-2</v>
+        <v>8.7013948909596336E-2</v>
       </c>
       <c r="M14">
         <f t="shared" si="11"/>
-        <v>4.4611825145562091E-2</v>
+        <v>4.5745234056976572E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
-        <v>2.264774123956468E-2</v>
+        <v>2.3296653639879594E-2</v>
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>1.1270705172337843E-2</v>
+        <v>1.1610354025444433E-2</v>
       </c>
       <c r="P14">
         <f t="shared" si="11"/>
-        <v>5.5383482291824883E-3</v>
+        <v>5.7055424423679574E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>2.7002837121333887E-3</v>
+        <v>2.7791318590605577E-3</v>
       </c>
       <c r="R14">
         <f t="shared" si="11"/>
-        <v>1.3102990739395917E-3</v>
+        <v>1.3463338442554959E-3</v>
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>6.339947041146942E-4</v>
+        <v>6.5005882433532094E-4</v>
       </c>
       <c r="T14">
         <f t="shared" si="11"/>
-        <v>3.0623449598014352E-4</v>
+        <v>3.1324104313268359E-4</v>
       </c>
       <c r="U14">
         <f t="shared" si="11"/>
-        <v>1.4776650714794272E-4</v>
+        <v>1.5075704837895496E-4</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>7.125755870314813E-5</v>
+        <v>7.2503548355934411E-5</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
-        <v>3.4349956700609954E-5</v>
+        <v>3.4853783165711122E-5</v>
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
-        <v>1.6554872600458088E-5</v>
+        <v>1.6750417531652201E-5</v>
       </c>
       <c r="Y14">
         <f t="shared" si="11"/>
-        <v>7.9775250324092876E-6</v>
+        <v>8.0488182322572041E-6</v>
       </c>
       <c r="Z14">
         <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
-        <v>7.4181857814850936E-6</v>
+        <v>7.4432324049757112E-6</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -7736,79 +7748,79 @@
       </c>
       <c r="H15">
         <f t="shared" ref="H15:Y15" si="12">G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.68090937585978395</v>
+        <v>0.68138899117355767</v>
       </c>
       <c r="I15">
         <f t="shared" si="12"/>
-        <v>0.44232542490621912</v>
+        <v>0.44375770620672356</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.27105240798818397</v>
+        <v>0.27320228247857442</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.15623382015707385</v>
+        <v>0.15843880965905249</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>8.5275195911219986E-2</v>
+        <v>8.7011773588065222E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>4.4610316935776037E-2</v>
+        <v>4.5743687529582876E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>2.2646763823119496E-2</v>
+        <v>2.3295648218096265E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>1.1270109938981632E-2</v>
+        <v>1.160974085440609E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>5.5380013513364468E-3</v>
+        <v>5.7051850928133592E-3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>2.7000878384824999E-3</v>
+        <v>2.7789302659090346E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>1.3101909882135018E-3</v>
+        <v>1.3462227860444281E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>6.3393608258266096E-4</v>
+        <v>6.499987174543849E-4</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>3.0620312223362986E-4</v>
+        <v>3.1320895156490151E-4</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>1.4774989191693508E-4</v>
+        <v>1.5074009688410543E-4</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>7.124883407429259E-5</v>
+        <v>7.2494671170669742E-5</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>3.4345407565947385E-5</v>
+        <v>3.4849167306817812E-5</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>1.655251464545999E-5</v>
+        <v>1.6748031724663989E-5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>7.9763090122103389E-6</v>
+        <v>8.0475913447816587E-6</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>7.4169118889999029E-6</v>
+        <v>7.4419545934046395E-6</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -7821,79 +7833,79 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:Y16" si="13">G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
-        <v>0.68091221673575308</v>
+        <v>0.6813918340505678</v>
       </c>
       <c r="I16">
         <f t="shared" si="13"/>
-        <v>0.44233027151154775</v>
+        <v>0.44376256850570617</v>
       </c>
       <c r="J16">
         <f t="shared" si="13"/>
-        <v>0.27105808850472307</v>
+        <v>0.27320800805059808</v>
       </c>
       <c r="K16">
         <f t="shared" si="13"/>
-        <v>0.15623915909704247</v>
+        <v>0.15844422394958582</v>
       </c>
       <c r="L16">
         <f t="shared" si="13"/>
-        <v>8.5279459777611338E-2</v>
+        <v>8.7016124285511143E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="13"/>
-        <v>4.461333340633853E-2</v>
+        <v>4.5746780636656083E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="13"/>
-        <v>2.2648718698194393E-2</v>
+        <v>2.3297659105056122E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="13"/>
-        <v>1.127130043713144E-2</v>
+        <v>1.1610967228867536E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>5.5386951287555476E-3</v>
+        <v>5.705899814305475E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="13"/>
-        <v>2.7004795999936268E-3</v>
+        <v>2.7793334668363406E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="13"/>
-        <v>1.3104071685823397E-3</v>
+        <v>1.3464449116284394E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>6.3405333106759617E-4</v>
+        <v>6.5011893677447872E-4</v>
       </c>
       <c r="T16">
         <f t="shared" si="13"/>
-        <v>3.062658729412294E-4</v>
+        <v>3.1327313798858582E-4</v>
       </c>
       <c r="U16">
         <f t="shared" si="13"/>
-        <v>1.4778312424741817E-4</v>
+        <v>1.5077400178008669E-4</v>
       </c>
       <c r="V16">
         <f t="shared" si="13"/>
-        <v>7.1266284400360106E-5</v>
+        <v>7.2512426628236427E-5</v>
       </c>
       <c r="W16">
         <f t="shared" si="13"/>
-        <v>3.4354506437816749E-5</v>
+        <v>3.4858399635986396E-5</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>1.6557230891353906E-5</v>
+        <v>1.6752803678505705E-5</v>
       </c>
       <c r="Y16">
         <f t="shared" si="13"/>
-        <v>7.9787412379953797E-6</v>
+        <v>8.0500453067766418E-6</v>
       </c>
       <c r="Z16">
         <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
-        <v>7.4194598940991751E-6</v>
+        <v>7.4445104372767622E-6</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -7902,7 +7914,7 @@
       </c>
       <c r="B17">
         <f>ro*(reck-phie/phif)/(reck-1)</f>
-        <v>0.66143248678794164</v>
+        <v>0.67026033132424767</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>31</v>
@@ -7913,79 +7925,79 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
-        <v>-0.14204365029746313</v>
+        <v>-0.14214370225307249</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.24232960262327016</v>
+        <v>-0.2431142831771371</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.28402433887020351</v>
+        <v>-0.28627710129680572</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.2669447178915707</v>
+        <v>-0.27071221394281419</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.21319065465069673</v>
+        <v>-0.21753215311143267</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.15082097860538712</v>
+        <v>-0.1546527393696262</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-9.7741644518312118E-2</v>
+        <v>-0.10054217833288524</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-5.9523335621015909E-2</v>
+        <v>-6.1317103834321311E-2</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.4687784604154476E-2</v>
+        <v>-3.5734955459824913E-2</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.9587365088875527E-2</v>
+        <v>-2.0159315152314464E-2</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.0808572608982102E-2</v>
+        <v>-1.1105821106781493E-2</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-5.8621532033242994E-3</v>
+        <v>-6.0106880936036658E-3</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.1373746513664153E-3</v>
+        <v>-3.2091567782072806E-3</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.6615231007640087E-3</v>
+        <v>-1.6951494849525362E-3</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-8.7246288555401159E-4</v>
+        <v>-8.8771852646687477E-4</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-4.5491346625689235E-4</v>
+        <v>-4.6158588933102287E-4</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.3579549980986449E-4</v>
+        <v>-2.3858069882118889E-4</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="14"/>
-        <v>-1.2160201989487383E-4</v>
+        <f>(Y15-Y14)/dh</f>
+        <v>-1.2268874755453686E-4</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.2738924851906836E-4</v>
+        <v>-1.2778115710717001E-4</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -8005,79 +8017,79 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
-        <v>-0.142043798455773</v>
+        <v>-0.14214385050877926</v>
       </c>
       <c r="I18">
         <f t="shared" si="15"/>
-        <v>-0.24233026642890088</v>
+        <v>-0.24311494912993703</v>
       </c>
       <c r="J18">
         <f t="shared" si="15"/>
-        <v>-0.28402582694853179</v>
+        <v>-0.28627860117954068</v>
       </c>
       <c r="K18">
         <f t="shared" si="15"/>
-        <v>-0.26694699841731329</v>
+        <v>-0.27071452665481716</v>
       </c>
       <c r="L18">
         <f t="shared" si="15"/>
-        <v>-0.21319331954441623</v>
+        <v>-0.21753487227399085</v>
       </c>
       <c r="M18">
         <f t="shared" si="15"/>
-        <v>-0.15082352809537652</v>
+        <v>-0.15465535363124069</v>
       </c>
       <c r="N18">
         <f t="shared" si="15"/>
-        <v>-9.7743753714108636E-2</v>
+        <v>-0.10054434796178609</v>
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>-5.9524907462567389E-2</v>
+        <v>-6.1318723043916973E-2</v>
       </c>
       <c r="P18">
         <f t="shared" si="15"/>
-        <v>-3.4688870932281346E-2</v>
+        <v>-3.5736074582505988E-2</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>-1.9588075539131666E-2</v>
+        <v>-2.0160046347676711E-2</v>
       </c>
       <c r="R18">
         <f t="shared" si="15"/>
-        <v>-1.080901842960477E-2</v>
+        <v>-1.1106279188005601E-2</v>
       </c>
       <c r="S18">
         <f t="shared" si="15"/>
-        <v>-5.8624242383964993E-3</v>
+        <v>-6.0109659961410282E-3</v>
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
-        <v>-3.1375353744840795E-3</v>
+        <v>-3.2093211786069138E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="15"/>
-        <v>-1.6616165206500173E-3</v>
+        <v>-1.6952447954941942E-3</v>
       </c>
       <c r="V18">
         <f t="shared" si="15"/>
-        <v>-8.7251630119423421E-4</v>
+        <v>-8.8777287611710421E-4</v>
       </c>
       <c r="W18">
         <f t="shared" si="15"/>
-        <v>-4.5494359213764341E-4</v>
+        <v>-4.616164570802379E-4</v>
       </c>
       <c r="X18">
         <f t="shared" si="15"/>
-        <v>-2.3581229389813994E-4</v>
+        <v>-2.3859769127919633E-4</v>
       </c>
       <c r="Y18">
         <f t="shared" si="15"/>
-        <v>-1.2161128878085073E-4</v>
+        <v>-1.2269809927402915E-4</v>
       </c>
       <c r="Z18">
         <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
-        <v>-1.2740025432507186E-4</v>
+        <v>-1.2779219296648963E-4</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -8086,7 +8098,7 @@
       </c>
       <c r="B19">
         <f>SUMPRODUCT(lz,fa)</f>
-        <v>0.11317979228064234</v>
+        <v>0.11555501290863375</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -8096,79 +8108,79 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
-        <v>-0.12421550867975335</v>
+        <v>-0.12430300293711437</v>
       </c>
       <c r="I19">
         <f t="shared" si="16"/>
-        <v>-0.1996521696094764</v>
+        <v>-0.20029865758650692</v>
       </c>
       <c r="J19">
         <f t="shared" si="16"/>
-        <v>-0.22467975906689786</v>
+        <v>-0.22646182507439133</v>
       </c>
       <c r="K19">
         <f t="shared" si="16"/>
-        <v>-0.20762386061573884</v>
+        <v>-0.21055413802019396</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
-        <v>-0.16640735867655732</v>
+        <v>-0.16979614367145013</v>
       </c>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>-0.11966789843404199</v>
+        <v>-0.12270818342692974</v>
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>-7.9267094338476382E-2</v>
+        <v>-8.153828773957858E-2</v>
       </c>
       <c r="O19">
         <f t="shared" si="16"/>
-        <v>-4.9374672285727832E-2</v>
+        <v>-5.0862604988955715E-2</v>
       </c>
       <c r="P19">
         <f t="shared" si="16"/>
-        <v>-2.9380598951419451E-2</v>
+        <v>-3.0267554036460302E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" si="16"/>
-        <v>-1.6897060499273461E-2</v>
+        <v>-1.7390453805649918E-2</v>
       </c>
       <c r="R19">
         <f t="shared" si="16"/>
-        <v>-9.4711048066639363E-3</v>
+        <v>-9.7315713620739642E-3</v>
       </c>
       <c r="S19">
         <f t="shared" si="16"/>
-        <v>-5.2052325659428323E-3</v>
+        <v>-5.3371224400584069E-3</v>
       </c>
       <c r="T19">
         <f t="shared" si="16"/>
-        <v>-2.8171208401814611E-3</v>
+        <v>-2.8815756624181264E-3</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
-        <v>-1.5061152649776611E-3</v>
+        <v>-1.5365964605172106E-3</v>
       </c>
       <c r="V19">
         <f t="shared" si="16"/>
-        <v>-7.9726267679462682E-4</v>
+        <v>-8.1120338798257459E-4</v>
       </c>
       <c r="W19">
         <f t="shared" si="16"/>
-        <v>-4.1858829857205067E-4</v>
+        <v>-4.2472792386009451E-4</v>
       </c>
       <c r="X19">
         <f t="shared" si="16"/>
-        <v>-2.1826756628030603E-4</v>
+        <v>-2.2084572663588677E-4</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="16"/>
-        <v>-1.13149862873257E-4</v>
+        <f>X19*EXP(-X8) - X14*X7*EXP(-X8)</f>
+        <v>-1.141610556622255E-4</v>
       </c>
       <c r="Z19">
         <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-1.1952593776224926E-4</v>
+        <v>-1.1989130206639545E-4</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -8177,15 +8189,15 @@
       </c>
       <c r="B20">
         <f>B6*dlam</f>
-        <v>0.16193429419532762</v>
+        <v>0.1277679588620379</v>
       </c>
       <c r="C20">
         <f>B6*dlam</f>
-        <v>0.29747428124834002</v>
+        <v>0.23471051587878453</v>
       </c>
       <c r="D20">
         <f>AVERAGE(f)</f>
-        <v>0.22970428772183382</v>
+        <v>0.1812392373704112</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -8195,79 +8207,79 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:Y20" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
-        <v>2.9631547611656341E-2</v>
+        <v>2.9652419323089926E-2</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="17"/>
-        <v>7.0154859437953687E-2</v>
+        <v>7.0382025880700694E-2</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="17"/>
-        <v>0.1107541933257509</v>
+        <v>0.11163264932878772</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="17"/>
-        <v>0.1320515087688191</v>
+        <v>0.13391520377584737</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="17"/>
-        <v>0.12548586084733721</v>
+        <v>0.12804130434270095</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="17"/>
-        <v>0.10025645325736145</v>
+        <v>0.10280357069041736</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="17"/>
-        <v>7.0696947812993155E-2</v>
+        <v>7.2722585849696098E-2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="17"/>
-        <v>4.5690147465009968E-2</v>
+        <v>4.7067045001363737E-2</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="17"/>
-        <v>2.7792741300644595E-2</v>
+        <v>2.8631761405870898E-2</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="17"/>
-        <v>1.620086891272926E-2</v>
+        <v>1.6673933460220631E-2</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="17"/>
-        <v>9.1591280563881779E-3</v>
+        <v>9.4110148831212347E-3</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="17"/>
-        <v>5.062552846416382E-3</v>
+        <v>5.1908275102586802E-3</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="17"/>
-        <v>2.7507897652961971E-3</v>
+        <v>2.8137269537915205E-3</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="17"/>
-        <v>1.4749047793280452E-3</v>
+        <v>1.504754328048728E-3</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="17"/>
-        <v>7.8245426343469119E-4</v>
+        <v>7.9613603886681951E-4</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="17"/>
-        <v>4.1152295606184644E-4</v>
+        <v>4.175589507522546E-4</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="17"/>
-        <v>2.1488436724436788E-4</v>
+        <v>2.1742256550306844E-4</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="17"/>
-        <v>1.115260976670059E-4</v>
+        <v>1.1252277926147674E-4</v>
       </c>
       <c r="Z20" s="4">
         <f>Y20*EXP(-Y$8)/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
-        <v>1.3722652743576179E-4</v>
+        <v>1.3743348351901515E-4</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -8276,11 +8288,11 @@
       </c>
       <c r="B21">
         <f>SUMPRODUCT(fa,G18:Z18)</f>
-        <v>-0.34361349685238929</v>
+        <v>-0.35168443015678486</v>
       </c>
       <c r="C21">
         <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-0.27666429652088625</v>
+        <v>-0.28320269687254324</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>59</v>
@@ -8290,79 +8302,79 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ref="H21:Y21" si="18">G21*EXP(-G$8)+G$14*G7^2*EXP(-G$8)</f>
-        <v>2.2660079235777009E-2</v>
+        <v>2.267604042150614E-2</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="18"/>
-        <v>4.6713607036618546E-2</v>
+        <v>4.6864869030775566E-2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="18"/>
-        <v>6.7261144561911901E-2</v>
+        <v>6.7794631867785338E-2</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="18"/>
-        <v>7.7828506803977834E-2</v>
+        <v>7.892693120584493E-2</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="18"/>
-        <v>7.5521698344523575E-2</v>
+        <v>7.7059651955314223E-2</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="18"/>
-        <v>6.3350923297617906E-2</v>
+        <v>6.4960418107067514E-2</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="18"/>
-        <v>4.7299259616124169E-2</v>
+        <v>4.8654497463728935E-2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="18"/>
-        <v>3.2282447493889463E-2</v>
+        <v>3.3255296672278438E-2</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="18"/>
-        <v>2.0593336593262696E-2</v>
+        <v>2.121501774549359E-2</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="18"/>
-        <v>1.2490742515230035E-2</v>
+        <v>1.2855471560791025E-2</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="18"/>
-        <v>7.2956792222348826E-3</v>
+        <v>7.4963190076857813E-3</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="18"/>
-        <v>4.1414440477515286E-3</v>
+        <v>4.2463797114696989E-3</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="18"/>
-        <v>2.2999581123771822E-3</v>
+        <v>2.3525804170971662E-3</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="18"/>
-        <v>1.2555877657048047E-3</v>
+        <v>1.2809987133882025E-3</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="18"/>
-        <v>6.7616175659339459E-4</v>
+        <v>6.879849311121134E-4</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="18"/>
-        <v>3.6012644973433658E-4</v>
+        <v>3.654085884496923E-4</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" si="18"/>
-        <v>1.9006721518599951E-4</v>
+        <v>1.9231227507940965E-4</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="18"/>
-        <v>9.955330901813797E-5</v>
+        <v>1.0044299271408597E-4</v>
       </c>
       <c r="Z21" s="4">
         <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
-        <v>1.260731437343628E-4</v>
+        <v>1.2624259857429377E-4</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -8371,94 +8383,94 @@
       </c>
       <c r="B22">
         <f>SUMPRODUCT(fa,G20:Z20)</f>
-        <v>0.22685835668835386</v>
+        <v>0.23238575752776994</v>
       </c>
       <c r="C22">
         <f>SUMPRODUCT(fa,G21:Z21)</f>
-        <v>0.15049743774251489</v>
+        <v>0.1542187846495896</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22:Z22" si="19">G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-4.8285061754748098E-4</v>
+        <v>-4.8306989428513637E-4</v>
       </c>
       <c r="H22">
         <f t="shared" si="19"/>
-        <v>-4.5230995709973259E-3</v>
+        <v>-4.5330088597267271E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="19"/>
-        <v>-1.6176826131165545E-2</v>
+        <v>-1.6270262034670913E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="19"/>
-        <v>-3.4541117166904681E-2</v>
+        <v>-3.4923650142352824E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="19"/>
-        <v>-5.0565738309217512E-2</v>
+        <v>-5.1433404677292793E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="19"/>
-        <v>-5.5583516484875396E-2</v>
+        <v>-5.6848178291305403E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="19"/>
-        <v>-4.9548603417438476E-2</v>
+        <v>-5.0882228026890679E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="19"/>
-        <v>-3.8076481889814204E-2</v>
+        <v>-3.9193402075830983E-2</v>
       </c>
       <c r="O22">
         <f t="shared" si="19"/>
-        <v>-2.6367661243141546E-2</v>
+        <v>-2.7162900624734018E-2</v>
       </c>
       <c r="P22">
         <f t="shared" si="19"/>
-        <v>-1.6963198447994807E-2</v>
+        <v>-1.7467697897522106E-2</v>
       </c>
       <c r="Q22">
         <f t="shared" si="19"/>
-        <v>-1.0348662452809503E-2</v>
+        <v>-1.064291516900101E-2</v>
       </c>
       <c r="R22">
         <f t="shared" si="19"/>
-        <v>-6.0705645973208548E-3</v>
+        <v>-6.2316088272977715E-3</v>
       </c>
       <c r="S22">
         <f t="shared" si="19"/>
-        <v>-3.4568553914048933E-3</v>
+        <v>-3.5406339874599659E-3</v>
       </c>
       <c r="T22">
         <f t="shared" si="19"/>
-        <v>-1.9237428206554739E-3</v>
+        <v>-1.9654829515286178E-3</v>
       </c>
       <c r="U22">
         <f t="shared" si="19"/>
-        <v>-1.0512812631360787E-3</v>
+        <v>-1.0712641213665676E-3</v>
       </c>
       <c r="V22">
         <f t="shared" si="19"/>
-        <v>-5.6616220571687088E-4</v>
+        <v>-5.7534976130112214E-4</v>
       </c>
       <c r="W22">
         <f t="shared" si="19"/>
-        <v>-3.0128545331343945E-4</v>
+        <v>-3.0532094849929667E-4</v>
       </c>
       <c r="X22">
         <f t="shared" si="19"/>
-        <v>-1.5875524246740827E-4</v>
+        <v>-1.604271189456696E-4</v>
       </c>
       <c r="Y22">
         <f t="shared" si="19"/>
-        <v>-8.2964728171533854E-5</v>
+        <v>-8.3599666390548995E-5</v>
       </c>
       <c r="Z22">
         <f t="shared" si="19"/>
-        <v>-8.7721987950165872E-5</v>
+        <v>-8.7880305564090339E-5</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -8467,94 +8479,94 @@
       </c>
       <c r="B23">
         <f>SUMPRODUCT(lz*G11:Z11)</f>
-        <v>0.11995503065673435</v>
+        <v>0.12199337220753161</v>
       </c>
       <c r="C23">
         <f>SUMPRODUCT(lz*G12:Z12)</f>
-        <v>9.7948803219533254E-2</v>
+        <v>9.966935198138821E-2</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:Z23" si="20">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-4.2224676984872446E-4</v>
+        <v>-4.2243852458779521E-4</v>
       </c>
       <c r="H23">
         <f t="shared" si="20"/>
-        <v>-3.446216213078058E-3</v>
+        <v>-3.4538096366638986E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="20"/>
-        <v>-1.1044699171241986E-2</v>
+        <v>-1.1108941326836486E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="20"/>
-        <v>-2.2327953237536585E-2</v>
+        <v>-2.2576515642267168E-2</v>
       </c>
       <c r="K23">
         <f t="shared" si="20"/>
-        <v>-3.2775479170762276E-2</v>
+        <v>-3.3339537141585038E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="20"/>
-        <v>-3.7543691456790859E-2</v>
+        <v>-3.8399102368364094E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="20"/>
-        <v>-3.5413659321992648E-2</v>
+        <v>-3.6367381960456864E-2</v>
       </c>
       <c r="N23">
         <f t="shared" si="20"/>
-        <v>-2.8778591724945037E-2</v>
+        <v>-2.9622922340889819E-2</v>
       </c>
       <c r="O23">
         <f t="shared" si="20"/>
-        <v>-2.0908779806545548E-2</v>
+        <v>-2.1539384180111167E-2</v>
       </c>
       <c r="P23">
         <f t="shared" si="20"/>
-        <v>-1.3978766639597448E-2</v>
+        <v>-1.4394478707424605E-2</v>
       </c>
       <c r="Q23">
         <f t="shared" si="20"/>
-        <v>-8.7864716055976021E-3</v>
+        <v>-9.036281723051074E-3</v>
       </c>
       <c r="R23">
         <f t="shared" si="20"/>
-        <v>-5.2739004077485959E-3</v>
+        <v>-5.4137959730117136E-3</v>
       </c>
       <c r="S23">
         <f t="shared" si="20"/>
-        <v>-3.0569010910462108E-3</v>
+        <v>-3.1309790506591707E-3</v>
       </c>
       <c r="T23">
         <f t="shared" si="20"/>
-        <v>-1.7248822894152867E-3</v>
+        <v>-1.7623039158244887E-3</v>
       </c>
       <c r="U23">
         <f t="shared" si="20"/>
-        <v>-9.5302660842224059E-4</v>
+        <v>-9.71140028836076E-4</v>
       </c>
       <c r="V23">
         <f t="shared" si="20"/>
-        <v>-5.17829941396919E-4</v>
+        <v>-5.2623232350904384E-4</v>
       </c>
       <c r="W23">
         <f t="shared" si="20"/>
-        <v>-2.7759011104809642E-4</v>
+        <v>-2.8130783057747464E-4</v>
       </c>
       <c r="X23">
         <f t="shared" si="20"/>
-        <v>-1.4716982625859255E-4</v>
+        <v>-1.4871951295891624E-4</v>
       </c>
       <c r="Y23">
         <f t="shared" si="20"/>
-        <v>-7.731310924463383E-5</v>
+        <v>-7.7904711309368047E-5</v>
       </c>
       <c r="Z23">
         <f t="shared" si="20"/>
-        <v>-8.240878012648304E-5</v>
+        <v>-8.255590318870602E-5</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -8563,94 +8575,94 @@
       </c>
       <c r="B24">
         <f>SUM(G22:Z22)</f>
-        <v>-0.31687708942204323</v>
+        <v>-0.32386228538196621</v>
       </c>
       <c r="C24">
         <f>SUM(G23:Z23)</f>
-        <v>-0.22753757728264379</v>
+        <v>-0.23265573280211299</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ref="G24:Z24" si="21">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>1.3548569713271838E-5</v>
+        <v>1.3555584695019345E-5</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="21"/>
-        <v>9.6483836890331933E-4</v>
+        <v>9.6700842203279076E-4</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="21"/>
-        <v>7.7671174257186934E-3</v>
+        <v>7.8139011484298637E-3</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="21"/>
-        <v>2.6757695222816506E-2</v>
+        <v>2.7066054018725798E-2</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="21"/>
-        <v>5.247010163041723E-2</v>
+        <v>5.3397617075402887E-2</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="21"/>
-        <v>6.8956524640254035E-2</v>
+        <v>7.0555769631654636E-2</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="21"/>
-        <v>6.8628014388922784E-2</v>
+        <v>7.0494941910423298E-2</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="21"/>
-        <v>5.6546455778669277E-2</v>
+        <v>5.8212637126350143E-2</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="21"/>
-        <v>4.099542629308655E-2</v>
+        <v>4.2232026851453379E-2</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="21"/>
-        <v>2.7218357480019856E-2</v>
+        <v>2.8025468574697114E-2</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="21"/>
-        <v>1.6985310778846904E-2</v>
+        <v>1.7465720078914677E-2</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="21"/>
-        <v>1.0133847100852567E-2</v>
+        <v>1.0400754306093517E-2</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="21"/>
-        <v>5.8468693781706538E-3</v>
+        <v>5.9873086787399082E-3</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="21"/>
-        <v>3.2879995245969759E-3</v>
+        <v>3.3585792672278336E-3</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="21"/>
-        <v>1.8122314286925139E-3</v>
+        <v>1.8462421202372539E-3</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="21"/>
-        <v>9.8293711741736481E-4</v>
+        <v>9.9864602781527911E-4</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="21"/>
-        <v>5.2623384726122296E-4</v>
+        <v>5.3315126145665379E-4</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="21"/>
-        <v>2.7872302371318884E-4</v>
+        <v>2.8158845708927684E-4</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="21"/>
-        <v>1.4631387825462088E-4</v>
+        <v>1.4739689072999307E-4</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="21"/>
-        <v>1.6870988875235851E-4</v>
+        <v>1.688303939140728E-4</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -8659,94 +8671,94 @@
       </c>
       <c r="B25">
         <f>SUM(G24:Z24)</f>
-        <v>0.39048725576507998</v>
+        <v>0.39996719782608342</v>
       </c>
       <c r="C25">
         <f>SUM(G25:Z25)</f>
-        <v>0.23679552260960102</v>
+        <v>0.24272782209783828</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ref="G25:Z25" si="22">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
-        <v>9.06054005341022E-6</v>
+        <v>9.0652312883112525E-6</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="22"/>
-        <v>5.3500643797326419E-4</v>
+        <v>5.3619991874369333E-4</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="22"/>
-        <v>3.6864679987844724E-3</v>
+        <v>3.7085898668512175E-3</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="22"/>
-        <v>1.2125187908324748E-2</v>
+        <v>1.2264819599527351E-2</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="22"/>
-        <v>2.4920900047846462E-2</v>
+        <v>2.5361712407602495E-2</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="22"/>
-        <v>3.6158682601880543E-2</v>
+        <v>3.6998006859130572E-2</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="22"/>
-        <v>4.0250820459163561E-2</v>
+        <v>4.1346456660199482E-2</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="22"/>
-        <v>3.6722071346079188E-2</v>
+        <v>3.7804411883337045E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="22"/>
-        <v>2.8934654633715175E-2</v>
+        <v>2.9807458044917173E-2</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="22"/>
-        <v>2.0489628353769582E-2</v>
+        <v>2.1097108977859262E-2</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="22"/>
-        <v>1.3424443047205747E-2</v>
+        <v>1.3804032213409369E-2</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="22"/>
-        <v>8.3079734450084708E-3</v>
+        <v>8.5267155669446846E-3</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="22"/>
-        <v>4.928004492510833E-3</v>
+        <v>5.0463277377826247E-3</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" si="22"/>
-        <v>2.830762621107881E-3</v>
+        <v>2.8915022951217354E-3</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="22"/>
-        <v>1.5863051677053428E-3</v>
+        <v>1.6160626722623375E-3</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="22"/>
-        <v>8.7183101295301431E-4</v>
+        <v>8.8575759284004847E-4</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="22"/>
-        <v>4.7178161520612042E-4</v>
+        <v>4.7797993225847085E-4</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>2.5210812046178819E-4</v>
+        <v>2.5469831390074012E-4</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="22"/>
-        <v>1.3333398895649785E-4</v>
+        <v>1.3432013678249484E-4</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="22"/>
-        <v>1.5649877089500317E-4</v>
+        <v>1.5659618707920602E-4</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -8755,15 +8767,15 @@
       </c>
       <c r="B26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-1.3038896324569207</v>
+        <v>-1.2802181020716317</v>
       </c>
       <c r="C26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-1.0498414969407874</v>
+        <v>-1.0309276954060804</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>1.3548569713271838E-5</v>
+        <v>1.3555584695019345E-5</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -8772,19 +8784,19 @@
       </c>
       <c r="B27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-7.0563638569760343</v>
+        <v>-6.9465854102960281</v>
       </c>
       <c r="C27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-4.5615226846181898</v>
+        <v>-4.491809171291111</v>
       </c>
       <c r="Y27">
         <f>(Y15-2*Y14+Y16)/dh^2</f>
-        <v>1.8538714332649688E-3</v>
+        <v>1.8704389233748125E-3</v>
       </c>
       <c r="Z27">
         <f>(Z15-2*Z14+Z16)/dh^2</f>
-        <v>2.2012889083701695E-3</v>
+        <v>2.2072997929770649E-3</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -8807,26 +8819,26 @@
       </c>
       <c r="B29">
         <f>f*re*phiq</f>
-        <v>1.2848215745173105E-2</v>
+        <v>1.0447243332089073E-2</v>
       </c>
       <c r="C29">
         <f>f*re*phiq</f>
-        <v>1.927232361775966E-2</v>
+        <v>1.5679698210494367E-2</v>
       </c>
       <c r="D29">
         <f>SUM(Ye)</f>
-        <v>3.2120539362932764E-2</v>
+        <v>2.6126941542583441E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
         <f>B29</f>
-        <v>1.2848215745173105E-2</v>
+        <v>1.0447243332089073E-2</v>
       </c>
       <c r="H29">
         <f>B30</f>
-        <v>2.0074053235404558E-2</v>
+        <v>3.4077906203019454E-2</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -8835,29 +8847,29 @@
       </c>
       <c r="B30">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>2.0074053235404558E-2</v>
+        <v>3.4077906203019454E-2</v>
       </c>
       <c r="C30">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>-1.0573074612753371E-2</v>
+        <v>6.0867261365273179E-3</v>
       </c>
       <c r="D30">
         <f>SUM(dYe)</f>
-        <v>9.5009786226511878E-3</v>
+        <v>4.0164632339546771E-2</v>
       </c>
       <c r="F30">
         <v>0.2</v>
       </c>
       <c r="G30">
         <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
-        <v>1.2764756907878183E-2</v>
+        <v>1.0654832861572025E-2</v>
       </c>
       <c r="H30">
-        <v>3.0251543485993904E-2</v>
+        <v>2.3291147298276374E-2</v>
       </c>
       <c r="Z30" s="4">
         <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
-        <v>3.1341739583609714E-15</v>
+        <v>3.1571121840046557E-15</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -8866,20 +8878,20 @@
       </c>
       <c r="B31">
         <f>ak*SUMPRODUCT(f*re,phiq)</f>
-        <v>1.2848215745173107E-2</v>
+        <v>1.0450776617033378E-2</v>
       </c>
       <c r="C31">
         <f>ak*SUMPRODUCT(f*re,phiq)</f>
-        <v>1.9272323617759657E-2</v>
+        <v>1.5676164925550063E-2</v>
       </c>
       <c r="F31">
         <v>0.20499999999999999</v>
       </c>
       <c r="G31">
-        <v>1.279842900372428E-2</v>
+        <v>1.0673073452948602E-2</v>
       </c>
       <c r="H31">
-        <v>2.7928785613693226E-2</v>
+        <v>2.1203566172382379E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -8888,20 +8900,20 @@
       </c>
       <c r="B32">
         <f>ak*(B30+C20*dre*phiq+C20*re*dphiq)</f>
-        <v>-3.5520723200641972E-2</v>
+        <v>-2.1411133137077779E-2</v>
       </c>
       <c r="C32">
         <f>ak*(C30+B20*dre*phiq+B20*re*dphiq)</f>
-        <v>-3.0957675838007015E-2</v>
+        <v>-1.6179478572748787E-2</v>
       </c>
       <c r="F32">
         <v>0.21</v>
       </c>
       <c r="G32">
-        <v>1.282327914674314E-2</v>
+        <v>1.0683288950548809E-2</v>
       </c>
       <c r="H32">
-        <v>2.5661857866581504E-2</v>
+        <v>1.9161792481360886E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8912,48 +8924,48 @@
         <v>0.215</v>
       </c>
       <c r="G33">
-        <v>1.2839531557216304E-2</v>
+        <v>1.0685663749258114E-2</v>
       </c>
       <c r="H33">
-        <v>2.3448778484785521E-2</v>
+        <v>1.7164273357284997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>2.0074053235404558E-2</v>
+        <v>3.4077906203019454E-2</v>
       </c>
       <c r="C34">
         <f>f*phiq*B26+f*re*B24</f>
-        <v>-0.1003402258909987</v>
+        <v>-8.0897802911327588E-2</v>
       </c>
       <c r="F34">
         <v>0.22</v>
       </c>
       <c r="G34">
-        <v>1.2847401993452138E-2</v>
+        <v>1.0680375582894997E-2</v>
       </c>
       <c r="H34">
-        <v>2.1287643646185364E-2</v>
+        <v>1.5209513311906894E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35">
         <f>f*phiq*C26+f*re*C24</f>
-        <v>-4.4764228001644653E-2</v>
+        <v>-3.5993033151103644E-2</v>
       </c>
       <c r="C35">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>-1.0573074612753371E-2</v>
+        <v>6.0867261365273179E-3</v>
       </c>
       <c r="F35">
         <v>0.22500000000000001</v>
       </c>
       <c r="G35">
-        <v>1.2847098092952829E-2</v>
+        <v>1.0667595776282162E-2</v>
       </c>
       <c r="H35">
-        <v>1.9176623913461872E-2</v>
+        <v>1.3296071769650034E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -8962,36 +8974,36 @@
       </c>
       <c r="B36">
         <f t="array" ref="B36:C37">-MINVERSE(B34:C35)</f>
-        <v>-2.2477265416051435</v>
+        <v>2.2507298255144108</v>
       </c>
       <c r="C36">
-        <v>21.33129644746926</v>
+        <v>29.914126863442842</v>
       </c>
       <c r="F36">
         <v>0.23</v>
       </c>
       <c r="G36">
-        <v>1.2838819697766478E-2</v>
+        <v>1.0647489486296539E-2</v>
       </c>
       <c r="H36">
-        <v>1.7113960863386721E-2</v>
+        <v>1.1422560719810827E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37">
-        <v>9.516412876950147</v>
+        <v>13.309386919474115</v>
       </c>
       <c r="C37">
-        <v>4.2675365404485044</v>
+        <v>12.601217495548182</v>
       </c>
       <c r="F37">
         <v>0.23499999999999999</v>
       </c>
       <c r="G37">
-        <v>1.2822759164843517E-2</v>
+        <v>1.0620215932436054E-2</v>
       </c>
       <c r="H37">
-        <v>1.5097963887949095E-2</v>
+        <v>9.5876424815584081E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8999,10 +9011,10 @@
         <v>0.24</v>
       </c>
       <c r="G38">
-        <v>1.2799101662170175E-2</v>
+        <v>1.0585928617412182E-2</v>
       </c>
       <c r="H38">
-        <v>1.3127007157572056E-2</v>
+        <v>7.7900275757015712E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9011,19 +9023,19 @@
       </c>
       <c r="B39">
         <f t="array" ref="B39:C39">MMULT(B30:C30,B36:C37)</f>
-        <v>-0.14573872564857429</v>
+        <v>0.15771075310613633</v>
       </c>
       <c r="C39">
-        <v>0.38308459821188062</v>
+        <v>1.0961109692798481</v>
       </c>
       <c r="F39">
         <v>0.245</v>
       </c>
       <c r="G39">
-        <v>1.2768025451407081E-2</v>
+        <v>1.0544775538249637E-2</v>
       </c>
       <c r="H39">
-        <v>1.1199526737273702E-2</v>
+        <v>6.0284726975448656E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9032,20 +9044,20 @@
       </c>
       <c r="B40">
         <f>f+delta</f>
-        <v>1.6195568546753331E-2</v>
+        <v>0.2854787119681742</v>
       </c>
       <c r="C40">
         <f>f+delta</f>
-        <v>0.68055887946022064</v>
+        <v>1.3308214851586326</v>
       </c>
       <c r="F40">
         <v>0.25</v>
       </c>
       <c r="G40">
-        <v>1.272970215772022E-2</v>
+        <v>1.049689938834892E-2</v>
       </c>
       <c r="H40">
-        <v>9.3140178472040716E-3</v>
+        <v>4.3017787854897106E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9053,10 +9065,10 @@
         <v>0.255</v>
       </c>
       <c r="G41">
-        <v>1.2684297027452232E-2</v>
+        <v>1.0442437750943228E-2</v>
       </c>
       <c r="H41">
-        <v>7.4690322595092132E-3</v>
+        <v>2.6087891803467898E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9065,43 +9077,43 @@
       </c>
       <c r="B42">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.69343231502820291</v>
+        <v>-0.71457450678165979</v>
       </c>
       <c r="C42">
         <f>f*B27*phiq+2*f*B26*B24+f*re*B25</f>
-        <v>0.11704543995921504</v>
+        <v>9.5045835837316281E-2</v>
       </c>
       <c r="D42">
         <f>B42+C43</f>
-        <v>-1.1442934268867109</v>
+        <v>-1.186260540897484</v>
       </c>
       <c r="F42">
         <v>0.26</v>
       </c>
       <c r="G42">
-        <v>1.2631969174245975E-2</v>
+        <v>1.0381523284358337E-2</v>
       </c>
       <c r="H42">
-        <v>5.6631758239735069E-3</v>
+        <v>9.4838787061763546E-4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43">
         <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
-        <v>1.4121227409759265E-2</v>
+        <v>1.2064152108960474E-2</v>
       </c>
       <c r="C43">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.45086111185850797</v>
+        <v>-0.47168603411582422</v>
       </c>
       <c r="F43">
         <v>0.26500000000000001</v>
       </c>
       <c r="G43">
-        <v>1.257287181419795E-2</v>
+        <v>1.0314283899462349E-2</v>
       </c>
       <c r="H43">
-        <v>3.8951061153485039E-3</v>
+        <v>-6.8050218072527105E-4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9110,36 +9122,36 @@
       </c>
       <c r="B44">
         <f t="array" ref="B44:C45">-MINVERSE(B42:C43)</f>
-        <v>1.4497662131742759</v>
+        <v>1.4042112677899354</v>
       </c>
       <c r="C44">
-        <v>0.37636540343767982</v>
+        <v>0.28295184505399051</v>
       </c>
       <c r="F44">
         <v>0.27</v>
       </c>
       <c r="G44">
-        <v>1.2507152490587313E-2</v>
+        <v>1.0240842929672348E-2</v>
       </c>
       <c r="H44">
-        <v>2.1635301957067671E-3</v>
+        <v>-2.2789206321725854E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45">
-        <v>4.5407505435164426E-2</v>
+        <v>3.591503055520652E-2</v>
       </c>
       <c r="C45">
-        <v>2.2297659190589125</v>
+        <v>2.127291252070123</v>
       </c>
       <c r="F45">
         <v>0.27500000000000002</v>
       </c>
       <c r="G45">
-        <v>1.2434953288695873E-2</v>
+        <v>1.0161319293865474E-2</v>
       </c>
       <c r="H45">
-        <v>4.672024855619239E-4</v>
+        <v>-3.8478712863010585E-3</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9147,10 +9159,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G46">
-        <v>1.2356411041206427E-2</v>
+        <v>1.0075827652524223E-2</v>
       </c>
       <c r="H46">
-        <v>-1.1950772621316351E-3</v>
+        <v>-5.3883235428345139E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9159,23 +9171,23 @@
       </c>
       <c r="B47">
         <f t="array" ref="B47:C47">MMULT(B30:C30,B44:C45)</f>
-        <v>2.8622587199206288E-2</v>
+        <v>4.8071184828143008E-2</v>
       </c>
       <c r="C47">
-        <v>-1.6020302286611977E-2</v>
+        <v>2.2590645699702323E-2</v>
       </c>
       <c r="D47">
         <f>D30/D42</f>
-        <v>-8.3029216103255813E-3</v>
+        <v>-3.3858187940028407E-2</v>
       </c>
       <c r="F47">
         <v>0.28499999999999998</v>
       </c>
       <c r="G47">
-        <v>1.2271657524640224E-2</v>
+        <v>9.9844785574285527E-3</v>
       </c>
       <c r="H47">
-        <v>-2.8244658906317853E-3</v>
+        <v>-6.9012137856811623E-3</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9184,24 +9196,24 @@
       </c>
       <c r="B48" s="5">
         <f>(f+dta)</f>
-        <v>0.19055688139453392</v>
+        <v>0.17583914369018092</v>
       </c>
       <c r="C48" s="5">
         <f>(f+dta)</f>
-        <v>0.28145397896172802</v>
+        <v>0.25730116157848687</v>
       </c>
       <c r="D48" s="5">
         <f>B6-D47</f>
-        <v>0.23116308059687163</v>
+        <v>0.20969733163020932</v>
       </c>
       <c r="F48">
         <v>0.28999999999999998</v>
       </c>
       <c r="G48">
-        <v>1.2180819647268882E-2</v>
+        <v>9.8873785951915094E-3</v>
       </c>
       <c r="H48">
-        <v>-4.4220786759238372E-3</v>
+        <v>-8.38744670728718E-3</v>
       </c>
     </row>
     <row r="49" spans="6:8">
@@ -9209,10 +9221,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G49">
-        <v>1.2084019628913541E-2</v>
+        <v>9.7846305249199277E-3</v>
       </c>
       <c r="H49">
-        <v>-5.9889910759955284E-3</v>
+        <v>-9.8478965734608917E-3</v>
       </c>
     </row>
     <row r="50" spans="6:8">
@@ -9220,10 +9232,10 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="G50">
-        <v>1.1981375173020918E-2</v>
+        <v>9.6763334102674178E-3</v>
       </c>
       <c r="H50">
-        <v>-7.5262403974868247E-3</v>
+        <v>-1.1283408431647081E-2</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -9231,10 +9243,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>1.1872999631385602E-2</v>
+        <v>9.5625827461332941E-3</v>
       </c>
       <c r="H51">
-        <v>-9.0348273840615487E-3</v>
+        <v>-1.2694799265468383E-2</v>
       </c>
     </row>
     <row r="52" spans="6:8">
@@ -9242,10 +9254,10 @@
         <v>0.309999999999999</v>
       </c>
       <c r="G52">
-        <v>1.1759002161868926E-2</v>
+        <v>9.4434705802489208E-3</v>
       </c>
       <c r="H52">
-        <v>-1.0515717730586162E-2</v>
+        <v>-1.4082859098189369E-2</v>
       </c>
     </row>
     <row r="53" spans="6:8">
@@ -9253,10 +9265,10 @@
         <v>0.314999999999999</v>
       </c>
       <c r="G53">
-        <v>1.1639487879444514E-2</v>
+        <v>9.3190856298795838E-3</v>
       </c>
       <c r="H53">
-        <v>-1.1969843526988398E-2</v>
+        <v>-1.5448352047630624E-2</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -9264,10 +9276,10 @@
         <v>0.31999999999999901</v>
       </c>
       <c r="G54">
-        <v>1.1514558000885893E-2</v>
+        <v>9.1895133938606367E-3</v>
       </c>
       <c r="H54">
-        <v>-1.3398104635415371E-2</v>
+        <v>-1.6792017334898622E-2</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -9275,10 +9287,10 @@
         <v>0.32499999999999901</v>
       </c>
       <c r="G55">
-        <v>1.1384309983392307E-2</v>
+        <v>9.0548362601737386E-3</v>
       </c>
       <c r="H55">
-        <v>-1.4801370004136231E-2</v>
+        <v>-1.8114570249194779E-2</v>
       </c>
     </row>
     <row r="56" spans="6:8">
@@ -9286,10 +9298,10 @@
         <v>0.32999999999999902</v>
       </c>
       <c r="G56">
-        <v>1.1248837657435956E-2</v>
+        <v>8.9151336092605452E-3</v>
       </c>
       <c r="H56">
-        <v>-1.6180478921415931E-2</v>
+        <v>-1.9416703070827494E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15558,7 +15570,7 @@
         <v>389.66306223879644</v>
       </c>
       <c r="M123">
-        <f t="shared" ref="M123:M154" si="37">SUMPRODUCT(F123:L123,EXP(-zf*(m+fe*va)),fa)</f>
+        <f t="shared" ref="M123:M127" si="37">SUMPRODUCT(F123:L123,EXP(-zf*(m+fe*va)),fa)</f>
         <v>9820.4409396352912</v>
       </c>
     </row>
@@ -15591,7 +15603,7 @@
         <v>300.6342711533278</v>
       </c>
       <c r="L124">
-        <f t="shared" ref="L124:L155" si="38">K123*EXP(-m-fe*K$4)+L123*EXP(-m-fe*va)</f>
+        <f t="shared" ref="L124:L127" si="38">K123*EXP(-m-fe*K$4)+L123*EXP(-m-fe*va)</f>
         <v>389.66306223879644</v>
       </c>
       <c r="M124">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -626,7 +626,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="335">
+  <cellStyleXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,6 +682,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -976,7 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="52"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="335">
+  <cellStyles count="347">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
@@ -1144,6 +1156,12 @@
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1309,6 +1327,12 @@
     <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,64 +1375,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.0003493161923391</c:v>
+                  <c:v>0.00127101626308136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0026823732796317</c:v>
+                  <c:v>0.0344451956662112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0202816018270946</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.137437932448154</c:v>
+                  <c:v>0.965554804333789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.550844062184243</c:v>
+                  <c:v>0.998728983736919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.904209534038349</c:v>
+                  <c:v>0.999954602131298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.986423083056256</c:v>
+                  <c:v>0.999998380405831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.998214964975444</c:v>
+                  <c:v>0.999999942222518</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.999767722839711</c:v>
+                  <c:v>0.999999997938846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.999969815845295</c:v>
+                  <c:v>0.99999999992647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.999996078292897</c:v>
+                  <c:v>0.999999999997377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.999999490479845</c:v>
+                  <c:v>0.999999999999906</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.999999933801783</c:v>
+                  <c:v>0.999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.999999991399355</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.999999998882582</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.999999999854822</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.999999999981138</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.999999999997549</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.999999999999682</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.999999999999959</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,64 +1452,152 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000335350130466478</c:v>
+                  <c:v>0.00247262315663477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00247262315663477</c:v>
+                  <c:v>0.119202922022118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0179862099620916</c:v>
+                  <c:v>0.880797077977882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.119202922022118</c:v>
+                  <c:v>0.997527376843365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.999954602131298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.880797077977882</c:v>
+                  <c:v>0.999999168471972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.982013790037908</c:v>
+                  <c:v>0.99999998477002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.997527376843365</c:v>
+                  <c:v>0.999999999721053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.999664649869534</c:v>
+                  <c:v>0.999999999994891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.999954602131298</c:v>
+                  <c:v>0.999999999999906</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.999993855825398</c:v>
+                  <c:v>0.999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.999999168471972</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.999999887464838</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99999998477002</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.999999997938846</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.999999999721053</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.999999999962249</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.999999999994891</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.999999999999309</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.999999999999906</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252580457827647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.341247501684339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.427643719230357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.508367310902113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.581557921734505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.646462314779698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.703062176584656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.751788795470446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.793319223640301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.828438535949616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85795164162232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.882630331147932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.903184345243872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.920248190579841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.934377843246983</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.946053327005152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,11 +1614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088701512"/>
-        <c:axId val="2088703304"/>
+        <c:axId val="2124285880"/>
+        <c:axId val="2124288008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088701512"/>
+        <c:axId val="2124285880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088703304"/>
+        <c:crossAx val="2124288008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +1635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088703304"/>
+        <c:axId val="2124288008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088701512"/>
+        <c:crossAx val="2124285880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1740,11 +1852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087880184"/>
-        <c:axId val="2087877192"/>
+        <c:axId val="2124376200"/>
+        <c:axId val="2124379176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087880184"/>
+        <c:axId val="2124376200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087877192"/>
+        <c:crossAx val="2124379176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087877192"/>
+        <c:axId val="2124379176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,14 +1884,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087880184"/>
+        <c:crossAx val="2124376200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2072,8 +2183,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087829352"/>
-        <c:axId val="2087826360"/>
+        <c:axId val="2123852968"/>
+        <c:axId val="2123849976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2336,11 +2447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087820024"/>
-        <c:axId val="2087823320"/>
+        <c:axId val="2123843640"/>
+        <c:axId val="2123846936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087829352"/>
+        <c:axId val="2123852968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,12 +2461,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087826360"/>
+        <c:crossAx val="2123849976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087826360"/>
+        <c:axId val="2123849976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,12 +2477,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087829352"/>
+        <c:crossAx val="2123852968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087823320"/>
+        <c:axId val="2123846936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -2383,12 +2494,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087820024"/>
+        <c:crossAx val="2123843640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087820024"/>
+        <c:axId val="2123843640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,7 +2509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087823320"/>
+        <c:crossAx val="2123846936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2697,8 +2808,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087768984"/>
-        <c:axId val="2087765992"/>
+        <c:axId val="2104782328"/>
+        <c:axId val="2104785320"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2961,11 +3072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087759656"/>
-        <c:axId val="2087762952"/>
+        <c:axId val="2104791656"/>
+        <c:axId val="2104788360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087768984"/>
+        <c:axId val="2104782328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,12 +3086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087765992"/>
+        <c:crossAx val="2104785320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087765992"/>
+        <c:axId val="2104785320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,12 +3102,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087768984"/>
+        <c:crossAx val="2104782328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087762952"/>
+        <c:axId val="2104788360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3008,12 +3119,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087759656"/>
+        <c:crossAx val="2104791656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087759656"/>
+        <c:axId val="2104791656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +3134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087762952"/>
+        <c:crossAx val="2104788360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3712,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3802,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -4170,101 +4281,101 @@
         <v>27</v>
       </c>
       <c r="B6" s="6">
-        <v>0.83668503118770632</v>
+        <v>6.6918965439920666E-2</v>
       </c>
       <c r="C6">
         <f>B6+dh</f>
-        <v>0.83678503118770631</v>
+        <v>6.7018965439920669E-2</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
-        <v>0.83658503118770633</v>
+        <v>6.6818965439920663E-2</v>
       </c>
       <c r="E6">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:Z6" si="4">1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
-        <v>3.4931619233910023E-4</v>
+        <v>1.2710162630813592E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>2.6823732796317037E-3</v>
+        <v>3.4445195666211181E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>2.0281601827094563E-2</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>0.13743793244815439</v>
+        <v>0.96555480433378871</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.55084406218424253</v>
+        <v>0.99872898373691865</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>0.90420953403834892</v>
+        <v>0.99995460213129761</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>0.98642308305625559</v>
+        <v>0.99999838040583089</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>0.99821496497544382</v>
+        <v>0.99999994222251809</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>0.99976772283971149</v>
+        <v>0.99999999793884631</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>0.99996981584529498</v>
+        <v>0.99999999992647037</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>0.99999607829289727</v>
+        <v>0.99999999999737699</v>
       </c>
       <c r="R6">
         <f t="shared" si="4"/>
-        <v>0.99999949047984549</v>
+        <v>0.99999999999990652</v>
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
-        <v>0.9999999338017832</v>
+        <v>0.99999999999999667</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>0.99999999139935458</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="U6">
         <f t="shared" si="4"/>
-        <v>0.99999999888258162</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>0.99999999985482213</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
-        <v>0.9999999999811382</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="4"/>
-        <v>0.99999999999754952</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="4"/>
-        <v>0.99999999999968159</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="4"/>
-        <v>0.9999999999999587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4272,98 +4383,98 @@
         <v>28</v>
       </c>
       <c r="B7" s="6">
-        <v>0.8807381382082371</v>
+        <v>6.066076068585366E-2</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>0.8807381382082371</v>
+        <v>6.066076068585366E-2</v>
       </c>
       <c r="D7">
         <f>C7</f>
-        <v>0.8807381382082371</v>
+        <v>6.066076068585366E-2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:Z7" si="5">1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
-        <v>3.3535013046647811E-4</v>
+        <v>2.4726231566347743E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>2.4726231566347743E-3</v>
+        <v>0.11920292202211755</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>1.7986209962091559E-2</v>
+        <v>0.88079707797788231</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>0.11920292202211755</v>
+        <v>0.99752737684336534</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.99995460213129761</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>0.88079707797788231</v>
+        <v>0.99999916847197223</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>0.98201379003790845</v>
+        <v>0.9999999847700205</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>0.99752737684336534</v>
+        <v>0.99999999972105313</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>0.99966464986953363</v>
+        <v>0.99999999999489098</v>
       </c>
       <c r="P7">
         <f t="shared" si="5"/>
-        <v>0.99995460213129761</v>
+        <v>0.99999999999990652</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>0.99999385582539779</v>
+        <v>0.99999999999999822</v>
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>0.99999916847197223</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>0.99999988746483792</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
-        <v>0.9999999847700205</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="5"/>
-        <v>0.99999999793884631</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>0.99999999972105313</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="5"/>
-        <v>0.99999999996224864</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="5"/>
-        <v>0.99999999999489098</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="5"/>
-        <v>0.99999999999930855</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="5"/>
-        <v>0.99999999999990652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4372,7 +4483,7 @@
       </c>
       <c r="B8">
         <f>4*h/(1-h)</f>
-        <v>12</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -4382,83 +4493,83 @@
       </c>
       <c r="G8">
         <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
-        <v>0.30058762327883659</v>
+        <v>0.30023504629495368</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>0.30442203508659083</v>
+        <v>0.3095359767841967</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>0.33281045373267426</v>
+        <v>0.38688930347997585</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.51997882040749943</v>
+        <v>0.42512469806584496</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>1.2012520504523043</v>
+        <v>0.42749191716314267</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.8322901607845929</v>
+        <v>0.42757663770624493</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>1.9902224251439988</v>
+        <v>0.42757961682034601</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>2.0137519237952866</v>
+        <v>0.42757972224244389</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>2.0169334709232887</v>
+        <v>0.42757972598753419</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>2.0173579311311629</v>
+        <v>0.42757972612084816</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>2.0174144767534141</v>
+        <v>0.42757972612559875</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>2.0174220107296099</v>
+        <v>0.42757972612576811</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>2.0174230148948773</v>
+        <v>0.42757972612577416</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>2.0174231487862881</v>
+        <v>0.42757972612577433</v>
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>2.0174231666456794</v>
+        <v>0.42757972612577438</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>2.0174231690287963</v>
+        <v>0.42757972612577438</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>2.0174231693469133</v>
+        <v>0.42757972612577438</v>
       </c>
       <c r="X8">
         <f t="shared" si="6"/>
-        <v>2.0174231693893931</v>
+        <v>0.42757972612577438</v>
       </c>
       <c r="Y8">
         <f t="shared" si="6"/>
-        <v>2.0174231693950677</v>
+        <v>0.42757972612577438</v>
       </c>
       <c r="Z8">
         <f t="shared" si="6"/>
-        <v>2.0174231693958262</v>
+        <v>0.42757972612577438</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4467,83 +4578,83 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
-        <v>0.74038302652748966</v>
+        <v>0.74064411456601276</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="7"/>
-        <v>0.73754952897821635</v>
+        <v>0.73378737161375129</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="7"/>
-        <v>0.71690606814732871</v>
+        <v>0.67916627210847402</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="7"/>
-        <v>0.59453313980647804</v>
+        <v>0.65368826638485422</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="7"/>
-        <v>0.3008173375450402</v>
+        <v>0.65214267313767105</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="7"/>
-        <v>0.16004661526344732</v>
+        <v>0.65208742559655652</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13666502432694708</v>
+        <v>0.6520854829566054</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13348690126841559</v>
+        <v>0.65208541421238941</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13306288127851906</v>
+        <v>0.65208541177027068</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13300641336531011</v>
+        <v>0.65208541168333867</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299889264753681</v>
+        <v>0.65208541168024081</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="7"/>
-        <v>0.1329978906408201</v>
+        <v>0.65208541168013034</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299775708902473</v>
+        <v>0.65208541168012646</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773928176858</v>
+        <v>0.65208541168012635</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773690650993</v>
+        <v>0.65208541168012635</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773658956079</v>
+        <v>0.65208541168012635</v>
       </c>
       <c r="W9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773654725194</v>
+        <v>0.65208541168012635</v>
       </c>
       <c r="X9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773654160221</v>
+        <v>0.65208541168012635</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773654084751</v>
+        <v>0.65208541168012635</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="7"/>
-        <v>0.13299773654074665</v>
+        <v>0.65208541168012635</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4552,83 +4663,83 @@
       </c>
       <c r="G10">
         <f t="shared" ref="G10:Z10" si="8">1-sa</f>
-        <v>0.25961697347251034</v>
+        <v>0.25935588543398724</v>
       </c>
       <c r="H10">
         <f t="shared" si="8"/>
-        <v>0.26245047102178365</v>
+        <v>0.26621262838624871</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
-        <v>0.28309393185267129</v>
+        <v>0.32083372789152598</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.40546686019352196</v>
+        <v>0.34631173361514578</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.69918266245495975</v>
+        <v>0.34785732686232895</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.83995338473655268</v>
+        <v>0.34791257440344348</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>0.86333497567305295</v>
+        <v>0.3479145170433946</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>0.86651309873158444</v>
+        <v>0.34791458578761059</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0.86693711872148094</v>
+        <v>0.34791458822972932</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
-        <v>0.86699358663468984</v>
+        <v>0.34791458831666133</v>
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>0.86700110735246316</v>
+        <v>0.34791458831975919</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>0.86700210935917987</v>
+        <v>0.34791458831986966</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>0.86700224291097527</v>
+        <v>0.34791458831987354</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0.86700226071823139</v>
+        <v>0.34791458831987365</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
-        <v>0.86700226309349004</v>
+        <v>0.34791458831987365</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>0.86700226341043918</v>
+        <v>0.34791458831987365</v>
       </c>
       <c r="W10">
         <f t="shared" si="8"/>
-        <v>0.86700226345274811</v>
+        <v>0.34791458831987365</v>
       </c>
       <c r="X10">
         <f t="shared" si="8"/>
-        <v>0.86700226345839781</v>
+        <v>0.34791458831987365</v>
       </c>
       <c r="Y10">
         <f t="shared" si="8"/>
-        <v>0.86700226345915254</v>
+        <v>0.34791458831987365</v>
       </c>
       <c r="Z10">
         <f t="shared" si="8"/>
-        <v>0.86700226345925335</v>
+        <v>0.34791458831987365</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4637,165 +4748,165 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
-        <v>1.7970207722761125E-6</v>
+        <v>6.5397059436521005E-6</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>8.2864422585796242E-5</v>
+        <v>1.0615092881088386E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="9"/>
-        <v>1.5845630537516199E-3</v>
+        <v>3.8083510229611359E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>1.7895878607042046E-2</v>
+        <v>0.13134226499213886</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>8.0981334087791249E-2</v>
+        <v>0.2052677147118479</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
-        <v>0.14144887493689123</v>
+        <v>0.27765527047168931</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.18298818292344909</v>
+        <v>0.34796611255761295</v>
       </c>
       <c r="N11">
         <f t="shared" si="9"/>
-        <v>0.21835887944399396</v>
+        <v>0.41365009372725131</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.24991257677319109</v>
+        <v>0.47320411178910321</v>
       </c>
       <c r="P11">
         <f t="shared" si="9"/>
-        <v>0.27781969411126828</v>
+        <v>0.52601574946682272</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.30214579213221959</v>
+        <v>0.57207012583461792</v>
       </c>
       <c r="R11">
         <f t="shared" si="9"/>
-        <v>0.32308666005049214</v>
+        <v>0.61171817394034211</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>0.34093469521790348</v>
+        <v>0.64551080005572448</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>0.3560274788108041</v>
+        <v>0.67408680667531617</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.36871095086952649</v>
+        <v>0.69810113519177053</v>
       </c>
       <c r="V11">
         <f t="shared" si="9"/>
-        <v>0.37931679703929472</v>
+        <v>0.71818177882839518</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>0.38815003392681913</v>
+        <v>0.73490624192982434</v>
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>0.39548334542809238</v>
+        <v>0.74879081213386489</v>
       </c>
       <c r="Y11">
         <f t="shared" si="9"/>
-        <v>0.40155566631262152</v>
+        <v>0.76028787803858755</v>
       </c>
       <c r="Z11">
         <f t="shared" si="9"/>
-        <v>0.40657329027911904</v>
+        <v>0.7697880270797135</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="G12">
         <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
-        <v>1.7251738214550291E-6</v>
+        <v>1.2722282809076202E-5</v>
       </c>
       <c r="H12">
         <f t="shared" si="10"/>
-        <v>7.6384778995018047E-5</v>
+        <v>3.6735169142997561E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="10"/>
-        <v>1.4052284442777866E-3</v>
+        <v>6.7087689058764943E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="10"/>
-        <v>1.5521486565706564E-2</v>
+        <v>0.13569142267038234</v>
       </c>
       <c r="K12">
         <f t="shared" si="10"/>
-        <v>7.3506587115307026E-2</v>
+        <v>0.20551961476783867</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>0.13778637698194049</v>
+        <v>0.27766764511284553</v>
       </c>
       <c r="M12">
         <f t="shared" si="10"/>
-        <v>0.18217022911512532</v>
+        <v>0.34796667082288718</v>
       </c>
       <c r="N12">
         <f t="shared" si="10"/>
-        <v>0.21820846998379981</v>
+        <v>0.41365011751152714</v>
       </c>
       <c r="O12">
         <f t="shared" si="10"/>
-        <v>0.249886811556947</v>
+        <v>0.47320411276203206</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>0.27781546731431694</v>
+        <v>0.52601574950545138</v>
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
-        <v>0.30214512062038301</v>
+        <v>0.57207012583611749</v>
       </c>
       <c r="R12">
         <f t="shared" si="10"/>
-        <v>0.32308655601399078</v>
+        <v>0.61171817394039929</v>
       </c>
       <c r="S12">
         <f t="shared" si="10"/>
-        <v>0.34093467942003008</v>
+        <v>0.64551080005572659</v>
       </c>
       <c r="T12">
         <f t="shared" si="10"/>
-        <v>0.35602747645057903</v>
+        <v>0.6740868066753164</v>
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>0.36871095052156089</v>
+        <v>0.69810113519177053</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>0.37931679698855386</v>
+        <v>0.71818177882839518</v>
       </c>
       <c r="W12">
         <f t="shared" si="10"/>
-        <v>0.38815003391948716</v>
+        <v>0.73490624192982434</v>
       </c>
       <c r="X12">
         <f t="shared" si="10"/>
-        <v>0.395483345427041</v>
+        <v>0.74879081213386489</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>0.40155566631247175</v>
+        <v>0.76028787803858755</v>
       </c>
       <c r="Z12">
         <f t="shared" si="10"/>
-        <v>0.40657329027909783</v>
+        <v>0.7697880270797135</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4816,79 +4927,79 @@
       </c>
       <c r="H14">
         <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
-        <v>0.74038302652748966</v>
+        <v>0.74064411456601276</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="H14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
-        <v>0.54606915247881627</v>
+        <f t="shared" ref="I14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
+        <v>0.54347529812858864</v>
       </c>
       <c r="J14">
         <f t="shared" si="11"/>
-        <v>0.39148028904013227</v>
+        <v>0.36911009221303509</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>0.23274800541537738</v>
+        <v>0.24128293628389258</v>
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
-        <v>7.0014635307972417E-2</v>
+        <v>0.15735089905068406</v>
       </c>
       <c r="M14">
         <f t="shared" si="11"/>
-        <v>1.1205605399945636E-2</v>
+        <v>0.10260654267726421</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
-        <v>1.53141433458174E-3</v>
+        <v>6.6908236936211382E-2</v>
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>2.0442375408134909E-4</v>
+        <v>4.3629885396770089E-2</v>
       </c>
       <c r="P14">
         <f t="shared" si="11"/>
-        <v>2.7201213719835729E-5</v>
+        <v>2.8450411784442544E-2</v>
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>3.6179358760586158E-6</v>
+        <v>1.8552098481018728E-2</v>
       </c>
       <c r="R14">
         <f t="shared" si="11"/>
-        <v>4.8118146518559185E-7</v>
+        <v>1.2097552775527468E-2</v>
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>6.3996119885142926E-8</v>
+        <v>7.8886376819519329E-3</v>
       </c>
       <c r="T14">
         <f t="shared" si="11"/>
-        <v>8.5113404071243431E-9</v>
+        <v>5.1440655504309844E-3</v>
       </c>
       <c r="U14">
         <f t="shared" si="11"/>
-        <v>1.1319890324051055E-9</v>
+        <v>3.3543701021623443E-3</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>1.5055197951286896E-10</v>
+        <v>2.1873358089960398E-3</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
-        <v>2.0023072514289499E-11</v>
+        <v>1.4263297714918648E-3</v>
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
-        <v>2.6630233231219963E-12</v>
+        <v>9.3008883623489321E-4</v>
       </c>
       <c r="Y14">
         <f t="shared" si="11"/>
-        <v>3.5417607433272128E-13</v>
+        <v>6.0649736167531991E-4</v>
       </c>
       <c r="Z14">
         <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
-        <v>5.4330442039715243E-14</v>
+        <v>1.136739001606189E-3</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4897,7 +5008,7 @@
       </c>
       <c r="B15">
         <f>phif/phie</f>
-        <v>0.16531088332217048</v>
+        <v>0.51908694922317566</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -4908,79 +5019,79 @@
       </c>
       <c r="H15">
         <f>G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.74038300066471219</v>
+        <v>0.74064402042894717</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="H15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
-        <v>0.54606898692763139</v>
+        <f t="shared" ref="I15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
+        <v>0.54347335704416233</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.39147937637179459</v>
+        <v>0.36909031891664501</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.23274426399277992</v>
+        <v>0.24124671589489541</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>7.0009653276790901E-2</v>
+        <v>0.15731156624272721</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>1.1203794939095554E-2</v>
+        <v>0.10257063713689357</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>1.5310158775165392E-3</v>
+        <v>6.6878135317477036E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>2.0435016572493457E-4</v>
+        <v>4.3605895762888182E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>2.7188703466402603E-5</v>
+        <v>2.8431925159479992E-2</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>3.615910333921048E-6</v>
+        <v>1.8538189710904391E-2</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>4.8086398171031317E-7</v>
+        <v>1.2087274281574955E-2</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>6.3947500186109322E-8</v>
+        <v>7.8811470718772193E-3</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>8.50402365137216E-9</v>
+        <v>5.1386671404684411E-3</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>1.1309028244950087E-9</v>
+        <v>3.350514809545414E-3</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>1.5039247631941348E-10</v>
+        <v>2.1846033576636342E-3</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>1.9999858864692304E-11</v>
+        <v>1.4244055321643958E-3</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>2.6596699799717833E-12</v>
+        <v>9.287411890781009E-4</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>3.5369471604375885E-13</v>
+        <v>6.0555802179421299E-4</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>5.425034436117285E-14</v>
+        <v>1.1346522804425844E-3</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4993,79 +5104,79 @@
       </c>
       <c r="H16">
         <f>G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
-        <v>0.74038305239026803</v>
+        <v>0.74064420870309022</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="H16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
-        <v>0.54606931803005143</v>
+        <f t="shared" ref="I16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
+        <v>0.54347723921994773</v>
       </c>
       <c r="J16">
         <f t="shared" si="13"/>
-        <v>0.3914812017105978</v>
+        <v>0.36912986656874103</v>
       </c>
       <c r="K16">
         <f t="shared" si="13"/>
-        <v>0.23275174689811928</v>
+        <v>0.24131916211095997</v>
       </c>
       <c r="L16">
         <f t="shared" si="13"/>
-        <v>7.0019617693685587E-2</v>
+        <v>0.15739024169307214</v>
       </c>
       <c r="M16">
         <f t="shared" si="13"/>
-        <v>1.1207416153354495E-2</v>
+        <v>0.10264246078661039</v>
       </c>
       <c r="N16">
         <f t="shared" si="13"/>
-        <v>1.5318128953480431E-3</v>
+        <v>6.6938352103580817E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="13"/>
-        <v>2.0449736893760138E-4</v>
+        <v>4.3653888228466754E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>2.7213729729572821E-5</v>
+        <v>2.8468910429530394E-2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="13"/>
-        <v>3.6199625528540072E-6</v>
+        <v>1.8566017686557947E-2</v>
       </c>
       <c r="R16">
         <f t="shared" si="13"/>
-        <v>4.8149915827473448E-7</v>
+        <v>1.2107840009865572E-2</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>6.4044776550048952E-8</v>
+        <v>7.8961354114521296E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="13"/>
-        <v>8.5186634581218063E-9</v>
+        <v>5.1494696316754648E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="13"/>
-        <v>1.1330762835946055E-9</v>
+        <v>3.3582298308979042E-3</v>
       </c>
       <c r="V16">
         <f t="shared" si="13"/>
-        <v>1.5071165187215855E-10</v>
+        <v>2.1900716780153488E-3</v>
       </c>
       <c r="W16">
         <f t="shared" si="13"/>
-        <v>2.0046313107753189E-11</v>
+        <v>1.4282566102876075E-3</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>2.6663808942066385E-12</v>
+        <v>9.3143843889110839E-4</v>
       </c>
       <c r="Y16">
         <f t="shared" si="13"/>
-        <v>3.5465808772279712E-13</v>
+        <v>6.0743815865777883E-4</v>
       </c>
       <c r="Z16">
         <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
-        <v>5.441065807438646E-14</v>
+        <v>1.138829621776346E-3</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5074,7 +5185,7 @@
       </c>
       <c r="B17">
         <f>ro*(reck-phie/phif)/(reck-1)</f>
-        <v>0.54098104574874695</v>
+        <v>0.4441242822654039</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>31</v>
@@ -5084,80 +5195,80 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
-        <v>-2.5862777475182952E-4</v>
+        <f t="shared" ref="H17:Y17" si="14">(H15-H14)/dh</f>
+        <v>-9.4137065587140967E-4</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.655511848719371E-3</v>
+        <v>-1.9410844263045846E-2</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-9.1266833768255395E-3</v>
+        <v>-0.19773296390079853</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.7414225974585769E-2</v>
+        <v>-0.36220388997171282</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-4.9820311815162999E-2</v>
+        <v>-0.39332807956843352</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.8104608500817132E-2</v>
+        <v>-0.35905540370639866</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.9845706520076976E-3</v>
+        <v>-0.30101618734346136</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-7.3588356414516038E-4</v>
+        <v>-0.23989633881907335</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.2510253433126184E-4</v>
+        <v>-0.18486624962552045</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.0255421375677333E-5</v>
+        <v>-0.1390877011433686</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.1748347527867745E-6</v>
+        <v>-0.1027849395251329</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-4.8619699033603744E-7</v>
+        <v>-7.4906100747135912E-2</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-7.3167557521830944E-8</v>
+        <v>-5.398409962543288E-2</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.0862079100968683E-8</v>
+        <v>-3.8552926169303434E-2</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.5950319345547635E-9</v>
+        <v>-2.7324513324055583E-2</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.3213649597194491E-10</v>
+        <v>-1.9242393274690201E-2</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.353343150212966E-11</v>
+        <v>-1.3476471567923061E-2</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="14"/>
-        <v>-4.8135828896243483E-12</v>
+        <v>-9.3933988110691397E-3</v>
       </c>
       <c r="Z17" s="3">
         <f>(Z15-Z14)/dh</f>
-        <v>-8.0097678542392797E-13</v>
+        <v>-2.0867211636046296E-2</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5177,79 +5288,79 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
-        <v>-2.5862777969908171E-4</v>
+        <v>-9.4137071476889562E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="15"/>
-        <v>-1.6555121005380469E-3</v>
+        <v>-1.9410878926296116E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="15"/>
-        <v>-9.1266940162349122E-3</v>
+        <v>-0.19773826038523901</v>
       </c>
       <c r="K18">
         <f t="shared" si="15"/>
-        <v>-3.7414526695246447E-2</v>
+        <v>-0.36223107896185969</v>
       </c>
       <c r="L18">
         <f t="shared" si="15"/>
-        <v>-4.9822084431363697E-2</v>
+        <v>-0.39337724762671011</v>
       </c>
       <c r="M18">
         <f t="shared" si="15"/>
-        <v>-1.8106071215911901E-2</v>
+        <v>-0.35911824125207226</v>
       </c>
       <c r="N18">
         <f t="shared" si="15"/>
-        <v>-3.9850891125426998E-3</v>
+        <v>-0.30108392035740528</v>
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>-7.3601604743228784E-4</v>
+        <v>-0.23996231579489385</v>
       </c>
       <c r="P18">
         <f t="shared" si="15"/>
-        <v>-1.2513131143772387E-4</v>
+        <v>-0.18492633723026297</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>-2.0261093605751674E-5</v>
+        <v>-0.13913986522354255</v>
       </c>
       <c r="R18">
         <f t="shared" si="15"/>
-        <v>-3.1758825915258834E-6</v>
+        <v>-0.1028286290709227</v>
       </c>
       <c r="S18">
         <f t="shared" si="15"/>
-        <v>-4.8638177287367379E-7</v>
+        <v>-7.494168660216724E-2</v>
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
-        <v>-7.3199024724870852E-8</v>
+        <v>-5.4012446110408209E-2</v>
       </c>
       <c r="U18">
         <f t="shared" si="15"/>
-        <v>-1.0867293828707376E-8</v>
+        <v>-3.8575098259918519E-2</v>
       </c>
       <c r="V18">
         <f t="shared" si="15"/>
-        <v>-1.5958774648608021E-9</v>
+        <v>-2.7341594638416331E-2</v>
       </c>
       <c r="W18">
         <f t="shared" si="15"/>
-        <v>-2.3227116321215562E-10</v>
+        <v>-1.9255384767274713E-2</v>
       </c>
       <c r="X18">
         <f t="shared" si="15"/>
-        <v>-3.3554562295485794E-11</v>
+        <v>-1.3486244339262458E-2</v>
       </c>
       <c r="Y18">
         <f t="shared" si="15"/>
-        <v>-4.8168569102756519E-12</v>
+        <v>-9.4006805536620535E-3</v>
       </c>
       <c r="Z18">
         <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
-        <v>-8.015682745448369E-13</v>
+        <v>-2.0886694305078016E-2</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5258,7 +5369,7 @@
       </c>
       <c r="B19">
         <f>SUMPRODUCT(lz,fa)</f>
-        <v>8.8389878042416548E-2</v>
+        <v>0.27754997864132247</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -5268,79 +5379,79 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
-        <v>-2.4828754454115959E-4</v>
+        <v>-1.831333788501182E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="16"/>
-        <v>-1.5333475930705369E-3</v>
+        <v>-6.6127653190980976E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="16"/>
-        <v>-8.1405128687474793E-3</v>
+        <v>-0.37002276237438858</v>
       </c>
       <c r="K19">
         <f t="shared" si="16"/>
-        <v>-3.2584047015824097E-2</v>
+        <v>-0.48256587256778516</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
-        <v>-4.4809163923728829E-2</v>
+        <v>-0.47204555375659685</v>
       </c>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>-1.7041419512023068E-2</v>
+        <v>-0.4104214272704883</v>
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>-3.8328360069973394E-3</v>
+        <v>-0.33453809053461597</v>
       </c>
       <c r="O19">
         <f t="shared" si="16"/>
-        <v>-7.155516928173234E-4</v>
+        <v>-0.26177729472068656</v>
       </c>
       <c r="P19">
         <f t="shared" si="16"/>
-        <v>-1.2240546173926078E-4</v>
+        <v>-0.19915156680434359</v>
       </c>
       <c r="Q19">
         <f t="shared" si="16"/>
-        <v>-1.989848307174451E-5</v>
+        <v>-0.14841592990800931</v>
       </c>
       <c r="R19">
         <f t="shared" si="16"/>
-        <v>-3.127654722630431E-6</v>
+        <v>-0.10887741552949746</v>
       </c>
       <c r="S19">
         <f t="shared" si="16"/>
-        <v>-4.7996754743322217E-7</v>
+        <v>-7.8886012010172896E-2</v>
       </c>
       <c r="T19">
         <f t="shared" si="16"/>
-        <v>-7.2345946733437909E-8</v>
+        <v>-5.6584483167887972E-2</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
-        <v>-1.0753836376911428E-8</v>
+        <v>-4.0252286103401751E-2</v>
       </c>
       <c r="V19">
         <f t="shared" si="16"/>
-        <v>-1.5807878803946801E-9</v>
+        <v>-2.8435264363799E-2</v>
       </c>
       <c r="W19">
         <f t="shared" si="16"/>
-        <v>-2.3026428262940591E-10</v>
+        <v>-1.9968550840392962E-2</v>
       </c>
       <c r="X19">
         <f t="shared" si="16"/>
-        <v>-3.328765172040915E-11</v>
+        <v>-1.395128953164807E-2</v>
       </c>
       <c r="Y19">
         <f t="shared" si="16"/>
-        <v>-4.7813584079304996E-12</v>
+        <v>-9.7039297393886875E-3</v>
       </c>
       <c r="Z19">
         <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-7.9612282109967989E-13</v>
+        <v>-2.1455064752178697E-2</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5349,11 +5460,11 @@
       </c>
       <c r="B20">
         <f>B6</f>
-        <v>0.83668503118770632</v>
+        <v>6.6918965439920666E-2</v>
       </c>
       <c r="C20">
         <f>B7</f>
-        <v>0.8807381382082371</v>
+        <v>6.066076068585366E-2</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -5363,79 +5474,79 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:Y20" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
-        <v>9.0342871237598882E-8</v>
+        <v>1.1964974880597898E-6</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="17"/>
-        <v>3.9956689235146171E-6</v>
+        <v>6.4569592936719101E-4</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="17"/>
-        <v>1.6389734172626811E-4</v>
+        <v>9.2716057950522707E-2</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="17"/>
-        <v>4.4938625980053262E-3</v>
+        <v>0.28555453489759308</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="17"/>
-        <v>2.2596315220589306E-2</v>
+        <v>0.34317345985957581</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="17"/>
-        <v>1.2778109386978742E-2</v>
+        <v>0.32637632462492194</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="17"/>
-        <v>3.2364334840502603E-3</v>
+        <v>0.27973328347665011</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="17"/>
-        <v>6.3571607527242429E-4</v>
+        <v>0.22603987437998355</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="17"/>
-        <v>1.1177879139687629E-4</v>
+        <v>0.17584771622873302</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="17"/>
-        <v>1.8485013604690162E-5</v>
+        <v>0.13321982890887876</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="17"/>
-        <v>2.9396640310858973E-6</v>
+        <v>9.8968259753481447E-2</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="17"/>
-        <v>4.5496516999764827E-7</v>
+        <v>7.2424396086565479E-2</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="17"/>
-        <v>6.9020686443567337E-8</v>
+        <v>5.2370957688223543E-2</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="17"/>
-        <v>1.0311584273603702E-8</v>
+        <v>3.750470760637007E-2</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="17"/>
-        <v>1.5219693514864602E-9</v>
+        <v>2.6643608508438631E-2</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="17"/>
-        <v>2.224415514148566E-10</v>
+        <v>1.8800238194361187E-2</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="17"/>
-        <v>3.2247246175256635E-11</v>
+        <v>1.3189449898889342E-2</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="17"/>
-        <v>4.6429868253399575E-12</v>
+        <v>9.2071452288269764E-3</v>
       </c>
       <c r="Z20" s="4">
         <f>Y20*EXP(-Y$8)/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
-        <v>7.3979171630401916E-13</v>
+        <v>3.1634789005136561E-2</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5444,11 +5555,11 @@
       </c>
       <c r="B21">
         <f>SUMPRODUCT(fa,G18:Z18)</f>
-        <v>-3.6746695310946972E-2</v>
+        <v>-1.1863689897094409</v>
       </c>
       <c r="C21">
         <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-3.326931135686502E-2</v>
+        <v>-1.3250641418892495</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>59</v>
@@ -5458,79 +5569,79 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ref="H21:Y21" si="18">G21*EXP(-G$8)+G$14*G7^2*EXP(-G$8)</f>
-        <v>8.3263260455079369E-8</v>
+        <v>4.5281983329757121E-6</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="18"/>
-        <v>3.4000040074694073E-6</v>
+        <v>7.7257461897620042E-3</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="18"/>
-        <v>1.2908282459064328E-4</v>
+        <v>0.29160396492227947</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="18"/>
-        <v>3.383938773256366E-3</v>
+        <v>0.43070929820514015</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="18"/>
-        <v>1.8521606279179512E-2</v>
+        <v>0.43822052566081882</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="18"/>
-        <v>1.1657668199913002E-2</v>
+        <v>0.38836446645863609</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="18"/>
-        <v>3.070016581475044E-3</v>
+        <v>0.32015506557205337</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="18"/>
-        <v>6.1322107838818294E-4</v>
+        <v>0.25239833391817634</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="18"/>
-        <v>1.0877993646878897E-4</v>
+        <v>0.19303568328731613</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="18"/>
-        <v>1.8086036586179228E-5</v>
+        <v>0.14442785148699938</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="18"/>
-        <v>2.8865983906225564E-6</v>
+        <v>0.1062768477705201</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="18"/>
-        <v>4.4790751053603851E-7</v>
+        <v>7.7190219712458069E-2</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="18"/>
-        <v>6.8082032776096132E-8</v>
+        <v>5.5478681749308617E-2</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="18"/>
-        <v>1.0186745442852822E-8</v>
+        <v>3.9531209130130966E-2</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="18"/>
-        <v>1.5053660692343759E-9</v>
+        <v>2.7965060588830658E-2</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="18"/>
-        <v>2.2023335245001484E-10</v>
+        <v>1.9661937818219181E-2</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" si="18"/>
-        <v>3.195356071098609E-11</v>
+        <v>1.3751351652857393E-2</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="18"/>
-        <v>4.603927323334922E-12</v>
+        <v>9.5735531653870186E-3</v>
       </c>
       <c r="Z21" s="4">
         <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
-        <v>7.3380000719779153E-13</v>
+        <v>3.2321535919971153E-2</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5539,94 +5650,94 @@
       </c>
       <c r="B22">
         <f>SUMPRODUCT(fa,G20:Z20)</f>
-        <v>1.6413374352863434E-2</v>
+        <v>1.1083961420918551</v>
       </c>
       <c r="C22">
         <f>SUMPRODUCT(fa,G21:Z21)</f>
-        <v>1.4163446798239344E-2</v>
+        <v>1.2759145170604245</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22:Z22" si="19">G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-8.5356450877766674E-7</v>
+        <v>-3.1064775182257074E-6</v>
       </c>
       <c r="H22">
         <f t="shared" si="19"/>
-        <v>-2.9143142189788449E-5</v>
+        <v>-3.7385210667271156E-4</v>
       </c>
       <c r="I22">
         <f t="shared" si="19"/>
-        <v>-4.1131006962206697E-4</v>
+        <v>-1.0422315025492327E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="19"/>
-        <v>-3.3640553998272316E-3</v>
+        <v>-4.8498924894933348E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="19"/>
-        <v>-1.0611082044176096E-2</v>
+        <v>-9.7359107693992669E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="19"/>
-        <v>-1.0565224016429122E-2</v>
+        <v>-0.12951593153214858</v>
       </c>
       <c r="M22">
         <f t="shared" si="19"/>
-        <v>-4.0188896366712057E-3</v>
+        <v>-0.14154446024006248</v>
       </c>
       <c r="N22">
         <f t="shared" si="19"/>
-        <v>-9.8472253467679063E-4</v>
+        <v>-0.13739852031421615</v>
       </c>
       <c r="O22">
         <f t="shared" si="19"/>
-        <v>-2.014279285892466E-4</v>
+        <v>-0.12314066168509601</v>
       </c>
       <c r="P22">
         <f t="shared" si="19"/>
-        <v>-3.7350615161081227E-5</v>
+        <v>-0.10422522545149836</v>
       </c>
       <c r="Q22">
         <f t="shared" si="19"/>
-        <v>-6.4959687070321502E-6</v>
+        <v>-8.4527295912452047E-2</v>
       </c>
       <c r="R22">
         <f t="shared" si="19"/>
-        <v>-1.0792976516686426E-6</v>
+        <v>-6.6339403034712585E-2</v>
       </c>
       <c r="S22">
         <f t="shared" si="19"/>
-        <v>-1.7329250726503685E-7</v>
+        <v>-5.074087547674791E-2</v>
       </c>
       <c r="T22">
         <f t="shared" si="19"/>
-        <v>-2.7098072377119118E-8</v>
+        <v>-3.8019671137637739E-2</v>
       </c>
       <c r="U22">
         <f t="shared" si="19"/>
-        <v>-4.1497509156321501E-9</v>
+        <v>-2.8016979565320021E-2</v>
       </c>
       <c r="V22">
         <f t="shared" si="19"/>
-        <v>-6.2488980765790384E-10</v>
+        <v>-2.036588333455203E-2</v>
       </c>
       <c r="W22">
         <f t="shared" si="19"/>
-        <v>-9.2816262946428491E-11</v>
+        <v>-1.4637775342914305E-2</v>
       </c>
       <c r="X22">
         <f t="shared" si="19"/>
-        <v>-1.3630755893021168E-11</v>
+        <v>-1.0421856753160142E-2</v>
       </c>
       <c r="Y22">
         <f t="shared" si="19"/>
-        <v>-1.9829160572218311E-12</v>
+        <v>-7.3613994137731748E-3</v>
       </c>
       <c r="Z22">
         <f t="shared" si="19"/>
-        <v>-3.3345702941560832E-13</v>
+        <v>-1.6484766430960765E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5635,94 +5746,94 @@
       </c>
       <c r="B23">
         <f>SUMPRODUCT(lz*G11:Z11)</f>
-        <v>3.9130858872943895E-2</v>
+        <v>0.29574480773656181</v>
       </c>
       <c r="C23">
         <f>SUMPRODUCT(lz*G12:Z12)</f>
-        <v>3.6092970528264344E-2</v>
+        <v>0.31511671637946242</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:Z23" si="20">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-8.1943802107597177E-7</v>
+        <v>-6.0433123243510609E-6</v>
       </c>
       <c r="H23">
         <f t="shared" si="20"/>
-        <v>-2.686348322442814E-5</v>
+        <v>-1.2970422766037334E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="20"/>
-        <v>-3.6458794584634893E-4</v>
+        <v>-2.1494009666134926E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="20"/>
-        <v>-2.9024117601238802E-3</v>
+        <v>-7.3482406823427313E-2</v>
       </c>
       <c r="K23">
         <f t="shared" si="20"/>
-        <v>-9.2765848422944643E-3</v>
+        <v>-0.12220974508947238</v>
       </c>
       <c r="L23">
         <f t="shared" si="20"/>
-        <v>-9.6009493368125389E-3</v>
+        <v>-0.15136534715342881</v>
       </c>
       <c r="M23">
         <f t="shared" si="20"/>
-        <v>-3.8069774291694808E-3</v>
+        <v>-0.15939648617072902</v>
       </c>
       <c r="N23">
         <f t="shared" si="20"/>
-        <v>-9.5082132315812593E-4</v>
+        <v>-0.15123684963948408</v>
       </c>
       <c r="O23">
         <f t="shared" si="20"/>
-        <v>-1.9629338966545946E-4</v>
+        <v>-0.13346359968578086</v>
       </c>
       <c r="P23">
         <f t="shared" si="20"/>
-        <v>-3.6592763694545026E-5</v>
+        <v>-0.1117079202554494</v>
       </c>
       <c r="Q23">
         <f t="shared" si="20"/>
-        <v>-6.3863932663603874E-6</v>
+        <v>-8.9833855403980492E-2</v>
       </c>
       <c r="R23">
         <f t="shared" si="20"/>
-        <v>-1.0637155280607978E-6</v>
+        <v>-7.0039555641713547E-2</v>
       </c>
       <c r="S23">
         <f t="shared" si="20"/>
-        <v>-1.7110566734092272E-7</v>
+        <v>-5.3286980126549935E-2</v>
       </c>
       <c r="T23">
         <f t="shared" si="20"/>
-        <v>-2.6794352992971547E-8</v>
+        <v>-3.9753447384364871E-2</v>
       </c>
       <c r="U23">
         <f t="shared" si="20"/>
-        <v>-4.1079179068204447E-9</v>
+        <v>-2.9187826302785502E-2</v>
       </c>
       <c r="V23">
         <f t="shared" si="20"/>
-        <v>-6.1916607472673523E-10</v>
+        <v>-2.1151337003378116E-2</v>
       </c>
       <c r="W23">
         <f t="shared" si="20"/>
-        <v>-9.203729217840859E-11</v>
+        <v>-1.5161885541581486E-2</v>
       </c>
       <c r="X23">
         <f t="shared" si="20"/>
-        <v>-1.3525197205823766E-11</v>
+        <v>-1.0770078320445515E-2</v>
       </c>
       <c r="Y23">
         <f t="shared" si="20"/>
-        <v>-1.9686614324587892E-12</v>
+        <v>-7.5919560937062064E-3</v>
       </c>
       <c r="Z23">
         <f t="shared" si="20"/>
-        <v>-3.3124305349133181E-13</v>
+        <v>-1.6922291196084814E-2</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -5731,94 +5842,94 @@
       </c>
       <c r="B24">
         <f>SUM(G22:Z22)</f>
-        <v>-3.0231839492193859E-2</v>
+        <v>-1.1293980118238618</v>
       </c>
       <c r="C24">
         <f>SUM(G23:Z23)</f>
-        <v>-2.7170554555771474E-2</v>
+        <v>-1.2793586630874252</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ref="G24:Z24" si="21">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>6.766244323356963E-14</v>
+        <v>3.260302666037354E-12</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="21"/>
-        <v>1.9813600528682218E-10</v>
+        <v>3.2107691103337816E-7</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="21"/>
-        <v>1.6548822803315331E-7</v>
+        <v>1.9309536473984673E-3</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="21"/>
-        <v>6.194610987647251E-5</v>
+        <v>4.8974883433694327E-2</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="21"/>
-        <v>3.0758707444317537E-3</v>
+        <v>0.14233775921794473</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="21"/>
-        <v>9.3200262914944453E-3</v>
+        <v>0.20977466282520546</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="21"/>
-        <v>4.962000359710346E-3</v>
+        <v>0.24030148113398078</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="21"/>
-        <v>1.3637980331215988E-3</v>
+        <v>0.23966299496639054</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="21"/>
-        <v>2.942708756251006E-4</v>
+        <v>0.2186056469430267</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="21"/>
-        <v>5.6257106396979328E-5</v>
+        <v>0.18732618755907987</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="21"/>
-        <v>9.9791740337345133E-6</v>
+        <v>0.15331970767798969</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="21"/>
-        <v>1.6810924729326668E-6</v>
+        <v>0.12118143222433941</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="21"/>
-        <v>2.726875771813571E-7</v>
+        <v>9.3208529888211031E-2</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="21"/>
-        <v>4.2977014271455491E-8</v>
+        <v>7.0159312883653652E-2</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="21"/>
-        <v>6.6225707354721173E-9</v>
+        <v>5.189671133288945E-2</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="21"/>
-        <v>1.0023227121933395E-9</v>
+        <v>3.7844717108989331E-2</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="21"/>
-        <v>1.4950335691442935E-10</v>
+        <v>2.7274634302425962E-2</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="21"/>
-        <v>2.2033420776880338E-11</v>
+        <v>1.9464813985889881E-2</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="21"/>
-        <v>3.21497004522146E-12</v>
+        <v>1.3777071996086434E-2</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="21"/>
-        <v>5.279835803802328E-13</v>
+        <v>3.9549131099301672E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -5827,94 +5938,94 @@
       </c>
       <c r="B25">
         <f>SUM(G24:Z24)</f>
-        <v>1.9146318938359691E-2</v>
+        <v>1.916590953306669</v>
       </c>
       <c r="C25">
         <f>SUM(G25:Z25)</f>
-        <v>1.6414960953027753E-2</v>
+        <v>2.2208481311791965</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ref="G25:Z25" si="22">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
-        <v>5.9866926422720834E-14</v>
+        <v>2.4003711208157156E-11</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="22"/>
-        <v>1.5746402629849699E-10</v>
+        <v>1.2678656726648556E-5</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="22"/>
-        <v>1.1733816986536485E-7</v>
+        <v>1.2705236883303439E-2</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="22"/>
-        <v>4.088596622934149E-5</v>
+        <v>0.10099202682621122</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="22"/>
-        <v>2.2362056003787608E-3</v>
+        <v>0.19543898211556571</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="22"/>
-        <v>7.8913611583684706E-3</v>
+        <v>0.25647290124791339</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="22"/>
-        <v>4.5912797439913635E-3</v>
+        <v>0.27845537508271928</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="22"/>
-        <v>1.303346339089185E-3</v>
+        <v>0.26923864030618838</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="22"/>
-        <v>2.8510451989814867E-4</v>
+        <v>0.24066810221542509</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="22"/>
-        <v>5.4904324864408088E-5</v>
+        <v>0.20331840010459595</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="22"/>
-        <v>9.783591424014364E-6</v>
+        <v>0.16466102647798647</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="22"/>
-        <v>1.653280165890839E-6</v>
+        <v>0.12908949589369417</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="22"/>
-        <v>2.6878433046722945E-7</v>
+        <v>9.8650131848457195E-2</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" si="22"/>
-        <v>4.2434911951203564E-8</v>
+        <v>7.3864785171900704E-2</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="22"/>
-        <v>6.5479038883640231E-9</v>
+        <v>5.4399075837912966E-2</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="22"/>
-        <v>9.9210654327727645E-10</v>
+        <v>3.9523409390667077E-2</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="22"/>
-        <v>1.4811298859711184E-10</v>
+        <v>2.8394776431962563E-2</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>2.1845011326544307E-11</v>
+        <v>2.0209042296885419E-2</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="22"/>
-        <v>3.1895272693830548E-12</v>
+        <v>1.4269823808769774E-2</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="22"/>
-        <v>5.240319019538591E-13</v>
+        <v>4.0484220558307346E-2</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -5923,15 +6034,15 @@
       </c>
       <c r="B26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.22862389637820754</v>
+        <v>-4.9407141524251053</v>
       </c>
       <c r="C26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.20698894221272543</v>
+        <v>-5.5183195241023961</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>6.766244323356963E-14</v>
+        <v>3.260302666037354E-12</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -5940,11 +6051,11 @@
       </c>
       <c r="B27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-8.7975802454849747E-2</v>
+        <v>-37.621519481832607</v>
       </c>
       <c r="C27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-6.7698730373253427E-2</v>
+        <v>-47.376894445986203</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:Z27" si="23">(G15-2*G14+G16)/dh^2</f>
@@ -5952,79 +6063,79 @@
       </c>
       <c r="H27">
         <f t="shared" si="23"/>
-        <v>8.8817841970012523E-8</v>
+        <v>1.1879386363489175E-6</v>
       </c>
       <c r="I27">
         <f t="shared" si="23"/>
-        <v>5.0293103015519591E-6</v>
+        <v>6.93278767727179E-4</v>
       </c>
       <c r="J27">
         <f t="shared" si="23"/>
-        <v>2.127853448996575E-4</v>
+        <v>0.10593158572547168</v>
       </c>
       <c r="K27">
         <f t="shared" si="23"/>
-        <v>6.0144444979925993E-3</v>
+        <v>0.54380702163570049</v>
       </c>
       <c r="L27">
         <f t="shared" si="23"/>
-        <v>3.5453165403431797E-2</v>
+        <v>0.98344312415843405</v>
       </c>
       <c r="M27">
         <f t="shared" si="23"/>
-        <v>2.9255877755096638E-2</v>
+        <v>1.2568975540916405</v>
       </c>
       <c r="N27">
         <f t="shared" si="23"/>
-        <v>1.0370110239271702E-2</v>
+        <v>1.354863508884474</v>
       </c>
       <c r="O27">
         <f t="shared" si="23"/>
-        <v>2.6499837778781385E-3</v>
+        <v>1.3197814757726078</v>
       </c>
       <c r="P27">
         <f t="shared" si="23"/>
-        <v>5.7563039655239654E-4</v>
+        <v>1.2020125297884654</v>
       </c>
       <c r="Q27">
         <f t="shared" si="23"/>
-        <v>1.134657823664701E-4</v>
+        <v>1.0435424881855004</v>
       </c>
       <c r="R27">
         <f t="shared" si="23"/>
-        <v>2.0961386395798798E-5</v>
+        <v>0.87403855906359462</v>
       </c>
       <c r="S27">
         <f t="shared" si="23"/>
-        <v>3.6965872422383673E-6</v>
+        <v>0.71194254831763448</v>
       </c>
       <c r="T27">
         <f t="shared" si="23"/>
-        <v>6.2952452801661593E-7</v>
+        <v>0.56712819371251832</v>
       </c>
       <c r="U27">
         <f t="shared" si="23"/>
-        <v>1.0432794031167681E-7</v>
+        <v>0.443611862955412</v>
       </c>
       <c r="V27">
         <f t="shared" si="23"/>
-        <v>1.6916583411333011E-8</v>
+        <v>0.34176869034494017</v>
       </c>
       <c r="W27">
         <f t="shared" si="23"/>
-        <v>2.6943866495549024E-9</v>
+        <v>0.25994682736635993</v>
       </c>
       <c r="X27">
         <f t="shared" si="23"/>
-        <v>4.2279344292970485E-10</v>
+        <v>0.19554994228716469</v>
       </c>
       <c r="Y27">
         <f t="shared" si="23"/>
-        <v>6.5510111340339891E-11</v>
+        <v>0.14571013520108325</v>
       </c>
       <c r="Z27">
         <f t="shared" si="23"/>
-        <v>1.1835612882365823E-11</v>
+        <v>0.38990065523002854</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -6044,18 +6155,18 @@
       </c>
       <c r="B29">
         <f>f*re*phiq</f>
-        <v>1.7711829731141989E-2</v>
+        <v>8.7896354986049096E-3</v>
       </c>
       <c r="C29">
         <f>f*re*phiq</f>
-        <v>1.7196951988642725E-2</v>
+        <v>8.489533238671073E-3</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
         <f>B29</f>
-        <v>1.7711829731141989E-2</v>
+        <v>8.7896354986049096E-3</v>
       </c>
       <c r="H29">
         <f>B30</f>
@@ -6079,14 +6190,14 @@
       </c>
       <c r="G30">
         <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
-        <v>8.6019778280879821E-3</v>
+        <v>-1.2410657063575687E-2</v>
       </c>
       <c r="H30">
-        <v>3.0956414063514761E-2</v>
+        <v>-0.28067040911637747</v>
       </c>
       <c r="Z30" s="4">
         <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
-        <v>7.2370579058249841E-39</v>
+        <v>2.2014599919549701E-8</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -6097,10 +6208,10 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G31">
-        <v>8.7617691891247462E-3</v>
+        <v>-1.3833745692980657E-2</v>
       </c>
       <c r="H31">
-        <v>3.0488580079952032E-2</v>
+        <v>-0.28775712485387883</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -6110,22 +6221,22 @@
       </c>
       <c r="C32">
         <f>f*phiq*B26+f*re*B24</f>
-        <v>-2.1671942621530244E-2</v>
+        <v>-0.12486985447140397</v>
       </c>
       <c r="F32">
         <v>0.21</v>
       </c>
       <c r="G32">
-        <v>8.9193648362413704E-3</v>
+        <v>-1.5292157315700194E-2</v>
       </c>
       <c r="H32">
-        <v>3.0026867119453082E-2</v>
+        <v>-0.29470427186923637</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33">
         <f>f*phiq*C26+f*re*C24</f>
-        <v>-1.9075088468176422E-2</v>
+        <v>-0.14723568290856329</v>
       </c>
       <c r="C33">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
@@ -6135,10 +6246,10 @@
         <v>0.215</v>
       </c>
       <c r="G33">
-        <v>9.0747940489639325E-3</v>
+        <v>-1.6785223428318247E-2</v>
       </c>
       <c r="H33">
-        <v>2.957117446688972E-2</v>
+        <v>-0.30151929018151807</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6150,21 +6261,21 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>52.424396440851737</v>
+        <v>6.7918318456879962</v>
       </c>
       <c r="F34">
         <v>0.22</v>
       </c>
       <c r="G34">
-        <v>9.2280856152883398E-3</v>
+        <v>-1.8312311889668711E-2</v>
       </c>
       <c r="H34">
-        <v>2.9121403422145677E-2</v>
+        <v>-0.30820925036421792</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35">
-        <v>46.14261016945192</v>
+        <v>8.008337995052333</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -6173,10 +6284,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G35">
-        <v>9.3792678415793203E-3</v>
+        <v>-1.9872825127943868E-2</v>
       </c>
       <c r="H35">
-        <v>2.8677457252874319E-2</v>
+        <v>-0.31478087482349798</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6184,10 +6295,10 @@
         <v>0.23</v>
       </c>
       <c r="G36">
-        <v>9.528368562236952E-3</v>
+        <v>-2.1466198450753867E-2</v>
       </c>
       <c r="H36">
-        <v>2.823924114852322E-2</v>
+        <v>-0.32124055771350479</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6205,10 +6316,10 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="G37">
-        <v>9.6754151491369664E-3</v>
+        <v>-2.3091898451568477E-2</v>
       </c>
       <c r="H37">
-        <v>2.780666217558718E-2</v>
+        <v>-0.32759438358539661</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6217,20 +6328,20 @@
       </c>
       <c r="B38">
         <f>f+delta</f>
-        <v>0.83668503118770632</v>
+        <v>6.6918965439920666E-2</v>
       </c>
       <c r="C38">
         <f>f+delta</f>
-        <v>0.8807381382082371</v>
+        <v>6.066076068585366E-2</v>
       </c>
       <c r="F38">
         <v>0.24</v>
       </c>
       <c r="G38">
-        <v>9.8204345208507873E-3</v>
+        <v>-2.4749421506435342E-2</v>
       </c>
       <c r="H38">
-        <v>2.737962923405303E-2</v>
+        <v>-0.33384814485918551</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6238,10 +6349,10 @@
         <v>0.245</v>
       </c>
       <c r="G39">
-        <v>9.9634531516513431E-3</v>
+        <v>-2.6438292355296156E-2</v>
       </c>
       <c r="H39">
-        <v>2.6958053015000642E-2</v>
+        <v>-0.34000735820062922</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6250,39 +6361,39 @@
       </c>
       <c r="B40">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-3.3250469374861646E-2</v>
+        <v>-3.8663506163859971</v>
       </c>
       <c r="C40">
         <f>f*B27*phiq+2*f*B26*B24+f*re*B25</f>
-        <v>1.8500723217216748E-2</v>
+        <v>9.4691677147146561E-3</v>
       </c>
       <c r="F40">
         <v>0.25</v>
       </c>
       <c r="G40">
-        <v>1.0104497080310157E-2</v>
+        <v>-2.8158062762619358E-2</v>
       </c>
       <c r="H40">
-        <v>2.6541845959325322E-2</v>
+        <v>-0.34607727987910963</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41">
         <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
-        <v>1.4624486244745702E-2</v>
+        <v>7.3254974939620229E-2</v>
       </c>
       <c r="C41">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-2.8763573854503982E-2</v>
+        <v>-4.6034870065564508</v>
       </c>
       <c r="F41">
         <v>0.255</v>
       </c>
       <c r="G41">
-        <v>1.0243591918691314E-2</v>
+        <v>-2.9908310252431649E-2</v>
       </c>
       <c r="H41">
-        <v>2.6130922217548428E-2</v>
+        <v>-0.35206292017666346</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6291,36 +6402,36 @@
       </c>
       <c r="B42">
         <f t="array" ref="B42:C43">-MINVERSE(B40:C41)</f>
-        <v>41.93926555222739</v>
+        <v>0.25865191066892274</v>
       </c>
       <c r="C42">
-        <v>26.975324688090367</v>
+        <v>5.3203545885263887E-4</v>
       </c>
       <c r="F42">
         <v>0.26</v>
       </c>
       <c r="G42">
-        <v>1.038076286014772E-2</v>
+        <v>-3.1688636913167798E-2</v>
       </c>
       <c r="H42">
-        <v>2.5725197610684029E-2</v>
+        <v>-0.35796905691302222</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43">
-        <v>21.323505044462546</v>
+        <v>4.1159102235220953E-3</v>
       </c>
       <c r="C43">
-        <v>48.481467285754796</v>
+        <v>0.2172351030468673</v>
       </c>
       <c r="F43">
         <v>0.26500000000000001</v>
       </c>
       <c r="G43">
-        <v>1.0516034687724721E-2</v>
+        <v>-3.3498668268071463E-2</v>
       </c>
       <c r="H43">
-        <v>2.5324589592130332E-2</v>
+        <v>-0.36380024814667555</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6328,10 +6439,10 @@
         <v>0.27</v>
       </c>
       <c r="G44">
-        <v>1.0649431782176177E-2</v>
+        <v>-3.5338052207167091E-2</v>
       </c>
       <c r="H44">
-        <v>2.4929017210555415E-2</v>
+        <v>-0.36956084410749035</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6349,10 +6460,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="G45">
-        <v>1.0780978129798001E-2</v>
+        <v>-3.7206457977091136E-2</v>
       </c>
       <c r="H45">
-        <v>2.4538401073748925E-2</v>
+        <v>-0.37525499841232801</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6361,20 +6472,20 @@
       </c>
       <c r="B46" s="5">
         <f>f+dta</f>
-        <v>0.83668503118770632</v>
+        <v>6.6918965439920666E-2</v>
       </c>
       <c r="C46" s="5">
         <f>f+dta</f>
-        <v>0.8807381382082371</v>
+        <v>6.066076068585366E-2</v>
       </c>
       <c r="F46">
         <v>0.28000000000000003</v>
       </c>
       <c r="G46">
-        <v>1.0910697330083647E-2</v>
+        <v>-3.91035752253188E-2</v>
       </c>
       <c r="H46">
-        <v>2.4152663313410299E-2</v>
+        <v>-0.38088667861132164</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6382,10 +6493,10 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="G47">
-        <v>1.1038612603206476E-2</v>
+        <v>-4.1029113095549699E-2</v>
       </c>
       <c r="H47">
-        <v>2.377172755084743E-2</v>
+        <v>-0.38645967610899984</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6393,10 +6504,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G48">
-        <v>1.1164746797333239E-2</v>
+        <v>-4.2982799371232706E-2</v>
       </c>
       <c r="H48">
-        <v>2.3395518863558347E-2</v>
+        <v>-0.39197761550125709</v>
       </c>
     </row>
     <row r="49" spans="6:8">
@@ -6404,10 +6515,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G49">
-        <v>1.1289122395773087E-2</v>
+        <v>-4.496437966440376E-2</v>
       </c>
       <c r="H49">
-        <v>2.3023963752670906E-2</v>
+        <v>-0.3974439633662179</v>
       </c>
     </row>
     <row r="50" spans="6:8">
@@ -6415,10 +6526,10 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="G50">
-        <v>1.1411761523966425E-2</v>
+        <v>-4.6973616647195529E-2</v>
       </c>
       <c r="H50">
-        <v>2.2656990111215754E-2</v>
+        <v>-0.40286203654432179</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -6426,10 +6537,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>1.1532685956317679E-2</v>
+        <v>-4.9010289323551323E-2</v>
       </c>
       <c r="H51">
-        <v>2.229452719320767E-2</v>
+        <v>-0.40823500994047074</v>
       </c>
     </row>
     <row r="52" spans="6:8">
@@ -6437,10 +6548,10 @@
         <v>0.309999999999999</v>
       </c>
       <c r="G52">
-        <v>1.1651917122875555E-2</v>
+        <v>-5.107419233882169E-2</v>
       </c>
       <c r="H52">
-        <v>2.1936505583514256E-2</v>
+        <v>-0.41356592387873292</v>
       </c>
     </row>
     <row r="53" spans="6:8">
@@ -6448,10 +6559,10 @@
         <v>0.314999999999999</v>
       </c>
       <c r="G53">
-        <v>1.1769476115865676E-2</v>
+        <v>-5.3165135325094239E-2</v>
       </c>
       <c r="H53">
-        <v>2.1582857168486146E-2</v>
+        <v>-0.41885769103802228</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -6459,10 +6570,10 @@
         <v>0.31999999999999901</v>
       </c>
       <c r="G54">
-        <v>1.1885383696078014E-2</v>
+        <v>-5.5282942280209101E-2</v>
       </c>
       <c r="H54">
-        <v>2.1233515107330739E-2</v>
+        <v>-0.42411310299512239</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -6470,10 +6581,10 @@
         <v>0.32499999999999901</v>
       </c>
       <c r="G55">
-        <v>1.1999660299113906E-2</v>
+        <v>-5.7427450978574948E-2</v>
       </c>
       <c r="H55">
-        <v>2.0888413804205488E-2</v>
+        <v>-0.42933483639967562</v>
       </c>
     </row>
     <row r="56" spans="6:8">
@@ -6481,10 +6592,10 @@
         <v>0.32999999999999902</v>
       </c>
       <c r="G56">
-        <v>1.2112326041495529E-2</v>
+        <v>-5.9598512411994417E-2</v>
       </c>
       <c r="H56">
-        <v>2.054748888101169E-2</v>
+        <v>-0.43452545880402149</v>
       </c>
     </row>
   </sheetData>
@@ -8107,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
+        <f t="shared" ref="H19:X19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
         <v>-0.12430300293711437</v>
       </c>
       <c r="I19">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -2,171 +2,209 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Allocation" sheetId="3" r:id="rId3"/>
-    <sheet name="SingleFleet" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="FlakLake" sheetId="6" r:id="rId6"/>
+    <sheet name="Allocation(2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Allocation" sheetId="3" r:id="rId4"/>
+    <sheet name="SingleFleet" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="FlakLake" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="age" localSheetId="5">FlakLake!$F$1:$L$1</definedName>
-    <definedName name="age" localSheetId="4">Sheet5!$G$1:$M$1</definedName>
+    <definedName name="age" localSheetId="6">FlakLake!$F$1:$L$1</definedName>
+    <definedName name="age" localSheetId="5">Sheet5!$G$1:$M$1</definedName>
     <definedName name="age">SingleFleet!$F$1:$L$1</definedName>
-    <definedName name="ah" localSheetId="2">Allocation!$E$6:$E$7</definedName>
+    <definedName name="ah" localSheetId="3">Allocation!$E$6:$E$7</definedName>
+    <definedName name="ah" localSheetId="2">'Allocation(2)'!$E$6:$E$7</definedName>
     <definedName name="ah">Sheet2!$E$6:$E$7</definedName>
+    <definedName name="ak" localSheetId="2">'Allocation(2)'!$B$12:$C$12</definedName>
     <definedName name="ak">Allocation!$B$9:$C$9</definedName>
     <definedName name="B">Sheet1!$B$1</definedName>
     <definedName name="beta">FlakLake!$B$15</definedName>
     <definedName name="ca">Sheet5!$G$6:$M$6</definedName>
     <definedName name="Ct">Sheet5!$B$2</definedName>
-    <definedName name="ddphif" localSheetId="2">Allocation!$B$22:$C$22</definedName>
+    <definedName name="ddphif" localSheetId="3">Allocation!$B$22:$C$22</definedName>
+    <definedName name="ddphif" localSheetId="2">'Allocation(2)'!$B$25:$C$25</definedName>
     <definedName name="ddphif">Sheet2!$B$22:$C$22</definedName>
-    <definedName name="ddphiq" localSheetId="2">Allocation!$B$25:$C$25</definedName>
+    <definedName name="ddphiq" localSheetId="3">Allocation!$B$25:$C$25</definedName>
+    <definedName name="ddphiq" localSheetId="2">'Allocation(2)'!$B$28:$C$28</definedName>
     <definedName name="ddphiq">Sheet2!$B$25:$C$25</definedName>
-    <definedName name="ddre" localSheetId="2">Allocation!$B$27:$C$27</definedName>
+    <definedName name="ddre" localSheetId="3">Allocation!$B$27:$C$27</definedName>
+    <definedName name="ddre" localSheetId="2">'Allocation(2)'!$B$30:$C$30</definedName>
     <definedName name="ddre">Sheet2!$B$27:$C$27</definedName>
-    <definedName name="delta" localSheetId="2">Allocation!$B$39:$C$39</definedName>
+    <definedName name="delta" localSheetId="3">Allocation!$B$39:$C$39</definedName>
+    <definedName name="delta" localSheetId="2">'Allocation(2)'!#REF!</definedName>
     <definedName name="delta">Sheet2!$B$37:$C$37</definedName>
-    <definedName name="dfe" localSheetId="5">FlakLake!$B$22</definedName>
+    <definedName name="dfe" localSheetId="6">FlakLake!$B$22</definedName>
     <definedName name="dfe">SingleFleet!$B$19</definedName>
-    <definedName name="dh" localSheetId="2">Allocation!$B$14</definedName>
-    <definedName name="dh" localSheetId="5">FlakLake!$B$6</definedName>
-    <definedName name="dh" localSheetId="3">SingleFleet!$B$6</definedName>
+    <definedName name="dh" localSheetId="3">Allocation!$B$14</definedName>
+    <definedName name="dh" localSheetId="2">'Allocation(2)'!$B$17</definedName>
+    <definedName name="dh" localSheetId="6">FlakLake!$B$6</definedName>
+    <definedName name="dh" localSheetId="4">SingleFleet!$B$6</definedName>
     <definedName name="dh">Sheet2!$B$13</definedName>
     <definedName name="dlam">Allocation!$B$15:$C$15</definedName>
     <definedName name="dlw">FlakLake!$F$16:$L$16</definedName>
-    <definedName name="dlz" localSheetId="5">FlakLake!$F$15:$L$15</definedName>
+    <definedName name="dlz" localSheetId="6">FlakLake!$F$15:$L$15</definedName>
     <definedName name="dlz">SingleFleet!$F$13:$L$13</definedName>
-    <definedName name="dphif" localSheetId="2">Allocation!$B$21:$C$21</definedName>
-    <definedName name="dphif" localSheetId="5">FlakLake!$B$16</definedName>
-    <definedName name="dphif" localSheetId="3">SingleFleet!$B$15</definedName>
+    <definedName name="dphif" localSheetId="3">Allocation!$B$21:$C$21</definedName>
+    <definedName name="dphif" localSheetId="2">'Allocation(2)'!$B$24:$C$24</definedName>
+    <definedName name="dphif" localSheetId="6">FlakLake!$B$16</definedName>
+    <definedName name="dphif" localSheetId="4">SingleFleet!$B$15</definedName>
     <definedName name="dphif">Sheet2!$B$21:$C$21</definedName>
-    <definedName name="dphiq" localSheetId="2">Allocation!$B$24:$C$24</definedName>
-    <definedName name="dphiq" localSheetId="5">FlakLake!$B$17</definedName>
-    <definedName name="dphiq" localSheetId="3">SingleFleet!$B$16</definedName>
+    <definedName name="dphiq" localSheetId="3">Allocation!$B$24:$C$24</definedName>
+    <definedName name="dphiq" localSheetId="2">'Allocation(2)'!$B$27:$C$27</definedName>
+    <definedName name="dphiq" localSheetId="6">FlakLake!$B$17</definedName>
+    <definedName name="dphiq" localSheetId="4">SingleFleet!$B$16</definedName>
     <definedName name="dphiq">Sheet2!$B$24:$C$24</definedName>
-    <definedName name="dqa" localSheetId="5">FlakLake!$F$20:$L$20</definedName>
+    <definedName name="dqa" localSheetId="6">FlakLake!$F$20:$L$20</definedName>
     <definedName name="dqa">SingleFleet!$F$17:$L$17</definedName>
-    <definedName name="dre" localSheetId="2">Allocation!$B$26:$C$26</definedName>
-    <definedName name="dre" localSheetId="5">FlakLake!$B$18</definedName>
-    <definedName name="dre" localSheetId="3">SingleFleet!$B$17</definedName>
+    <definedName name="dre" localSheetId="3">Allocation!$B$26:$C$26</definedName>
+    <definedName name="dre" localSheetId="2">'Allocation(2)'!$B$29:$C$29</definedName>
+    <definedName name="dre" localSheetId="6">FlakLake!$B$18</definedName>
+    <definedName name="dre" localSheetId="4">SingleFleet!$B$17</definedName>
     <definedName name="dre">Sheet2!$B$26:$C$26</definedName>
-    <definedName name="dta" localSheetId="2">Allocation!$B$47:$C$47</definedName>
+    <definedName name="dta" localSheetId="3">Allocation!$B$47:$C$47</definedName>
+    <definedName name="dta" localSheetId="2">'Allocation(2)'!$B$41:$C$41</definedName>
     <definedName name="dta">Sheet2!$B$45:$C$45</definedName>
-    <definedName name="dye" localSheetId="5">FlakLake!$B$24</definedName>
-    <definedName name="dye" localSheetId="3">SingleFleet!$B$21</definedName>
+    <definedName name="dYe" localSheetId="2">'Allocation(2)'!$B$33:$C$33</definedName>
+    <definedName name="dye" localSheetId="6">FlakLake!$B$24</definedName>
+    <definedName name="dye" localSheetId="4">SingleFleet!$B$21</definedName>
     <definedName name="dYe">Allocation!$B$30:$C$30</definedName>
-    <definedName name="f" localSheetId="2">Allocation!$B$20:$C$20</definedName>
+    <definedName name="f" localSheetId="3">Allocation!$B$20:$C$20</definedName>
+    <definedName name="f" localSheetId="2">'Allocation(2)'!$B$23:$C$23</definedName>
     <definedName name="f">Sheet2!$B$20:$C$20</definedName>
     <definedName name="f_1">Sheet1!$B$3</definedName>
     <definedName name="f_2">Sheet1!$B$4</definedName>
-    <definedName name="fa" localSheetId="2">Allocation!$G$3:$Z$3</definedName>
-    <definedName name="fa" localSheetId="5">FlakLake!$F$3:$L$3</definedName>
-    <definedName name="fa" localSheetId="3">SingleFleet!$F$3:$L$3</definedName>
+    <definedName name="fa" localSheetId="3">Allocation!$G$3:$Z$3</definedName>
+    <definedName name="fa" localSheetId="2">'Allocation(2)'!$G$3:$Z$3</definedName>
+    <definedName name="fa" localSheetId="6">FlakLake!$F$3:$L$3</definedName>
+    <definedName name="fa" localSheetId="4">SingleFleet!$F$3:$L$3</definedName>
     <definedName name="fa">Sheet2!$G$3:$Z$3</definedName>
-    <definedName name="fbar">Allocation!$D$48</definedName>
-    <definedName name="fe" localSheetId="2">Allocation!$B$6:$B$7</definedName>
-    <definedName name="fe" localSheetId="5">FlakLake!$B$4</definedName>
-    <definedName name="fe" localSheetId="3">SingleFleet!$B$4</definedName>
+    <definedName name="favg">'Allocation(2)'!$D$23</definedName>
+    <definedName name="fbar">'Allocation(2)'!$D$42</definedName>
+    <definedName name="fe" localSheetId="3">Allocation!$B$6:$B$7</definedName>
+    <definedName name="fe" localSheetId="2">'Allocation(2)'!$B$6:$B$7</definedName>
+    <definedName name="fe" localSheetId="6">FlakLake!$B$4</definedName>
+    <definedName name="fe" localSheetId="4">SingleFleet!$B$4</definedName>
     <definedName name="fe">Sheet2!$B$6:$B$7</definedName>
-    <definedName name="feh" localSheetId="5">FlakLake!$B$7</definedName>
+    <definedName name="feh" localSheetId="6">FlakLake!$B$7</definedName>
     <definedName name="feh">SingleFleet!$B$7</definedName>
-    <definedName name="fem" localSheetId="5">FlakLake!$B$8</definedName>
+    <definedName name="fem" localSheetId="6">FlakLake!$B$8</definedName>
     <definedName name="fem">SingleFleet!$B$8</definedName>
-    <definedName name="fiter" localSheetId="2">Allocation!$B$40:$C$40</definedName>
+    <definedName name="fiter" localSheetId="3">Allocation!$B$40:$C$40</definedName>
+    <definedName name="fiter" localSheetId="2">'Allocation(2)'!#REF!</definedName>
     <definedName name="fiter">Sheet2!$B$38:$C$38</definedName>
     <definedName name="ft">Sheet5!$B$3</definedName>
-    <definedName name="h" localSheetId="2">Allocation!$B$2</definedName>
-    <definedName name="h" localSheetId="5">FlakLake!$B$2</definedName>
-    <definedName name="h" localSheetId="3">SingleFleet!$B$2</definedName>
+    <definedName name="h" localSheetId="3">Allocation!$B$2</definedName>
+    <definedName name="h" localSheetId="2">'Allocation(2)'!$B$2</definedName>
+    <definedName name="h" localSheetId="6">FlakLake!$B$2</definedName>
+    <definedName name="h" localSheetId="4">SingleFleet!$B$2</definedName>
     <definedName name="h">Sheet2!$B$2</definedName>
-    <definedName name="kappa" localSheetId="5">FlakLake!$B$5</definedName>
+    <definedName name="kappa" localSheetId="6">FlakLake!$B$5</definedName>
     <definedName name="kappa">SingleFleet!$B$5</definedName>
+    <definedName name="lambda" localSheetId="2">'Allocation(2)'!$B$14:$C$14</definedName>
     <definedName name="lambda">Allocation!$B$11:$C$11</definedName>
     <definedName name="lw">FlakLake!$F$10:$L$10</definedName>
-    <definedName name="lx" localSheetId="2">Allocation!$G$4:$Z$4</definedName>
-    <definedName name="lx" localSheetId="5">FlakLake!$F$8:$L$8</definedName>
-    <definedName name="lx" localSheetId="3">SingleFleet!$F$8:$L$8</definedName>
+    <definedName name="lx" localSheetId="3">Allocation!$G$4:$Z$4</definedName>
+    <definedName name="lx" localSheetId="2">'Allocation(2)'!$G$4:$Z$4</definedName>
+    <definedName name="lx" localSheetId="6">FlakLake!$F$8:$L$8</definedName>
+    <definedName name="lx" localSheetId="4">SingleFleet!$F$8:$L$8</definedName>
     <definedName name="lx">Sheet2!$G$4:$Z$4</definedName>
     <definedName name="lYe">Allocation!$B$31:$C$31</definedName>
-    <definedName name="lz" localSheetId="2">Allocation!$G$14:$Z$14</definedName>
-    <definedName name="lz" localSheetId="5">FlakLake!$F$9:$L$9</definedName>
-    <definedName name="lz" localSheetId="3">SingleFleet!$F$9:$L$9</definedName>
+    <definedName name="lz" localSheetId="3">Allocation!$G$14:$Z$14</definedName>
+    <definedName name="lz" localSheetId="2">'Allocation(2)'!$G$14:$Z$14</definedName>
+    <definedName name="lz" localSheetId="6">FlakLake!$F$9:$L$9</definedName>
+    <definedName name="lz" localSheetId="4">SingleFleet!$F$9:$L$9</definedName>
     <definedName name="lz">Sheet2!$G$14:$Z$14</definedName>
-    <definedName name="m" localSheetId="2">Allocation!$B$3</definedName>
-    <definedName name="m" localSheetId="5">FlakLake!$B$3</definedName>
+    <definedName name="m" localSheetId="3">Allocation!$B$3</definedName>
+    <definedName name="m" localSheetId="2">'Allocation(2)'!$B$3</definedName>
+    <definedName name="m" localSheetId="6">FlakLake!$B$3</definedName>
     <definedName name="m" localSheetId="1">Sheet2!$B$3</definedName>
-    <definedName name="m" localSheetId="4">Sheet5!$B$1</definedName>
-    <definedName name="m" localSheetId="3">SingleFleet!$B$3</definedName>
+    <definedName name="m" localSheetId="5">Sheet5!$B$1</definedName>
+    <definedName name="m" localSheetId="4">SingleFleet!$B$3</definedName>
     <definedName name="M">Sheet1!$B$2</definedName>
     <definedName name="na">Sheet5!$G$3:$M$3</definedName>
-    <definedName name="oa" localSheetId="2">Allocation!$G$10:$Z$10</definedName>
-    <definedName name="oa" localSheetId="5">FlakLake!$F$7:$L$7</definedName>
-    <definedName name="oa" localSheetId="3">SingleFleet!$F$7:$L$7</definedName>
+    <definedName name="oa" localSheetId="3">Allocation!$G$10:$Z$10</definedName>
+    <definedName name="oa" localSheetId="2">'Allocation(2)'!$G$10:$Z$10</definedName>
+    <definedName name="oa" localSheetId="6">FlakLake!$F$7:$L$7</definedName>
+    <definedName name="oa" localSheetId="4">SingleFleet!$F$7:$L$7</definedName>
     <definedName name="oa">Sheet2!$G$10:$Z$10</definedName>
-    <definedName name="p" localSheetId="5">FlakLake!$B$25</definedName>
+    <definedName name="p" localSheetId="6">FlakLake!$B$25</definedName>
     <definedName name="p">SingleFleet!$B$23</definedName>
-    <definedName name="phef" localSheetId="5">FlakLake!$B$11</definedName>
+    <definedName name="phef" localSheetId="6">FlakLake!$B$11</definedName>
     <definedName name="phef">SingleFleet!$B$11</definedName>
-    <definedName name="phie" localSheetId="2">Allocation!$B$18</definedName>
-    <definedName name="phie" localSheetId="5">FlakLake!$B$10</definedName>
-    <definedName name="phie" localSheetId="3">SingleFleet!$B$10</definedName>
+    <definedName name="phie" localSheetId="3">Allocation!$B$18</definedName>
+    <definedName name="phie" localSheetId="2">'Allocation(2)'!$B$21</definedName>
+    <definedName name="phie" localSheetId="6">FlakLake!$B$10</definedName>
+    <definedName name="phie" localSheetId="4">SingleFleet!$B$10</definedName>
     <definedName name="phie">Sheet2!$B$18</definedName>
-    <definedName name="phif" localSheetId="2">Allocation!$B$19</definedName>
-    <definedName name="phif" localSheetId="5">FlakLake!$B$11</definedName>
-    <definedName name="phif" localSheetId="3">SingleFleet!$B$11</definedName>
+    <definedName name="phif" localSheetId="3">Allocation!$B$19</definedName>
+    <definedName name="phif" localSheetId="2">'Allocation(2)'!$B$22</definedName>
+    <definedName name="phif" localSheetId="6">FlakLake!$B$11</definedName>
+    <definedName name="phif" localSheetId="4">SingleFleet!$B$11</definedName>
     <definedName name="phif">Sheet2!$B$19</definedName>
-    <definedName name="phiq" localSheetId="2">Allocation!$B$23:$C$23</definedName>
-    <definedName name="phiq" localSheetId="5">FlakLake!$B$13</definedName>
-    <definedName name="phiq" localSheetId="3">SingleFleet!$B$13</definedName>
+    <definedName name="phiq" localSheetId="3">Allocation!$B$23:$C$23</definedName>
+    <definedName name="phiq" localSheetId="2">'Allocation(2)'!$B$26:$C$26</definedName>
+    <definedName name="phiq" localSheetId="6">FlakLake!$B$13</definedName>
+    <definedName name="phiq" localSheetId="4">SingleFleet!$B$13</definedName>
     <definedName name="phiq">Sheet2!$B$23:$C$23</definedName>
+    <definedName name="pk" localSheetId="2">'Allocation(2)'!$B$13:$C$13</definedName>
     <definedName name="pk">Allocation!$B$10:$C$10</definedName>
-    <definedName name="qa" localSheetId="5">FlakLake!$F$19:$L$19</definedName>
+    <definedName name="plambda">'Allocation(2)'!$B$15:$C$15</definedName>
+    <definedName name="qa" localSheetId="6">FlakLake!$F$19:$L$19</definedName>
     <definedName name="qa">SingleFleet!$F$16:$L$16</definedName>
-    <definedName name="re" localSheetId="2">Allocation!$B$17</definedName>
-    <definedName name="re" localSheetId="5">FlakLake!$B$12</definedName>
-    <definedName name="re" localSheetId="3">SingleFleet!$B$12</definedName>
+    <definedName name="re" localSheetId="3">Allocation!$B$17</definedName>
+    <definedName name="re" localSheetId="2">'Allocation(2)'!$B$20</definedName>
+    <definedName name="re" localSheetId="6">FlakLake!$B$12</definedName>
+    <definedName name="re" localSheetId="4">SingleFleet!$B$12</definedName>
     <definedName name="re">Sheet2!$B$17</definedName>
-    <definedName name="reck" localSheetId="2">Allocation!$B$8</definedName>
+    <definedName name="reck" localSheetId="3">Allocation!$B$8</definedName>
+    <definedName name="reck" localSheetId="2">'Allocation(2)'!$B$8</definedName>
     <definedName name="reck">Sheet2!$B$8</definedName>
-    <definedName name="ro" localSheetId="2">Allocation!$B$1</definedName>
-    <definedName name="ro" localSheetId="5">FlakLake!$B$1</definedName>
-    <definedName name="ro" localSheetId="3">SingleFleet!$B$1</definedName>
+    <definedName name="ro" localSheetId="3">Allocation!$B$1</definedName>
+    <definedName name="ro" localSheetId="2">'Allocation(2)'!$B$1</definedName>
+    <definedName name="ro" localSheetId="6">FlakLake!$B$1</definedName>
+    <definedName name="ro" localSheetId="4">SingleFleet!$B$1</definedName>
     <definedName name="ro">Sheet2!$B$1</definedName>
-    <definedName name="sa" localSheetId="2">Allocation!$G$9:$Z$9</definedName>
-    <definedName name="sa" localSheetId="5">FlakLake!$F$6:$L$6</definedName>
-    <definedName name="sa" localSheetId="3">SingleFleet!$F$6:$L$6</definedName>
+    <definedName name="sa" localSheetId="3">Allocation!$G$9:$Z$9</definedName>
+    <definedName name="sa" localSheetId="2">'Allocation(2)'!$G$9:$Z$9</definedName>
+    <definedName name="sa" localSheetId="6">FlakLake!$F$6:$L$6</definedName>
+    <definedName name="sa" localSheetId="4">SingleFleet!$F$6:$L$6</definedName>
     <definedName name="sa">Sheet2!$G$9:$Z$9</definedName>
     <definedName name="so">FlakLake!$B$14</definedName>
-    <definedName name="V" localSheetId="2">Allocation!$G$6:$Z$7</definedName>
+    <definedName name="V" localSheetId="3">Allocation!$G$6:$Z$7</definedName>
+    <definedName name="V" localSheetId="2">'Allocation(2)'!$G$6:$Z$7</definedName>
     <definedName name="V">Sheet2!$G$6:$Z$7</definedName>
-    <definedName name="va" localSheetId="5">FlakLake!$F$4:$L$4</definedName>
-    <definedName name="va" localSheetId="4">Sheet5!$G$2:$M$2</definedName>
+    <definedName name="va" localSheetId="6">FlakLake!$F$4:$L$4</definedName>
+    <definedName name="va" localSheetId="5">Sheet5!$G$2:$M$2</definedName>
     <definedName name="va">SingleFleet!$F$4:$L$4</definedName>
-    <definedName name="vbk" localSheetId="2">Allocation!$B$4</definedName>
+    <definedName name="vbk" localSheetId="3">Allocation!$B$4</definedName>
+    <definedName name="vbk" localSheetId="2">'Allocation(2)'!$B$4</definedName>
     <definedName name="vbk">Sheet2!$B$4</definedName>
-    <definedName name="wa" localSheetId="2">Allocation!$G$2:$Z$2</definedName>
-    <definedName name="wa" localSheetId="5">FlakLake!$F$2:$L$2</definedName>
-    <definedName name="wa" localSheetId="4">Sheet5!$G$4:$M$4</definedName>
-    <definedName name="wa" localSheetId="3">SingleFleet!$F$2:$L$2</definedName>
+    <definedName name="wa" localSheetId="3">Allocation!$G$2:$Z$2</definedName>
+    <definedName name="wa" localSheetId="2">'Allocation(2)'!$G$2:$Z$2</definedName>
+    <definedName name="wa" localSheetId="6">FlakLake!$F$2:$L$2</definedName>
+    <definedName name="wa" localSheetId="5">Sheet5!$G$4:$M$4</definedName>
+    <definedName name="wa" localSheetId="4">SingleFleet!$F$2:$L$2</definedName>
     <definedName name="wa">Sheet2!$G$2:$Z$2</definedName>
-    <definedName name="ye" localSheetId="5">FlakLake!$B$23</definedName>
+    <definedName name="Ye" localSheetId="2">'Allocation(2)'!$B$32:$C$32</definedName>
+    <definedName name="ye" localSheetId="6">FlakLake!$B$23</definedName>
     <definedName name="Ye" localSheetId="1">Sheet2!$B$29:$C$29</definedName>
-    <definedName name="ye" localSheetId="3">SingleFleet!$B$20</definedName>
+    <definedName name="ye" localSheetId="4">SingleFleet!$B$20</definedName>
     <definedName name="Ye">Allocation!$B$29:$C$29</definedName>
     <definedName name="Z">Sheet1!$B$5</definedName>
-    <definedName name="za" localSheetId="2">Allocation!$G$8:$Z$8</definedName>
-    <definedName name="za" localSheetId="5">FlakLake!$F$5:$L$5</definedName>
-    <definedName name="za" localSheetId="4">Sheet5!$G$5:$M$5</definedName>
-    <definedName name="za" localSheetId="3">SingleFleet!$F$5:$L$5</definedName>
+    <definedName name="za" localSheetId="3">Allocation!$G$8:$Z$8</definedName>
+    <definedName name="za" localSheetId="2">'Allocation(2)'!$G$8:$Z$8</definedName>
+    <definedName name="za" localSheetId="6">FlakLake!$F$5:$L$5</definedName>
+    <definedName name="za" localSheetId="5">Sheet5!$G$5:$M$5</definedName>
+    <definedName name="za" localSheetId="4">SingleFleet!$F$5:$L$5</definedName>
     <definedName name="za">Sheet2!$G$8:$Z$8</definedName>
-    <definedName name="zf" localSheetId="5">FlakLake!$B$9</definedName>
+    <definedName name="zf" localSheetId="6">FlakLake!$B$9</definedName>
     <definedName name="zf">SingleFleet!$B$9</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateCount="2500" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
@@ -179,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="110">
   <si>
     <t>B</t>
   </si>
@@ -498,15 +536,28 @@
   <si>
     <t>spr</t>
   </si>
+  <si>
+    <t>lfi</t>
+  </si>
+  <si>
+    <t>plambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4378 3.90</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00;\驠"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,8 +616,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +665,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -630,8 +694,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="471">
+  <cellStyleXfs count="1570">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1103,8 +1182,1107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1117,11 +2295,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="52"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="1413"/>
   </cellXfs>
-  <cellStyles count="471">
+  <cellStyles count="1570">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
+    <cellStyle name="Check Cell" xfId="1413" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1354,6 +2536,555 @@
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1569" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1587,6 +3318,555 @@
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1568" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,11 +4148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079393064"/>
-        <c:axId val="2144295784"/>
+        <c:axId val="-2120854312"/>
+        <c:axId val="-2120851976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079393064"/>
+        <c:axId val="-2120854312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +4161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144295784"/>
+        <c:crossAx val="-2120851976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1889,7 +4169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144295784"/>
+        <c:axId val="-2120851976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +4180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079393064"/>
+        <c:crossAx val="-2120854312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,69 +4230,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Allocation!$G$6:$Z$6</c:f>
+              <c:f>'Allocation(2)'!$G$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.182425523806356</c:v>
+                  <c:v>0.000552778636923599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.268941421369995</c:v>
+                  <c:v>0.00669285092428485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.377540668798145</c:v>
+                  <c:v>0.0758581800212435</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.622459331201854</c:v>
+                  <c:v>0.924141819978757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.731058578630005</c:v>
+                  <c:v>0.993307149075715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.817574476193644</c:v>
+                  <c:v>0.999447221363076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.880797077977882</c:v>
+                  <c:v>0.999954602131298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.924141819978757</c:v>
+                  <c:v>0.999996273360716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.952574126822433</c:v>
+                  <c:v>0.999999694097773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.970687769248644</c:v>
+                  <c:v>0.999999974890009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.982013790037908</c:v>
+                  <c:v>0.999999997938846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.989013057369407</c:v>
+                  <c:v>0.99999999983081</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.993307149075715</c:v>
+                  <c:v>0.999999999986112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.995929862284104</c:v>
+                  <c:v>0.99999999999886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.997527376843365</c:v>
+                  <c:v>0.999999999999906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.998498817743263</c:v>
+                  <c:v>0.999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.999088948805599</c:v>
+                  <c:v>0.999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.999447221363076</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.999664649869534</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,69 +4307,157 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Allocation!$G$7:$Z$7</c:f>
+              <c:f>'Allocation(2)'!$G$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.152608664842631</c:v>
+                  <c:v>0.000189405943825186</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.000789865941736462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00328766138593401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0135769169437444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0543132661326406</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.193321369802309</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24179617240741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29793663012107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.360907254837149</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.429053403116534</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.570946596883466</c:v>
+                  <c:v>0.806678630197691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.639092745162851</c:v>
+                  <c:v>0.945686733867359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70206336987893</c:v>
+                  <c:v>0.986423083056256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75820382759259</c:v>
+                  <c:v>0.996712338614066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.806678630197691</c:v>
+                  <c:v>0.999210134058263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.847391335157369</c:v>
+                  <c:v>0.999810594056175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.880797077977882</c:v>
+                  <c:v>0.999954602131298</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.907686971247702</c:v>
+                  <c:v>0.999989119978154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.928999980849201</c:v>
+                  <c:v>0.999997392569918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.945686733867359</c:v>
+                  <c:v>0.99999937512544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.958626348939925</c:v>
+                  <c:v>0.999999850248093</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96858562896843</c:v>
+                  <c:v>0.999999964111796</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.976207057601835</c:v>
+                  <c:v>0.999999991399355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Allocation(2)'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Allocation(2)'!$G$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252580457827647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.341247501684339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.427643719230357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.508367310902113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.581557921734505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.646462314779698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.703062176584656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.751788795470446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.793319223640301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.828438535949616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85795164162232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.882630331147932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.903184345243872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.920248190579841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.934377843246983</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.946053327005152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,11 +4474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143988920"/>
-        <c:axId val="2143991896"/>
+        <c:axId val="-2120770552"/>
+        <c:axId val="-2120767576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143988920"/>
+        <c:axId val="-2120770552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +4487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143991896"/>
+        <c:crossAx val="-2120767576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2127,7 +4495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143991896"/>
+        <c:axId val="-2120767576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +4506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143988920"/>
+        <c:crossAx val="-2120770552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2177,258 +4545,162 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SingleFleet!$E$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ye</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
             <c:numRef>
-              <c:f>SingleFleet!$D$28:$D$63</c:f>
+              <c:f>Allocation!$G$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.182425523806356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.025</c:v>
+                  <c:v>0.268941421369995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.377540668798145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.075</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.622459331201854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125</c:v>
+                  <c:v>0.731058578630005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>0.817574476193644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.175</c:v>
+                  <c:v>0.880797077977882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.924141819978757</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.225</c:v>
+                  <c:v>0.952574126822433</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>0.970687769248644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.275</c:v>
+                  <c:v>0.982013790037908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.989013057369407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.325</c:v>
+                  <c:v>0.993307149075715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35</c:v>
+                  <c:v>0.995929862284104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.375</c:v>
+                  <c:v>0.997527376843365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.998498817743263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.425</c:v>
+                  <c:v>0.999088948805599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.45</c:v>
+                  <c:v>0.999447221363076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.525</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.575</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.675</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.725</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.775</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.825</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.875</c:v>
+                  <c:v>0.999664649869534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
             <c:numRef>
-              <c:f>SingleFleet!$E$28:$E$63</c:f>
+              <c:f>Allocation!$G$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.152608664842631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.6733186391163</c:v>
+                  <c:v>0.193321369802309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.486691835346</c:v>
+                  <c:v>0.24179617240741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.8141998668783</c:v>
+                  <c:v>0.29793663012107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.4964479982027</c:v>
+                  <c:v>0.360907254837149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.7998562069268</c:v>
+                  <c:v>0.429053403116534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264.9800794387135</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>278.6257329618472</c:v>
+                  <c:v>0.570946596883466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.8748251909676</c:v>
+                  <c:v>0.639092745162851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>296.554741949003</c:v>
+                  <c:v>0.70206336987893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>302.2749033095533</c:v>
+                  <c:v>0.75820382759259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>306.4893481407571</c:v>
+                  <c:v>0.806678630197691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>309.5397722585543</c:v>
+                  <c:v>0.847391335157369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>311.6856052438602</c:v>
+                  <c:v>0.880797077977882</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>313.1253378321206</c:v>
+                  <c:v>0.907686971247702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>314.011847372863</c:v>
+                  <c:v>0.928999980849201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>314.4635454718704</c:v>
+                  <c:v>0.945686733867359</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>314.5725783444104</c:v>
+                  <c:v>0.958626348939925</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>314.4109221386668</c:v>
+                  <c:v>0.96858562896843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>314.0349574752166</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>313.4889334988941</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>312.807612896142</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>312.0183071329442</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>311.142453663556</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>310.1968461999238</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>309.1946000938198</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>308.1459139509634</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>307.0586733725718</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>305.9389315549321</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>304.7912932241134</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>303.6192222352232</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>302.4252885529195</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>301.2113668446319</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>299.9787962666496</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>298.7285089930171</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>297.4611334725772</c:v>
+                  <c:v>0.976207057601835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2438,290 +4710,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115502168"/>
-        <c:axId val="2143758264"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SingleFleet!$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dye</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SingleFleet!$D$28:$D$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.075</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.325</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.425</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.525</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.575</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.675</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.725</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.775</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.825</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SingleFleet!$F$28:$F$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>3999.904904533837</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2849.832914761706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2064.477939139211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1515.092612013886</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1123.033114601484</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>838.513406116324</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>629.0696712154138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>472.9971546996811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>355.4686025649578</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>266.1626795278916</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>197.7741408259002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>145.055138977368</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.1851556287181</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72.34907829274405</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>47.44986858925816</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.90988376186176</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.53157348863516</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.398549692445243</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9.195508461303163</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-16.79851205402676</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-22.83788510500034</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-27.64867464334061</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-31.49457773124887</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-34.58380600527994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-37.08115301516085</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-39.11724429078185</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-40.7956798893991</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-42.198587912196</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-43.39097085017242</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-44.42412818114092</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-45.33836714253585</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-46.16516127665454</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-46.92887776675444</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-47.6481659429586</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-48.33707793362102</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-49.00597633950062</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2143763464"/>
-        <c:axId val="2111171384"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2115502168"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2120721736"/>
+        <c:axId val="-2120718760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2120721736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143758264"/>
+        <c:crossAx val="-2120718760"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="2143758264"/>
+        <c:axId val="-2120718760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,45 +4744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115502168"/>
+        <c:crossAx val="-2120721736"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2111171384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
-          <c:min val="-50.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143763464"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2143763464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111171384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2810,7 +4791,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FlakLake!$B$26</c:f>
+              <c:f>SingleFleet!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2821,7 +4802,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>FlakLake!$A$27:$A$62</c:f>
+              <c:f>SingleFleet!$D$28:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2938,117 +4919,117 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FlakLake!$B$27:$B$62</c:f>
+              <c:f>SingleFleet!$E$28:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>1647.712086001402</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>430.1527454919306</c:v>
+                  <c:v>84.6733186391163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>755.6449057978981</c:v>
+                  <c:v>145.486691835346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1005.719414712784</c:v>
+                  <c:v>189.8141998668783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1200.217201000512</c:v>
+                  <c:v>222.4964479982027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1353.000668268764</c:v>
+                  <c:v>246.7998562069268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1473.991432747179</c:v>
+                  <c:v>264.9800794387135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1570.434758494697</c:v>
+                  <c:v>278.6257329618472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1647.712086001402</c:v>
+                  <c:v>288.8748251909676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1709.87892271332</c:v>
+                  <c:v>296.554741949003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1760.030117717636</c:v>
+                  <c:v>302.2749033095533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1800.553436739018</c:v>
+                  <c:v>306.4893481407571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1833.308996525573</c:v>
+                  <c:v>309.5397722585543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1859.75837969633</c:v>
+                  <c:v>311.6856052438602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1881.058920240429</c:v>
+                  <c:v>313.1253378321206</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1898.133458663831</c:v>
+                  <c:v>314.011847372863</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1911.7225513061</c:v>
+                  <c:v>314.4635454718704</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1922.423955312903</c:v>
+                  <c:v>314.5725783444104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1930.722771013725</c:v>
+                  <c:v>314.4109221386668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1937.014647899953</c:v>
+                  <c:v>314.0349574752166</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1941.623788591856</c:v>
+                  <c:v>313.4889334988941</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1944.817015702902</c:v>
+                  <c:v>312.807612896142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1946.814834005367</c:v>
+                  <c:v>312.0183071329442</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1947.800181918568</c:v>
+                  <c:v>311.142453663556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1947.925393521175</c:v>
+                  <c:v>310.1968461999238</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1947.317765713498</c:v>
+                  <c:v>309.1946000938198</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1946.084031576177</c:v>
+                  <c:v>308.1459139509634</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1944.313971185888</c:v>
+                  <c:v>307.0586733725718</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1942.083338690089</c:v>
+                  <c:v>305.9389315549321</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1939.456244716237</c:v>
+                  <c:v>304.7912932241134</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1936.48710289924</c:v>
+                  <c:v>303.6192222352232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1933.222226064908</c:v>
+                  <c:v>302.4252885529195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1929.701139661455</c:v>
+                  <c:v>301.2113668446319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1925.957666099144</c:v>
+                  <c:v>299.9787962666496</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1922.020822785441</c:v>
+                  <c:v>298.7285089930171</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1917.915568115562</c:v>
+                  <c:v>297.4611334725772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,8 +5044,633 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115662392"/>
-        <c:axId val="2143981304"/>
+        <c:axId val="-2120670776"/>
+        <c:axId val="-2120667784"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SingleFleet!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SingleFleet!$D$28:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SingleFleet!$F$28:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3999.904904533837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2849.832914761706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.477939139211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1515.092612013886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1123.033114601484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>838.513406116324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>629.0696712154138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>472.9971546996811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.4686025649578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>266.1626795278916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197.7741408259002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.055138977368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.1851556287181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.34907829274405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.44986858925816</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.90988376186176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.53157348863516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.398549692445243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.195508461303163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-16.79851205402676</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-22.83788510500034</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.64867464334061</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-31.49457773124887</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-34.58380600527994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-37.08115301516085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-39.11724429078185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-40.7956798893991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-42.198587912196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-43.39097085017242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-44.42412818114092</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-45.33836714253585</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-46.16516127665454</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-46.92887776675444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-47.6481659429586</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-48.33707793362102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-49.00597633950062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2120661448"/>
+        <c:axId val="-2120664744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2120670776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120667784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2120667784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120670776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2120664744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+          <c:min val="-50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120661448"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2120661448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120664744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FlakLake!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlakLake!$A$27:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlakLake!$B$27:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1647.712086001402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430.1527454919306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>755.6449057978981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1005.719414712784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200.217201000512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1353.000668268764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1473.991432747179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1570.434758494697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1647.712086001402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1709.87892271332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1760.030117717636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800.553436739018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1833.308996525573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1859.75837969633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1881.058920240429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1898.133458663831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1911.7225513061</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1922.423955312903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1930.722771013725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1937.014647899953</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1941.623788591856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1944.817015702902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1946.814834005367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1947.800181918568</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1947.925393521175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1947.317765713498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1946.084031576177</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1944.313971185888</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1942.083338690089</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1939.456244716237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1936.48710289924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1933.222226064908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1929.701139661455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1925.957666099144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1922.020822785441</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1917.915568115562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2120608712"/>
+        <c:axId val="-2120605720"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3327,11 +5933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115500232"/>
-        <c:axId val="2118372168"/>
+        <c:axId val="-2120599384"/>
+        <c:axId val="-2120602680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115662392"/>
+        <c:axId val="-2120608712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,12 +5947,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143981304"/>
+        <c:crossAx val="-2120605720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143981304"/>
+        <c:axId val="-2120605720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3357,12 +5963,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115662392"/>
+        <c:crossAx val="-2120608712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118372168"/>
+        <c:axId val="-2120602680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3374,12 +5980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115500232"/>
+        <c:crossAx val="-2120599384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115500232"/>
+        <c:axId val="-2120599384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3389,7 +5995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118372168"/>
+        <c:crossAx val="-2120602680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3486,6 +6092,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -3517,7 +6160,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3874,6 +6517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4076,12 +6720,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5023,7 +7668,7 @@
         <v>2.071178950397122E-4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="9"/>
+        <f>wa*I6/za*(1-EXP(-za))</f>
         <v>5.9969110139548882E-3</v>
       </c>
       <c r="J11">
@@ -6483,14 +9128,6 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="B32">
-        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>0.16730884980850175</v>
-      </c>
-      <c r="C32">
-        <f>f*phiq*B26+f*re*B24</f>
-        <v>-8.832376019014937E-2</v>
-      </c>
       <c r="F32">
         <v>0.21</v>
       </c>
@@ -6502,14 +9139,6 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33">
-        <f>f*phiq*C26+f*re*C24</f>
-        <v>-3.2830872904216622E-2</v>
-      </c>
-      <c r="C33">
-        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>8.8163500602775072E-2</v>
-      </c>
       <c r="F33">
         <v>0.215</v>
       </c>
@@ -6521,16 +9150,6 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <f t="array" ref="B34:C35">-MINVERSE(B32:C33)</f>
-        <v>-7.4394633140770976</v>
-      </c>
-      <c r="C34">
-        <v>-7.452986430932131</v>
-      </c>
       <c r="F34">
         <v>0.22</v>
       </c>
@@ -6542,12 +9161,6 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="B35">
-        <v>-2.7703536369375903</v>
-      </c>
-      <c r="C35">
-        <v>-14.117951780054494</v>
-      </c>
       <c r="F35">
         <v>0.22500000000000001</v>
       </c>
@@ -6570,16 +9183,6 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <f t="array" ref="B37:C37">MMULT(B30:C30,B34:C35)</f>
-        <v>-1.4889321248108311</v>
-      </c>
-      <c r="C37">
-        <v>-2.4916386376684092</v>
-      </c>
       <c r="F37">
         <v>0.23499999999999999</v>
       </c>
@@ -6591,17 +9194,6 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38">
-        <f>f+delta</f>
-        <v>-1.3889321248108311</v>
-      </c>
-      <c r="C38">
-        <f>f+delta</f>
-        <v>-2.3916386376684091</v>
-      </c>
       <c r="F38">
         <v>0.24</v>
       </c>
@@ -6879,10 +9471,2840 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="23" width="7.33203125" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" customWidth="1"/>
+    <col min="25" max="25" width="12.5" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+      <c r="X1">
+        <v>18</v>
+      </c>
+      <c r="Y1">
+        <v>19</v>
+      </c>
+      <c r="Z1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:Z2" si="0">(1-EXP(-vbk*G1))^3</f>
+        <v>5.956242778945897E-3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>3.5832542332544771E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>9.1848839232940488E-2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0.16698470834288895</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.25258045782764715</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.34124750168433882</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.42764371923035677</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.50836731090211251</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.58155792173450538</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.64646231477969807</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0.70306217658465575</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0.75178879547044597</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0.79331922364030083</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0.82843853594961614</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0.85795164162232052</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0.88263033114793243</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0.90318434524387203</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0.92024819057984131</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0.93437784324698259</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0.94605332700515155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>1.5*vbk</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <f>IF(G2&gt;0.2,G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:Z3" si="1">IF(H2&gt;0.2,H2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.25258045782764715</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.34124750168433882</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0.42764371923035677</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0.50836731090211251</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.58155792173450538</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0.64646231477969807</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0.70306217658465575</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0.75178879547044597</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0.79331922364030083</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>0.82843853594961614</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>0.85795164162232052</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>0.88263033114793243</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>0.90318434524387203</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0.92024819057984131</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0.93437784324698259</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>0.94605332700515155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:Y4" si="2">EXP(-m)^(G1-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.74081822068171788</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.5488116360940265</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.40656965974059917</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.30119421191220219</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.2231301601484299</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.16529888822158662</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.12245642825298196</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>9.0717953289412567E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>6.7205512739749812E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>4.9787068367863986E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>3.6883167401240036E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2.732372244729259E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>2.0241911445804409E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>1.4995576820477724E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>1.1108996538242318E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>8.2297470490200406E-3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>6.0967465655156448E-3</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>4.5165809426126746E-3</v>
+      </c>
+      <c r="Z4">
+        <f>EXP(-m)^(Z1-1)/(1-EXP(-m))</f>
+        <v>1.2909724851307328E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <f>0.5/(1+EXP(-(G1-15)/0.5))</f>
+        <v>3.4572000534677115E-13</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:Z5" si="3">0.5/(1+EXP(-(H1-15)/0.5))</f>
+        <v>2.5545445140186106E-12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.8875672720682908E-11</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1.3947340460454057E-10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1.0305768090951019E-9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>7.6149897563801747E-9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>5.6267581027547497E-8</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>4.1576401383206604E-7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>3.0720873011073591E-6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>2.2698934351217197E-5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>1.6767506523323905E-4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>1.2363115783173872E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>8.9931049810457794E-3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>5.9601461011058773E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>0.44039853898894116</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>0.49100689501895423</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0.49876368842168267</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>0.49983232493476681</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.4999773010656488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.15065618515385529</v>
+      </c>
+      <c r="C6">
+        <f>B6+dh</f>
+        <v>0.15065718515385529</v>
+      </c>
+      <c r="D6">
+        <f>B6-dh</f>
+        <v>0.15065518515385529</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:Z6" si="4">1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
+        <v>5.5277863692359955E-4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>6.6928509242848554E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.92414181997875655</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.99330714907571527</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0.9994472213630764</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.99995460213129761</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.99999627336071584</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0.99999969409777301</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0.99999997489000902</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>0.99999999793884631</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>0.99999999983081023</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0.999999999986112</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>0.99999999999886002</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>0.99999999999990652</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999223</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.33409487852969805</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
+        <v>0.33409487852969805</v>
+      </c>
+      <c r="D7">
+        <f>C7</f>
+        <v>0.33409487852969805</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:Z7" si="5">1/(1+EXP(-(G1-ah)/(0.1*ah)))</f>
+        <v>1.8940594382518605E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>7.898659417364622E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>3.2876613859340125E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>1.3576916943744367E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>5.431326613264064E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.19332136980230874</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.80667863019769126</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0.94568673386735935</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0.98642308305625559</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.99671233861406594</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>0.99921013405826353</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>0.99981059405617489</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0.99995460213129761</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>0.99998911997815432</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>0.99999739256991782</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>0.99999937512543957</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>0.99999985024809268</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>0.99999996411179626</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>0.99999999139935458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <f>4*h/(1-h)</f>
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
+        <v>0.30014655907646859</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>0.30127220955391543</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.31252689484609542</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>0.37986407099405578</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.45737346519027611</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.51423554532709637</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0.61762034489803086</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.72015654465254342</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.76660471819115961</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0.78021503918036272</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0.78365266906919751</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0.78448717320716865</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>0.7846877841022688</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0.78473589648603137</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0.78474742872380465</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>0.78475019255450273</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>0.78475085491616181</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>0.78475101365220801</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>0.78475105169348836</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>0.7847510608101218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
+        <v>0.74070965500330077</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.73987634392299451</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.73159595252149867</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.68395437213194921</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.6329439133978918</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.59795753137132168</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.53922608415375473</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.48667606346110742</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46458779997542332</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45830744665029027</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45673466015118913</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45635367217746831</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45626213184111197</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45624018051039816</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45623491907049291</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45623365811616057</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45623335592457798</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45623328350390463</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.4562332661482067</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.4562332619888953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="16" thickBot="1">
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:Z10" si="8">1-sa</f>
+        <v>0.25929034499669923</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>0.26012365607700549</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0.26840404747850133</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>0.31604562786805079</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>0.3670560866021082</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>0.40204246862867832</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>0.46077391584624527</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>0.51332393653889263</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>0.53541220002457668</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>0.54169255334970967</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="8"/>
+        <v>0.54326533984881087</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>0.54364632782253164</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>0.54373786815888803</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0.54375981948960184</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>0.54376508092950715</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>0.54376634188383943</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>0.54376664407542208</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="8"/>
+        <v>0.54376671649609531</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="8"/>
+        <v>0.5437667338517933</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="8"/>
+        <v>0.54376673801110464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" thickTop="1" thickBot="1">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="14">
+        <f>Ye/SUM(Ye)</f>
+        <v>0.57769310894707426</v>
+      </c>
+      <c r="C11" s="14">
+        <f>Ye/SUM(Ye)</f>
+        <v>0.42230689105292574</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
+        <v>2.8443079735055936E-6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="9"/>
+        <v>2.070663609545027E-4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>5.9838094425888107E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>6.9465357508656705E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>0.18732676564824452</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>0.26501037692527857</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>0.31886603042192135</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>0.36234519325139303</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>0.40617027074483258</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>0.44882974209680065</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>0.48739616131217095</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>0.52098648782532964</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="9"/>
+        <v>0.54971889724543088</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>0.57404228706384364</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0.59448954754591254</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>0.61158910307709791</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>0.6258311377656065</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="9"/>
+        <v>0.6376549099621095</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="9"/>
+        <v>0.64744556494630134</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="9"/>
+        <v>0.65553569443930459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16" thickTop="1">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
+        <v>9.745833146692098E-7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="10"/>
+        <v>2.4437219362501579E-5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>2.5933576629016606E-4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>1.8862507787250824E-3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>1.1009488215405931E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>5.1577368718923627E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>0.1595211951197594</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>0.29230939437425774</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>0.38411126817884328</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="10"/>
+        <v>0.44273615340044548</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>0.48579377997124989</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>0.52057497941547659</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>0.54961477731184893</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="10"/>
+        <v>0.57401622677543784</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="10"/>
+        <v>0.59448307948732582</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>0.6115875084013298</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>0.62583074669965411</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>0.63765481447207106</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="10"/>
+        <v>0.64744554171064295</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="10"/>
+        <v>0.65553568880127455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <f>ak*(Ye/SUM(Ye))</f>
+        <v>0.28884655447353713</v>
+      </c>
+      <c r="C13">
+        <f>ak*(Ye/SUM(Ye))</f>
+        <v>0.21115344552646287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
+        <f>pk/AVERAGE(pk)</f>
+        <v>1.1553862178941485</v>
+      </c>
+      <c r="C14" s="1">
+        <f>pk/AVERAGE(pk)</f>
+        <v>0.84461378210585147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
+        <v>0.74070965500330077</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
+        <v>0.54803355145230481</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="11"/>
+        <v>0.40093912808848869</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="11"/>
+        <v>0.27422406961489343</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="11"/>
+        <v>0.17356845576994656</v>
+      </c>
+      <c r="M14">
+        <f>L14*EXP(-m-SUMPRODUCT(L$6:L$7,$B$6:$B$7))</f>
+        <v>0.10378656533612968</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>5.5964423213969022E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="11"/>
+        <v>2.723654518364586E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="11"/>
+        <v>1.2653766605801243E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="11"/>
+        <v>5.7993154636134777E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>2.6487483773830374E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="11"/>
+        <v>1.2087660486928596E-3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="11"/>
+        <v>5.5151417427376146E-4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="11"/>
+        <v>2.5162292642470411E-4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="11"/>
+        <v>1.1479916547365547E-4</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>5.2375243212728276E-5</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>2.3895332978308996E-5</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="11"/>
+        <v>1.090184622511305E-5</v>
+      </c>
+      <c r="Z14">
+        <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
+        <v>9.1469090745069646E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>1.3784183411211492</v>
+      </c>
+      <c r="C15">
+        <v>0.62158165887885097</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
+        <v>0.7407096545938523</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
+        <v>0.54803354748145661</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>0.40093909476892103</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.27422390971384031</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0.17356819415984731</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>0.10378630581266983</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>5.5964227338830559E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>2.7236422620704782E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="12"/>
+        <v>1.2653697010897908E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="12"/>
+        <v>5.799277768472136E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="12"/>
+        <v>2.6487285119756974E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>1.2087557742848948E-3</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="12"/>
+        <v>5.515089349412694E-4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="12"/>
+        <v>2.5162028441029195E-4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="12"/>
+        <v>1.1479784529652126E-4</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="12"/>
+        <v>5.2374588528870261E-5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="12"/>
+        <v>2.3895010394673042E-5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="12"/>
+        <v>1.0901688150028014E-5</v>
+      </c>
+      <c r="Z15">
+        <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
+        <v>9.1467596246218225E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <f>fbar/plambda</f>
+        <v>0.18792301531668718</v>
+      </c>
+      <c r="C16">
+        <f>fbar/plambda</f>
+        <v>0.41673773241401196</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
+        <v>0.74070965541274925</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
+        <v>0.5480335554231528</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="13"/>
+        <v>0.40093916140805891</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="13"/>
+        <v>0.2742242295160397</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="13"/>
+        <v>0.17356871738044011</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="13"/>
+        <v>0.10378682486023851</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="13"/>
+        <v>5.5964619089793062E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="13"/>
+        <v>2.7236667747138475E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="13"/>
+        <v>1.2653836201087352E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="13"/>
+        <v>5.7993531589998377E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>2.648768242939368E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="13"/>
+        <v>1.2087763231881574E-3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="13"/>
+        <v>5.5151941365602739E-4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="13"/>
+        <v>2.5162556846685752E-4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="13"/>
+        <v>1.1480048566597178E-4</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="13"/>
+        <v>5.2375897904769884E-5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="13"/>
+        <v>2.3895655566299854E-5</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="13"/>
+        <v>1.090200430249019E-5</v>
+      </c>
+      <c r="Z16" s="13">
+        <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
+        <v>9.1470585268481059E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3">
+        <f>(G14-G15)/dh</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:X17" si="14">(H15-H14)/dh</f>
+        <v>-4.0944847512491833E-4</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.9708482058031791E-3</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3319567660505811E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.15990105312058134</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.26161009925029788</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.25952345984736613</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.19587513846314186</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.12256294107740318</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="14"/>
+        <v>-6.9594903335037928E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.7695141341664851E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="14"/>
+        <v>-1.986540733994735E-2</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="14"/>
+        <v>-1.027440796482447E-2</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="14"/>
+        <v>-5.2393324920544868E-3</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="14"/>
+        <v>-2.6420144121509087E-3</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="14"/>
+        <v>-1.3201771342108036E-3</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="14"/>
+        <v>-6.5468385801546042E-4</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.2258363595412854E-4</v>
+      </c>
+      <c r="Y17" s="3">
+        <f>(Y15-Y14)/dh</f>
+        <v>-1.5807508503625932E-4</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>(Z15-Z14)/dh</f>
+        <v>-1.4944988514214845E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <f>phif/phie</f>
+        <v>0.43621104764924229</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
+        <v>-4.0944847344887426E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="15"/>
+        <v>-3.9708481009368742E-3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="15"/>
+        <v>-3.3319568954820099E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="15"/>
+        <v>-0.15990109967164789</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="15"/>
+        <v>-0.2616102963889399</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="15"/>
+        <v>-0.25952378433644174</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="15"/>
+        <v>-0.19587548124889165</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="15"/>
+        <v>-0.12256321684530425</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>-6.9595094721848161E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>-3.7695263850945286E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="15"/>
+        <v>-1.9865481835143889E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="15"/>
+        <v>-1.0274451631244113E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="15"/>
+        <v>-5.2393573789502801E-3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="15"/>
+        <v>-2.6420282827519718E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="15"/>
+        <v>-1.320184725236824E-3</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="15"/>
+        <v>-6.5468794979659797E-4</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="15"/>
+        <v>-3.2258581339739232E-4</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="15"/>
+        <v>-1.5807623108318321E-4</v>
+      </c>
+      <c r="Z18">
+        <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
+        <v>-1.49451113135807E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="D19">
+        <f>B15/SUM(plambda)*favg</f>
+        <v>0.16704743926484905</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
+        <v>-1.4029481130632812E-4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="16"/>
+        <v>-5.3667384928174507E-4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>-1.710780505485233E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="16"/>
+        <v>-4.8932132236217127E-3</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="16"/>
+        <v>-1.2524199257314014E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="16"/>
+        <v>-2.7553100248163431E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="16"/>
+        <v>-4.2839561960097527E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="16"/>
+        <v>-4.2820128335199437E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="16"/>
+        <v>-3.1860208430475628E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>-2.0322349414750765E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>-1.1921961543041568E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="16"/>
+        <v>-6.6484422152850459E-3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="16"/>
+        <v>-3.5848421327794506E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="16"/>
+        <v>-1.8871605250407051E-3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="16"/>
+        <v>-9.7578644587120224E-4</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="16"/>
+        <v>-4.9756172638792907E-4</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="16"/>
+        <v>-2.5089957425631482E-4</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="16"/>
+        <v>-1.2537058118523105E-4</v>
+      </c>
+      <c r="Z19">
+        <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
+        <v>-1.2201029219958868E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <f>ro*(reck-phie/phif)/(reck-1)</f>
+        <v>0.8825028815776137</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:Y21" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
+        <v>2.2633436904351736E-7</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="17"/>
+        <v>2.4716213272827643E-5</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="17"/>
+        <v>2.3252718503308373E-3</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="17"/>
+        <v>7.0146397252152479E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.19263280996921275</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.21758819786868155</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.17323180033433508</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.1115418429305699</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="17"/>
+        <v>6.4474651706247221E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="17"/>
+        <v>3.5348524912723937E-2</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.8793644757221752E-2</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="17"/>
+        <v>9.7853148422669262E-3</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="17"/>
+        <v>5.0161827847563217E-3</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="17"/>
+        <v>2.5402070656080911E-3</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.2737303304733954E-3</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="17"/>
+        <v>6.334938913381018E-4</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="17"/>
+        <v>3.1291637698121073E-4</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.5366471235739646E-4</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>Y20*Y9/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
+        <v>1.6482991923304579E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <f>SUMPRODUCT(lx,fa)</f>
+        <v>0.53468880128210072</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.6572671149251464E-8</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="17"/>
+        <v>3.6157215997510557E-7</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="17"/>
+        <v>4.5981624543069976E-6</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="17"/>
+        <v>5.3693389258673101E-5</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="17"/>
+        <v>5.459998510426641E-4</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="17"/>
+        <v>4.2053158072320037E-3</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.6258721778855855E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.5636378992428051E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.3226908471580536E-2</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.6287975933368466E-2</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.0070643783910722E-2</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="17"/>
+        <v>5.8026325485398137E-3</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="17"/>
+        <v>3.1988267708210959E-3</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.7110333839950487E-3</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="17"/>
+        <v>8.9542984492628106E-4</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="17"/>
+        <v>4.6090020382061851E-4</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.3417334985054974E-4</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.1773951927139367E-4</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
+        <v>1.3468782424144705E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <f>SUMPRODUCT(lz,fa)</f>
+        <v>0.23323716217358267</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f>G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-1.3511181384957917E-6</v>
+      </c>
+      <c r="H22">
+        <f>H11*H18+lz*wa*H6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-7.2927960063717248E-5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:Z22" si="18">I11*I18+lz*wa*I6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-1.578157152511432E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="18"/>
+        <v>-1.5360713876210614E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="18"/>
+        <v>-5.3687381496598435E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="18"/>
+        <v>-9.0365670577412543E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="18"/>
+        <v>-9.7607760879297484E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>-7.9907179024332378E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>-5.4612974247156977E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>-3.3710472795530168E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="18"/>
+        <v>-1.9603083983601798E-2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="18"/>
+        <v>-1.0950327086575441E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="18"/>
+        <v>-5.937289577001491E-3</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="18"/>
+        <v>-3.1454148877376634E-3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="18"/>
+        <v>-1.6357684050097054E-3</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="18"/>
+        <v>-8.3797055951023464E-4</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="18"/>
+        <v>-4.2399126625217111E-4</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="18"/>
+        <v>-2.1233055957585722E-4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="18"/>
+        <v>-1.0541801257807438E-4</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="18"/>
+        <v>-1.0058044636894916E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B6</f>
+        <v>0.15065618515385529</v>
+      </c>
+      <c r="C23" s="12">
+        <f>B7</f>
+        <v>0.33409487852969805</v>
+      </c>
+      <c r="D23" s="12">
+        <f>AVERAGE(f)</f>
+        <v>0.24237553184177668</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:Z23" si="19">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-4.6295169376542603E-7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="19"/>
+        <v>-8.6001154318897317E-6</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="19"/>
+        <v>-6.7506058215976135E-5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="19"/>
+        <v>-3.5748017116075183E-4</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="19"/>
+        <v>-1.4487342278940664E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="19"/>
+        <v>-4.7401190860549948E-3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="19"/>
+        <v>-1.182663234461216E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="19"/>
+        <v>-1.9728503286350271E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="19"/>
+        <v>-2.101673885604351E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>-1.6546200272710591E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="19"/>
+        <v>-1.1098982398882634E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="19"/>
+        <v>-6.8064799061637741E-3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="19"/>
+        <v>-3.9432566623867253E-3</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="19"/>
+        <v>-2.1955534938998427E-3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="19"/>
+        <v>-1.1869944986057025E-3</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="19"/>
+        <v>-6.2733868898574244E-4</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="19"/>
+        <v>-3.256565795888743E-4</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="19"/>
+        <v>-1.6661945225924683E-4</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="19"/>
+        <v>-8.4242881579632981E-5</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="19"/>
+        <v>-8.2592008050196101E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <f>SUMPRODUCT(fa,G18:Z18)</f>
+        <v>-0.51502776536788508</v>
+      </c>
+      <c r="C24">
+        <f>SUMPRODUCT(fa,G19:Z19)</f>
+        <v>-0.11945776732550731</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:Z24" si="20">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
+        <v>2.6821726339242194E-13</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="20"/>
+        <v>2.7054801698344644E-9</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="20"/>
+        <v>7.6613106621488446E-6</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="20"/>
+        <v>3.3495579676260656E-3</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="20"/>
+        <v>5.1701872556753237E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="20"/>
+        <v>0.12726354713685267</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="20"/>
+        <v>0.152992216379739</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="20"/>
+        <v>0.13087660164045284</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="20"/>
+        <v>9.1792781299123008E-2</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="20"/>
+        <v>5.7690283401306497E-2</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="20"/>
+        <v>3.399007070416693E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.9174378479700237E-2</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.0475645470852521E-2</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="20"/>
+        <v>5.5832996393482166E-3</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="20"/>
+        <v>2.9178656477467416E-3</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.5008525045913182E-3</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="20"/>
+        <v>7.6199724942865778E-4</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="20"/>
+        <v>3.8271789065956268E-4</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.9049247582256413E-4</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.9495896930863806E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <f>SUMPRODUCT(fa,G20:Z20)</f>
+        <v>0.4264799489722903</v>
+      </c>
+      <c r="C25">
+        <f>SUMPRODUCT(fa,G21:Z21)</f>
+        <v>6.9591379091908587E-2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" ref="G25:Z25" si="21">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
+        <v>1.0789809726545387E-14</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="21"/>
+        <v>6.7056401670117841E-12</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.0000802947233353E-9</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="21"/>
+        <v>9.1840200617820159E-8</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="21"/>
+        <v>5.9303780353021376E-6</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.3987777856202637E-4</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.8160335409770582E-3</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.6582203422608747E-2</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.5975328547785163E-2</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.3881571345212453E-2</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.7237086298223833E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.1013405844412155E-2</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="21"/>
+        <v>6.549140457761022E-3</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.7130032300959712E-3</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.0342362115571429E-3</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.086123542496265E-3</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="21"/>
+        <v>5.6837897046701526E-4</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.9271402284852051E-4</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.4879925114969671E-4</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.5954025185066796E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <f>SUMPRODUCT(lz*G11:Z11)</f>
+        <v>0.20423685689750617</v>
+      </c>
+      <c r="C26">
+        <f>SUMPRODUCT(lz*G12:Z12)</f>
+        <v>6.7325912352477438E-2</v>
+      </c>
+      <c r="G26">
+        <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
+        <v>2.6821726339242194E-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <f>SUM(G22:Z22)</f>
+        <v>-0.46985676391146369</v>
+      </c>
+      <c r="C27">
+        <f>SUM(G23:Z23)</f>
+        <v>-0.10225869394057033</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:Z27" si="22">(G15-2*G14+G16)/dh^2</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="22"/>
+        <v>-2.2204460492503131E-4</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="22"/>
+        <v>2.55351295663786E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="22"/>
+        <v>9.3147711766050634E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="22"/>
+        <v>0.39429570719562435</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="22"/>
+        <v>0.64898086904463526</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="22"/>
+        <v>0.68557659549384198</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="22"/>
+        <v>0.55153798195206605</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="22"/>
+        <v>0.38277367386818639</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="22"/>
+        <v>0.24501841527913015</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="22"/>
+        <v>0.14899062886208903</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="22"/>
+        <v>8.7332918674576376E-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="22"/>
+        <v>4.9773878595116283E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="22"/>
+        <v>2.7741264146952105E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="22"/>
+        <v>1.5182096573841675E-2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="22"/>
+        <v>8.1835918792384776E-3</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="22"/>
+        <v>4.3549047018271586E-3</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="22"/>
+        <v>2.2921033425221324E-3</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="22"/>
+        <v>2.455999135618156E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <f>SUM(G24:Z24)</f>
+        <v>0.69084680342988924</v>
+      </c>
+      <c r="C28">
+        <f>SUM(G25:Z25)</f>
+        <v>0.11330346594104038</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <f>ro/(reck-1)*phie/phif^2*dphif</f>
+        <v>-0.46019675115451858</v>
+      </c>
+      <c r="C29">
+        <f>ro/(reck-1)*phie/phif^2*dphif</f>
+        <v>-0.10674002475206905</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>B32</f>
+        <v>2.715421276978721E-2</v>
+      </c>
+      <c r="H29">
+        <f>B33</f>
+        <v>0.10360999040581431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
+        <v>-1.6513112046248832</v>
+      </c>
+      <c r="C30">
+        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
+        <v>-4.715618412225038E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
+        <v>3.152248770411277E-2</v>
+      </c>
+      <c r="H30">
+        <v>7.1866219987264196E-2</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
+        <v>5.6215968314282171E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="F31">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G31">
+        <v>3.1883315259484069E-2</v>
+      </c>
+      <c r="H31">
+        <v>6.9098924879337276E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <f>f*re*phiq</f>
+        <v>2.715421276978721E-2</v>
+      </c>
+      <c r="C32">
+        <f>f*re*phiq</f>
+        <v>1.9850351330483129E-2</v>
+      </c>
+      <c r="D32">
+        <f>SUM(Ye)</f>
+        <v>4.7004564100270339E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.21</v>
+      </c>
+      <c r="G32">
+        <v>3.223065137985761E-2</v>
+      </c>
+      <c r="H32">
+        <v>6.6404356994351682E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>0.10360999040581431</v>
+      </c>
+      <c r="C33">
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>2.6864460463357703E-2</v>
+      </c>
+      <c r="D33">
+        <f>SUM(dYe)</f>
+        <v>0.130474450869172</v>
+      </c>
+      <c r="F33">
+        <v>0.215</v>
+      </c>
+      <c r="G33">
+        <v>3.2564851972937667E-2</v>
+      </c>
+      <c r="H33">
+        <v>6.3780283433307772E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="F34">
+        <v>0.22</v>
+      </c>
+      <c r="G34">
+        <v>3.2886261986217899E-2</v>
+      </c>
+      <c r="H34">
+        <v>6.1224549318421251E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="F35">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G35">
+        <v>3.3195215789292812E-2</v>
+      </c>
+      <c r="H35">
+        <v>5.8735074710341187E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
+        <v>-0.91108532817911136</v>
+      </c>
+      <c r="C36">
+        <f>f*B30*phiq+2*f*B29*B27+f*re*B28</f>
+        <v>0.31102608616226324</v>
+      </c>
+      <c r="D36">
+        <f>B38+C39</f>
+        <v>7.8311300171673093</v>
+      </c>
+      <c r="F36">
+        <v>0.23</v>
+      </c>
+      <c r="G36">
+        <v>3.349203754109923E-2</v>
+      </c>
+      <c r="H36">
+        <v>5.6309851661869581E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37">
+        <f>f*C30*phiq+2*f*C29*C27+f*re*C28</f>
+        <v>1.6902086588449636E-2</v>
+      </c>
+      <c r="C37">
+        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
+        <v>-0.15522090458320659</v>
+      </c>
+      <c r="F37">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G37">
+        <v>3.377704154275344E-2</v>
+      </c>
+      <c r="H37">
+        <v>5.3946941401469842E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <f t="array" ref="B38:C39">-MINVERSE(B36:C37)</f>
+        <v>1.1399680953045332</v>
+      </c>
+      <c r="C38">
+        <v>2.2842272178768042</v>
+      </c>
+      <c r="F38">
+        <v>0.24</v>
+      </c>
+      <c r="G38">
+        <v>3.4050532576616485E-2</v>
+      </c>
+      <c r="H38">
+        <v>5.1644471640215406E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39">
+        <v>0.12413173023726744</v>
+      </c>
+      <c r="C39">
+        <v>6.6911619218627756</v>
+      </c>
+      <c r="F39">
+        <v>0.245</v>
+      </c>
+      <c r="G39">
+        <v>3.4312806232190192E-2</v>
+      </c>
+      <c r="H39">
+        <v>4.9400633996171783E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="F40">
+        <v>0.25</v>
+      </c>
+      <c r="G40">
+        <v>3.4564149219416543E-2</v>
+      </c>
+      <c r="H40">
+        <v>4.7213681530527685E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <f t="array" ref="B41:C41">MMULT(B33:C33,B38:C39)</f>
+        <v>0.12144681537664435</v>
+      </c>
+      <c r="C41">
+        <v>0.41642321503272267</v>
+      </c>
+      <c r="D41">
+        <f>D33/D36</f>
+        <v>1.6660999189535543E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.255</v>
+      </c>
+      <c r="G41">
+        <v>3.4804839669925348E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.5081926390090968E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="5">
+        <f>(f+dta)/plambda</f>
+        <v>0.19740233600576015</v>
+      </c>
+      <c r="C42" s="5">
+        <f>(f+dta)/plambda</f>
+        <v>1.2074328173005182</v>
+      </c>
+      <c r="D42" s="12">
+        <f>D23+D41</f>
+        <v>0.25903653103131224</v>
+      </c>
+      <c r="F42">
+        <v>0.26</v>
+      </c>
+      <c r="G42">
+        <v>3.5035147426749617E-2</v>
+      </c>
+      <c r="H42">
+        <v>4.3003737551054869E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="F43">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G43">
+        <v>3.5255334323002506E-2</v>
+      </c>
+      <c r="H43">
+        <v>4.0977538659204629E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="F44">
+        <v>0.27</v>
+      </c>
+      <c r="G44">
+        <v>3.5465654449986436E-2</v>
+      </c>
+      <c r="H44">
+        <v>3.900180596198996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="F45">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G45">
+        <v>3.5666354415183128E-2</v>
+      </c>
+      <c r="H45">
+        <v>3.7075066328128459E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="F46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G46">
+        <v>3.5857673590551628E-2</v>
+      </c>
+      <c r="H46">
+        <v>3.5195895350627476E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="F47">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G47">
+        <v>3.6039844351541339E-2</v>
+      </c>
+      <c r="H47">
+        <v>3.3362915529326742E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="F48">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G48">
+        <v>3.6213092307209087E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.1574794529264247E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G49">
+        <v>3.6377636521809441E-2</v>
+      </c>
+      <c r="H49">
+        <v>2.9830243511356186E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G50">
+        <v>3.6533689728212512E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.8128015532060152E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8">
+      <c r="F51">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G51">
+        <v>3.6681458533485492E-2</v>
+      </c>
+      <c r="H51">
+        <v>2.6466904008859593E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52">
+        <v>0.309999999999999</v>
+      </c>
+      <c r="G52">
+        <v>3.6821143616959554E-2</v>
+      </c>
+      <c r="H52">
+        <v>2.4845741248573805E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53">
+        <v>0.314999999999999</v>
+      </c>
+      <c r="G53">
+        <v>3.6952939921089605E-2</v>
+      </c>
+      <c r="H53">
+        <v>2.3263397035627686E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54">
+        <v>0.31999999999999901</v>
+      </c>
+      <c r="G54">
+        <v>3.7077036835398938E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.1718777277590154E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55">
+        <v>0.32499999999999901</v>
+      </c>
+      <c r="G55">
+        <v>3.7193618373789455E-2</v>
+      </c>
+      <c r="H55">
+        <v>2.0210822705392026E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56">
+        <v>0.32999999999999902</v>
+      </c>
+      <c r="G56">
+        <v>3.7302863345484411E-2</v>
+      </c>
+      <c r="H56">
+        <v>1.8738507625784023E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Z56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7343,7 +12765,7 @@
       </c>
       <c r="C6">
         <f>fbar*lambda</f>
-        <v>0.2406542626817135</v>
+        <v>0.32764970705508473</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
@@ -7841,7 +13263,7 @@
         <v>9.2395210435842394E-4</v>
       </c>
       <c r="H11">
-        <f t="shared" si="9"/>
+        <f>wa*H6/za*(1-EXP(-za))</f>
         <v>8.1455467787305367E-3</v>
       </c>
       <c r="I11">
@@ -8013,11 +13435,11 @@
       </c>
       <c r="B13">
         <f>fbar*B12</f>
-        <v>0.15041668793767735</v>
+        <v>0.20479165085124004</v>
       </c>
       <c r="C13">
         <f>fbar*C12</f>
-        <v>0.23010094440367487</v>
+        <v>0.31328141121138442</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -8035,11 +13457,11 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:Y14" si="11">G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
+        <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
         <v>0.71640944932865813</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
         <v>0.50675395047010574</v>
       </c>
       <c r="J14">
@@ -8130,79 +13552,79 @@
       </c>
       <c r="H15">
         <f t="shared" ref="H15:Y15" si="12">G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.69826098198545472</v>
+        <v>0.68726691756658831</v>
       </c>
       <c r="I15">
         <f t="shared" si="12"/>
-        <v>0.47558179975962273</v>
+        <v>0.45726908641813713</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.31403439169594038</v>
+        <v>0.29218621493281349</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.20021298266431431</v>
+        <v>0.17835443972856463</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.12316112979027531</v>
+        <v>0.10393164899106624</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>7.3306977315344218E-2</v>
+        <v>5.8049552102631484E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>4.2432009144946999E-2</v>
+        <v>3.1293767451919391E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>2.4018894201588266E-2</v>
+        <v>1.6407382574372891E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>1.3363576524415293E-2</v>
+        <v>8.4235160093828459E-3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>7.3381405177668935E-3</v>
+        <v>4.2576201281639744E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>3.9894961427511108E-3</v>
+        <v>2.1272804987541938E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>2.1525889388133487E-3</v>
+        <v>1.0538182629088368E-3</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>1.1547939545046859E-3</v>
+        <v>5.1873145220235404E-4</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>6.168056024502454E-4</v>
+        <v>2.5413098216233018E-4</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>3.2835995862759231E-4</v>
+        <v>1.240599587639938E-4</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>1.7436507406295052E-4</v>
+        <v>6.0402194452163229E-5</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>9.2415023540416322E-5</v>
+        <v>2.9350187003562092E-5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>4.8910490769615902E-5</v>
+        <v>1.4240429705305945E-5</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>5.481196605646795E-5</v>
+        <v>1.3381657128290662E-5</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -8307,79 +13729,79 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
-        <v>-1814.8467343203411</v>
+        <v>-2914.2531762069821</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-3117.2150710483011</v>
+        <v>-4948.4864051968607</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-3883.2848776033488</v>
+        <v>-6068.1025539160373</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-4114.9102457724348</v>
+        <v>-6300.7645393474031</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-3889.8049901494851</v>
+        <v>-5812.7530700703919</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-3359.906901891954</v>
+        <v>-4885.6494231632269</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-2698.9234805662445</v>
+        <v>-3812.7476498690053</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-2046.0167815883945</v>
+        <v>-2807.167944309932</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-1481.8751211498161</v>
+        <v>-1975.8811726530605</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-1035.5961342244932</v>
+        <v>-1343.648173184785</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-703.74529714920584</v>
+        <v>-889.96686154889744</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-467.84238921501617</v>
+        <v>-577.7194568054673</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-305.67634741760935</v>
+        <v>-369.28259764784252</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-196.9995694941442</v>
+        <v>-233.2670315229357</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-125.58097212342756</v>
+        <v>-146.01097210978742</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-79.356800529583637</v>
+        <v>-90.753088490662364</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-49.795198792258411</v>
+        <v>-56.101682445943837</v>
       </c>
       <c r="Y17" s="3">
         <f>(Y15-Y14)/dh</f>
-        <v>-31.068252027807894</v>
+        <v>-34.535258134238894</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="14"/>
-        <v>-50.335186041158501</v>
+        <v>-54.478216933976242</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -9174,11 +14596,11 @@
       </c>
       <c r="Y27">
         <f>(Y15-2*Y14+Y16)/dh^2</f>
-        <v>-3106315.1349920747</v>
+        <v>-3453015.7456351742</v>
       </c>
       <c r="Z27">
         <f>(Z15-2*Z14+Z16)/dh^2</f>
-        <v>-5032584.5213952344</v>
+        <v>-5446887.6106770085</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -9688,7 +15110,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9698,8 +15119,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -10861,8 +16283,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11076,8 +16499,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -207,7 +207,7 @@
     <definedName name="zf" localSheetId="6">FlakLake!$B$9</definedName>
     <definedName name="zf">SingleFleet!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterateCount="2500" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" iterateCount="2500" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -710,7 +710,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1570">
+  <cellStyleXfs count="1582">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2125,6 +2125,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2299,7 +2311,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="1413"/>
   </cellXfs>
-  <cellStyles count="1570">
+  <cellStyles count="1582">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
@@ -3085,6 +3097,12 @@
     <cellStyle name="Followed Hyperlink" xfId="1565" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1567" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1581" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -3867,6 +3885,12 @@
     <cellStyle name="Hyperlink" xfId="1564" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1566" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1580" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4148,11 +4172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120854312"/>
-        <c:axId val="-2120851976"/>
+        <c:axId val="-2108669496"/>
+        <c:axId val="-2109156488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120854312"/>
+        <c:axId val="-2108669496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,7 +4185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120851976"/>
+        <c:crossAx val="-2109156488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4169,7 +4193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120851976"/>
+        <c:axId val="-2109156488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,7 +4204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120854312"/>
+        <c:crossAx val="-2108669496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4474,11 +4498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120770552"/>
-        <c:axId val="-2120767576"/>
+        <c:axId val="-2108431384"/>
+        <c:axId val="-2108205320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120770552"/>
+        <c:axId val="-2108431384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,7 +4511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120767576"/>
+        <c:crossAx val="-2108205320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4495,7 +4519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120767576"/>
+        <c:axId val="-2108205320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +4530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120770552"/>
+        <c:crossAx val="-2108431384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4712,11 +4736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120721736"/>
-        <c:axId val="-2120718760"/>
+        <c:axId val="-2107757464"/>
+        <c:axId val="-2107754616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120721736"/>
+        <c:axId val="-2107757464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,7 +4749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120718760"/>
+        <c:crossAx val="-2107754616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4733,7 +4757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120718760"/>
+        <c:axId val="-2107754616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4744,7 +4768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120721736"/>
+        <c:crossAx val="-2107757464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5044,8 +5068,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120670776"/>
-        <c:axId val="-2120667784"/>
+        <c:axId val="-2108528392"/>
+        <c:axId val="-2108753640"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5308,11 +5332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120661448"/>
-        <c:axId val="-2120664744"/>
+        <c:axId val="-2108825368"/>
+        <c:axId val="-2109381176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2120670776"/>
+        <c:axId val="-2108528392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5322,12 +5346,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120667784"/>
+        <c:crossAx val="-2108753640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120667784"/>
+        <c:axId val="-2108753640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,12 +5362,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120670776"/>
+        <c:crossAx val="-2108528392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120664744"/>
+        <c:axId val="-2109381176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -5355,12 +5379,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120661448"/>
+        <c:crossAx val="-2108825368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120661448"/>
+        <c:axId val="-2108825368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +5394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120664744"/>
+        <c:crossAx val="-2109381176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5669,8 +5693,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120608712"/>
-        <c:axId val="-2120605720"/>
+        <c:axId val="-2109680072"/>
+        <c:axId val="-2109375144"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5933,11 +5957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120599384"/>
-        <c:axId val="-2120602680"/>
+        <c:axId val="-2107985368"/>
+        <c:axId val="-2108335352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2120608712"/>
+        <c:axId val="-2109680072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,12 +5971,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120605720"/>
+        <c:crossAx val="-2109375144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120605720"/>
+        <c:axId val="-2109375144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,12 +5987,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120608712"/>
+        <c:crossAx val="-2109680072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120602680"/>
+        <c:axId val="-2108335352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5980,12 +6004,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120599384"/>
+        <c:crossAx val="-2107985368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120599384"/>
+        <c:axId val="-2107985368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,7 +6019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120602680"/>
+        <c:crossAx val="-2108335352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6723,10 +6747,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7183,15 +7207,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="11">
-        <v>0.1</v>
+        <v>0.46452175642663507</v>
       </c>
       <c r="C6">
         <f>B6+dh</f>
-        <v>0.10010000000000001</v>
+        <v>0.46452275642663504</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
-        <v>9.9900000000000003E-2</v>
+        <v>0.4645207564266351</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -7285,15 +7309,15 @@
         <v>28</v>
       </c>
       <c r="B7" s="11">
-        <v>0.1</v>
+        <v>1.3909420462577307</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>0.1</v>
+        <v>1.3909420462577307</v>
       </c>
       <c r="D7">
         <f>C7</f>
-        <v>0.1</v>
+        <v>1.3909420462577307</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -7395,83 +7419,83 @@
       </c>
       <c r="G8">
         <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
-        <v>0.30007421845807492</v>
+        <v>0.3005202303944165</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>0.30074827168660218</v>
+        <v>0.30420763261611866</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>0.30791458414071782</v>
+        <v>0.33981072147834956</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.35135769169437447</v>
+        <v>0.55114558284892068</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.39784550861113976</v>
+        <v>0.80483058693731513</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.41866285188780245</v>
+        <v>1.0303116032579556</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>0.44994472213630771</v>
+        <v>1.4597360018521617</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0.48066332323289895</v>
+        <v>1.8865438926884874</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>0.49456830072280755</v>
+        <v>2.0799154660458639</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>0.49864227771540293</v>
+        <v>2.1365789559505228</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.49967123135040753</v>
+        <v>2.1508908445646746</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>0.49992101319971105</v>
+        <v>2.154365143977647</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>0.49998105938869858</v>
+        <v>2.1552003499146961</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>0.49999546021174102</v>
+        <v>2.1554006568735256</v>
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>0.49999891199770152</v>
+        <v>2.1554486692039871</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>0.49999973925698249</v>
+        <v>2.1554601759001883</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>0.49999993751254324</v>
+        <v>2.1554629335200626</v>
       </c>
       <c r="X8">
         <f t="shared" si="6"/>
-        <v>0.49999998502480925</v>
+        <v>2.1554635943881406</v>
       </c>
       <c r="Y8">
         <f t="shared" si="6"/>
-        <v>0.49999999641117965</v>
+        <v>2.1554637527659541</v>
       </c>
       <c r="Z8">
         <f t="shared" si="6"/>
-        <v>0.49999999913993554</v>
+        <v>2.1554637907213667</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -7480,83 +7504,83 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
-        <v>0.74076324033596852</v>
+        <v>0.74043292475659694</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="7"/>
-        <v>0.74026409472649934</v>
+        <v>0.73770767837252949</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="7"/>
-        <v>0.73497809411345538</v>
+        <v>0.71190505834793083</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="7"/>
-        <v>0.70373198974354245</v>
+        <v>0.57628924501144707</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="7"/>
-        <v>0.67176580167739741</v>
+        <v>0.44716367551053404</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="7"/>
-        <v>0.65792597638007677</v>
+        <v>0.35689573336740044</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.63766339931802474</v>
+        <v>0.2322975927697167</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="7"/>
-        <v>0.61837307450776713</v>
+        <v>0.15159483251181571</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60983411542567856</v>
+        <v>0.12494077348979821</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60735471920099227</v>
+        <v>0.11805803469740155</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60673010076174938</v>
+        <v>0.11638043470210052</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60657856952081757</v>
+        <v>0.11597679581332951</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60654214788289762</v>
+        <v>0.11587997174455328</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60653341323965126</v>
+        <v>0.11585676250438764</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60653131961974427</v>
+        <v>0.11585120008475351</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60653081786128848</v>
+        <v>0.11584986702785914</v>
       </c>
       <c r="W9" s="7">
         <f t="shared" si="7"/>
-        <v>0.606530697613193</v>
+        <v>0.11584954755840389</v>
       </c>
       <c r="X9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60653066879554585</v>
+        <v>0.11584947099716135</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="7"/>
-        <v>0.606530661889363</v>
+        <v>0.11584945264917688</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="7"/>
-        <v>0.60653066023428892</v>
+        <v>0.1158494482520632</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -7565,94 +7589,94 @@
       </c>
       <c r="B10">
         <f>B29/SUM(Ye)</f>
-        <v>0.68920917056057462</v>
+        <v>0.71151800145797184</v>
       </c>
       <c r="C10">
         <f>C29/SUM(Ye)</f>
-        <v>0.31079082943942549</v>
+        <v>0.28848199854202827</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:Z10" si="8">1-sa</f>
-        <v>0.25923675966403148</v>
+        <v>0.25956707524340306</v>
       </c>
       <c r="H10">
         <f t="shared" si="8"/>
-        <v>0.25973590527350066</v>
+        <v>0.26229232162747051</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
-        <v>0.26502190588654462</v>
+        <v>0.28809494165206917</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.29626801025645755</v>
+        <v>0.42371075498855293</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.32823419832260259</v>
+        <v>0.55283632448946596</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.34207402361992323</v>
+        <v>0.64310426663259956</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>0.36233660068197526</v>
+        <v>0.76770240723028327</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>0.38162692549223287</v>
+        <v>0.84840516748818429</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0.39016588457432144</v>
+        <v>0.87505922651020174</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
-        <v>0.39264528079900773</v>
+        <v>0.8819419653025985</v>
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>0.39326989923825062</v>
+        <v>0.88361956529789953</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>0.39342143047918243</v>
+        <v>0.88402320418667046</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>0.39345785211710238</v>
+        <v>0.88412002825544667</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0.39346658676034874</v>
+        <v>0.88414323749561241</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
-        <v>0.39346868038025573</v>
+        <v>0.88414879991524653</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>0.39346918213871152</v>
+        <v>0.88415013297214085</v>
       </c>
       <c r="W10">
         <f t="shared" si="8"/>
-        <v>0.393469302386807</v>
+        <v>0.88415045244159607</v>
       </c>
       <c r="X10">
         <f t="shared" si="8"/>
-        <v>0.39346933120445415</v>
+        <v>0.88415052900283864</v>
       </c>
       <c r="Y10">
         <f t="shared" si="8"/>
-        <v>0.393469338110637</v>
+        <v>0.8841505473508231</v>
       </c>
       <c r="Z10">
         <f t="shared" si="8"/>
-        <v>0.39346933976571108</v>
+        <v>0.88415055174793677</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -7661,165 +7685,165 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
-        <v>2.8444057165240731E-6</v>
+        <v>2.843803160686559E-6</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>2.071178950397122E-4</v>
+        <v>2.0677795939224973E-4</v>
       </c>
       <c r="I11">
         <f>wa*I6/za*(1-EXP(-za))</f>
-        <v>5.9969110139548882E-3</v>
+        <v>5.9071044047261916E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>7.040151454409542E-2</v>
+        <v>6.4187411679668294E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>0.19257847264976413</v>
+        <v>0.16033578695345344</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
-        <v>0.27695468127619199</v>
+        <v>0.21157572698260743</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.34418743086217907</v>
+        <v>0.22478149016438181</v>
       </c>
       <c r="N11">
         <f t="shared" si="9"/>
-        <v>0.40360442957643344</v>
+        <v>0.22860950919623255</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.45879045430841958</v>
+        <v>0.24467135178982008</v>
       </c>
       <c r="P11">
         <f t="shared" si="9"/>
-        <v>0.5090428766456212</v>
+        <v>0.26684811642237977</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.55335021720918953</v>
+        <v>0.28882891980394526</v>
       </c>
       <c r="R11">
         <f t="shared" si="9"/>
-        <v>0.59163310785742396</v>
+        <v>0.30848936649918085</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>0.62429900465738508</v>
+        <v>0.32544046975936375</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>0.65193168541624014</v>
+        <v>0.33982467570224262</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.67515566965948826</v>
+        <v>0.35192529757851421</v>
       </c>
       <c r="V11">
         <f t="shared" si="9"/>
-        <v>0.69457603126682987</v>
+        <v>0.36204692314656467</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>0.7107507173255867</v>
+        <v>0.3704776524184647</v>
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>0.72417890186855227</v>
+        <v>0.3774769968898658</v>
       </c>
       <c r="Y11">
         <f t="shared" si="9"/>
-        <v>0.73529806833297484</v>
+        <v>0.38327282492186943</v>
       </c>
       <c r="Z11">
         <f t="shared" si="9"/>
-        <v>0.74448595720035449</v>
+        <v>0.38806199141700309</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="G12">
         <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
-        <v>9.7461680566801257E-7</v>
+        <v>9.7441034389563493E-7</v>
       </c>
       <c r="H12">
         <f t="shared" si="10"/>
-        <v>2.4443301227943681E-5</v>
+        <v>2.4403183258284673E-5</v>
       </c>
       <c r="I12">
         <f t="shared" si="10"/>
-        <v>2.599035828428865E-4</v>
+        <v>2.560114024441455E-4</v>
       </c>
       <c r="J12">
         <f t="shared" si="10"/>
-        <v>1.9116710313579891E-3</v>
+        <v>1.7429343144175667E-3</v>
       </c>
       <c r="K12">
         <f t="shared" si="10"/>
-        <v>1.1318139283735188E-2</v>
+        <v>9.4231860079543508E-3</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>5.3902016518552275E-2</v>
+        <v>4.1177705602196552E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="10"/>
-        <v>0.17218889777529514</v>
+        <v>0.11245290664664513</v>
       </c>
       <c r="N12">
         <f t="shared" si="10"/>
-        <v>0.32559384965927507</v>
+        <v>0.18442277812965066</v>
       </c>
       <c r="O12">
         <f t="shared" si="10"/>
-        <v>0.4338736631550888</v>
+        <v>0.23138331382717367</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>0.502131797391834</v>
+        <v>0.26322522223030015</v>
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
-        <v>0.55153100291611112</v>
+        <v>0.28787935534581283</v>
       </c>
       <c r="R12">
         <f t="shared" si="10"/>
-        <v>0.59116579823400728</v>
+        <v>0.30824570189053707</v>
       </c>
       <c r="S12">
         <f t="shared" si="10"/>
-        <v>0.62418075882078383</v>
+        <v>0.32537882945508084</v>
       </c>
       <c r="T12">
         <f t="shared" si="10"/>
-        <v>0.65190208911623626</v>
+        <v>0.3398092483909525</v>
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>0.67514832395182278</v>
+        <v>0.35192146862398965</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>0.69457422020845649</v>
+        <v>0.36204597913455994</v>
       </c>
       <c r="W12">
         <f t="shared" si="10"/>
-        <v>0.71075027319555006</v>
+        <v>0.37047742091640734</v>
       </c>
       <c r="X12">
         <f t="shared" si="10"/>
-        <v>0.72417879342138103</v>
+        <v>0.37747694036196588</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>0.73529804194444803</v>
+        <v>0.38327281116689627</v>
       </c>
       <c r="Z12">
         <f t="shared" si="10"/>
-        <v>0.74448595079729474</v>
+        <v>0.3880619880794195</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -7827,7 +7851,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -7840,79 +7864,79 @@
       </c>
       <c r="H14">
         <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
-        <v>0.74076324033596852</v>
+        <v>0.74043292475659694</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
-        <v>0.54836042951397401</v>
+        <v>0.54622305391277093</v>
       </c>
       <c r="J14">
         <f t="shared" si="11"/>
-        <v>0.4030329033714164</v>
+        <v>0.38885895506675616</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>0.28362714702168373</v>
+        <v>0.22409523363136113</v>
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
-        <v>0.19053101779649442</v>
+        <v>0.10020724833499128</v>
       </c>
       <c r="M14">
         <f t="shared" si="11"/>
-        <v>0.12535530591444838</v>
+        <v>3.5763539383245932E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
-        <v>7.9934490491958041E-2</v>
+        <v>8.3077841076529893E-3</v>
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>4.9429336644723973E-2</v>
+        <v>1.2594171403439794E-3</v>
       </c>
       <c r="P14">
         <f t="shared" si="11"/>
-        <v>3.0143695788813322E-2</v>
+        <v>1.5735255166088652E-4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>1.8307915891494848E-2</v>
+        <v>1.8576733003705611E-5</v>
       </c>
       <c r="R14">
         <f t="shared" si="11"/>
-        <v>1.1107963653584301E-2</v>
+        <v>2.1619682623161166E-6</v>
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>6.7378527032804E-3</v>
+        <v>2.5073815171353505E-7</v>
       </c>
       <c r="T14">
         <f t="shared" si="11"/>
-        <v>4.0867916507662822E-3</v>
+        <v>2.9055529935845954E-8</v>
       </c>
       <c r="U14">
         <f t="shared" si="11"/>
-        <v>2.478775689138582E-3</v>
+        <v>3.3662796312164302E-9</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>1.5034550897745651E-3</v>
+        <v>3.8998753509728491E-10</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
-        <v>9.1189184521868385E-4</v>
+        <v>4.5180004083543008E-11</v>
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
-        <v>5.5309039702827018E-4</v>
+        <v>5.2340830317652978E-12</v>
       </c>
       <c r="Y14">
         <f t="shared" si="11"/>
-        <v>3.3546628841395068E-4</v>
+        <v>6.0636575038522821E-13</v>
       </c>
       <c r="Z14">
         <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
-        <v>5.1711930102212478E-4</v>
+        <v>7.9451559633661719E-14</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -7921,7 +7945,7 @@
       </c>
       <c r="B15">
         <f>phif/phie</f>
-        <v>0.58852080027627374</v>
+        <v>0.20790423731179028</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -7932,79 +7956,79 @@
       </c>
       <c r="H15">
         <f>G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.74076319938816027</v>
+        <v>0.74043292434730146</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
-        <v>0.54836003219246421</v>
+        <v>0.54622304995504101</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.40302955402836799</v>
+        <v>0.3888589227510969</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.28361060909686192</v>
+        <v>0.22409510296061477</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.19050230225623052</v>
+        <v>0.100207097298168</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>0.12532396407735549</v>
+        <v>3.5763449954739963E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>7.9906518315702266E-2</v>
+        <v>8.3077550304594995E-3</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>4.9407098671501268E-2</v>
+        <v>1.2594114730367745E-3</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>3.0127121462525722E-2</v>
+        <v>1.5735168623196222E-4</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>1.8296019703312752E-2</v>
+        <v>1.8576612256251773E-5</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>1.1099635859071835E-2</v>
+        <v>2.1619520477218745E-6</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>6.7321279951378767E-3</v>
+        <v>2.5073602046070423E-7</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>4.0829110624720994E-3</v>
+        <v>2.905525391105971E-8</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>2.4761743528585673E-3</v>
+        <v>3.3662442856323557E-9</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>1.5017271176272248E-3</v>
+        <v>3.8998305028570686E-10</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>9.1075269703529713E-4</v>
+        <v>4.5179439339256107E-11</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>5.5234423150095249E-4</v>
+        <v>5.2340123723801861E-12</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>3.3498021644103347E-4</v>
+        <v>6.0635695817558055E-13</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>5.1623881559851941E-4</v>
+        <v>7.9450317737662751E-14</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -8017,79 +8041,79 @@
       </c>
       <c r="H16">
         <f>G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
-        <v>0.74076328128377911</v>
+        <v>0.74043292516589243</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
-        <v>0.54836082683577181</v>
+        <v>0.54622305787050085</v>
       </c>
       <c r="J16">
         <f t="shared" si="13"/>
-        <v>0.40303625274229943</v>
+        <v>0.38885898738241803</v>
       </c>
       <c r="K16">
         <f t="shared" si="13"/>
-        <v>0.28364368591086647</v>
+        <v>0.22409536430218366</v>
       </c>
       <c r="L16">
         <f t="shared" si="13"/>
-        <v>0.19055973766522188</v>
+        <v>0.10020739937204221</v>
       </c>
       <c r="M16">
         <f t="shared" si="13"/>
-        <v>0.12538665558971304</v>
+        <v>3.576362881197552E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="13"/>
-        <v>7.9962472460189019E-2</v>
+        <v>8.3078131849482519E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="13"/>
-        <v>4.9451584627185574E-2</v>
+        <v>1.2594228076766875E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>3.016027923340624E-2</v>
+        <v>1.5735341709457071E-4</v>
       </c>
       <c r="Q16">
         <f t="shared" si="13"/>
-        <v>1.8319819814654033E-2</v>
+        <v>1.8576853751944307E-5</v>
       </c>
       <c r="R16">
         <f t="shared" si="13"/>
-        <v>1.1116297696244211E-2</v>
+        <v>2.1619844770319663E-6</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>6.7435822794651426E-3</v>
+        <v>2.5074028298448151E-7</v>
       </c>
       <c r="T16">
         <f t="shared" si="13"/>
-        <v>4.0906759273518023E-3</v>
+        <v>2.905580596325445E-8</v>
       </c>
       <c r="U16">
         <f t="shared" si="13"/>
-        <v>2.4813797582433003E-3</v>
+        <v>3.3663149771716341E-9</v>
       </c>
       <c r="V16">
         <f t="shared" si="13"/>
-        <v>1.5051850502243789E-3</v>
+        <v>3.899920199604384E-10</v>
       </c>
       <c r="W16">
         <f t="shared" si="13"/>
-        <v>9.1303241822198941E-4</v>
+        <v>4.5180568834889229E-11</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>5.538375705556038E-4</v>
+        <v>5.2341536921043143E-12</v>
       </c>
       <c r="Y16">
         <f t="shared" si="13"/>
-        <v>3.359530657000513E-4</v>
+        <v>6.0637454272236306E-13</v>
       </c>
       <c r="Z16">
         <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
-        <v>5.1800130847578141E-4</v>
+        <v>7.9452801549084625E-14</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -8098,7 +8122,7 @@
       </c>
       <c r="B17">
         <f>ro*(reck-phie/phif)/(reck-1)</f>
-        <v>0.93643861022868891</v>
+        <v>0.65364483846022825</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>31</v>
@@ -8109,79 +8133,79 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:Y17" si="14">(H15-H14)/dh</f>
-        <v>-4.0947808255253904E-4</v>
+        <v>-4.0929548639212499E-4</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.9732150980409386E-3</v>
+        <v>-3.9577299215665107E-3</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.3493430484088371E-2</v>
+        <v>-3.2315659259651852E-2</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.16537924821813377</v>
+        <v>-0.13067074636219367</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.28715540263901662</v>
+        <v>-0.15103682328432289</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.31341837092885294</v>
+        <v>-8.9428505968547345E-2</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.27972176255774972</v>
+        <v>-2.9077193489795983E-2</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.22237973222705154</v>
+        <v>-5.6673072049064771E-3</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.16574326287599472</v>
+        <v>-8.6542892429740566E-4</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.11896188182095729</v>
+        <v>-1.2074745383791087E-4</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-8.3277945124669156E-2</v>
+        <v>-1.6214594242052529E-5</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-5.7247081425232729E-2</v>
+        <v>-2.1312528308124999E-6</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.8805882941828421E-2</v>
+        <v>-2.7602478624401611E-7</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.6013362800147641E-2</v>
+        <v>-3.5345584074481226E-8</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.7279721473402541E-2</v>
+        <v>-4.4848115780510135E-9</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.1391481833867212E-2</v>
+        <v>-5.6474428690066234E-10</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-7.4616552731769214E-3</v>
+        <v>-7.0659385111652573E-11</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="14"/>
-        <v>-4.8607197291721796E-3</v>
+        <v>-8.7922096476563489E-12</v>
       </c>
       <c r="Z17" s="3">
         <f>(Z15-Z14)/dh</f>
-        <v>-8.8048542360536983E-3</v>
+        <v>-1.2418959989673517E-12</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -8201,79 +8225,79 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
-        <v>-4.0947809427602547E-4</v>
+        <v>-4.0929550288030581E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="15"/>
-        <v>-3.9732165382834151E-3</v>
+        <v>-3.9577299064439322E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="15"/>
-        <v>-3.3493569657240964E-2</v>
+        <v>-3.2315660556298961E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="15"/>
-        <v>-0.16538406992934598</v>
+        <v>-0.1306707844397163</v>
       </c>
       <c r="L18">
         <f t="shared" si="15"/>
-        <v>-0.28717704386961507</v>
+        <v>-0.15103693710327029</v>
       </c>
       <c r="M18">
         <f t="shared" si="15"/>
-        <v>-0.31345755852125551</v>
+        <v>-8.9428617778666675E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="15"/>
-        <v>-0.27977071672185316</v>
+        <v>-2.9077244376785463E-2</v>
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>-0.22242977091472285</v>
+        <v>-5.6673199566939277E-3</v>
       </c>
       <c r="P18">
         <f t="shared" si="15"/>
-        <v>-0.16578884604424876</v>
+        <v>-8.6543130426819501E-4</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>-0.11900054832692385</v>
+        <v>-1.2074784626855366E-4</v>
       </c>
       <c r="R18">
         <f t="shared" si="15"/>
-        <v>-8.3309178051761371E-2</v>
+        <v>-1.6214655046105795E-5</v>
       </c>
       <c r="S18">
         <f t="shared" si="15"/>
-        <v>-5.7271414739985156E-2</v>
+        <v>-2.1312618886625098E-6</v>
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
-        <v>-3.8824318558757683E-2</v>
+        <v>-2.7602609736938492E-7</v>
       </c>
       <c r="U18">
         <f t="shared" si="15"/>
-        <v>-2.6027022141250994E-2</v>
+        <v>-3.5345769639107488E-8</v>
       </c>
       <c r="V18">
         <f t="shared" si="15"/>
-        <v>-1.7289659174878118E-2</v>
+        <v>-4.4848373657066878E-9</v>
       </c>
       <c r="W18">
         <f t="shared" si="15"/>
-        <v>-1.1398602965100353E-2</v>
+        <v>-5.6474781654223258E-10</v>
       </c>
       <c r="X18">
         <f t="shared" si="15"/>
-        <v>-7.4666930052663932E-3</v>
+        <v>-7.0659862062779392E-11</v>
       </c>
       <c r="Y18">
         <f t="shared" si="15"/>
-        <v>-4.8642445905892001E-3</v>
+        <v>-8.7922733910906105E-12</v>
       </c>
       <c r="Z18">
         <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
-        <v>-8.8124599345113085E-3</v>
+        <v>-1.2419057109252023E-12</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -8282,7 +8306,7 @@
       </c>
       <c r="B19">
         <f>SUMPRODUCT(lz,fa)</f>
-        <v>0.31467548122930339</v>
+        <v>0.11116406742971054</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -8292,79 +8316,79 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
-        <v>-1.4030496068683724E-4</v>
+        <v>-1.4024239695276621E-4</v>
       </c>
       <c r="I19">
         <f t="shared" si="16"/>
-        <v>-5.3699395177754462E-4</v>
+        <v>-5.3490087994240111E-4</v>
       </c>
       <c r="J19">
         <f t="shared" si="16"/>
-        <v>-1.7197145049029923E-3</v>
+        <v>-1.6592352132933782E-3</v>
       </c>
       <c r="K19">
         <f t="shared" si="16"/>
-        <v>-5.0610003284307864E-3</v>
+        <v>-3.998721782867227E-3</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
-        <v>-1.3748168819021772E-2</v>
+        <v>-7.2306660770089376E-3</v>
       </c>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>-3.3279136845061646E-2</v>
+        <v>-9.4944502948368075E-3</v>
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>-6.1188132772970756E-2</v>
+        <v>-6.359430001988812E-3</v>
       </c>
       <c r="O19">
         <f t="shared" si="16"/>
-        <v>-7.7710683362357869E-2</v>
+        <v>-1.9800016196422849E-3</v>
       </c>
       <c r="P19">
         <f t="shared" si="16"/>
-        <v>-7.5897119064622653E-2</v>
+        <v>-3.9618915451503903E-4</v>
       </c>
       <c r="Q19">
         <f t="shared" si="16"/>
-        <v>-6.4155824275681131E-2</v>
+        <v>-6.509783119309885E-5</v>
       </c>
       <c r="R19">
         <f t="shared" si="16"/>
-        <v>-4.9996714157641155E-2</v>
+        <v>-9.7309743351592882E-6</v>
       </c>
       <c r="S19">
         <f t="shared" si="16"/>
-        <v>-3.7059466057392819E-2</v>
+        <v>-1.3791073257207211E-6</v>
       </c>
       <c r="T19">
         <f t="shared" si="16"/>
-        <v>-2.656414572998083E-2</v>
+        <v>-1.8886094458299872E-7</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
-        <v>-1.8590705137406082E-2</v>
+        <v>-2.5246944412202515E-8</v>
       </c>
       <c r="V19">
         <f t="shared" si="16"/>
-        <v>-1.2779283651802816E-2</v>
+        <v>-3.3148721006511065E-9</v>
       </c>
       <c r="W19">
         <f t="shared" si="16"/>
-        <v>-8.6629188325338096E-3</v>
+        <v>-4.2920737835463206E-10</v>
       </c>
       <c r="X19">
         <f t="shared" si="16"/>
-        <v>-5.8074162542793512E-3</v>
+        <v>-5.4957560352232766E-11</v>
       </c>
       <c r="Y19">
         <f t="shared" si="16"/>
-        <v>-3.8578423028594127E-3</v>
+        <v>-6.9731699536815352E-12</v>
       </c>
       <c r="Z19">
         <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-7.2610967302856374E-3</v>
+        <v>-1.0035502185040816E-12</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -8373,11 +8397,11 @@
       </c>
       <c r="B20">
         <f>B6</f>
-        <v>0.1</v>
+        <v>0.46452175642663507</v>
       </c>
       <c r="C20">
         <f>B7</f>
-        <v>0.1</v>
+        <v>1.3909420462577307</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -8387,79 +8411,79 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:Y20" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
-        <v>2.2635074280397453E-7</v>
+        <v>2.2624981018113464E-7</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="17"/>
-        <v>2.4730955413824334E-5</v>
+        <v>2.4634560163819147E-5</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="17"/>
-        <v>2.3374148326072786E-3</v>
+        <v>2.2552121222906216E-3</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="17"/>
-        <v>7.2551700346427717E-2</v>
+        <v>5.7323462899135806E-2</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="17"/>
-        <v>0.21145850023047716</v>
+        <v>0.11121377868128988</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="17"/>
-        <v>0.26280699258969475</v>
+        <v>7.497814441207995E-2</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="17"/>
-        <v>0.24742854301897543</v>
+        <v>2.5715844372331164E-2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="17"/>
-        <v>0.20242799764114724</v>
+        <v>5.1576919137550992E-3</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="17"/>
-        <v>0.15359096999875055</v>
+        <v>8.0175739599731052E-4</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="17"/>
-        <v>0.11159210514603124</v>
+        <v>1.1323062411392815E-4</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="17"/>
-        <v>7.8814252295209844E-2</v>
+        <v>1.5339797409711216E-5</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="17"/>
-        <v>5.45448890905861E-2</v>
+        <v>2.0297987026838336E-6</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="17"/>
-        <v>3.7170565834421916E-2</v>
+        <v>2.642685462401477E-7</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="17"/>
-        <v>2.5023965856670823E-2</v>
+        <v>3.398357783024751E-8</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="17"/>
-        <v>1.6681274122937115E-2</v>
+        <v>4.3270258099041937E-9</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="17"/>
-        <v>1.1029598681971909E-2</v>
+        <v>5.4646536878704999E-10</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="17"/>
-        <v>7.242880579998238E-3</v>
+        <v>6.8541848762081276E-11</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="17"/>
-        <v>4.7284954906065529E-3</v>
+        <v>8.5469026706397826E-12</v>
       </c>
       <c r="Z20" s="4">
         <f>Y20*Y9/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
-        <v>1.2137918807189056E-2</v>
+        <v>1.1538525263248449E-12</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -8468,11 +8492,11 @@
       </c>
       <c r="B21">
         <f>SUMPRODUCT(fa,G18:Z18)</f>
-        <v>-0.9441101333349402</v>
+        <v>-0.14152575234104064</v>
       </c>
       <c r="C21">
         <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-0.33053649442564881</v>
+        <v>-1.2232580087474715E-2</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>59</v>
@@ -8482,79 +8506,79 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ref="H21:Y21" si="18">G21*EXP(-G$8)+G$14*G7^2*EXP(-G$8)</f>
-        <v>2.6574593502246033E-8</v>
+        <v>2.6562743559145082E-8</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="18"/>
-        <v>3.6178782196604213E-7</v>
+        <v>3.6037766101739746E-7</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="18"/>
-        <v>4.6221748746951359E-6</v>
+        <v>4.4596212291218045E-6</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="18"/>
-        <v>5.5534522665165306E-5</v>
+        <v>4.3878105329264891E-5</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="18"/>
-        <v>5.993595257526395E-4</v>
+        <v>3.1522515091578115E-4</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="18"/>
-        <v>5.0792571059187115E-3</v>
+        <v>1.4490987056353906E-3</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="18"/>
-        <v>2.3222478975159867E-2</v>
+        <v>2.413568167918061E-3</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="18"/>
-        <v>4.6525328341912371E-2</v>
+        <v>1.1854254973132502E-3</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="18"/>
-        <v>5.5330944918878661E-2</v>
+        <v>2.8883204733059283E-4</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="18"/>
-        <v>5.1419671045968299E-2</v>
+        <v>5.2174671645890548E-5</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="18"/>
-        <v>4.2232907464920054E-2</v>
+        <v>8.2198869578609038E-6</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="18"/>
-        <v>3.2344789502981981E-2</v>
+        <v>1.2036583604139301E-6</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="18"/>
-        <v>2.3703721770077579E-2</v>
+        <v>1.6852442119292165E-7</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="18"/>
-        <v>1.685564990366888E-2</v>
+        <v>2.289066783665051E-8</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="18"/>
-        <v>1.1726901953824797E-2</v>
+        <v>3.0418903886150772E-9</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="18"/>
-        <v>8.0246145228689211E-3</v>
+        <v>3.9758236551082609E-10</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" si="18"/>
-        <v>5.4202647504368959E-3</v>
+        <v>5.1293813652105835E-11</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="18"/>
-        <v>3.6230229920719381E-3</v>
+        <v>6.5487267457998202E-12</v>
       </c>
       <c r="Z21" s="4">
         <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
-        <v>1.0433839370715308E-2</v>
+        <v>8.9203332868671843E-13</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -8563,94 +8587,94 @@
       </c>
       <c r="B22">
         <f>SUMPRODUCT(fa,G20:Z20)</f>
-        <v>0.82616552694318579</v>
+        <v>0.10117804355870957</v>
       </c>
       <c r="C22">
         <f>SUMPRODUCT(fa,G21:Z21)</f>
-        <v>0.2405248225511521</v>
+        <v>2.8854211806250453E-3</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
         <f>G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.3511816391271124E-6</v>
+        <v>-1.3507901836356704E-6</v>
       </c>
       <c r="H22">
         <f>H11*H18+lz*wa*H6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-7.2958055862912984E-5</v>
+        <v>-7.2761896744053922E-5</v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22:Z22" si="19">I11*I18+lz*wa*I6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.5838137901527812E-3</v>
+        <v>-1.5454830444624733E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="19"/>
-        <v>-1.5715976830818903E-2</v>
+        <v>-1.3413569697664336E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="19"/>
-        <v>-5.7353536020284188E-2</v>
+        <v>-3.6532237748729393E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="19"/>
-        <v>-0.10408359507076942</v>
+        <v>-4.0767534413041651E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="19"/>
-        <v>-0.12784867875886305</v>
+        <v>-2.3176545624711976E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="19"/>
-        <v>-0.1277603466239314</v>
+        <v>-7.314703617239007E-3</v>
       </c>
       <c r="O22">
         <f t="shared" si="19"/>
-        <v>-0.1124566580644315</v>
+        <v>-1.4907860352845349E-3</v>
       </c>
       <c r="P22">
         <f t="shared" si="19"/>
-        <v>-9.1430859412566609E-2</v>
+        <v>-2.4497052714382675E-4</v>
       </c>
       <c r="Q22">
         <f t="shared" si="19"/>
-        <v>-7.0494234348383186E-2</v>
+        <v>-3.666333370139815E-5</v>
       </c>
       <c r="R22">
         <f t="shared" si="19"/>
-        <v>-5.2301737742737039E-2</v>
+        <v>-5.2241289768609113E-6</v>
       </c>
       <c r="S22">
         <f t="shared" si="19"/>
-        <v>-3.7683168992654663E-2</v>
+        <v>-7.2076573266479851E-7</v>
       </c>
       <c r="T22">
         <f t="shared" si="19"/>
-        <v>-2.653240585678085E-2</v>
+        <v>-9.7087584948259474E-8</v>
       </c>
       <c r="U22">
         <f t="shared" si="19"/>
-        <v>-1.8339628628667559E-2</v>
+        <v>-1.2833461015377757E-8</v>
       </c>
       <c r="V22">
         <f t="shared" si="19"/>
-        <v>-1.2487784037585391E-2</v>
+        <v>-1.670726169900941E-9</v>
       </c>
       <c r="W22">
         <f t="shared" si="19"/>
-        <v>-8.3987356611172539E-3</v>
+        <v>-2.1479872388824993E-10</v>
       </c>
       <c r="X22">
         <f t="shared" si="19"/>
-        <v>-5.5908698495247561E-3</v>
+        <v>-2.7330214543328743E-11</v>
       </c>
       <c r="Y22">
         <f t="shared" si="19"/>
-        <v>-3.6897682578848866E-3</v>
+        <v>-3.4472084914333607E-12</v>
       </c>
       <c r="Z22">
         <f t="shared" si="19"/>
-        <v>-6.7372719723194172E-3</v>
+        <v>-4.9220067174883218E-13</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -8659,94 +8683,94 @@
       </c>
       <c r="B23">
         <f>SUMPRODUCT(lz*G11:Z11)</f>
-        <v>0.28060899715716681</v>
+        <v>9.576878041716208E-2</v>
       </c>
       <c r="C23">
         <f>SUMPRODUCT(lz*G12:Z12)</f>
-        <v>0.12653735135838026</v>
+        <v>1.2967426849242146E-2</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:Z23" si="20">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-4.6297345183675044E-7</v>
+        <v>-4.6283932220172196E-7</v>
       </c>
       <c r="H23">
         <f t="shared" si="20"/>
-        <v>-8.6036651158285194E-6</v>
+        <v>-8.5805288572737164E-6</v>
       </c>
       <c r="I23">
         <f t="shared" si="20"/>
-        <v>-6.7748732144450442E-5</v>
+        <v>-6.6104297166758624E-5</v>
       </c>
       <c r="J23">
         <f t="shared" si="20"/>
-        <v>-3.6600786579438888E-4</v>
+        <v>-3.1079770772092513E-4</v>
       </c>
       <c r="K23">
         <f t="shared" si="20"/>
-        <v>-1.5561985539829411E-3</v>
+        <v>-9.5340257825226747E-4</v>
       </c>
       <c r="L23">
         <f t="shared" si="20"/>
-        <v>-5.5187935943612921E-3</v>
+        <v>-2.0127266518573418E-3</v>
       </c>
       <c r="M23">
         <f t="shared" si="20"/>
-        <v>-1.5716081323568633E-2</v>
+        <v>-2.6058526309890944E-3</v>
       </c>
       <c r="N23">
         <f t="shared" si="20"/>
-        <v>-3.1897075418528091E-2</v>
+        <v>-1.7112005417335835E-3</v>
       </c>
       <c r="O23">
         <f t="shared" si="20"/>
-        <v>-4.3559365346763884E-2</v>
+        <v>-5.5663789453800662E-4</v>
       </c>
       <c r="P23">
         <f t="shared" si="20"/>
-        <v>-4.505204337847183E-2</v>
+        <v>-1.1812828741417002E-4</v>
       </c>
       <c r="Q23">
         <f t="shared" si="20"/>
-        <v>-4.0013909279835856E-2</v>
+        <v>-2.0522307527591081E-5</v>
       </c>
       <c r="R23">
         <f t="shared" si="20"/>
-        <v>-3.256723718000807E-2</v>
+        <v>-3.2214359144862357E-6</v>
       </c>
       <c r="S23">
         <f t="shared" si="20"/>
-        <v>-2.5060122116892458E-2</v>
+        <v>-4.7589404421355221E-7</v>
       </c>
       <c r="T23">
         <f t="shared" si="20"/>
-        <v>-1.8538769062466126E-2</v>
+        <v>-6.7463652325949206E-8</v>
       </c>
       <c r="U23">
         <f t="shared" si="20"/>
-        <v>-1.3318812131608014E-2</v>
+        <v>-9.2793279818267909E-9</v>
       </c>
       <c r="V23">
         <f t="shared" si="20"/>
-        <v>-9.3549609147754627E-3</v>
+        <v>-1.2471405936589497E-9</v>
       </c>
       <c r="W23">
         <f t="shared" si="20"/>
-        <v>-6.4543421683626607E-3</v>
+        <v>-1.6458391769637145E-10</v>
       </c>
       <c r="X23">
         <f t="shared" si="20"/>
-        <v>-4.3892559767993921E-3</v>
+        <v>-2.140295364423941E-11</v>
       </c>
       <c r="Y23">
         <f t="shared" si="20"/>
-        <v>-2.9497624938896062E-3</v>
+        <v>-2.7499954794601001E-12</v>
       </c>
       <c r="Z23">
         <f t="shared" si="20"/>
-        <v>-5.5823038042446425E-3</v>
+        <v>-3.9970396125699964E-13</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -8755,94 +8779,94 @@
       </c>
       <c r="B24">
         <f>SUM(G22:Z22)</f>
-        <v>-0.88056337915697502</v>
+        <v>-0.12460266346145629</v>
       </c>
       <c r="C24">
         <f>SUM(G23:Z23)</f>
-        <v>-0.30197185598106546</v>
+        <v>-8.3681917745953849E-3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ref="G24:Z24" si="21">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>2.6823159219477834E-13</v>
+        <v>2.6814326185270206E-13</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="21"/>
-        <v>2.7066913332126399E-9</v>
+        <v>2.6987904832059283E-9</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="21"/>
-        <v>7.6911363199504363E-6</v>
+        <v>7.4890161288640954E-6</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="21"/>
-        <v>3.4343212931643857E-3</v>
+        <v>2.8871575818465722E-3</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="21"/>
-        <v>5.5486006633037044E-2</v>
+        <v>3.4230165123333767E-2</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="21"/>
-        <v>0.14763948509230074</v>
+        <v>5.5183364028220216E-2</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="21"/>
-        <v>0.20300396558653344</v>
+        <v>3.3999977021435618E-2</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="21"/>
-        <v>0.21325045195954745</v>
+        <v>1.0918368865832619E-2</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="21"/>
-        <v>0.19318641449947027</v>
+        <v>2.2554795544643411E-3</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="21"/>
-        <v>0.16008354115240123</v>
+        <v>3.7581007379822244E-4</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="21"/>
-        <v>0.12510116213293565</v>
+        <v>5.6902086661022588E-5</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="21"/>
-        <v>9.3750368830932629E-2</v>
+        <v>8.1820171090126241E-6</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="21"/>
-        <v>6.8070232320260549E-2</v>
+        <v>1.1369279336132269E-6</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="21"/>
-        <v>4.8222385010982596E-2</v>
+        <v>1.5401592606434416E-7</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="21"/>
-        <v>3.3498640705693895E-2</v>
+        <v>2.0452560008755376E-8</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="21"/>
-        <v>2.2904271193024045E-2</v>
+        <v>2.6728014266071728E-9</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="21"/>
-        <v>1.5458123015463572E-2</v>
+        <v>3.4473680755020189E-10</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="21"/>
-        <v>1.0320796212622002E-2</v>
+        <v>4.3983362339704733E-11</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="21"/>
-        <v>6.828859607006214E-3</v>
+        <v>5.5608269196401189E-12</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="21"/>
-        <v>1.5165418344297471E-2</v>
+        <v>7.7413149763290354E-13</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -8851,94 +8875,94 @@
       </c>
       <c r="B25">
         <f>SUM(G24:Z24)</f>
-        <v>1.4154121374329529</v>
+        <v>0.13992421253216508</v>
       </c>
       <c r="C25">
         <f>SUM(G25:Z25)</f>
-        <v>0.4243153509312998</v>
+        <v>3.0013666959295411E-3</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ref="G25:Z25" si="22">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
-        <v>1.0790386143771772E-14</v>
+        <v>1.0786832802081318E-14</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="22"/>
-        <v>6.7085108966437778E-12</v>
+        <v>6.6897927703574802E-12</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="22"/>
-        <v>1.0037958834593918E-9</v>
+        <v>9.786185248566823E-10</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="22"/>
-        <v>9.4101577434354874E-8</v>
+        <v>7.9487565718125902E-8</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="22"/>
-        <v>6.3814955482555661E-6</v>
+        <v>3.8625604091185329E-6</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="22"/>
-        <v>2.803758354023838E-4</v>
+        <v>9.9662382857880526E-5</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="22"/>
-        <v>5.1257019390484188E-3</v>
+        <v>7.9394404252689454E-4</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="22"/>
-        <v>2.7329977784862819E-2</v>
+        <v>1.3032660066830282E-3</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="22"/>
-        <v>5.5072809749295223E-2</v>
+        <v>6.146713794523E-4</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="22"/>
-        <v>6.6574931508986954E-2</v>
+        <v>1.5199425830525188E-4</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="22"/>
-        <v>6.363690956861115E-2</v>
+        <v>2.8414420574108437E-5</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="22"/>
-        <v>5.3967093392300276E-2</v>
+        <v>4.6481347343320136E-6</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="22"/>
-        <v>4.2627003083934398E-2</v>
+        <v>7.048846006101595E-7</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" si="22"/>
-        <v>3.2111179392393926E-2</v>
+        <v>1.0175068053131571E-7</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="22"/>
-        <v>2.3379349462805864E-2</v>
+        <v>1.4182121205747724E-8</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="22"/>
-        <v>1.6590203313482023E-2</v>
+        <v>1.9254866202672376E-9</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="22"/>
-        <v>1.1539289226942922E-2</v>
+        <v>2.5614497536568258E-10</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>7.8990009446154273E-3</v>
+        <v>3.3526153358710978E-11</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="22"/>
-        <v>5.3374135772965708E-3</v>
+        <v>4.3307643992493051E-12</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="22"/>
-        <v>1.2837635543680547E-2</v>
+        <v>6.1094359014128208E-13</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -8947,15 +8971,15 @@
       </c>
       <c r="B26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.46345252430142619</v>
+        <v>-0.55669204744417611</v>
       </c>
       <c r="C26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.16225646490435985</v>
+        <v>-4.8116897043665521E-2</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>2.6823159219477834E-13</v>
+        <v>2.6814326185270206E-13</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -8964,11 +8988,11 @@
       </c>
       <c r="B27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-2.3754067524952407</v>
+        <v>-1.0194929235055623</v>
       </c>
       <c r="C27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-0.22279899592379551</v>
+        <v>7.6017317650534273E-4</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:Z27" si="23">(G15-2*G14+G16)/dh^2</f>
@@ -8976,79 +9000,79 @@
       </c>
       <c r="H27">
         <f t="shared" si="23"/>
-        <v>2.3314683517128287E-7</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <f t="shared" si="23"/>
-        <v>2.8799185258776561E-5</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <f t="shared" si="23"/>
-        <v>2.7834623494982225E-3</v>
+        <v>2.6090241078691179E-3</v>
       </c>
       <c r="K27">
         <f t="shared" si="23"/>
-        <v>9.6436092444918131E-2</v>
+        <v>7.6161299489285739E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="23"/>
-        <v>0.43284635597995447</v>
+        <v>0.22763735341158053</v>
       </c>
       <c r="M27">
         <f t="shared" si="23"/>
-        <v>0.78381717782960436</v>
+        <v>0.22361973384121825</v>
       </c>
       <c r="N27">
         <f t="shared" si="23"/>
-        <v>0.97919752028996498</v>
+        <v>0.10177275688860732</v>
       </c>
       <c r="O27">
         <f t="shared" si="23"/>
-        <v>1.0009238896047101</v>
+        <v>2.5503254022507527E-2</v>
       </c>
       <c r="P27">
         <f t="shared" si="23"/>
-        <v>0.91183053191334906</v>
+        <v>4.7598914827001737E-3</v>
       </c>
       <c r="Q27">
         <f t="shared" si="23"/>
-        <v>0.77349770893908598</v>
+        <v>7.8485734079404568E-4</v>
       </c>
       <c r="R27">
         <f t="shared" si="23"/>
-        <v>0.62481474421421934</v>
+        <v>1.2160767320435265E-4</v>
       </c>
       <c r="S27">
         <f t="shared" si="23"/>
-        <v>0.48680422193303485</v>
+        <v>1.8115652461605332E-5</v>
       </c>
       <c r="T27">
         <f t="shared" si="23"/>
-        <v>0.368829133727544</v>
+        <v>2.6222518772992535E-6</v>
       </c>
       <c r="U27">
         <f t="shared" si="23"/>
-        <v>0.273282470351216</v>
+        <v>3.7112947107294182E-7</v>
       </c>
       <c r="V27">
         <f t="shared" si="23"/>
-        <v>0.19883024736204458</v>
+        <v>5.1575434975717259E-8</v>
       </c>
       <c r="W27">
         <f t="shared" si="23"/>
-        <v>0.14248199188418922</v>
+        <v>7.0593209062409274E-9</v>
       </c>
       <c r="X27">
         <f t="shared" si="23"/>
-        <v>0.10080000159215508</v>
+        <v>9.539048439548649E-10</v>
       </c>
       <c r="Y27">
         <f t="shared" si="23"/>
-        <v>7.0531318340037036E-2</v>
+        <v>1.2748719242581802E-10</v>
       </c>
       <c r="Z27">
         <f t="shared" si="23"/>
-        <v>0.1522030051255216</v>
+        <v>1.9423939053526962E-11</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -9068,22 +9092,22 @@
       </c>
       <c r="B29">
         <f>f*re*phiq</f>
-        <v>2.6277309931552341E-2</v>
+        <v>2.9078490128491331E-2</v>
       </c>
       <c r="C29">
         <f>f*re*phiq</f>
-        <v>1.1849446144806092E-2</v>
+        <v>1.1789752233482066E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
         <f>B29</f>
-        <v>2.6277309931552341E-2</v>
+        <v>2.9078490128491331E-2</v>
       </c>
       <c r="H29">
         <f>B30</f>
-        <v>0.16730884980850175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -9092,25 +9116,25 @@
       </c>
       <c r="B30">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>0.16730884980850175</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>8.8163500602775072E-2</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0.2</v>
       </c>
       <c r="G30">
         <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
-        <v>3.7598224344087203E-2</v>
+        <v>2.1497209498545958E-2</v>
       </c>
       <c r="H30">
-        <v>6.8457890446511446E-2</v>
+        <v>6.1815772179900731E-2</v>
       </c>
       <c r="Z30" s="4">
         <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
-        <v>1.6369081609324153E-9</v>
+        <v>3.0431042969907477E-38</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -9121,10 +9145,10 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G31">
-        <v>3.7940949729039587E-2</v>
+        <v>2.1809506577196148E-2</v>
       </c>
       <c r="H31">
-        <v>6.5143224038085881E-2</v>
+        <v>6.0078963527291293E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -9132,10 +9156,10 @@
         <v>0.21</v>
       </c>
       <c r="G32">
-        <v>3.8267549076400106E-2</v>
+        <v>2.2113338557479992E-2</v>
       </c>
       <c r="H32">
-        <v>6.1939566466475984E-2</v>
+        <v>5.8371559188492746E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9143,10 +9167,10 @@
         <v>0.215</v>
       </c>
       <c r="G33">
-        <v>3.8578564049070417E-2</v>
+        <v>2.2408849143681922E-2</v>
       </c>
       <c r="H33">
-        <v>5.8842486317531181E-2</v>
+        <v>5.6692999918377875E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9154,10 +9178,10 @@
         <v>0.22</v>
       </c>
       <c r="G34">
-        <v>3.8874514678297507E-2</v>
+        <v>2.2696179279148226E-2</v>
       </c>
       <c r="H34">
-        <v>5.5847756874819729E-2</v>
+        <v>5.5042737924632885E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9165,10 +9189,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G35">
-        <v>3.9155900359887127E-2</v>
+        <v>2.2975467202877353E-2</v>
       </c>
       <c r="H35">
-        <v>5.2951345329600177E-2</v>
+        <v>5.342023661487872E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9176,10 +9200,10 @@
         <v>0.23</v>
       </c>
       <c r="G36">
-        <v>3.9423200798084368E-2</v>
+        <v>2.3246848504861001E-2</v>
       </c>
       <c r="H36">
-        <v>5.014940263090438E-2</v>
+        <v>5.1824970349791964E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9187,10 +9211,10 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="G37">
-        <v>3.9676876900215353E-2</v>
+        <v>2.351045618020586E-2</v>
       </c>
       <c r="H37">
-        <v>4.7438253933506258E-2</v>
+        <v>5.0256424202073345E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9198,10 +9222,10 @@
         <v>0.24</v>
       </c>
       <c r="G38">
-        <v>3.9917371624980519E-2</v>
+        <v>2.3766420682064787E-2</v>
       </c>
       <c r="H38">
-        <v>4.4814389604617783E-2</v>
+        <v>4.8714093721114939E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9209,10 +9233,10 @@
         <v>0.245</v>
       </c>
       <c r="G39">
-        <v>4.0145110787100521E-2</v>
+        <v>2.4014869973405361E-2</v>
       </c>
       <c r="H39">
-        <v>4.2274456752973699E-2</v>
+        <v>4.7197484703221007E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9221,39 +9245,39 @@
       </c>
       <c r="B40">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-1.7617765191428458</v>
+        <v>-0.20794417390065653</v>
       </c>
       <c r="C40">
         <f>f*B27*phiq+2*f*B26*B24+f*re*B25</f>
-        <v>0.1841067537774361</v>
+        <v>0.30179431353546454</v>
       </c>
       <c r="F40">
         <v>0.25</v>
       </c>
       <c r="G40">
-        <v>4.0360503820842469E-2</v>
+        <v>2.4255929577643526E-2</v>
       </c>
       <c r="H40">
-        <v>3.9815251246570468E-2</v>
+        <v>4.5706112967242737E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41">
         <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
-        <v>4.3281964641519718E-2</v>
+        <v>1.319209992322825E-3</v>
       </c>
       <c r="C41">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.55990455146576756</v>
+        <v>-8.3249257805594716E-3</v>
       </c>
       <c r="F41">
         <v>0.255</v>
       </c>
       <c r="G41">
-        <v>4.0563944504789187E-2</v>
+        <v>2.4489722628168748E-2</v>
       </c>
       <c r="H41">
-        <v>3.7433710187718711E-2</v>
+        <v>4.4239504135489084E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9262,36 +9286,36 @@
       </c>
       <c r="B42">
         <f t="array" ref="B42:C43">-MINVERSE(B40:C41)</f>
-        <v>0.57223145285581034</v>
+        <v>6.2453037181156672</v>
       </c>
       <c r="C42">
-        <v>0.1881600621370737</v>
+        <v>226.40407831990734</v>
       </c>
       <c r="F42">
         <v>0.26</v>
       </c>
       <c r="G42">
-        <v>4.075581165006549E-2</v>
+        <v>2.471636991678711E-2</v>
       </c>
       <c r="H42">
-        <v>3.5126904816283194E-2</v>
+        <v>4.2797193419782067E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43">
-        <v>4.4234863682448396E-2</v>
+        <v>0.98966252519255404</v>
       </c>
       <c r="C43">
-        <v>1.8005639256140262</v>
+        <v>155.99833039412209</v>
       </c>
       <c r="F43">
         <v>0.26500000000000001</v>
       </c>
       <c r="G43">
-        <v>4.0936469754093409E-2</v>
+        <v>2.4935989941107104E-2</v>
       </c>
       <c r="H43">
-        <v>3.2892033814024516E-2</v>
+        <v>4.1378725412524582E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9299,10 +9323,10 @@
         <v>0.27</v>
       </c>
       <c r="G44">
-        <v>4.1106269621817938E-2</v>
+        <v>2.5148698950893771E-2</v>
       </c>
       <c r="H44">
-        <v>3.0726416984841631E-2</v>
+        <v>3.9983653882658045E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9311,19 +9335,19 @@
       </c>
       <c r="B45">
         <f t="array" ref="B45:C45">MMULT(B30:C30,B42:C43)</f>
-        <v>9.9639286632484725E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.19022486231725727</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0.27500000000000002</v>
       </c>
       <c r="G45">
-        <v>4.1265548956224259E-2</v>
+        <v>2.5354610993414298E-2</v>
       </c>
       <c r="H45">
-        <v>2.8627489287457439E-2</v>
+        <v>3.861154157638353E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9332,20 +9356,20 @@
       </c>
       <c r="B46" s="5">
         <f>f+dta</f>
-        <v>0.19963928663248473</v>
+        <v>0.46452175642663507</v>
       </c>
       <c r="C46" s="5">
         <f>f+dta</f>
-        <v>0.2902248623172573</v>
+        <v>1.3909420462577307</v>
       </c>
       <c r="F46">
         <v>0.28000000000000003</v>
       </c>
       <c r="G46">
-        <v>4.1414632919852444E-2</v>
+        <v>2.5553837957799475E-2</v>
       </c>
       <c r="H46">
-        <v>2.6592795198699545E-2</v>
+        <v>3.7261960022530419E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9353,10 +9377,10 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="G47">
-        <v>4.1553834668911889E-2</v>
+        <v>2.5746489618443367E-2</v>
       </c>
       <c r="H47">
-        <v>2.4619983387019331E-2</v>
+        <v>3.5934489342453801E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9364,10 +9388,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G48">
-        <v>4.1683455861498415E-2</v>
+        <v>2.5932673677463873E-2</v>
       </c>
       <c r="H48">
-        <v>2.2706801677271002E-2</v>
+        <v>3.462871806434964E-2</v>
       </c>
     </row>
     <row r="49" spans="6:8">
@@ -9375,10 +9399,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G49">
-        <v>4.1803787141325668E-2</v>
+        <v>2.6112495806245802E-2</v>
       </c>
       <c r="H49">
-        <v>2.0851092289050563E-2</v>
+        <v>3.334424294187608E-2</v>
       </c>
     </row>
     <row r="50" spans="6:8">
@@ -9386,10 +9410,10 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="G50">
-        <v>4.1915108598296634E-2</v>
+        <v>2.6286059686087795E-2</v>
       </c>
       <c r="H50">
-        <v>1.9050787332076421E-2</v>
+        <v>3.2080668776975178E-2</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -9397,10 +9421,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>4.2017690207162083E-2</v>
+        <v>2.6453467047974064E-2</v>
       </c>
       <c r="H51">
-        <v>1.7303904543190834E-2</v>
+        <v>3.0837608246788474E-2</v>
       </c>
     </row>
     <row r="52" spans="6:8">
@@ -9408,10 +9432,10 @@
         <v>0.309999999999999</v>
       </c>
       <c r="G52">
-        <v>4.2111792245436853E-2</v>
+        <v>2.6614817711490338E-2</v>
       </c>
       <c r="H52">
-        <v>1.5608543250587331E-2</v>
+        <v>2.9614681734570839E-2</v>
       </c>
     </row>
     <row r="53" spans="6:8">
@@ -9419,10 +9443,10 @@
         <v>0.314999999999999</v>
       </c>
       <c r="G53">
-        <v>4.2197665691676836E-2</v>
+        <v>2.6770209622905165E-2</v>
       </c>
       <c r="H53">
-        <v>1.3962880551791151E-2</v>
+        <v>2.8411517164493111E-2</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -9430,10 +9454,10 @@
         <v>0.31999999999999901</v>
       </c>
       <c r="G54">
-        <v>4.2275552605153421E-2</v>
+        <v>2.6919738892434181E-2</v>
       </c>
       <c r="H54">
-        <v>1.2365167692830387E-2</v>
+        <v>2.7227749840250497E-2</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -9441,10 +9465,10 @@
         <v>0.32499999999999901</v>
       </c>
       <c r="G55">
-        <v>4.2345686487901116E-2</v>
+        <v>2.706349983070741E-2</v>
       </c>
       <c r="H55">
-        <v>1.0813726636816803E-2</v>
+        <v>2.6063022287372214E-2</v>
       </c>
     </row>
     <row r="56" spans="6:8">
@@ -9452,14 +9476,15 @@
         <v>0.32999999999999902</v>
       </c>
       <c r="G56">
-        <v>4.2408292630058582E-2</v>
+        <v>2.7201584984457038E-2</v>
       </c>
       <c r="H56">
-        <v>9.3069468109348713E-3</v>
+        <v>2.4916984099147048E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9477,7 +9502,7 @@
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6:B7"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10588,12 +10613,12 @@
         <v>69</v>
       </c>
       <c r="B13">
-        <f>ak*(Ye/SUM(Ye))</f>
-        <v>0.28884655447353713</v>
+        <f>(Ye/SUM(Ye))</f>
+        <v>0.57769310894707426</v>
       </c>
       <c r="C13">
-        <f>ak*(Ye/SUM(Ye))</f>
-        <v>0.21115344552646287</v>
+        <f>(Ye/SUM(Ye))</f>
+        <v>0.42230689105292574</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -10697,10 +10722,10 @@
         <v>107</v>
       </c>
       <c r="B15">
-        <v>1.3784183411211492</v>
+        <v>1.1553862178941485</v>
       </c>
       <c r="C15">
-        <v>0.62158165887885097</v>
+        <v>0.84461378210585147</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -10791,12 +10816,12 @@
         <v>106</v>
       </c>
       <c r="B16">
-        <f>fbar/plambda</f>
-        <v>0.18792301531668718</v>
+        <f>fbar*plambda</f>
+        <v>0.29928723788468808</v>
       </c>
       <c r="C16">
-        <f>fbar/plambda</f>
-        <v>0.41673773241401196</v>
+        <f>fbar*plambda</f>
+        <v>0.21878582417793641</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
@@ -11068,7 +11093,7 @@
     <row r="19" spans="1:26">
       <c r="D19">
         <f>B15/SUM(plambda)*favg</f>
-        <v>0.16704743926484905</v>
+        <v>0.14001867452237657</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -12112,11 +12137,11 @@
       </c>
       <c r="B42" s="5">
         <f>(f+dta)/plambda</f>
-        <v>0.19740233600576015</v>
+        <v>0.23550826235961603</v>
       </c>
       <c r="C42" s="5">
         <f>(f+dta)/plambda</f>
-        <v>1.2074328173005182</v>
+        <v>0.88859323570493409</v>
       </c>
       <c r="D42" s="12">
         <f>D23+D41</f>
@@ -13461,7 +13486,7 @@
         <v>0.71640944932865813</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="H14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
+        <f t="shared" ref="I14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
         <v>0.50675395047010574</v>
       </c>
       <c r="J14">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -710,7 +710,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1582">
+  <cellStyleXfs count="1904">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2125,6 +2125,328 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2311,7 +2633,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="1413"/>
   </cellXfs>
-  <cellStyles count="1582">
+  <cellStyles count="1904">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
@@ -3103,6 +3425,167 @@
     <cellStyle name="Followed Hyperlink" xfId="1577" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1579" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1903" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -3891,6 +4374,167 @@
     <cellStyle name="Hyperlink" xfId="1576" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1578" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1902" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9502,7 +10146,7 @@
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9960,15 +10604,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="11">
-        <v>0.15065618515385529</v>
+        <v>0.22797681823165919</v>
       </c>
       <c r="C6">
         <f>B6+dh</f>
-        <v>0.15065718515385529</v>
+        <v>0.22797781823165919</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
-        <v>0.15065518515385529</v>
+        <v>0.22797581823165919</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -10062,15 +10706,15 @@
         <v>28</v>
       </c>
       <c r="B7" s="11">
-        <v>0.33409487852969805</v>
+        <v>0.43854729534046094</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>0.33409487852969805</v>
+        <v>0.43854729534046094</v>
       </c>
       <c r="D7">
         <f>C7</f>
-        <v>0.33409487852969805</v>
+        <v>0.43854729534046094</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -10169,83 +10813,83 @@
       </c>
       <c r="G8">
         <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
-        <v>0.30014655907646859</v>
+        <v>0.30020908417921827</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>0.30127220955391543</v>
+        <v>0.3018722084310474</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>0.31252689484609542</v>
+        <v>0.31873570152688419</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.37986407099405578</v>
+        <v>0.4199425293205708</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.45737346519027611</v>
+        <v>0.53450184767714792</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.51423554532709637</v>
+        <v>0.61123156723135752</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>0.61762034489803086</v>
+        <v>0.74712444518705745</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0.72015654465254342</v>
+        <v>0.8817332000521434</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>0.76660471819115961</v>
+        <v>0.94270432802117732</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>0.78021503918036272</v>
+        <v>0.96056992362876259</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.78365266906919751</v>
+        <v>0.96508231283882773</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>0.78448717320716865</v>
+        <v>0.96617771952979492</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>0.7846877841022688</v>
+        <v>0.96644105006916292</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>0.78473589648603137</v>
+        <v>0.96650420445642038</v>
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>0.78474742872380465</v>
+        <v>0.96651934216770663</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>0.78475019255450273</v>
+        <v>0.96652297009068855</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>0.78475085491616181</v>
+        <v>0.96652383953507004</v>
       </c>
       <c r="X8">
         <f t="shared" si="6"/>
-        <v>0.78475101365220801</v>
+        <v>0.96652404789882618</v>
       </c>
       <c r="Y8">
         <f t="shared" si="6"/>
-        <v>0.78475105169348836</v>
+        <v>0.96652409783344551</v>
       </c>
       <c r="Z8">
         <f t="shared" si="6"/>
-        <v>0.7847510608101218</v>
+        <v>0.96652410980033043</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -10254,83 +10898,83 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
-        <v>0.74070965500330077</v>
+        <v>0.74066334350384477</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="7"/>
-        <v>0.73987634392299451</v>
+        <v>0.73943255209803616</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="7"/>
-        <v>0.73159595252149867</v>
+        <v>0.72706768679386902</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="7"/>
-        <v>0.68395437213194921</v>
+        <v>0.65708458182730223</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="7"/>
-        <v>0.6329439133978918</v>
+        <v>0.58596111534276785</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="7"/>
-        <v>0.59795753137132168</v>
+        <v>0.54268210784575455</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.53922608415375473</v>
+        <v>0.47372682348444495</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="7"/>
-        <v>0.48667606346110742</v>
+        <v>0.41406463255794207</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
-        <v>0.46458779997542332</v>
+        <v>0.38957287667761381</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45830744665029027</v>
+        <v>0.38267472844458045</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45673466015118913</v>
+        <v>0.38095184122124304</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45635367217746831</v>
+        <v>0.38053477249707252</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45626213184111197</v>
+        <v>0.38043457926273078</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45624018051039816</v>
+        <v>0.38041055390864709</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45623491907049291</v>
+        <v>0.38040479540709715</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45623365811616057</v>
+        <v>0.38040341533030092</v>
       </c>
       <c r="W9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45623335592457798</v>
+        <v>0.3804030845908325</v>
       </c>
       <c r="X9" s="7">
         <f t="shared" si="7"/>
-        <v>0.45623328350390463</v>
+        <v>0.3804030053286252</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="7"/>
-        <v>0.4562332661482067</v>
+        <v>0.38040298633334646</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="7"/>
-        <v>0.4562332619888953</v>
+        <v>0.38040298178110771</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="16" thickBot="1">
@@ -10339,83 +10983,83 @@
       </c>
       <c r="G10">
         <f t="shared" ref="G10:Z10" si="8">1-sa</f>
-        <v>0.25929034499669923</v>
+        <v>0.25933665649615523</v>
       </c>
       <c r="H10">
         <f t="shared" si="8"/>
-        <v>0.26012365607700549</v>
+        <v>0.26056744790196384</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
-        <v>0.26840404747850133</v>
+        <v>0.27293231320613098</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.31604562786805079</v>
+        <v>0.34291541817269777</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.3670560866021082</v>
+        <v>0.41403888465723215</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.40204246862867832</v>
+        <v>0.45731789215424545</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>0.46077391584624527</v>
+        <v>0.52627317651555505</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>0.51332393653889263</v>
+        <v>0.58593536744205799</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0.53541220002457668</v>
+        <v>0.61042712332238613</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
-        <v>0.54169255334970967</v>
+        <v>0.61732527155541961</v>
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>0.54326533984881087</v>
+        <v>0.61904815877875696</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>0.54364632782253164</v>
+        <v>0.61946522750292754</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>0.54373786815888803</v>
+        <v>0.61956542073726917</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0.54375981948960184</v>
+        <v>0.61958944609135291</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
-        <v>0.54376508092950715</v>
+        <v>0.61959520459290285</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>0.54376634188383943</v>
+        <v>0.61959658466969914</v>
       </c>
       <c r="W10">
         <f t="shared" si="8"/>
-        <v>0.54376664407542208</v>
+        <v>0.6195969154091675</v>
       </c>
       <c r="X10">
         <f t="shared" si="8"/>
-        <v>0.54376671649609531</v>
+        <v>0.61959699467137486</v>
       </c>
       <c r="Y10">
         <f t="shared" si="8"/>
-        <v>0.5437667338517933</v>
+        <v>0.61959701366665354</v>
       </c>
       <c r="Z10">
         <f t="shared" si="8"/>
-        <v>0.54376673801110464</v>
+        <v>0.61959701821889235</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" thickTop="1" thickBot="1">
@@ -10424,94 +11068,94 @@
       </c>
       <c r="B11" s="14">
         <f>Ye/SUM(Ye)</f>
-        <v>0.57769310894707426</v>
+        <v>0.65806690320872352</v>
       </c>
       <c r="C11" s="14">
         <f>Ye/SUM(Ye)</f>
-        <v>0.42230689105292574</v>
+        <v>0.34193309679127654</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
-        <v>2.8443079735055936E-6</v>
+        <v>2.844223496420916E-6</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>2.070663609545027E-4</v>
+        <v>2.0700736711258333E-4</v>
       </c>
       <c r="I11">
         <f t="shared" si="9"/>
-        <v>5.9838094425888107E-3</v>
+        <v>5.9662347280344486E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>6.9465357508656705E-2</v>
+        <v>6.817793756504241E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>0.18732676564824452</v>
+        <v>0.18081326523765018</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
-        <v>0.26501037692527857</v>
+        <v>0.25360946590052708</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.31886603042192135</v>
+        <v>0.30106498730197689</v>
       </c>
       <c r="N11">
         <f t="shared" si="9"/>
-        <v>0.36234519325139303</v>
+        <v>0.33780838059701218</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.40617027074483258</v>
+        <v>0.37657343422056988</v>
       </c>
       <c r="P11">
         <f t="shared" si="9"/>
-        <v>0.44882974209680065</v>
+        <v>0.4154589813049912</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.48739616131217095</v>
+        <v>0.45097638740561641</v>
       </c>
       <c r="R11">
         <f t="shared" si="9"/>
-        <v>0.52098648782532964</v>
+        <v>0.48200968294632307</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>0.54971889724543088</v>
+        <v>0.5085805890129903</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>0.57404228706384364</v>
+        <v>0.5310807456769524</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.59448954754591254</v>
+        <v>0.54999698374267447</v>
       </c>
       <c r="V11">
         <f t="shared" si="9"/>
-        <v>0.61158910307709791</v>
+        <v>0.56581659787535143</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>0.6258311377656065</v>
+        <v>0.57899268643817248</v>
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>0.6376549099621095</v>
+        <v>0.58993153297591361</v>
       </c>
       <c r="Y11">
         <f t="shared" si="9"/>
-        <v>0.64744556494630134</v>
+        <v>0.59898943296898877</v>
       </c>
       <c r="Z11">
         <f t="shared" si="9"/>
-        <v>0.65553569443930459</v>
+        <v>0.60647408020638927</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="16" thickTop="1">
@@ -10529,83 +11173,83 @@
       </c>
       <c r="G12">
         <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
-        <v>9.745833146692098E-7</v>
+        <v>9.7455436915488243E-7</v>
       </c>
       <c r="H12">
         <f t="shared" si="10"/>
-        <v>2.4437219362501579E-5</v>
+        <v>2.4430257123684155E-5</v>
       </c>
       <c r="I12">
         <f t="shared" si="10"/>
-        <v>2.5933576629016606E-4</v>
+        <v>2.5857408560664571E-4</v>
       </c>
       <c r="J12">
         <f t="shared" si="10"/>
-        <v>1.8862507787250824E-3</v>
+        <v>1.8512923914327398E-3</v>
       </c>
       <c r="K12">
         <f t="shared" si="10"/>
-        <v>1.1009488215405931E-2</v>
+        <v>1.0626679566768207E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>5.1577368718923627E-2</v>
+        <v>4.935847827969736E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="10"/>
-        <v>0.1595211951197594</v>
+        <v>0.15061575082042619</v>
       </c>
       <c r="N12">
         <f t="shared" si="10"/>
-        <v>0.29230939437425774</v>
+        <v>0.27251517333735675</v>
       </c>
       <c r="O12">
         <f t="shared" si="10"/>
-        <v>0.38411126817884328</v>
+        <v>0.35612182820686061</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>0.44273615340044548</v>
+        <v>0.40981845458665866</v>
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
-        <v>0.48579377997124989</v>
+        <v>0.44949374103755874</v>
       </c>
       <c r="R12">
         <f t="shared" si="10"/>
-        <v>0.52057497941547659</v>
+        <v>0.48162896090688795</v>
       </c>
       <c r="S12">
         <f t="shared" si="10"/>
-        <v>0.54961477731184893</v>
+        <v>0.5084842609125475</v>
       </c>
       <c r="T12">
         <f t="shared" si="10"/>
-        <v>0.57401622677543784</v>
+        <v>0.5310566357503651</v>
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>0.59448307948732582</v>
+        <v>0.54999099976410326</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>0.6115875084013298</v>
+        <v>0.565815122548186</v>
       </c>
       <c r="W12">
         <f t="shared" si="10"/>
-        <v>0.62583074669965411</v>
+        <v>0.57899232464037653</v>
       </c>
       <c r="X12">
         <f t="shared" si="10"/>
-        <v>0.63765481447207106</v>
+        <v>0.58993144463254177</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>0.64744554171064295</v>
+        <v>0.59898941147233398</v>
       </c>
       <c r="Z12">
         <f t="shared" si="10"/>
-        <v>0.65553568880127455</v>
+        <v>0.6064740749903208</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -10614,11 +11258,11 @@
       </c>
       <c r="B13">
         <f>(Ye/SUM(Ye))</f>
-        <v>0.57769310894707426</v>
+        <v>0.65806690320872352</v>
       </c>
       <c r="C13">
         <f>(Ye/SUM(Ye))</f>
-        <v>0.42230689105292574</v>
+        <v>0.34193309679127654</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -10626,12 +11270,12 @@
         <v>70</v>
       </c>
       <c r="B14" s="1">
-        <f>pk/AVERAGE(pk)</f>
-        <v>1.1553862178941485</v>
+        <f>ak/pk</f>
+        <v>0.75980116544686893</v>
       </c>
       <c r="C14" s="1">
-        <f>pk/AVERAGE(pk)</f>
-        <v>0.84461378210585147</v>
+        <f>ak/pk</f>
+        <v>1.4622743592007736</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -10642,79 +11286,79 @@
       </c>
       <c r="H14">
         <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
-        <v>0.74070965500330077</v>
+        <v>0.74066334350384477</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
-        <v>0.54803355145230481</v>
+        <v>0.54767058633251231</v>
       </c>
       <c r="J14">
         <f t="shared" si="11"/>
-        <v>0.40093912808848869</v>
+        <v>0.39819358632982166</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>0.27422406961489343</v>
+        <v>0.26164686615984462</v>
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
-        <v>0.17356845576994656</v>
+        <v>0.15331488952096245</v>
       </c>
       <c r="M14">
         <f>L14*EXP(-m-SUMPRODUCT(L$6:L$7,$B$6:$B$7))</f>
-        <v>0.10378656533612968</v>
+        <v>8.3201247409374887E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
-        <v>5.5964423213969022E-2</v>
+        <v>3.9414662645186567E-2</v>
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>2.723654518364586E-2</v>
+        <v>1.6320217805574421E-2</v>
       </c>
       <c r="P14">
         <f t="shared" si="11"/>
-        <v>1.2653766605801243E-2</v>
+        <v>6.3579141985228406E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>5.7993154636134777E-3</v>
+        <v>2.4330130893936703E-3</v>
       </c>
       <c r="R14">
         <f t="shared" si="11"/>
-        <v>2.6487483773830374E-3</v>
+        <v>9.2686081611990348E-4</v>
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>1.2087660486928596E-3</v>
+        <v>3.5270276979863845E-4</v>
       </c>
       <c r="T14">
         <f t="shared" si="11"/>
-        <v>5.5151417427376146E-4</v>
+        <v>1.3418032983314481E-4</v>
       </c>
       <c r="U14">
         <f t="shared" si="11"/>
-        <v>2.5162292642470411E-4</v>
+        <v>5.1043613595471585E-5</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>1.1479916547365547E-4</v>
+        <v>1.9417235386624289E-5</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
-        <v>5.2375243212728276E-5</v>
+        <v>7.3863826573442556E-6</v>
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
-        <v>2.3895332978308996E-5</v>
+        <v>2.8098027468219851E-6</v>
       </c>
       <c r="Y14">
         <f t="shared" si="11"/>
-        <v>1.090184622511305E-5</v>
+        <v>1.0688574092717094E-6</v>
       </c>
       <c r="Z14">
         <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
-        <v>9.1469090745069646E-6</v>
+        <v>6.5622741636216036E-7</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -10722,10 +11366,10 @@
         <v>107</v>
       </c>
       <c r="B15">
-        <v>1.1553862178941485</v>
+        <v>0.75992272743886402</v>
       </c>
       <c r="C15">
-        <v>0.84461378210585147</v>
+        <v>1.4618243178015364</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -10736,92 +11380,92 @@
       </c>
       <c r="H15">
         <f>G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.7407096545938523</v>
+        <v>0.74066334309442183</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
-        <v>0.54803354748145661</v>
+        <v>0.54767058236429411</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.40093909476892103</v>
+        <v>0.39819355323841898</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.27422390971384031</v>
+        <v>0.26164671359260466</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.17356819415984731</v>
+        <v>0.15331465843793943</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>0.10378630581266983</v>
+        <v>8.3201039360524601E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>5.5964227338830559E-2</v>
+        <v>3.9414524694108721E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>2.7236422620704782E-2</v>
+        <v>1.6320144365500437E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>1.2653697010897908E-2</v>
+        <v>6.3578792304032393E-3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>5.799277768472136E-3</v>
+        <v>2.4329972749802505E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>2.6487285119756974E-3</v>
+        <v>9.268538647356886E-4</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>1.2087557742848948E-3</v>
+        <v>3.526997718552802E-4</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>5.515089349412694E-4</v>
+        <v>1.3417905513270244E-4</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>2.5162028441029195E-4</v>
+        <v>5.104307764286707E-5</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>1.1479784529652126E-4</v>
+        <v>1.9417012090661623E-5</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>5.2374588528870261E-5</v>
+        <v>7.3862903285034056E-6</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>2.3895010394673042E-5</v>
+        <v>2.8097648148799091E-6</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>1.0901688150028014E-5</v>
+        <v>1.0688419110045004E-6</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>9.1467596246218225E-6</v>
+        <v>6.5621684206288718E-7</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f>fbar*plambda</f>
-        <v>0.29928723788468808</v>
-      </c>
-      <c r="C16">
+        <v>0.22797681823165919</v>
+      </c>
+      <c r="C16" s="1">
         <f>fbar*plambda</f>
-        <v>0.21878582417793641</v>
+        <v>0.43854729534046094</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
@@ -10832,79 +11476,79 @@
       </c>
       <c r="H16">
         <f>G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
-        <v>0.74070965541274925</v>
+        <v>0.7406633439132676</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
-        <v>0.5480335554231528</v>
+        <v>0.54767059030073062</v>
       </c>
       <c r="J16">
         <f t="shared" si="13"/>
-        <v>0.40093916140805891</v>
+        <v>0.39819361942122711</v>
       </c>
       <c r="K16">
         <f t="shared" si="13"/>
-        <v>0.2742242295160397</v>
+        <v>0.26164701872717361</v>
       </c>
       <c r="L16">
         <f t="shared" si="13"/>
-        <v>0.17356871738044011</v>
+        <v>0.15331512060433383</v>
       </c>
       <c r="M16">
         <f t="shared" si="13"/>
-        <v>0.10378682486023851</v>
+        <v>8.3201455458745424E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="13"/>
-        <v>5.5964619089793062E-2</v>
+        <v>3.9414800596747256E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="13"/>
-        <v>2.7236667747138475E-2</v>
+        <v>1.6320291245978891E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>1.2653836201087352E-2</v>
+        <v>6.3579491668347681E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="13"/>
-        <v>5.7993531589998377E-3</v>
+        <v>2.4330289039098847E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="13"/>
-        <v>2.648768242939368E-3</v>
+        <v>9.2686776755625429E-4</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>1.2087763231881574E-3</v>
+        <v>3.527057677674794E-4</v>
       </c>
       <c r="T16">
         <f t="shared" si="13"/>
-        <v>5.5151941365602739E-4</v>
+        <v>1.3418160454569688E-4</v>
       </c>
       <c r="U16">
         <f t="shared" si="13"/>
-        <v>2.5162556846685752E-4</v>
+        <v>5.1044149553703617E-5</v>
       </c>
       <c r="V16">
         <f t="shared" si="13"/>
-        <v>1.1480048566597178E-4</v>
+        <v>1.9417458685154871E-5</v>
       </c>
       <c r="W16">
         <f t="shared" si="13"/>
-        <v>5.2375897904769884E-5</v>
+        <v>7.386474987339221E-6</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>2.3895655566299854E-5</v>
+        <v>2.8098406792761446E-6</v>
       </c>
       <c r="Y16">
         <f t="shared" si="13"/>
-        <v>1.090200430249019E-5</v>
+        <v>1.0688729077636446E-6</v>
       </c>
       <c r="Z16" s="13">
         <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
-        <v>9.1470585268481059E-6</v>
+        <v>6.5623799083247893E-7</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -10923,79 +11567,79 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:X17" si="14">(H15-H14)/dh</f>
-        <v>-4.0944847512491833E-4</v>
+        <v>-4.0942293999535195E-4</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.9708482058031791E-3</v>
+        <v>-3.9682181984801446E-3</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.3319567660505811E-2</v>
+        <v>-3.3091402673601777E-2</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.15990105312058134</v>
+        <v>-0.1525672399527167</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.26161009925029788</v>
+        <v>-0.23108302302232708</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.25952345984736613</v>
+        <v>-0.20804885028646858</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.19587513846314186</v>
+        <v>-0.13795107784569938</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.12256294107740318</v>
+        <v>-7.3440073983938037E-2</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-6.9594903335037928E-2</v>
+        <v>-3.496811960129742E-2</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.7695141341664851E-2</v>
+        <v>-1.5814413419860257E-2</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.986540733994735E-2</v>
+        <v>-6.9513842148845664E-3</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.027440796482447E-2</v>
+        <v>-2.9979433582437605E-3</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-5.2393324920544868E-3</v>
+        <v>-1.2747004423676288E-3</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.6420144121509087E-3</v>
+        <v>-5.3595260451493086E-4</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.3201771342108036E-3</v>
+        <v>-2.2329596266641716E-4</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-6.5468385801546042E-4</v>
+        <v>-9.2328840849947966E-5</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.2258363595412854E-4</v>
+        <v>-3.7931942076030657E-5</v>
       </c>
       <c r="Y17" s="3">
         <f>(Y15-Y14)/dh</f>
-        <v>-1.5807508503625932E-4</v>
+        <v>-1.5498267208928154E-5</v>
       </c>
       <c r="Z17" s="3">
         <f>(Z15-Z14)/dh</f>
-        <v>-1.4944988514214845E-4</v>
+        <v>-1.0574299273180406E-5</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -11004,7 +11648,7 @@
       </c>
       <c r="B18">
         <f>phif/phie</f>
-        <v>0.43621104764924229</v>
+        <v>0.35627128424474719</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -11015,85 +11659,85 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
-        <v>-4.0944847344887426E-4</v>
+        <v>-4.0942287344133109E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="15"/>
-        <v>-3.9708481009368742E-3</v>
+        <v>-3.9682181901352183E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="15"/>
-        <v>-3.3319568954820099E-2</v>
+        <v>-3.309140397530716E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="15"/>
-        <v>-0.15990109967164789</v>
+        <v>-0.15256728442311535</v>
       </c>
       <c r="L18">
         <f t="shared" si="15"/>
-        <v>-0.2616102963889399</v>
+        <v>-0.23108319717713016</v>
       </c>
       <c r="M18">
         <f t="shared" si="15"/>
-        <v>-0.25952378433644174</v>
+        <v>-0.2080491103955705</v>
       </c>
       <c r="N18">
         <f t="shared" si="15"/>
-        <v>-0.19587548124889165</v>
+        <v>-0.13795131925815299</v>
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>-0.12256321684530425</v>
+        <v>-7.3440239221979758E-2</v>
       </c>
       <c r="P18">
         <f t="shared" si="15"/>
-        <v>-6.9595094721848161E-2</v>
+        <v>-3.49682157624688E-2</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>-3.7695263850945286E-2</v>
+        <v>-1.5814464816223794E-2</v>
       </c>
       <c r="R18">
         <f t="shared" si="15"/>
-        <v>-1.9865481835143889E-2</v>
+        <v>-6.951410282515458E-3</v>
       </c>
       <c r="S18">
         <f t="shared" si="15"/>
-        <v>-1.0274451631244113E-2</v>
+        <v>-2.9979560994624942E-3</v>
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
-        <v>-5.2393573789502801E-3</v>
+        <v>-1.2747064971575944E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="15"/>
-        <v>-2.6420282827519718E-3</v>
+        <v>-5.359554182494344E-4</v>
       </c>
       <c r="V18">
         <f t="shared" si="15"/>
-        <v>-1.320184725236824E-3</v>
+        <v>-2.2329724661310341E-4</v>
       </c>
       <c r="W18">
         <f t="shared" si="15"/>
-        <v>-6.5468794979659797E-4</v>
+        <v>-9.2329417902820574E-5</v>
       </c>
       <c r="X18">
         <f t="shared" si="15"/>
-        <v>-3.2258581339739232E-4</v>
+        <v>-3.7932198115530941E-5</v>
       </c>
       <c r="Y18">
         <f t="shared" si="15"/>
-        <v>-1.5807623108318321E-4</v>
+        <v>-1.5498379571140493E-5</v>
       </c>
       <c r="Z18">
         <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
-        <v>-1.49451113135807E-4</v>
+        <v>-1.0574384795113847E-5</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="D19">
         <f>B15/SUM(plambda)*favg</f>
-        <v>0.14001867452237657</v>
+        <v>0.11398840911582959</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -11103,79 +11747,79 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
-        <v>-1.4029481130632812E-4</v>
+        <v>-1.402860396330637E-4</v>
       </c>
       <c r="I19">
         <f t="shared" si="16"/>
-        <v>-5.3667384928174507E-4</v>
+        <v>-5.3631840774449283E-4</v>
       </c>
       <c r="J19">
         <f t="shared" si="16"/>
-        <v>-1.710780505485233E-3</v>
+        <v>-1.6990654620068959E-3</v>
       </c>
       <c r="K19">
         <f t="shared" si="16"/>
-        <v>-4.8932132236217127E-3</v>
+        <v>-4.6687874890432223E-3</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
-        <v>-1.2524199257314014E-2</v>
+        <v>-1.1062760321026557E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>-2.7553100248163431E-2</v>
+        <v>-2.2088141208048213E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>-4.2839561960097527E-2</v>
+        <v>-3.0171076293757836E-2</v>
       </c>
       <c r="O19">
         <f t="shared" si="16"/>
-        <v>-4.2820128335199437E-2</v>
+        <v>-2.5657946563381218E-2</v>
       </c>
       <c r="P19">
         <f t="shared" si="16"/>
-        <v>-3.1860208430475628E-2</v>
+        <v>-1.6008235164946892E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" si="16"/>
-        <v>-2.0322349414750765E-2</v>
+        <v>-8.525927317378966E-3</v>
       </c>
       <c r="R19">
         <f t="shared" si="16"/>
-        <v>-1.1921961543041568E-2</v>
+        <v>-4.1717813212786212E-3</v>
       </c>
       <c r="S19">
         <f t="shared" si="16"/>
-        <v>-6.6484422152850459E-3</v>
+        <v>-1.939932037893515E-3</v>
       </c>
       <c r="T19">
         <f t="shared" si="16"/>
-        <v>-3.5848421327794506E-3</v>
+        <v>-8.7217214391544136E-4</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
-        <v>-1.8871605250407051E-3</v>
+        <v>-3.8282478469476883E-4</v>
       </c>
       <c r="V19">
         <f t="shared" si="16"/>
-        <v>-9.7578644587120224E-4</v>
+        <v>-1.6504540802525866E-4</v>
       </c>
       <c r="W19">
         <f t="shared" si="16"/>
-        <v>-4.9756172638792907E-4</v>
+        <v>-7.0170200295259369E-5</v>
       </c>
       <c r="X19">
         <f t="shared" si="16"/>
-        <v>-2.5089957425631482E-4</v>
+        <v>-2.9502761629720941E-5</v>
       </c>
       <c r="Y19">
         <f t="shared" si="16"/>
-        <v>-1.2537058118523105E-4</v>
+        <v>-1.2291796438648167E-5</v>
       </c>
       <c r="Z19">
         <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-1.2201029219958868E-4</v>
+        <v>-8.6056958240602576E-6</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -11184,7 +11828,7 @@
       </c>
       <c r="B20">
         <f>ro*(reck-phie/phif)/(reck-1)</f>
-        <v>0.8825028815776137</v>
+        <v>0.83574092291652491</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -11194,79 +11838,79 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:Y21" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
-        <v>2.2633436904351736E-7</v>
+        <v>2.263202179062424E-7</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="17"/>
-        <v>2.4716213272827643E-5</v>
+        <v>2.4699843612087686E-5</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="17"/>
-        <v>2.3252718503308373E-3</v>
+        <v>2.3093489071255354E-3</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="17"/>
-        <v>7.0146397252152479E-2</v>
+        <v>6.6929154100893076E-2</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="17"/>
-        <v>0.19263280996921275</v>
+        <v>0.17015463926052943</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="17"/>
-        <v>0.21758819786868155</v>
+        <v>0.17443114554952954</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="17"/>
-        <v>0.17323180033433508</v>
+        <v>0.12200381201984517</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="17"/>
-        <v>0.1115418429305699</v>
+        <v>6.6836199627665002E-2</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="17"/>
-        <v>6.4474651706247221E-2</v>
+        <v>3.239543736645422E-2</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="17"/>
-        <v>3.5348524912723937E-2</v>
+        <v>1.4829926797916936E-2</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="17"/>
-        <v>1.8793644757221752E-2</v>
+        <v>6.5763486884156813E-3</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="17"/>
-        <v>9.7853148422669262E-3</v>
+        <v>2.8552321203523714E-3</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="17"/>
-        <v>5.0161827847563217E-3</v>
+        <v>1.2204093601914301E-3</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="17"/>
-        <v>2.5402070656080911E-3</v>
+        <v>5.1530021429977335E-4</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="17"/>
-        <v>1.2737303304733954E-3</v>
+        <v>2.1543990798051862E-4</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="17"/>
-        <v>6.334938913381018E-4</v>
+        <v>8.934045945157792E-5</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="17"/>
-        <v>3.1291637698121073E-4</v>
+        <v>3.6795189100964382E-5</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="17"/>
-        <v>1.5366471235739646E-4</v>
+        <v>1.5065857924913632E-5</v>
       </c>
       <c r="Z20" s="4">
         <f>Y20*Y9/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
-        <v>1.6482991923304579E-4</v>
+        <v>1.0953107595344321E-5</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -11285,79 +11929,79 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="17"/>
-        <v>2.6572671149251464E-8</v>
+        <v>2.6571009742197889E-8</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="17"/>
-        <v>3.6157215997510557E-7</v>
+        <v>3.6133268908502742E-7</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="17"/>
-        <v>4.5981624543069976E-6</v>
+        <v>4.5666752629928879E-6</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="17"/>
-        <v>5.3693389258673101E-5</v>
+        <v>5.1230758309297139E-5</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="17"/>
-        <v>5.459998510426641E-4</v>
+        <v>4.8228755893305823E-4</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="17"/>
-        <v>4.2053158072320037E-3</v>
+        <v>3.3712216969402293E-3</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="17"/>
-        <v>1.6258721778855855E-2</v>
+        <v>1.1450703807049977E-2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="17"/>
-        <v>2.5636378992428051E-2</v>
+        <v>1.5361393527762862E-2</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="17"/>
-        <v>2.3226908471580536E-2</v>
+        <v>1.1670413700498431E-2</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="17"/>
-        <v>1.6287975933368466E-2</v>
+        <v>6.8333683336002458E-3</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="17"/>
-        <v>1.0070643783910722E-2</v>
+        <v>3.5239606736938893E-3</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="17"/>
-        <v>5.8026325485398137E-3</v>
+        <v>1.6931353872876313E-3</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="17"/>
-        <v>3.1988267708210959E-3</v>
+        <v>7.7825675424039319E-4</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="17"/>
-        <v>1.7110333839950487E-3</v>
+        <v>3.4709606212186838E-4</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="17"/>
-        <v>8.9542984492628106E-4</v>
+        <v>1.5145381936711085E-4</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="17"/>
-        <v>4.6090020382061851E-4</v>
+        <v>6.4999894290509232E-5</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" si="17"/>
-        <v>2.3417334985054974E-4</v>
+        <v>2.7535959521462325E-5</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="17"/>
-        <v>1.1773951927139367E-4</v>
+        <v>1.1543618845716504E-5</v>
       </c>
       <c r="Z21" s="4">
         <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
-        <v>1.3468782424144705E-4</v>
+        <v>8.7906209267635164E-6</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -11366,90 +12010,90 @@
       </c>
       <c r="B22">
         <f>SUMPRODUCT(lz,fa)</f>
-        <v>0.23323716217358267</v>
+        <v>0.19049426590405846</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
         <f>G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.3511181384957917E-6</v>
+        <v>-1.351063256662056E-6</v>
       </c>
       <c r="H22">
         <f>H11*H18+lz*wa*H6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-7.2927960063717248E-5</v>
+        <v>-7.2894992888035268E-5</v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22:Z22" si="18">I11*I18+lz*wa*I6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.578157152511432E-3</v>
+        <v>-1.5707976497681302E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="18"/>
-        <v>-1.5360713876210614E-2</v>
+        <v>-1.4882842525571413E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="18"/>
-        <v>-5.3687381496598435E-2</v>
+        <v>-4.9143527919776026E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="18"/>
-        <v>-9.0365670577412543E-2</v>
+        <v>-7.6077665574167869E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="18"/>
-        <v>-9.7607760879297484E-2</v>
+        <v>-7.3615553886919122E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="18"/>
-        <v>-7.9907179024332378E-2</v>
+        <v>-5.2292532669696266E-2</v>
       </c>
       <c r="O22">
         <f t="shared" si="18"/>
-        <v>-5.4612974247156977E-2</v>
+        <v>-3.0252723434764706E-2</v>
       </c>
       <c r="P22">
         <f t="shared" si="18"/>
-        <v>-3.3710472795530168E-2</v>
+        <v>-1.5640325697411753E-2</v>
       </c>
       <c r="Q22">
         <f t="shared" si="18"/>
-        <v>-1.9603083983601798E-2</v>
+        <v>-7.5936628356970716E-3</v>
       </c>
       <c r="R22">
         <f t="shared" si="18"/>
-        <v>-1.0950327086575441E-2</v>
+        <v>-3.5386020299966784E-3</v>
       </c>
       <c r="S22">
         <f t="shared" si="18"/>
-        <v>-5.937289577001491E-3</v>
+        <v>-1.6001646646628947E-3</v>
       </c>
       <c r="T22">
         <f t="shared" si="18"/>
-        <v>-3.1454148877376634E-3</v>
+        <v>-7.0695031506876711E-4</v>
       </c>
       <c r="U22">
         <f t="shared" si="18"/>
-        <v>-1.6357684050097054E-3</v>
+        <v>-3.0658406118800507E-4</v>
       </c>
       <c r="V22">
         <f t="shared" si="18"/>
-        <v>-8.3797055951023464E-4</v>
+        <v>-1.3096716374883327E-4</v>
       </c>
       <c r="W22">
         <f t="shared" si="18"/>
-        <v>-4.2399126625217111E-4</v>
+        <v>-5.5257176998548301E-5</v>
       </c>
       <c r="X22">
         <f t="shared" si="18"/>
-        <v>-2.1233055957585722E-4</v>
+        <v>-2.3074720399920117E-5</v>
       </c>
       <c r="Y22">
         <f t="shared" si="18"/>
-        <v>-1.0541801257807438E-4</v>
+        <v>-9.5527013338463728E-6</v>
       </c>
       <c r="Z22">
         <f t="shared" si="18"/>
-        <v>-1.0058044636894916E-4</v>
+        <v>-6.5805158184183618E-6</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -11458,98 +12102,98 @@
       </c>
       <c r="B23" s="12">
         <f>B6</f>
-        <v>0.15065618515385529</v>
+        <v>0.22797681823165919</v>
       </c>
       <c r="C23" s="12">
         <f>B7</f>
-        <v>0.33409487852969805</v>
+        <v>0.43854729534046094</v>
       </c>
       <c r="D23" s="12">
         <f>AVERAGE(f)</f>
-        <v>0.24237553184177668</v>
+        <v>0.33326205678606008</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:Z23" si="19">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-4.6295169376542603E-7</v>
+        <v>-4.6293288886808878E-7</v>
       </c>
       <c r="H23">
         <f t="shared" si="19"/>
-        <v>-8.6001154318897317E-6</v>
+        <v>-8.5962270506635169E-6</v>
       </c>
       <c r="I23">
         <f t="shared" si="19"/>
-        <v>-6.7506058215976135E-5</v>
+        <v>-6.7190304347826616E-5</v>
       </c>
       <c r="J23">
         <f t="shared" si="19"/>
-        <v>-3.5748017116075183E-4</v>
+        <v>-3.4600983627406572E-4</v>
       </c>
       <c r="K23">
         <f t="shared" si="19"/>
-        <v>-1.4487342278940664E-3</v>
+        <v>-1.3165723808435028E-3</v>
       </c>
       <c r="L23">
         <f t="shared" si="19"/>
-        <v>-4.7401190860549948E-3</v>
+        <v>-3.9466625077497113E-3</v>
       </c>
       <c r="M23">
         <f t="shared" si="19"/>
-        <v>-1.182663234461216E-2</v>
+        <v>-8.8194837521140615E-3</v>
       </c>
       <c r="N23">
         <f t="shared" si="19"/>
-        <v>-1.9728503286350271E-2</v>
+        <v>-1.2813432147206696E-2</v>
       </c>
       <c r="O23">
         <f t="shared" si="19"/>
-        <v>-2.101673885604351E-2</v>
+        <v>-1.1593388416173462E-2</v>
       </c>
       <c r="P23">
         <f t="shared" si="19"/>
-        <v>-1.6546200272710591E-2</v>
+        <v>-7.6578330664297855E-3</v>
       </c>
       <c r="Q23">
         <f t="shared" si="19"/>
-        <v>-1.1098982398882634E-2</v>
+        <v>-4.2925456466159839E-3</v>
       </c>
       <c r="R23">
         <f t="shared" si="19"/>
-        <v>-6.8064799061637741E-3</v>
+        <v>-2.1970572077524763E-3</v>
       </c>
       <c r="S23">
         <f t="shared" si="19"/>
-        <v>-3.9432566623867253E-3</v>
+        <v>-1.0618730012603949E-3</v>
       </c>
       <c r="T23">
         <f t="shared" si="19"/>
-        <v>-2.1955534938998427E-3</v>
+        <v>-4.931496816342753E-4</v>
       </c>
       <c r="U23">
         <f t="shared" si="19"/>
-        <v>-1.1869944986057025E-3</v>
+        <v>-2.2236025530383025E-4</v>
       </c>
       <c r="V23">
         <f t="shared" si="19"/>
-        <v>-6.2733868898574244E-4</v>
+        <v>-9.8007051071884432E-5</v>
       </c>
       <c r="W23">
         <f t="shared" si="19"/>
-        <v>-3.256565795888743E-4</v>
+        <v>-4.2427125554930716E-5</v>
       </c>
       <c r="X23">
         <f t="shared" si="19"/>
-        <v>-1.6661945225924683E-4</v>
+        <v>-1.8101927300924593E-5</v>
       </c>
       <c r="Y23">
         <f t="shared" si="19"/>
-        <v>-8.4242881579632981E-5</v>
+        <v>-7.6319916476483891E-6</v>
       </c>
       <c r="Z23">
         <f t="shared" si="19"/>
-        <v>-8.2592008050196101E-5</v>
+        <v>-5.3865569391583071E-6</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -11558,94 +12202,94 @@
       </c>
       <c r="B24">
         <f>SUMPRODUCT(fa,G18:Z18)</f>
-        <v>-0.51502776536788508</v>
+        <v>-0.362386893582481</v>
       </c>
       <c r="C24">
         <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-0.11945776732550731</v>
+        <v>-6.6984884640302195E-2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ref="G24:Z24" si="20">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>2.6821726339242194E-13</v>
+        <v>2.6820487945064326E-13</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="20"/>
-        <v>2.7054801698344644E-9</v>
+        <v>2.7041488278855059E-9</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="20"/>
-        <v>7.6613106621488446E-6</v>
+        <v>7.6224239744949866E-6</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="20"/>
-        <v>3.3495579676260656E-3</v>
+        <v>3.2356048884670391E-3</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="20"/>
-        <v>5.1701872556753237E-2</v>
+        <v>4.7043568514133466E-2</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="20"/>
-        <v>0.12726354713685267</v>
+        <v>0.1063570864726664</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="20"/>
-        <v>0.152992216379739</v>
+        <v>0.11422834028992671</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="20"/>
-        <v>0.13087660164045284</v>
+        <v>8.4552282414369684E-2</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="20"/>
-        <v>9.1792781299123008E-2</v>
+        <v>5.0129769787905266E-2</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="20"/>
-        <v>5.7690283401306497E-2</v>
+        <v>2.6374841411077449E-2</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="20"/>
-        <v>3.399007070416693E-2</v>
+        <v>1.2971783044834621E-2</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="20"/>
-        <v>1.9174378479700237E-2</v>
+        <v>6.1037985544762589E-3</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="20"/>
-        <v>1.0475645470852521E-2</v>
+        <v>2.7809900920466339E-3</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="20"/>
-        <v>5.5832996393482166E-3</v>
+        <v>1.2360018322783166E-3</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="20"/>
-        <v>2.9178656477467416E-3</v>
+        <v>5.3862903831874444E-4</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="20"/>
-        <v>1.5008525045913182E-3</v>
+        <v>2.31020817678577E-4</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="20"/>
-        <v>7.6199724942865778E-4</v>
+        <v>9.7802475633587173E-5</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="20"/>
-        <v>3.8271789065956268E-4</v>
+        <v>4.0959493209083775E-5</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="20"/>
-        <v>1.9049247582256413E-4</v>
+        <v>1.6999254859949907E-5</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="20"/>
-        <v>1.9495896930863806E-4</v>
+        <v>1.2140638153461183E-5</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -11654,94 +12298,94 @@
       </c>
       <c r="B25">
         <f>SUMPRODUCT(fa,G20:Z20)</f>
-        <v>0.4264799489722903</v>
+        <v>0.29081630442677187</v>
       </c>
       <c r="C25">
         <f>SUMPRODUCT(fa,G21:Z21)</f>
-        <v>6.9591379091908587E-2</v>
+        <v>3.3894497724346107E-2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ref="G25:Z25" si="21">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
-        <v>1.0789809726545387E-14</v>
+        <v>1.0789311546921533E-14</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="21"/>
-        <v>6.7056401670117841E-12</v>
+        <v>6.7024905010085787E-12</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="21"/>
-        <v>1.0000802947233353E-9</v>
+        <v>9.9524170097530477E-10</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="21"/>
-        <v>9.1840200617820159E-8</v>
+        <v>8.8799639248318258E-8</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="21"/>
-        <v>5.9303780353021376E-6</v>
+        <v>5.3770678602778078E-6</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="21"/>
-        <v>2.3987777856202637E-4</v>
+        <v>1.989256658720762E-4</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="21"/>
-        <v>3.8160335409770582E-3</v>
+        <v>2.8217595850226537E-3</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="21"/>
-        <v>1.6582203422608747E-2</v>
+        <v>1.0628400095037991E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="21"/>
-        <v>2.5975328547785163E-2</v>
+        <v>1.4116387197515567E-2</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="21"/>
-        <v>2.3881571345212453E-2</v>
+        <v>1.0885274835816068E-2</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="21"/>
-        <v>1.7237086298223833E-2</v>
+        <v>6.5650921053046381E-3</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="21"/>
-        <v>1.1013405844412155E-2</v>
+        <v>3.5008900604810546E-3</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="21"/>
-        <v>6.549140457761022E-3</v>
+        <v>1.7367283179704901E-3</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" si="21"/>
-        <v>3.7130032300959712E-3</v>
+        <v>8.2125999631027947E-4</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="21"/>
-        <v>2.0342362115571429E-3</v>
+        <v>3.7525000456853851E-4</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="21"/>
-        <v>1.086123542496265E-3</v>
+        <v>1.6708445630240359E-4</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>5.6837897046701526E-4</v>
+        <v>7.2914648466755174E-5</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="21"/>
-        <v>2.9271402284852051E-4</v>
+        <v>3.1313236981166085E-5</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="21"/>
-        <v>1.4879925114969671E-4</v>
+        <v>1.3273450209485325E-5</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="21"/>
-        <v>1.5954025185066796E-4</v>
+        <v>9.8245893298376492E-6</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -11750,15 +12394,15 @@
       </c>
       <c r="B26">
         <f>SUMPRODUCT(lz*G11:Z11)</f>
-        <v>0.20423685689750617</v>
+        <v>0.16575450467747987</v>
       </c>
       <c r="C26">
         <f>SUMPRODUCT(lz*G12:Z12)</f>
-        <v>6.7325912352477438E-2</v>
+        <v>4.4772431613819379E-2</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>2.6821726339242194E-13</v>
+        <v>2.6820487945064326E-13</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -11767,11 +12411,11 @@
       </c>
       <c r="B27">
         <f>SUM(G22:Z22)</f>
-        <v>-0.46985676391146369</v>
+        <v>-0.32752161159913296</v>
       </c>
       <c r="C27">
         <f>SUM(G23:Z23)</f>
-        <v>-0.10225869394057033</v>
+        <v>-5.5008172016160151E-2</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:Z27" si="22">(G15-2*G14+G16)/dh^2</f>
@@ -11779,79 +12423,79 @@
       </c>
       <c r="H27">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1.1102230246251565E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="22"/>
-        <v>-2.2204460492503131E-4</v>
+        <v>1.1102230246251565E-4</v>
       </c>
       <c r="J27">
         <f t="shared" si="22"/>
-        <v>2.55351295663786E-3</v>
+        <v>2.7755575615628914E-3</v>
       </c>
       <c r="K27">
         <f t="shared" si="22"/>
-        <v>9.3147711766050634E-2</v>
+        <v>8.9039886574937555E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="22"/>
-        <v>0.39429570719562435</v>
+        <v>0.34836022955175849</v>
       </c>
       <c r="M27">
         <f t="shared" si="22"/>
-        <v>0.64898086904463526</v>
+        <v>0.52025050933934835</v>
       </c>
       <c r="N27">
         <f t="shared" si="22"/>
-        <v>0.68557659549384198</v>
+        <v>0.48284293230338449</v>
       </c>
       <c r="O27">
         <f t="shared" si="22"/>
-        <v>0.55153798195206605</v>
+        <v>0.33048563885529347</v>
       </c>
       <c r="P27">
         <f t="shared" si="22"/>
-        <v>0.38277367386818639</v>
+        <v>0.19232618969633464</v>
       </c>
       <c r="Q27">
         <f t="shared" si="22"/>
-        <v>0.24501841527913015</v>
+        <v>0.10279450901595766</v>
       </c>
       <c r="R27">
         <f t="shared" si="22"/>
-        <v>0.14899062886208903</v>
+        <v>5.2135921448093203E-2</v>
       </c>
       <c r="S27">
         <f t="shared" si="22"/>
-        <v>8.7332918674576376E-2</v>
+        <v>2.5482708391338926E-2</v>
       </c>
       <c r="T27">
         <f t="shared" si="22"/>
-        <v>4.9773878595116283E-2</v>
+        <v>1.2109698009979408E-2</v>
       </c>
       <c r="U27">
         <f t="shared" si="22"/>
-        <v>2.7741264146952105E-2</v>
+        <v>5.6275174949681206E-3</v>
       </c>
       <c r="V27">
         <f t="shared" si="22"/>
-        <v>1.5182096573841675E-2</v>
+        <v>2.5679159048729722E-3</v>
       </c>
       <c r="W27">
         <f t="shared" si="22"/>
-        <v>8.1835918792384776E-3</v>
+        <v>1.1541154249189271E-3</v>
       </c>
       <c r="X27">
         <f t="shared" si="22"/>
-        <v>4.3549047018271586E-3</v>
+        <v>5.1208350914148069E-4</v>
       </c>
       <c r="Y27">
         <f t="shared" si="22"/>
-        <v>2.2921033425221324E-3</v>
+        <v>2.2472631123603842E-4</v>
       </c>
       <c r="Z27">
         <f t="shared" si="22"/>
-        <v>2.455999135618156E-3</v>
+        <v>1.7104538644556033E-4</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -11860,11 +12504,11 @@
       </c>
       <c r="B28">
         <f>SUM(G24:Z24)</f>
-        <v>0.69084680342988924</v>
+        <v>0.4559592441484267</v>
       </c>
       <c r="C28">
         <f>SUM(G25:Z25)</f>
-        <v>0.11330346594104038</v>
+        <v>5.1949845114643525E-2</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -11882,22 +12526,22 @@
       </c>
       <c r="B29">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.46019675115451858</v>
+        <v>-0.48541933428342954</v>
       </c>
       <c r="C29">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.10674002475206905</v>
+        <v>-8.9726639359673954E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
         <f>B32</f>
-        <v>2.715421276978721E-2</v>
+        <v>3.1581132259519119E-2</v>
       </c>
       <c r="H29">
         <f>B33</f>
-        <v>0.10360999040581431</v>
+        <v>5.7782159919073532E-2</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -11906,25 +12550,25 @@
       </c>
       <c r="B30">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-1.6513112046248832</v>
+        <v>-1.4573254703034795</v>
       </c>
       <c r="C30">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-4.715618412225038E-2</v>
+        <v>-1.7700586776129748E-2</v>
       </c>
       <c r="F30">
         <v>0.2</v>
       </c>
       <c r="G30">
         <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
-        <v>3.152248770411277E-2</v>
+        <v>2.9728945043416319E-2</v>
       </c>
       <c r="H30">
-        <v>7.1866219987264196E-2</v>
+        <v>7.1462787155911506E-2</v>
       </c>
       <c r="Z30" s="4">
         <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
-        <v>5.6215968314282171E-15</v>
+        <v>2.0485003961974628E-18</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -11932,10 +12576,10 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G31">
-        <v>3.1883315259484069E-2</v>
+        <v>3.0088097988063205E-2</v>
       </c>
       <c r="H31">
-        <v>6.9098924879337276E-2</v>
+        <v>6.8877970021831769E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -11944,24 +12588,24 @@
       </c>
       <c r="B32">
         <f>f*re*phiq</f>
-        <v>2.715421276978721E-2</v>
+        <v>3.1581132259519119E-2</v>
       </c>
       <c r="C32">
         <f>f*re*phiq</f>
-        <v>1.9850351330483129E-2</v>
+        <v>1.6409629934309552E-2</v>
       </c>
       <c r="D32">
         <f>SUM(Ye)</f>
-        <v>4.7004564100270339E-2</v>
+        <v>4.7990762193828668E-2</v>
       </c>
       <c r="F32">
         <v>0.21</v>
       </c>
       <c r="G32">
-        <v>3.223065137985761E-2</v>
+        <v>3.0434645064195558E-2</v>
       </c>
       <c r="H32">
-        <v>6.6404356994351682E-2</v>
+        <v>6.6356092205559297E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -11970,24 +12614,24 @@
       </c>
       <c r="B33">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>0.10360999040581431</v>
+        <v>5.7782159919073532E-2</v>
       </c>
       <c r="C33">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>2.6864460463357703E-2</v>
+        <v>1.5495235300800877E-2</v>
       </c>
       <c r="D33">
         <f>SUM(dYe)</f>
-        <v>0.130474450869172</v>
+        <v>7.3277395219874406E-2</v>
       </c>
       <c r="F33">
         <v>0.215</v>
       </c>
       <c r="G33">
-        <v>3.2564851972937667E-2</v>
+        <v>3.0768894423796635E-2</v>
       </c>
       <c r="H33">
-        <v>6.3780283433307772E-2</v>
+        <v>6.3895377632580366E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -11995,10 +12639,10 @@
         <v>0.22</v>
       </c>
       <c r="G34">
-        <v>3.2886261986217899E-2</v>
+        <v>3.1091145488381478E-2</v>
       </c>
       <c r="H34">
-        <v>6.1224549318421251E-2</v>
+        <v>6.1494106794718249E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -12006,10 +12650,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G35">
-        <v>3.3195215789292812E-2</v>
+        <v>3.1401689226700294E-2</v>
       </c>
       <c r="H35">
-        <v>5.8735074710341187E-2</v>
+        <v>5.9150614724936372E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -12018,43 +12662,43 @@
       </c>
       <c r="B36">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.91108532817911136</v>
+        <v>-0.60407334583573657</v>
       </c>
       <c r="C36">
         <f>f*B30*phiq+2*f*B29*B27+f*re*B28</f>
-        <v>0.31102608616226324</v>
+        <v>0.27794532903742164</v>
       </c>
       <c r="D36">
         <f>B38+C39</f>
-        <v>7.8311300171673093</v>
+        <v>15.729091608614045</v>
       </c>
       <c r="F36">
         <v>0.23</v>
       </c>
       <c r="G36">
-        <v>3.349203754109923E-2</v>
+        <v>3.1700808422519294E-2</v>
       </c>
       <c r="H36">
-        <v>5.6309851661869581E-2</v>
+        <v>5.6863289053074514E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37">
         <f>f*C30*phiq+2*f*C29*C27+f*re*C28</f>
-        <v>1.6902086588449636E-2</v>
+        <v>1.1479557547755303E-2</v>
       </c>
       <c r="C37">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.15522090458320659</v>
+        <v>-7.695795661213492E-2</v>
       </c>
       <c r="F37">
         <v>0.23499999999999999</v>
       </c>
       <c r="G37">
-        <v>3.377704154275344E-2</v>
+        <v>3.1988777932875356E-2</v>
       </c>
       <c r="H37">
-        <v>5.3946941401469842E-2</v>
+        <v>5.4630568138937297E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -12063,36 +12707,36 @@
       </c>
       <c r="B38">
         <f t="array" ref="B38:C39">-MINVERSE(B36:C37)</f>
-        <v>1.1399680953045332</v>
+        <v>1.7774201350409577</v>
       </c>
       <c r="C38">
-        <v>2.2842272178768042</v>
+        <v>6.4194223186247932</v>
       </c>
       <c r="F38">
         <v>0.24</v>
       </c>
       <c r="G38">
-        <v>3.4050532576616485E-2</v>
+        <v>3.2265864937181622E-2</v>
       </c>
       <c r="H38">
-        <v>5.1644471640215406E-2</v>
+        <v>5.2450939279322262E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39">
-        <v>0.12413173023726744</v>
+        <v>0.26513173718446059</v>
       </c>
       <c r="C39">
-        <v>6.6911619218627756</v>
+        <v>13.951671473573088</v>
       </c>
       <c r="F39">
         <v>0.245</v>
       </c>
       <c r="G39">
-        <v>3.4312806232190192E-2</v>
+        <v>3.2532329177546865E-2</v>
       </c>
       <c r="H39">
-        <v>4.9400633996171783E-2</v>
+        <v>5.0322936985746705E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -12100,10 +12744,10 @@
         <v>0.25</v>
       </c>
       <c r="G40">
-        <v>3.4564149219416543E-2</v>
+        <v>3.2788423190653067E-2</v>
       </c>
       <c r="H40">
-        <v>4.7213681530527685E-2</v>
+        <v>4.8245141329782623E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -12112,23 +12756,23 @@
       </c>
       <c r="B41">
         <f t="array" ref="B41:C41">MMULT(B33:C33,B38:C39)</f>
-        <v>0.12144681537664435</v>
+        <v>0.10681145313970121</v>
       </c>
       <c r="C41">
-        <v>0.41642321503272267</v>
+        <v>0.58711251932533393</v>
       </c>
       <c r="D41">
         <f>D33/D36</f>
-        <v>1.6660999189535543E-2</v>
+        <v>4.6587175561838548E-3</v>
       </c>
       <c r="F41">
         <v>0.255</v>
       </c>
       <c r="G41">
-        <v>3.4804839669925348E-2</v>
+        <v>3.3034392531522891E-2</v>
       </c>
       <c r="H41">
-        <v>4.5081926390090968E-2</v>
+        <v>4.6216176353063215E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -12137,24 +12781,23 @@
       </c>
       <c r="B42" s="5">
         <f>(f+dta)/plambda</f>
-        <v>0.23550826235961603</v>
+        <v>0.44055567662738998</v>
       </c>
       <c r="C42" s="5">
         <f>(f+dta)/plambda</f>
-        <v>0.88859323570493409</v>
+        <v>0.70163001270104941</v>
       </c>
       <c r="D42" s="12">
-        <f>D23+D41</f>
-        <v>0.25903653103131224</v>
+        <v>0.3</v>
       </c>
       <c r="F42">
         <v>0.26</v>
       </c>
       <c r="G42">
-        <v>3.5035147426749617E-2</v>
+        <v>3.3270475989492503E-2</v>
       </c>
       <c r="H42">
-        <v>4.3003737551054869E-2</v>
+        <v>4.4234708539159104E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -12162,10 +12805,10 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="G43">
-        <v>3.5255334323002506E-2</v>
+        <v>3.349690579669299E-2</v>
       </c>
       <c r="H43">
-        <v>4.0977538659204629E-2</v>
+        <v>4.229944534466093E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -12173,10 +12816,10 @@
         <v>0.27</v>
       </c>
       <c r="G44">
-        <v>3.5465654449986436E-2</v>
+        <v>3.3713907829329766E-2</v>
       </c>
       <c r="H44">
-        <v>3.900180596198996E-2</v>
+        <v>4.0409133786927579E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -12184,10 +12827,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="G45">
-        <v>3.5666354415183128E-2</v>
+        <v>3.3921701802037033E-2</v>
       </c>
       <c r="H45">
-        <v>3.7075066328128459E-2</v>
+        <v>3.8562559086080445E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -12195,10 +12838,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G46">
-        <v>3.5857673590551628E-2</v>
+        <v>3.4120501455573091E-2</v>
       </c>
       <c r="H46">
-        <v>3.5195895350627476E-2</v>
+        <v>3.6758543358937024E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -12206,10 +12849,10 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="G47">
-        <v>3.6039844351541339E-2</v>
+        <v>3.4310514738110358E-2</v>
       </c>
       <c r="H47">
-        <v>3.3362915529326742E-2</v>
+        <v>3.4995944362686993E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -12217,10 +12860,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G48">
-        <v>3.6213092307209087E-2</v>
+        <v>3.4491943980363461E-2</v>
       </c>
       <c r="H48">
-        <v>3.1574794529264247E-2</v>
+        <v>3.327365428621161E-2</v>
       </c>
     </row>
     <row r="49" spans="6:8">
@@ -12228,10 +12871,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G49">
-        <v>3.6377636521809441E-2</v>
+        <v>3.4664986064789204E-2</v>
       </c>
       <c r="H49">
-        <v>2.9830243511356186E-2</v>
+        <v>3.1590598587050794E-2</v>
       </c>
     </row>
     <row r="50" spans="6:8">
@@ -12239,10 +12882,10 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="G50">
-        <v>3.6533689728212512E-2</v>
+        <v>3.4829832589080748E-2</v>
       </c>
       <c r="H50">
-        <v>2.8128015532060152E-2</v>
+        <v>2.9945734872107832E-2</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -12250,10 +12893,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>3.6681458533485492E-2</v>
+        <v>3.4986670024171475E-2</v>
       </c>
       <c r="H51">
-        <v>2.6466904008859593E-2</v>
+        <v>2.8338051820272395E-2</v>
       </c>
     </row>
     <row r="52" spans="6:8">
@@ -12261,10 +12904,10 @@
         <v>0.309999999999999</v>
       </c>
       <c r="G52">
-        <v>3.6821143616959554E-2</v>
+        <v>3.5135679866952117E-2</v>
       </c>
       <c r="H52">
-        <v>2.4845741248573805E-2</v>
+        <v>2.6766568145231151E-2</v>
       </c>
     </row>
     <row r="53" spans="6:8">
@@ -12272,10 +12915,10 @@
         <v>0.314999999999999</v>
       </c>
       <c r="G53">
-        <v>3.6952939921089605E-2</v>
+        <v>3.5277038787899902E-2</v>
       </c>
       <c r="H53">
-        <v>2.3263397035627686E-2</v>
+        <v>2.5230331596796343E-2</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -12283,10 +12926,10 @@
         <v>0.31999999999999901</v>
       </c>
       <c r="G54">
-        <v>3.7077036835398938E-2</v>
+        <v>3.5410918773806331E-2</v>
       </c>
       <c r="H54">
-        <v>2.1718777277590154E-2</v>
+        <v>2.372841799918525E-2</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -12294,10 +12937,10 @@
         <v>0.32499999999999901</v>
       </c>
       <c r="G55">
-        <v>3.7193618373789455E-2</v>
+        <v>3.5537487265785789E-2</v>
       </c>
       <c r="H55">
-        <v>2.0210822705392026E-2</v>
+        <v>2.2259930324726993E-2</v>
       </c>
     </row>
     <row r="56" spans="6:8">
@@ -12305,10 +12948,10 @@
         <v>0.32999999999999902</v>
       </c>
       <c r="G56">
-        <v>3.7302863345484411E-2</v>
+        <v>3.5656907292738405E-2</v>
       </c>
       <c r="H56">
-        <v>1.8738507625784023E-2</v>
+        <v>2.0823997801561314E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12790,7 +13433,7 @@
       </c>
       <c r="C6">
         <f>fbar*lambda</f>
-        <v>0.32764970705508473</v>
+        <v>0.37946351321637939</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
@@ -13460,11 +14103,11 @@
       </c>
       <c r="B13">
         <f>fbar*B12</f>
-        <v>0.20479165085124004</v>
+        <v>0.23717695342339751</v>
       </c>
       <c r="C13">
         <f>fbar*C12</f>
-        <v>0.31328141121138442</v>
+        <v>0.36282304657660247</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -13577,79 +14220,79 @@
       </c>
       <c r="H15">
         <f t="shared" ref="H15:Y15" si="12">G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.68726691756658831</v>
+        <v>0.68080136505630007</v>
       </c>
       <c r="I15">
         <f t="shared" si="12"/>
-        <v>0.45726908641813713</v>
+        <v>0.44669899956876574</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.29218621493281349</v>
+        <v>0.27990281760651814</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.17835443972856463</v>
+        <v>0.16648696920521339</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.10393164899106624</v>
+        <v>9.3937128541513343E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>5.8049552102631484E-2</v>
+        <v>5.0517020356753622E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>3.1293767451919391E-2</v>
+        <v>2.6103532061830009E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>1.6407382574372891E-2</v>
+        <v>1.3075570212301551E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>8.4235160093828459E-3</v>
+        <v>6.3991056834971655E-3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>4.2576201281639744E-3</v>
+        <v>3.0786302741873557E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>2.1272804987541938E-3</v>
+        <v>1.4627581655266369E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>1.0538182629088368E-3</v>
+        <v>6.8867731363111138E-4</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>5.1873145220235404E-4</v>
+        <v>3.2206046849402091E-4</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>2.5413098216233018E-4</v>
+        <v>1.4986513504731071E-4</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>1.240599587639938E-4</v>
+        <v>6.948063275876973E-5</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>6.0402194452163229E-5</v>
+        <v>3.2124622987969866E-5</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>2.9350187003562092E-5</v>
+        <v>1.4822707042927862E-5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>1.4240429705305945E-5</v>
+        <v>6.8290107710563044E-6</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>1.3381657128290662E-5</v>
+        <v>5.817607249002134E-6</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -13754,79 +14397,79 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
-        <v>-2914.2531762069821</v>
+        <v>-3560.808427235806</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-4948.4864051968607</v>
+        <v>-6005.4950901339989</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-6068.1025539160373</v>
+        <v>-7296.4422865455726</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-6300.7645393474031</v>
+        <v>-7487.5115916825271</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-5812.7530700703919</v>
+        <v>-6812.2051150256821</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-4885.6494231632269</v>
+        <v>-5638.9025977510137</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-3812.7476498690053</v>
+        <v>-4331.7711888779431</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-2807.167944309932</v>
+        <v>-3140.3491805170656</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-1975.8811726530605</v>
+        <v>-2178.322205241629</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-1343.648173184785</v>
+        <v>-1461.5471585824469</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-889.96686154889744</v>
+        <v>-956.41909487165321</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-577.7194568054673</v>
+        <v>-614.23355173323989</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-369.28259764784252</v>
+        <v>-388.94969601867587</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-233.2670315229357</v>
+        <v>-243.69361623443763</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-146.01097210978742</v>
+        <v>-151.46890471030983</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-90.753088490662364</v>
+        <v>-93.580845637081708</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-56.101682445943837</v>
+        <v>-57.554430442007266</v>
       </c>
       <c r="Y17" s="3">
         <f>(Y15-Y14)/dh</f>
-        <v>-34.535258134238894</v>
+        <v>-35.276400027663854</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="14"/>
-        <v>-54.478216933976242</v>
+        <v>-55.234621921905088</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -14621,11 +15264,11 @@
       </c>
       <c r="Y27">
         <f>(Y15-2*Y14+Y16)/dh^2</f>
-        <v>-3453015.7456351742</v>
+        <v>-3527129.9349776707</v>
       </c>
       <c r="Z27">
         <f>(Z15-2*Z14+Z16)/dh^2</f>
-        <v>-5446887.6106770085</v>
+        <v>-5522528.1094698934</v>
       </c>
     </row>
     <row r="28" spans="1:26">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -2,169 +2,208 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="0" windowWidth="14740" windowHeight="16520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Allocation" sheetId="3" r:id="rId3"/>
-    <sheet name="SingleFleet" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="FlakLake" sheetId="6" r:id="rId6"/>
+    <sheet name="Allocation (2)" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Allocation" sheetId="3" r:id="rId4"/>
+    <sheet name="SingleFleet" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="FlakLake" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="age" localSheetId="5">FlakLake!$F$1:$L$1</definedName>
-    <definedName name="age" localSheetId="4">Sheet5!$G$1:$M$1</definedName>
+    <definedName name="age" localSheetId="6">FlakLake!$F$1:$L$1</definedName>
+    <definedName name="age" localSheetId="5">Sheet5!$G$1:$M$1</definedName>
     <definedName name="age">SingleFleet!$F$1:$L$1</definedName>
-    <definedName name="ah" localSheetId="2">Allocation!$E$6:$E$7</definedName>
+    <definedName name="ah" localSheetId="3">Allocation!$E$6:$E$7</definedName>
+    <definedName name="ah" localSheetId="0">'Allocation (2)'!$E$6:$E$7</definedName>
     <definedName name="ah">Sheet2!$E$6:$E$7</definedName>
+    <definedName name="ak" localSheetId="0">'Allocation (2)'!$B$9:$C$9</definedName>
     <definedName name="ak">Allocation!$B$9:$C$9</definedName>
     <definedName name="B">Sheet1!$B$1</definedName>
     <definedName name="beta">FlakLake!$B$15</definedName>
     <definedName name="ca">Sheet5!$G$6:$M$6</definedName>
     <definedName name="Ct">Sheet5!$B$2</definedName>
-    <definedName name="ddphif" localSheetId="2">Allocation!$B$22:$C$22</definedName>
+    <definedName name="ddphif" localSheetId="3">Allocation!$B$22:$C$22</definedName>
+    <definedName name="ddphif" localSheetId="0">'Allocation (2)'!$B$22:$C$22</definedName>
     <definedName name="ddphif">Sheet2!$B$22:$C$22</definedName>
-    <definedName name="ddphiq" localSheetId="2">Allocation!$B$25:$C$25</definedName>
+    <definedName name="ddphiq" localSheetId="3">Allocation!$B$25:$C$25</definedName>
+    <definedName name="ddphiq" localSheetId="0">'Allocation (2)'!$B$25:$C$25</definedName>
     <definedName name="ddphiq">Sheet2!$B$25:$C$25</definedName>
-    <definedName name="ddre" localSheetId="2">Allocation!$B$27:$C$27</definedName>
+    <definedName name="ddre" localSheetId="3">Allocation!$B$27:$C$27</definedName>
+    <definedName name="ddre" localSheetId="0">'Allocation (2)'!$B$27:$C$27</definedName>
     <definedName name="ddre">Sheet2!$B$27:$C$27</definedName>
-    <definedName name="delta" localSheetId="2">Allocation!$B$39:$C$39</definedName>
+    <definedName name="delta" localSheetId="3">Allocation!$B$39:$C$39</definedName>
+    <definedName name="delta" localSheetId="0">'Allocation (2)'!$B$39:$C$39</definedName>
     <definedName name="delta">Sheet2!$B$37:$C$37</definedName>
-    <definedName name="dfe" localSheetId="5">FlakLake!$B$22</definedName>
+    <definedName name="dfe" localSheetId="6">FlakLake!$B$22</definedName>
     <definedName name="dfe">SingleFleet!$B$19</definedName>
-    <definedName name="dh" localSheetId="2">Allocation!$B$13</definedName>
-    <definedName name="dh" localSheetId="5">FlakLake!$B$6</definedName>
-    <definedName name="dh" localSheetId="3">SingleFleet!$B$6</definedName>
+    <definedName name="dh" localSheetId="3">Allocation!$B$13</definedName>
+    <definedName name="dh" localSheetId="0">'Allocation (2)'!$B$13</definedName>
+    <definedName name="dh" localSheetId="6">FlakLake!$B$6</definedName>
+    <definedName name="dh" localSheetId="4">SingleFleet!$B$6</definedName>
     <definedName name="dh">Sheet2!$B$13</definedName>
+    <definedName name="dlam" localSheetId="0">'Allocation (2)'!$B$14:$C$14</definedName>
     <definedName name="dlam">Allocation!$B$14:$C$14</definedName>
     <definedName name="dlw">FlakLake!$F$16:$L$16</definedName>
-    <definedName name="dlz" localSheetId="5">FlakLake!$F$15:$L$15</definedName>
+    <definedName name="dlz" localSheetId="6">FlakLake!$F$15:$L$15</definedName>
     <definedName name="dlz">SingleFleet!$F$13:$L$13</definedName>
-    <definedName name="dphif" localSheetId="2">Allocation!$B$21:$C$21</definedName>
-    <definedName name="dphif" localSheetId="5">FlakLake!$B$16</definedName>
-    <definedName name="dphif" localSheetId="3">SingleFleet!$B$15</definedName>
+    <definedName name="dphif" localSheetId="3">Allocation!$B$21:$C$21</definedName>
+    <definedName name="dphif" localSheetId="0">'Allocation (2)'!$B$21:$C$21</definedName>
+    <definedName name="dphif" localSheetId="6">FlakLake!$B$16</definedName>
+    <definedName name="dphif" localSheetId="4">SingleFleet!$B$15</definedName>
     <definedName name="dphif">Sheet2!$B$21:$C$21</definedName>
-    <definedName name="dphiq" localSheetId="2">Allocation!$B$24:$C$24</definedName>
-    <definedName name="dphiq" localSheetId="5">FlakLake!$B$17</definedName>
-    <definedName name="dphiq" localSheetId="3">SingleFleet!$B$16</definedName>
+    <definedName name="dphiq" localSheetId="3">Allocation!$B$24:$C$24</definedName>
+    <definedName name="dphiq" localSheetId="0">'Allocation (2)'!$B$24:$C$24</definedName>
+    <definedName name="dphiq" localSheetId="6">FlakLake!$B$17</definedName>
+    <definedName name="dphiq" localSheetId="4">SingleFleet!$B$16</definedName>
     <definedName name="dphiq">Sheet2!$B$24:$C$24</definedName>
-    <definedName name="dqa" localSheetId="5">FlakLake!$F$20:$L$20</definedName>
+    <definedName name="dqa" localSheetId="6">FlakLake!$F$20:$L$20</definedName>
     <definedName name="dqa">SingleFleet!$F$17:$L$17</definedName>
-    <definedName name="dre" localSheetId="2">Allocation!$B$26:$C$26</definedName>
-    <definedName name="dre" localSheetId="5">FlakLake!$B$18</definedName>
-    <definedName name="dre" localSheetId="3">SingleFleet!$B$17</definedName>
+    <definedName name="dre" localSheetId="3">Allocation!$B$26:$C$26</definedName>
+    <definedName name="dre" localSheetId="0">'Allocation (2)'!$B$26:$C$26</definedName>
+    <definedName name="dre" localSheetId="6">FlakLake!$B$18</definedName>
+    <definedName name="dre" localSheetId="4">SingleFleet!$B$17</definedName>
     <definedName name="dre">Sheet2!$B$26:$C$26</definedName>
-    <definedName name="dta" localSheetId="2">Allocation!$B$47:$C$47</definedName>
+    <definedName name="dta" localSheetId="3">Allocation!$B$47:$C$47</definedName>
+    <definedName name="dta" localSheetId="0">'Allocation (2)'!$B$47:$C$47</definedName>
     <definedName name="dta">Sheet2!$B$45:$C$45</definedName>
-    <definedName name="dye" localSheetId="5">FlakLake!$B$24</definedName>
-    <definedName name="dye" localSheetId="3">SingleFleet!$B$21</definedName>
+    <definedName name="dYe" localSheetId="0">'Allocation (2)'!$B$30:$C$30</definedName>
+    <definedName name="dye" localSheetId="6">FlakLake!$B$24</definedName>
+    <definedName name="dye" localSheetId="4">SingleFleet!$B$21</definedName>
     <definedName name="dYe">Allocation!$B$30:$C$30</definedName>
-    <definedName name="f" localSheetId="2">Allocation!$B$20:$C$20</definedName>
+    <definedName name="f" localSheetId="3">Allocation!$B$20:$C$20</definedName>
+    <definedName name="f" localSheetId="0">'Allocation (2)'!$B$20:$C$20</definedName>
     <definedName name="f">Sheet2!$B$20:$C$20</definedName>
     <definedName name="f_1">Sheet1!$B$3</definedName>
     <definedName name="f_2">Sheet1!$B$4</definedName>
-    <definedName name="fa" localSheetId="2">Allocation!$G$3:$Z$3</definedName>
-    <definedName name="fa" localSheetId="5">FlakLake!$F$3:$L$3</definedName>
-    <definedName name="fa" localSheetId="3">SingleFleet!$F$3:$L$3</definedName>
+    <definedName name="fa" localSheetId="3">Allocation!$G$3:$Z$3</definedName>
+    <definedName name="fa" localSheetId="0">'Allocation (2)'!$G$3:$Z$3</definedName>
+    <definedName name="fa" localSheetId="6">FlakLake!$F$3:$L$3</definedName>
+    <definedName name="fa" localSheetId="4">SingleFleet!$F$3:$L$3</definedName>
     <definedName name="fa">Sheet2!$G$3:$Z$3</definedName>
-    <definedName name="fe" localSheetId="2">Allocation!$B$6:$B$7</definedName>
-    <definedName name="fe" localSheetId="5">FlakLake!$B$4</definedName>
-    <definedName name="fe" localSheetId="3">SingleFleet!$B$4</definedName>
+    <definedName name="fbar">#REF!</definedName>
+    <definedName name="fe" localSheetId="3">Allocation!$B$6:$B$7</definedName>
+    <definedName name="fe" localSheetId="0">'Allocation (2)'!$B$6:$B$7</definedName>
+    <definedName name="fe" localSheetId="6">FlakLake!$B$4</definedName>
+    <definedName name="fe" localSheetId="4">SingleFleet!$B$4</definedName>
     <definedName name="fe">Sheet2!$B$6:$B$7</definedName>
-    <definedName name="feh" localSheetId="5">FlakLake!$B$7</definedName>
+    <definedName name="feh" localSheetId="6">FlakLake!$B$7</definedName>
     <definedName name="feh">SingleFleet!$B$7</definedName>
-    <definedName name="fem" localSheetId="5">FlakLake!$B$8</definedName>
+    <definedName name="fem" localSheetId="6">FlakLake!$B$8</definedName>
     <definedName name="fem">SingleFleet!$B$8</definedName>
-    <definedName name="fiter" localSheetId="2">Allocation!$B$40:$C$40</definedName>
+    <definedName name="fiter" localSheetId="3">Allocation!$B$40:$C$40</definedName>
+    <definedName name="fiter" localSheetId="0">'Allocation (2)'!$B$40:$C$40</definedName>
     <definedName name="fiter">Sheet2!$B$38:$C$38</definedName>
     <definedName name="ft">Sheet5!$B$3</definedName>
-    <definedName name="h" localSheetId="2">Allocation!$B$2</definedName>
-    <definedName name="h" localSheetId="5">FlakLake!$B$2</definedName>
-    <definedName name="h" localSheetId="3">SingleFleet!$B$2</definedName>
+    <definedName name="h" localSheetId="3">Allocation!$B$2</definedName>
+    <definedName name="h" localSheetId="0">'Allocation (2)'!$B$2</definedName>
+    <definedName name="h" localSheetId="6">FlakLake!$B$2</definedName>
+    <definedName name="h" localSheetId="4">SingleFleet!$B$2</definedName>
     <definedName name="h">Sheet2!$B$2</definedName>
-    <definedName name="kappa" localSheetId="5">FlakLake!$B$5</definedName>
+    <definedName name="kappa" localSheetId="6">FlakLake!$B$5</definedName>
     <definedName name="kappa">SingleFleet!$B$5</definedName>
+    <definedName name="lambda" localSheetId="0">'Allocation (2)'!$B$11:$C$11</definedName>
     <definedName name="lambda">Allocation!$B$11:$C$11</definedName>
     <definedName name="lw">FlakLake!$F$10:$L$10</definedName>
-    <definedName name="lx" localSheetId="2">Allocation!$G$4:$Z$4</definedName>
-    <definedName name="lx" localSheetId="5">FlakLake!$F$8:$L$8</definedName>
-    <definedName name="lx" localSheetId="3">SingleFleet!$F$8:$L$8</definedName>
+    <definedName name="lx" localSheetId="3">Allocation!$G$4:$Z$4</definedName>
+    <definedName name="lx" localSheetId="0">'Allocation (2)'!$G$4:$Z$4</definedName>
+    <definedName name="lx" localSheetId="6">FlakLake!$F$8:$L$8</definedName>
+    <definedName name="lx" localSheetId="4">SingleFleet!$F$8:$L$8</definedName>
     <definedName name="lx">Sheet2!$G$4:$Z$4</definedName>
+    <definedName name="lYe" localSheetId="0">'Allocation (2)'!$B$31:$C$31</definedName>
     <definedName name="lYe">Allocation!$B$31:$C$31</definedName>
-    <definedName name="lz" localSheetId="2">Allocation!$G$14:$Z$14</definedName>
-    <definedName name="lz" localSheetId="5">FlakLake!$F$9:$L$9</definedName>
-    <definedName name="lz" localSheetId="3">SingleFleet!$F$9:$L$9</definedName>
+    <definedName name="lz" localSheetId="3">Allocation!$G$14:$Z$14</definedName>
+    <definedName name="lz" localSheetId="0">'Allocation (2)'!$G$14:$Z$14</definedName>
+    <definedName name="lz" localSheetId="6">FlakLake!$F$9:$L$9</definedName>
+    <definedName name="lz" localSheetId="4">SingleFleet!$F$9:$L$9</definedName>
     <definedName name="lz">Sheet2!$G$14:$Z$14</definedName>
-    <definedName name="m" localSheetId="2">Allocation!$B$3</definedName>
-    <definedName name="m" localSheetId="5">FlakLake!$B$3</definedName>
-    <definedName name="m" localSheetId="1">Sheet2!$B$3</definedName>
-    <definedName name="m" localSheetId="4">Sheet5!$B$1</definedName>
-    <definedName name="m" localSheetId="3">SingleFleet!$B$3</definedName>
+    <definedName name="m" localSheetId="3">Allocation!$B$3</definedName>
+    <definedName name="m" localSheetId="0">'Allocation (2)'!$B$3</definedName>
+    <definedName name="m" localSheetId="6">FlakLake!$B$3</definedName>
+    <definedName name="m" localSheetId="2">Sheet2!$B$3</definedName>
+    <definedName name="m" localSheetId="5">Sheet5!$B$1</definedName>
+    <definedName name="m" localSheetId="4">SingleFleet!$B$3</definedName>
     <definedName name="M">Sheet1!$B$2</definedName>
     <definedName name="na">Sheet5!$G$3:$M$3</definedName>
-    <definedName name="oa" localSheetId="2">Allocation!$G$10:$Z$10</definedName>
-    <definedName name="oa" localSheetId="5">FlakLake!$F$7:$L$7</definedName>
-    <definedName name="oa" localSheetId="3">SingleFleet!$F$7:$L$7</definedName>
+    <definedName name="oa" localSheetId="3">Allocation!$G$10:$Z$10</definedName>
+    <definedName name="oa" localSheetId="0">'Allocation (2)'!$G$10:$Z$10</definedName>
+    <definedName name="oa" localSheetId="6">FlakLake!$F$7:$L$7</definedName>
+    <definedName name="oa" localSheetId="4">SingleFleet!$F$7:$L$7</definedName>
     <definedName name="oa">Sheet2!$G$10:$Z$10</definedName>
-    <definedName name="p" localSheetId="5">FlakLake!$B$25</definedName>
+    <definedName name="p" localSheetId="6">FlakLake!$B$25</definedName>
     <definedName name="p">SingleFleet!$B$23</definedName>
-    <definedName name="phef" localSheetId="5">FlakLake!$B$11</definedName>
+    <definedName name="phef" localSheetId="6">FlakLake!$B$11</definedName>
     <definedName name="phef">SingleFleet!$B$11</definedName>
-    <definedName name="phie" localSheetId="2">Allocation!$B$18</definedName>
-    <definedName name="phie" localSheetId="5">FlakLake!$B$10</definedName>
-    <definedName name="phie" localSheetId="3">SingleFleet!$B$10</definedName>
+    <definedName name="phie" localSheetId="3">Allocation!$B$18</definedName>
+    <definedName name="phie" localSheetId="0">'Allocation (2)'!$B$18</definedName>
+    <definedName name="phie" localSheetId="6">FlakLake!$B$10</definedName>
+    <definedName name="phie" localSheetId="4">SingleFleet!$B$10</definedName>
     <definedName name="phie">Sheet2!$B$18</definedName>
-    <definedName name="phif" localSheetId="2">Allocation!$B$19</definedName>
-    <definedName name="phif" localSheetId="5">FlakLake!$B$11</definedName>
-    <definedName name="phif" localSheetId="3">SingleFleet!$B$11</definedName>
+    <definedName name="phif" localSheetId="3">Allocation!$B$19</definedName>
+    <definedName name="phif" localSheetId="0">'Allocation (2)'!$B$19</definedName>
+    <definedName name="phif" localSheetId="6">FlakLake!$B$11</definedName>
+    <definedName name="phif" localSheetId="4">SingleFleet!$B$11</definedName>
     <definedName name="phif">Sheet2!$B$19</definedName>
-    <definedName name="phiq" localSheetId="2">Allocation!$B$23:$C$23</definedName>
-    <definedName name="phiq" localSheetId="5">FlakLake!$B$13</definedName>
-    <definedName name="phiq" localSheetId="3">SingleFleet!$B$13</definedName>
+    <definedName name="phiq" localSheetId="3">Allocation!$B$23:$C$23</definedName>
+    <definedName name="phiq" localSheetId="0">'Allocation (2)'!$B$23:$C$23</definedName>
+    <definedName name="phiq" localSheetId="6">FlakLake!$B$13</definedName>
+    <definedName name="phiq" localSheetId="4">SingleFleet!$B$13</definedName>
     <definedName name="phiq">Sheet2!$B$23:$C$23</definedName>
+    <definedName name="pk" localSheetId="0">'Allocation (2)'!$B$10:$C$10</definedName>
     <definedName name="pk">Allocation!$B$10:$C$10</definedName>
-    <definedName name="qa" localSheetId="5">FlakLake!$F$19:$L$19</definedName>
+    <definedName name="qa" localSheetId="6">FlakLake!$F$19:$L$19</definedName>
     <definedName name="qa">SingleFleet!$F$16:$L$16</definedName>
-    <definedName name="re" localSheetId="2">Allocation!$B$17</definedName>
-    <definedName name="re" localSheetId="5">FlakLake!$B$12</definedName>
-    <definedName name="re" localSheetId="3">SingleFleet!$B$12</definedName>
+    <definedName name="re" localSheetId="3">Allocation!$B$17</definedName>
+    <definedName name="re" localSheetId="0">'Allocation (2)'!$B$17</definedName>
+    <definedName name="re" localSheetId="6">FlakLake!$B$12</definedName>
+    <definedName name="re" localSheetId="4">SingleFleet!$B$12</definedName>
     <definedName name="re">Sheet2!$B$17</definedName>
-    <definedName name="reck" localSheetId="2">Allocation!$B$8</definedName>
+    <definedName name="reck" localSheetId="3">Allocation!$B$8</definedName>
+    <definedName name="reck" localSheetId="0">'Allocation (2)'!$B$8</definedName>
     <definedName name="reck">Sheet2!$B$8</definedName>
-    <definedName name="ro" localSheetId="2">Allocation!$B$1</definedName>
-    <definedName name="ro" localSheetId="5">FlakLake!$B$1</definedName>
-    <definedName name="ro" localSheetId="3">SingleFleet!$B$1</definedName>
+    <definedName name="ro" localSheetId="3">Allocation!$B$1</definedName>
+    <definedName name="ro" localSheetId="0">'Allocation (2)'!$B$1</definedName>
+    <definedName name="ro" localSheetId="6">FlakLake!$B$1</definedName>
+    <definedName name="ro" localSheetId="4">SingleFleet!$B$1</definedName>
     <definedName name="ro">Sheet2!$B$1</definedName>
-    <definedName name="sa" localSheetId="2">Allocation!$G$9:$Z$9</definedName>
-    <definedName name="sa" localSheetId="5">FlakLake!$F$6:$L$6</definedName>
-    <definedName name="sa" localSheetId="3">SingleFleet!$F$6:$L$6</definedName>
+    <definedName name="sa" localSheetId="3">Allocation!$G$9:$Z$9</definedName>
+    <definedName name="sa" localSheetId="0">'Allocation (2)'!$G$9:$Z$9</definedName>
+    <definedName name="sa" localSheetId="6">FlakLake!$F$6:$L$6</definedName>
+    <definedName name="sa" localSheetId="4">SingleFleet!$F$6:$L$6</definedName>
     <definedName name="sa">Sheet2!$G$9:$Z$9</definedName>
     <definedName name="so">FlakLake!$B$14</definedName>
-    <definedName name="V" localSheetId="2">Allocation!$G$6:$Z$7</definedName>
+    <definedName name="V" localSheetId="3">Allocation!$G$6:$Z$7</definedName>
+    <definedName name="V" localSheetId="0">'Allocation (2)'!$G$6:$Z$7</definedName>
     <definedName name="V">Sheet2!$G$6:$Z$7</definedName>
-    <definedName name="va" localSheetId="5">FlakLake!$F$4:$L$4</definedName>
-    <definedName name="va" localSheetId="4">Sheet5!$G$2:$M$2</definedName>
+    <definedName name="va" localSheetId="6">FlakLake!$F$4:$L$4</definedName>
+    <definedName name="va" localSheetId="5">Sheet5!$G$2:$M$2</definedName>
     <definedName name="va">SingleFleet!$F$4:$L$4</definedName>
-    <definedName name="vbk" localSheetId="2">Allocation!$B$4</definedName>
+    <definedName name="vbk" localSheetId="3">Allocation!$B$4</definedName>
+    <definedName name="vbk" localSheetId="0">'Allocation (2)'!$B$4</definedName>
     <definedName name="vbk">Sheet2!$B$4</definedName>
-    <definedName name="wa" localSheetId="2">Allocation!$G$2:$Z$2</definedName>
-    <definedName name="wa" localSheetId="5">FlakLake!$F$2:$L$2</definedName>
-    <definedName name="wa" localSheetId="4">Sheet5!$G$4:$M$4</definedName>
-    <definedName name="wa" localSheetId="3">SingleFleet!$F$2:$L$2</definedName>
+    <definedName name="wa" localSheetId="3">Allocation!$G$2:$Z$2</definedName>
+    <definedName name="wa" localSheetId="0">'Allocation (2)'!$G$2:$Z$2</definedName>
+    <definedName name="wa" localSheetId="6">FlakLake!$F$2:$L$2</definedName>
+    <definedName name="wa" localSheetId="5">Sheet5!$G$4:$M$4</definedName>
+    <definedName name="wa" localSheetId="4">SingleFleet!$F$2:$L$2</definedName>
     <definedName name="wa">Sheet2!$G$2:$Z$2</definedName>
-    <definedName name="ye" localSheetId="5">FlakLake!$B$23</definedName>
-    <definedName name="ye" localSheetId="3">SingleFleet!$B$20</definedName>
+    <definedName name="Ye" localSheetId="0">'Allocation (2)'!$B$29:$C$29</definedName>
+    <definedName name="ye" localSheetId="6">FlakLake!$B$23</definedName>
+    <definedName name="ye" localSheetId="4">SingleFleet!$B$20</definedName>
     <definedName name="Ye">Allocation!$B$29:$C$29</definedName>
     <definedName name="Z">Sheet1!$B$5</definedName>
-    <definedName name="za" localSheetId="2">Allocation!$G$8:$Z$8</definedName>
-    <definedName name="za" localSheetId="5">FlakLake!$F$5:$L$5</definedName>
-    <definedName name="za" localSheetId="4">Sheet5!$G$5:$M$5</definedName>
-    <definedName name="za" localSheetId="3">SingleFleet!$F$5:$L$5</definedName>
+    <definedName name="za" localSheetId="3">Allocation!$G$8:$Z$8</definedName>
+    <definedName name="za" localSheetId="0">'Allocation (2)'!$G$8:$Z$8</definedName>
+    <definedName name="za" localSheetId="6">FlakLake!$F$5:$L$5</definedName>
+    <definedName name="za" localSheetId="5">Sheet5!$G$5:$M$5</definedName>
+    <definedName name="za" localSheetId="4">SingleFleet!$F$5:$L$5</definedName>
     <definedName name="za">Sheet2!$G$8:$Z$8</definedName>
-    <definedName name="zf" localSheetId="5">FlakLake!$B$9</definedName>
+    <definedName name="zf" localSheetId="6">FlakLake!$B$9</definedName>
     <definedName name="zf">SingleFleet!$B$9</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateCount="2500" concurrentCalc="0"/>
@@ -177,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="106">
   <si>
     <t>B</t>
   </si>
@@ -626,7 +665,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="383">
+  <cellStyleXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,6 +721,324 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,7 +1381,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="52"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="383">
+  <cellStyles count="701">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
@@ -1216,6 +1573,165 @@
     <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1405,6 +1921,165 @@
     <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,69 +2117,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$6:$Z$6</c:f>
+              <c:f>'Allocation (2)'!$G$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000552778636923599</c:v>
+                  <c:v>0.208608527326045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00669285092428485</c:v>
+                  <c:v>0.339243631234183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0758581800212435</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.660756368765817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.924141819978757</c:v>
+                  <c:v>0.791391472673955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.993307149075715</c:v>
+                  <c:v>0.880797077977882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.999447221363076</c:v>
+                  <c:v>0.935030830871336</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.965554804333789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.982013790037908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.990684040654933</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99519524711284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.997527376843365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.998728983736919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.999347034662447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.999664649869534</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.999827797402881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.999911580829981</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.999954602131298</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.999996273360716</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999999694097773</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.999999974890009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.999999997938846</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99999999983081</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.999999999986112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99999999999886</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.999999999999906</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.999999999999999</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999976691442158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>0.999988032851658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,157 +2194,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$7:$Z$7</c:f>
+              <c:f>'Allocation (2)'!$G$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000335350130466478</c:v>
+                  <c:v>0.182425523806356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00247262315663477</c:v>
+                  <c:v>0.268941421369995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0179862099620916</c:v>
+                  <c:v>0.377540668798145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.119202922022118</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.622459331201854</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.731058578630005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.817574476193644</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.880797077977882</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>0.924141819978757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.952574126822433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.970687769248644</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.982013790037908</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>0.989013057369407</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.993307149075715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.995929862284104</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.997527376843365</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>0.998498817743263</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.999088948805599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999447221363076</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.999664649869534</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999954602131298</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.999993855825398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.999999168471972</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.999999887464838</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99999998477002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.999999997938846</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.999999999721053</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.999999999962249</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.999999999994891</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.999999999999309</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.999999999999906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$3:$Z$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.252580457827647</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.341247501684339</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.427643719230357</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.508367310902113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.581557921734505</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.646462314779698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.703062176584656</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.751788795470446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.793319223640301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.828438535949616</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.85795164162232</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.882630331147932</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.903184345243872</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.920248190579841</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.934377843246983</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.946053327005152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,11 +2273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107398808"/>
-        <c:axId val="2107401784"/>
+        <c:axId val="2121718536"/>
+        <c:axId val="2106073592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107398808"/>
+        <c:axId val="2121718536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +2286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107401784"/>
+        <c:crossAx val="2106073592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1707,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107401784"/>
+        <c:axId val="2106073592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +2305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107398808"/>
+        <c:crossAx val="2121718536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,69 +2355,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Allocation!$G$6:$Z$6</c:f>
+              <c:f>Sheet2!$G$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.208608527326045</c:v>
+                  <c:v>0.000552778636923599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.339243631234183</c:v>
+                  <c:v>0.00669285092428485</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0758581800212435</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.660756368765817</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.791391472673955</c:v>
+                  <c:v>0.924141819978757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.880797077977882</c:v>
+                  <c:v>0.993307149075715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.935030830871336</c:v>
+                  <c:v>0.999447221363076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.965554804333789</c:v>
+                  <c:v>0.999954602131298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.982013790037908</c:v>
+                  <c:v>0.999996273360716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.990684040654933</c:v>
+                  <c:v>0.999999694097773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99519524711284</c:v>
+                  <c:v>0.999999974890009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.997527376843365</c:v>
+                  <c:v>0.999999997938846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.998728983736919</c:v>
+                  <c:v>0.99999999983081</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.999347034662447</c:v>
+                  <c:v>0.999999999986112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.999664649869534</c:v>
+                  <c:v>0.99999999999886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.999827797402881</c:v>
+                  <c:v>0.999999999999906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.999911580829981</c:v>
+                  <c:v>0.999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.999954602131298</c:v>
+                  <c:v>0.999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.999976691442158</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.999988032851658</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,69 +2432,157 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Allocation!$G$7:$Z$7</c:f>
+              <c:f>Sheet2!$G$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.182425523806356</c:v>
+                  <c:v>0.000335350130466478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.268941421369995</c:v>
+                  <c:v>0.00247262315663477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.377540668798145</c:v>
+                  <c:v>0.0179862099620916</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.119202922022118</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.880797077977882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.982013790037908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.997527376843365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999664649869534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999954602131298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999993855825398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999999168471972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.999999887464838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99999998477002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.999999997938846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.999999999721053</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.999999999962249</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.999999999994891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999999999999309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.999999999999906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.622459331201854</c:v>
+                  <c:v>0.252580457827647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.731058578630005</c:v>
+                  <c:v>0.341247501684339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.817574476193644</c:v>
+                  <c:v>0.427643719230357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.880797077977882</c:v>
+                  <c:v>0.508367310902113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.924141819978757</c:v>
+                  <c:v>0.581557921734505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.952574126822433</c:v>
+                  <c:v>0.646462314779698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.970687769248644</c:v>
+                  <c:v>0.703062176584656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.982013790037908</c:v>
+                  <c:v>0.751788795470446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.989013057369407</c:v>
+                  <c:v>0.793319223640301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.993307149075715</c:v>
+                  <c:v>0.828438535949616</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.995929862284104</c:v>
+                  <c:v>0.85795164162232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.997527376843365</c:v>
+                  <c:v>0.882630331147932</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.998498817743263</c:v>
+                  <c:v>0.903184345243872</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.999088948805599</c:v>
+                  <c:v>0.920248190579841</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.999447221363076</c:v>
+                  <c:v>0.934377843246983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.999664649869534</c:v>
+                  <c:v>0.946053327005152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,11 +2599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079345576"/>
-        <c:axId val="2079342584"/>
+        <c:axId val="2105607608"/>
+        <c:axId val="2105604616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079345576"/>
+        <c:axId val="2105607608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +2612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079342584"/>
+        <c:crossAx val="2105604616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +2620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079342584"/>
+        <c:axId val="2105604616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +2631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079345576"/>
+        <c:crossAx val="2105607608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,258 +2670,162 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SingleFleet!$E$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ye</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
             <c:numRef>
-              <c:f>SingleFleet!$D$28:$D$63</c:f>
+              <c:f>Allocation!$G$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.208608527326045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.025</c:v>
+                  <c:v>0.339243631234183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.075</c:v>
+                  <c:v>0.660756368765817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.791391472673955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125</c:v>
+                  <c:v>0.880797077977882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>0.935030830871336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.175</c:v>
+                  <c:v>0.965554804333789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.982013790037908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.225</c:v>
+                  <c:v>0.990684040654933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>0.99519524711284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.275</c:v>
+                  <c:v>0.997527376843365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.998728983736919</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.325</c:v>
+                  <c:v>0.999347034662447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35</c:v>
+                  <c:v>0.999664649869534</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.375</c:v>
+                  <c:v>0.999827797402881</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.999911580829981</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.425</c:v>
+                  <c:v>0.999954602131298</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.45</c:v>
+                  <c:v>0.999976691442158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.525</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.575</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.675</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.725</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.775</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.825</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.875</c:v>
+                  <c:v>0.999988032851658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
             <c:numRef>
-              <c:f>SingleFleet!$E$28:$E$63</c:f>
+              <c:f>Allocation!$G$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.182425523806356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.6733186391163</c:v>
+                  <c:v>0.268941421369995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.486691835346</c:v>
+                  <c:v>0.377540668798145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.8141998668783</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.4964479982027</c:v>
+                  <c:v>0.622459331201854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.7998562069268</c:v>
+                  <c:v>0.731058578630005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264.9800794387135</c:v>
+                  <c:v>0.817574476193644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>278.6257329618472</c:v>
+                  <c:v>0.880797077977882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.8748251909676</c:v>
+                  <c:v>0.924141819978757</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>296.554741949003</c:v>
+                  <c:v>0.952574126822433</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>302.2749033095533</c:v>
+                  <c:v>0.970687769248644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>306.4893481407571</c:v>
+                  <c:v>0.982013790037908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>309.5397722585543</c:v>
+                  <c:v>0.989013057369407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>311.6856052438602</c:v>
+                  <c:v>0.993307149075715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>313.1253378321206</c:v>
+                  <c:v>0.995929862284104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>314.011847372863</c:v>
+                  <c:v>0.997527376843365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>314.4635454718704</c:v>
+                  <c:v>0.998498817743263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>314.5725783444104</c:v>
+                  <c:v>0.999088948805599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>314.4109221386668</c:v>
+                  <c:v>0.999447221363076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>314.0349574752166</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>313.4889334988941</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>312.807612896142</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>312.0183071329442</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>311.142453663556</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>310.1968461999238</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>309.1946000938198</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>308.1459139509634</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>307.0586733725718</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>305.9389315549321</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>304.7912932241134</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>303.6192222352232</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>302.4252885529195</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>301.2113668446319</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>299.9787962666496</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>298.7285089930171</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>297.4611334725772</c:v>
+                  <c:v>0.999664649869534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2256,290 +2835,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107782632"/>
-        <c:axId val="2107785624"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SingleFleet!$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dye</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SingleFleet!$D$28:$D$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.075</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.325</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.425</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.525</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.575</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.675</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.725</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.775</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.825</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SingleFleet!$F$28:$F$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>3999.904904533837</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2849.832914761706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2064.477939139211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1515.092612013886</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1123.033114601484</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>838.513406116324</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>629.0696712154138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>472.9971546996811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>355.4686025649578</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>266.1626795278916</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>197.7741408259002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>145.055138977368</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.1851556287181</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72.34907829274405</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>47.44986858925816</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.90988376186176</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.53157348863516</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.398549692445243</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9.195508461303163</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-16.79851205402676</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-22.83788510500034</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-27.64867464334061</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-31.49457773124887</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-34.58380600527994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-37.08115301516085</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-39.11724429078185</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-40.7956798893991</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-42.198587912196</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-43.39097085017242</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-44.42412818114092</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-45.33836714253585</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-46.16516127665454</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-46.92887776675444</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-47.6481659429586</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-48.33707793362102</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-49.00597633950062</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2107791960"/>
-        <c:axId val="2107788664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2107782632"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2108043192"/>
+        <c:axId val="2108046168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2108043192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107785624"/>
+        <c:crossAx val="2108046168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="2107785624"/>
+        <c:axId val="2108046168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,45 +2869,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107782632"/>
+        <c:crossAx val="2108043192"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2107788664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
-          <c:min val="-50.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107791960"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2107791960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107788664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2628,7 +2916,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FlakLake!$B$26</c:f>
+              <c:f>SingleFleet!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2639,7 +2927,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>FlakLake!$A$27:$A$62</c:f>
+              <c:f>SingleFleet!$D$28:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2756,117 +3044,117 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FlakLake!$B$27:$B$62</c:f>
+              <c:f>SingleFleet!$E$28:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>1647.712086001402</c:v>
+                  <c:v>314.4635454718704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>430.1527454919306</c:v>
+                  <c:v>84.6733186391163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>755.6449057978981</c:v>
+                  <c:v>145.486691835346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1005.719414712784</c:v>
+                  <c:v>189.8141998668783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1200.217201000512</c:v>
+                  <c:v>222.4964479982027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1353.000668268764</c:v>
+                  <c:v>246.7998562069268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1473.991432747179</c:v>
+                  <c:v>264.9800794387135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1570.434758494697</c:v>
+                  <c:v>278.6257329618472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1647.712086001402</c:v>
+                  <c:v>288.8748251909676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1709.87892271332</c:v>
+                  <c:v>296.554741949003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1760.030117717636</c:v>
+                  <c:v>302.2749033095533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1800.553436739018</c:v>
+                  <c:v>306.4893481407571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1833.308996525573</c:v>
+                  <c:v>309.5397722585543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1859.75837969633</c:v>
+                  <c:v>311.6856052438602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1881.058920240429</c:v>
+                  <c:v>313.1253378321206</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1898.133458663831</c:v>
+                  <c:v>314.011847372863</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1911.7225513061</c:v>
+                  <c:v>314.4635454718704</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1922.423955312903</c:v>
+                  <c:v>314.5725783444104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1930.722771013725</c:v>
+                  <c:v>314.4109221386668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1937.014647899953</c:v>
+                  <c:v>314.0349574752166</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1941.623788591856</c:v>
+                  <c:v>313.4889334988941</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1944.817015702902</c:v>
+                  <c:v>312.807612896142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1946.814834005367</c:v>
+                  <c:v>312.0183071329442</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1947.800181918568</c:v>
+                  <c:v>311.142453663556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1947.925393521175</c:v>
+                  <c:v>310.1968461999238</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1947.317765713498</c:v>
+                  <c:v>309.1946000938198</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1946.084031576177</c:v>
+                  <c:v>308.1459139509634</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1944.313971185888</c:v>
+                  <c:v>307.0586733725718</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1942.083338690089</c:v>
+                  <c:v>305.9389315549321</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1939.456244716237</c:v>
+                  <c:v>304.7912932241134</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1936.48710289924</c:v>
+                  <c:v>303.6192222352232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1933.222226064908</c:v>
+                  <c:v>302.4252885529195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1929.701139661455</c:v>
+                  <c:v>301.2113668446319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1925.957666099144</c:v>
+                  <c:v>299.9787962666496</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1922.020822785441</c:v>
+                  <c:v>298.7285089930171</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1917.915568115562</c:v>
+                  <c:v>297.4611334725772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,8 +3169,634 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107843000"/>
-        <c:axId val="2107845992"/>
+        <c:axId val="2108094024"/>
+        <c:axId val="2108097016"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SingleFleet!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SingleFleet!$D$28:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SingleFleet!$F$28:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>12.53157348863539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2849.832914761706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.477939139211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1515.092612013886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1123.033114601484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>838.513406116324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>629.0696712154138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>472.9971546996811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.4686025649578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>266.1626795278916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197.7741408259002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.055138977368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.1851556287181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.34907829274405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.44986858925816</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.90988376186176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.53157348863516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.398549692445243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.195508461303163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-16.79851205402676</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-22.83788510500034</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.64867464334061</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-31.49457773124887</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-34.58380600527994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-37.08115301516085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-39.11724429078185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-40.7956798893991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-42.198587912196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-43.39097085017242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-44.42412818114092</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-45.33836714253585</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-46.16516127665454</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-46.92887776675444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-47.6481659429586</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-48.33707793362102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-49.00597633950062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108103352"/>
+        <c:axId val="2108100056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2108094024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108097016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2108097016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108094024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2108100056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000.0"/>
+          <c:min val="-50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108103352"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2108103352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108100056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FlakLake!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlakLake!$A$27:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlakLake!$B$27:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1647.712086001402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430.1527454919306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>755.6449057978981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1005.719414712784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200.217201000512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1353.000668268764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1473.991432747179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1570.434758494697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1647.712086001402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1709.87892271332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1760.030117717636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800.553436739018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1833.308996525573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1859.75837969633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1881.058920240429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1898.133458663831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1911.7225513061</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1922.423955312903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1930.722771013725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1937.014647899953</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1941.623788591856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1944.817015702902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1946.814834005367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1947.800181918568</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1947.925393521175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1947.317765713498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1946.084031576177</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1944.313971185888</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1942.083338690089</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1939.456244716237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1936.48710289924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1933.222226064908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1929.701139661455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1925.957666099144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1922.020822785441</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1917.915568115562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108154392"/>
+        <c:axId val="2108157384"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3145,11 +4059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107852328"/>
-        <c:axId val="2107849032"/>
+        <c:axId val="2108163720"/>
+        <c:axId val="2108160424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107843000"/>
+        <c:axId val="2108154392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,12 +4073,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107845992"/>
+        <c:crossAx val="2108157384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107845992"/>
+        <c:axId val="2108157384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,12 +4089,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107843000"/>
+        <c:crossAx val="2108154392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107849032"/>
+        <c:axId val="2108160424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3192,12 +4106,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107852328"/>
+        <c:crossAx val="2108163720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107852328"/>
+        <c:axId val="2108163720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +4121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107849032"/>
+        <c:crossAx val="2108160424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3246,6 +4160,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3263,7 +4214,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3300,7 +4251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3335,7 +4286,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3692,6 +4643,2829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Z56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="23" width="7.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+      <c r="X1">
+        <v>18</v>
+      </c>
+      <c r="Y1">
+        <v>19</v>
+      </c>
+      <c r="Z1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:Z2" si="0">(1-EXP(-vbk*G1))^3</f>
+        <v>5.956242778945897E-3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>3.5832542332544771E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>9.1848839232940488E-2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0.16698470834288895</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.25258045782764715</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.34124750168433882</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.42764371923035677</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.50836731090211251</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.58155792173450538</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.64646231477969807</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0.70306217658465575</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0.75178879547044597</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0.79331922364030083</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0.82843853594961614</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0.85795164162232052</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0.88263033114793243</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0.90318434524387203</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0.92024819057984131</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0.93437784324698259</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0.94605332700515155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>1.5*vbk</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <f>IF(G2&gt;0.2,G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:Z3" si="1">IF(H2&gt;0.2,H2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.25258045782764715</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.34124750168433882</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0.42764371923035677</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0.50836731090211251</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.58155792173450538</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0.64646231477969807</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0.70306217658465575</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0.75178879547044597</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0.79331922364030083</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>0.82843853594961614</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>0.85795164162232052</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>0.88263033114793243</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>0.90318434524387203</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0.92024819057984131</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0.93437784324698259</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>0.94605332700515155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:Y4" si="2">EXP(-m)^(G1-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.74081822068171788</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.5488116360940265</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.40656965974059917</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.30119421191220219</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.2231301601484299</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.16529888822158662</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.12245642825298196</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>9.0717953289412567E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>6.7205512739749812E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>4.9787068367863986E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>3.6883167401240036E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2.732372244729259E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>2.0241911445804409E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>1.4995576820477724E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>1.1108996538242318E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>8.2297470490200406E-3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>6.0967465655156448E-3</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>4.5165809426126746E-3</v>
+      </c>
+      <c r="Z4">
+        <f>EXP(-m)^(Z1-1)/(1-EXP(-m))</f>
+        <v>1.2909724851307328E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <f>0.5/(1+EXP(-(G1-15)/0.5))</f>
+        <v>3.4572000534677115E-13</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:Z5" si="3">0.5/(1+EXP(-(H1-15)/0.5))</f>
+        <v>2.5545445140186106E-12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.8875672720682908E-11</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1.3947340460454057E-10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1.0305768090951019E-9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>7.6149897563801747E-9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>5.6267581027547497E-8</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>4.1576401383206604E-7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>3.0720873011073591E-6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>2.2698934351217197E-5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>1.6767506523323905E-4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>1.2363115783173872E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>8.9931049810457794E-3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>5.9601461011058773E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>0.44039853898894116</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>0.49100689501895423</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0.49876368842168267</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>0.49983232493476681</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.4999773010656488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.23230263539903045</v>
+      </c>
+      <c r="C6">
+        <f>B6+dh</f>
+        <v>0.23231263539903046</v>
+      </c>
+      <c r="D6">
+        <f>B6-dh</f>
+        <v>0.23229263539903044</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:Z6" si="4">1/(1+EXP(-(G1-ah)/(0.5*ah)))</f>
+        <v>0.20860852732604496</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>0.33924363123418283</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.66075636876581723</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.79139147267395504</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0.93503083087133598</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.96555480433378893</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0.99068404065493332</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0.99519524711284046</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>0.99752737684336534</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>0.99872898373691865</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0.99934703466244723</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>0.99966464986953363</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>0.99982779740288108</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>0.99991158082998111</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>0.99995460213129761</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>0.99997669144215851</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>0.99998803285165838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.23230263539903045</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
+        <v>0.23230263539903045</v>
+      </c>
+      <c r="D7">
+        <f>C7</f>
+        <v>0.23230263539903045</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:Z7" si="5">1/(1+EXP(-(G1-ah)/(0.5*ah)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0.92414181997875655</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0.99330714907571527</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>0.99592986228410396</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>0.99752737684336534</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>0.99849881774326299</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>0.9990889488055994</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>0.9994472213630764</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>0.99966464986953363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <f>4*h/(1-h)</f>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
+        <v>0.39083824060881611</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>0.44128299053024855</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.50385501003163702</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>0.56964676352050825</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.62844126780138843</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.67443831691284695</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0.70713483164552182</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.72891240813496183</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.7428049716875178</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0.75142399356568279</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0.75667980558696812</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0.75985262994739189</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>0.76175771464244735</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0.76289881832127904</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0.76358186436113251</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>0.76399087080529271</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>0.76423600219739152</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>0.76438308516007725</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>0.76447144422449742</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>0.76452458807887425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <f>1-B9</f>
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
+        <v>0.67648957573113178</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.64321065828995005</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.60419697900630087</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.56572523820072507</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.53342261633693056</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.50944248548910187</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.49305486078611865</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.48243339550535369</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.47577749967680832</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.47169438450447254</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46922175102830427</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46773535211448414</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46684512490219843</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46631271004077862</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46599430574562767</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46580375004354729</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46568958091564461</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46562109094936871</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.465579950922972</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46555520886730928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <f>Ye/SUM(Ye)</f>
+        <v>0.40000000015067633</v>
+      </c>
+      <c r="C10">
+        <f>Ye/SUM(Ye)</f>
+        <v>0.59999999984932373</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:Z10" si="8">1-sa</f>
+        <v>0.32351042426886822</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>0.35678934171004995</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0.39580302099369913</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>0.43427476179927493</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>0.46657738366306944</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>0.49055751451089813</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>0.50694513921388129</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>0.51756660449464631</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>0.52422250032319173</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>0.52830561549552746</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="8"/>
+        <v>0.53077824897169568</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>0.53226464788551586</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>0.53315487509780157</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0.53368728995922132</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>0.53400569425437228</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>0.53419624995645276</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>0.53431041908435539</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="8"/>
+        <v>0.53437890905063123</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="8"/>
+        <v>0.534420049077028</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="8"/>
+        <v>0.53444479113269072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <f>B14*(B9/B10)</f>
+        <v>0.70319686971099504</v>
+      </c>
+      <c r="C11">
+        <f>2-B11</f>
+        <v>1.2968031302890051</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
+        <v>1.0284795915383269E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="9"/>
+        <v>9.8284268676304184E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>3.6075902114062308E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>8.4115690946383742E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>0.1484055353435759</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>0.21862158700171061</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>0.28665977940889542</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>0.34853423930955524</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>0.40304303266015967</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>0.4502757397560187</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>0.49079824530204397</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>0.5253139373841258</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="9"/>
+        <v>0.55453907702858851</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>0.57915730481623873</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0.59980133418435377</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>0.61704483373238728</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>0.63139937824954029</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="9"/>
+        <v>0.64331473154381302</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="9"/>
+        <v>0.65318151185729689</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="9"/>
+        <v>0.66133546243833108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <f>B20*lambda</f>
+        <v>0.11487036327859029</v>
+      </c>
+      <c r="C12">
+        <f>C20*lambda</f>
+        <v>0.39066296059879263</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
+        <v>8.9939241993345915E-4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="10"/>
+        <v>7.7916601764791886E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>2.7240240423279022E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>6.3651063328755975E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>0.1167265676549355</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>0.18145517355510557</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>0.25065025800016938</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>0.31793942527261826</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>0.37929092800004266</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="10"/>
+        <v>0.43295440526513224</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>0.47871194649040721</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>0.51714423341718929</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>0.5491443594144485</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="10"/>
+        <v>0.57565697536462668</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="10"/>
+        <v>0.59756045212762787</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>0.61562512663347668</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>0.63050728163653036</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>0.64275781872432636</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="10"/>
+        <v>0.65283566372933777</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="10"/>
+        <v>0.66112159524492242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>0.70319686997588282</v>
+      </c>
+      <c r="C14">
+        <v>1.2968031300241172</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:Y14" si="11">G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
+        <v>0.67648957573113178</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="11"/>
+        <v>0.43512530533231031</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="11"/>
+        <v>0.26290139497097614</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="11"/>
+        <v>0.14872995429325839</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="11"/>
+        <v>7.9335921346781982E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="11"/>
+        <v>4.0417088959472505E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>1.9927842170292889E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="11"/>
+        <v>9.6138565633091758E-3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="11"/>
+        <v>4.5740566379427134E-3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="11"/>
+        <v>2.1575568305229852E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>1.0123725939610733E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="11"/>
+        <v>4.735224517074363E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="11"/>
+        <v>2.2106164811135331E-4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="11"/>
+        <v>1.0308385621688613E-4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="11"/>
+        <v>4.803649001136996E-5</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>2.237557718622553E-5</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>1.0420073162599026E-5</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="11"/>
+        <v>4.851805833741597E-6</v>
+      </c>
+      <c r="Z14">
+        <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
+        <v>4.2266358648079076E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15">
+        <f>EXP(B14)</f>
+        <v>2.0202007142679697</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:Y15" si="12">G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
+        <v>0.67648816451766225</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="12"/>
+        <v>0.4351229214954625</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>0.26289864016746722</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.14872741310228621</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>7.9333937973540603E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>4.0415722562807649E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>1.9926982137477778E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>9.6133488321583031E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="12"/>
+        <v>4.5737701556110531E-3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="12"/>
+        <v>2.1574003252892958E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="12"/>
+        <v>1.0122890839982961E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>4.7347866804269733E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="12"/>
+        <v>2.2103900032933399E-4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="12"/>
+        <v>1.0307226521350341E-4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="12"/>
+        <v>4.8030608522381281E-5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="12"/>
+        <v>2.2372613877867954E-5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="12"/>
+        <v>1.0418589003573017E-5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="12"/>
+        <v>4.8510662692938209E-6</v>
+      </c>
+      <c r="Z15">
+        <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
+        <v>4.2259125254464144E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:Y16" si="13">G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
+        <v>0.67649098694754517</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="13"/>
+        <v>0.43512768918221795</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="13"/>
+        <v>0.26290414980335147</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="13"/>
+        <v>0.14873249552764992</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="13"/>
+        <v>7.933790476960835E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="13"/>
+        <v>4.0418455402333263E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="13"/>
+        <v>1.9928702240226349E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="13"/>
+        <v>9.614364321275987E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="13"/>
+        <v>4.5743431382184608E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="13"/>
+        <v>2.1577133471101023E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>1.0124561108131021E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="13"/>
+        <v>4.7356623942095189E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="13"/>
+        <v>2.2108429821387734E-4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="13"/>
+        <v>1.0309544852373648E-4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="13"/>
+        <v>4.8042372220564218E-5</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="13"/>
+        <v>2.2378540887080657E-5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="13"/>
+        <v>1.0421557533047901E-5</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="13"/>
+        <v>4.8525455109389282E-6</v>
+      </c>
+      <c r="Z16">
+        <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
+        <v>4.2273593286706818E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <f>ro*(reck-phie/phif)/(reck-1)</f>
+        <v>0.62175614930612622</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3">
+        <f>(G14-G15)/dh</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
+        <v>-0.1411213469526551</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.23838368478079627</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.27548035089197676</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.25411909721773096</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.19833732413793156</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.13663966648563841</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="14"/>
+        <v>-8.6003281511010096E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="14"/>
+        <v>-5.0773115087276992E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="14"/>
+        <v>-2.8648233166023853E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="14"/>
+        <v>-1.5650523368937463E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="14"/>
+        <v>-8.3509962777198951E-3</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="14"/>
+        <v>-4.3783664738976467E-3</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="14"/>
+        <v>-2.2647782019316913E-3</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="14"/>
+        <v>-1.1591003382717966E-3</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="14"/>
+        <v>-5.8814889886788738E-4</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="14"/>
+        <v>-2.9633083575759153E-4</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="14"/>
+        <v>-1.4841590260087121E-4</v>
+      </c>
+      <c r="Y17" s="3">
+        <f>(Y15-Y14)/dh</f>
+        <v>-7.3956444777613118E-5</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="14"/>
+        <v>-7.2333936149323859E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <f>SUMPRODUCT(lx,fa)</f>
+        <v>0.53468880128210072</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
+        <v>-0.14112149414469236</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="15"/>
+        <v>-0.2383843377704844</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="15"/>
+        <v>-0.27548179420883234</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="15"/>
+        <v>-0.25412126817427416</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="15"/>
+        <v>-0.19833980336695495</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="15"/>
+        <v>-0.13664197625455679</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="15"/>
+        <v>-8.6005137401692439E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="15"/>
+        <v>-5.0774455860482084E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>-2.8649130351624811E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>-1.5651091026603229E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="15"/>
+        <v>-8.3513407308235046E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="15"/>
+        <v>-4.3785689064879231E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="15"/>
+        <v>-2.2648942232036968E-3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="15"/>
+        <v>-1.1591655092097353E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="15"/>
+        <v>-5.8818490767664517E-4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="15"/>
+        <v>-2.9635045976852096E-4</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="15"/>
+        <v>-1.484264732421396E-4</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="15"/>
+        <v>-7.3962081968869715E-5</v>
+      </c>
+      <c r="Z18">
+        <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
+        <v>-7.2340160853973006E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <f>SUMPRODUCT(lz,fa)</f>
+        <v>0.10360815958597024</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:X19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
+        <v>-0.12340896520229148</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="16"/>
+        <v>-0.19640117983677208</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>-0.21792096801595862</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="16"/>
+        <v>-0.19764836868638996</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="16"/>
+        <v>-0.15481349448122125</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="16"/>
+        <v>-0.10841583102284115</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="16"/>
+        <v>-6.9747447596025108E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="16"/>
+        <v>-4.2116354740643319E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="16"/>
+        <v>-2.4265090980079063E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>-1.3500939968698632E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>-7.3176323875213285E-3</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="16"/>
+        <v>-3.8877209388909042E-3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="16"/>
+        <v>-2.0335964237671459E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="16"/>
+        <v>-1.0506857908306195E-3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="16"/>
+        <v>-5.3745457053654578E-4</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="16"/>
+        <v>-2.7266860524989903E-4</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="16"/>
+        <v>-1.3738335924133225E-4</v>
+      </c>
+      <c r="Y19">
+        <f>X19*EXP(-X8) - X14*X7*EXP(-X8)</f>
+        <v>-6.8815975198479936E-5</v>
+      </c>
+      <c r="Z19">
+        <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
+        <v>-6.785371710830537E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <f>B6*B14</f>
+        <v>0.16335448609974693</v>
+      </c>
+      <c r="C20">
+        <f>B7*C14</f>
+        <v>0.30125078469831396</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(f)</f>
+        <v>0.23230263539903045</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:Y21" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
+        <v>2.9439147067575347E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="17"/>
+        <v>6.9012509064379446E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.10742249823308705</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.12570696457204369</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.11674306220748465</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="17"/>
+        <v>9.0829594549037829E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="17"/>
+        <v>6.2206539850321985E-2</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="17"/>
+        <v>3.8973473031939515E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="17"/>
+        <v>2.2953698029132941E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.2944675119137937E-2</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="17"/>
+        <v>7.0765906908477521E-3</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="17"/>
+        <v>3.7811553001551078E-3</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.9857139777082768E-3</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.0289129461091629E-3</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="17"/>
+        <v>5.2747185132198259E-4</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="17"/>
+        <v>2.6806623797292985E-4</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="17"/>
+        <v>1.3525388459486866E-4</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="17"/>
+        <v>6.7828426620655349E-5</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>Y20*EXP(-Y$8)/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
+        <v>7.6548070525609413E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <f>SUMPRODUCT(fa,G18:Z18)</f>
+        <v>-0.30676169745969067</v>
+      </c>
+      <c r="C21">
+        <f>SUMPRODUCT(fa,G19:Z19)</f>
+        <v>-0.24639130101153253</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.2512945119428428E-2</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="17"/>
+        <v>4.5952956856762116E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="17"/>
+        <v>6.5237802433413261E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="17"/>
+        <v>7.4089159894649148E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="17"/>
+        <v>7.0259982027582296E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="17"/>
+        <v>5.7394197485310744E-2</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="17"/>
+        <v>4.1618816217980956E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.7536770323878176E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.7007794389935979E-2</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="17"/>
+        <v>9.9802427096620412E-3</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="17"/>
+        <v>5.6368395932044641E-3</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="17"/>
+        <v>3.0931910414597119E-3</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.6602719079111983E-3</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="17"/>
+        <v>8.7591451679919761E-4</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="17"/>
+        <v>4.5581743267376343E-4</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="17"/>
+        <v>2.3458653072156357E-4</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="17"/>
+        <v>1.1963331496702455E-4</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="17"/>
+        <v>6.0546764002645463E-5</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
+        <v>7.0194244683036554E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <f>SUMPRODUCT(fa,G20:Z20)</f>
+        <v>0.2004763254718937</v>
+      </c>
+      <c r="C22">
+        <f>SUMPRODUCT(fa,G21:Z21)</f>
+        <v>0.13208308009253333</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:Z22" si="18">G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-4.8082733867651226E-4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="18"/>
+        <v>-4.4677050786176139E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="18"/>
+        <v>-1.5792364108160036E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="18"/>
+        <v>-3.3185271325200751E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="18"/>
+        <v>-4.7600783714507572E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="18"/>
+        <v>-5.1066127358431829E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="18"/>
+        <v>-4.4285622727573068E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>-3.3030301517686503E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>-2.216401511862395E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>-1.3802030743116835E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="18"/>
+        <v>-8.1448469223009568E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="18"/>
+        <v>-4.619627072902208E-3</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="18"/>
+        <v>-2.5428709719842618E-3</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="18"/>
+        <v>-1.3676831836490196E-3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="18"/>
+        <v>-7.2228730052888591E-4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="18"/>
+        <v>-3.7588779889837387E-4</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="18"/>
+        <v>-1.9328834145563819E-4</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="18"/>
+        <v>-9.8413734884634531E-5</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="18"/>
+        <v>-4.9695267795684659E-5</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="18"/>
+        <v>-4.9062352062817063E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <f>SUMPRODUCT(lz*G11:Z11)</f>
+        <v>0.11147136646300285</v>
+      </c>
+      <c r="C23">
+        <f>SUMPRODUCT(lz*G12:Z12)</f>
+        <v>9.0668715387101292E-2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:Z23" si="19">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <v>-4.2047743801663722E-4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="19"/>
+        <v>-3.4038426430928748E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="19"/>
+        <v>-1.0780888098754316E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="19"/>
+        <v>-2.1447771068391977E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="19"/>
+        <v>-3.0847929382569264E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="19"/>
+        <v>-3.4486638069491794E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="19"/>
+        <v>-3.1647677280450939E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="19"/>
+        <v>-2.4961895749360155E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="19"/>
+        <v>-1.757390767469762E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>-1.1373001162633255E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="19"/>
+        <v>-6.914970563031685E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="19"/>
+        <v>-4.0132061338273824E-3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="19"/>
+        <v>-2.2485867899899705E-3</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="19"/>
+        <v>-1.2262689446263185E-3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="19"/>
+        <v>-6.547656163839444E-4</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="19"/>
+        <v>-3.4379207972244901E-4</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="19"/>
+        <v>-1.7808366495827472E-4</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="19"/>
+        <v>-9.1230490972935409E-5</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="19"/>
+        <v>-4.6309392995932685E-5</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="19"/>
+        <v>-4.608040109711233E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <f>SUM(G22:Z22)</f>
+        <v>-0.28403871197705699</v>
+      </c>
+      <c r="C24">
+        <f>SUM(G23:Z23)</f>
+        <v>-0.20270732264506483</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:Z24" si="20">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
+        <v>1.3483854755621215E-5</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="20"/>
+        <v>9.5280477714334514E-4</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="20"/>
+        <v>7.5768743224682994E-3</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="20"/>
+        <v>2.5672425193234816E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="20"/>
+        <v>4.9299452278941447E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="20"/>
+        <v>6.3205768519838917E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="20"/>
+        <v>6.1179595450578786E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="20"/>
+        <v>4.8916875591183268E-2</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="20"/>
+        <v>3.4360863099554363E-2</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="20"/>
+        <v>2.2081199900247272E-2</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.3328559428495293E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="20"/>
+        <v>7.6887481968097218E-3</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="20"/>
+        <v>4.2881145174174014E-3</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="20"/>
+        <v>2.3306052996621444E-3</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.241375016296245E-3</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="20"/>
+        <v>6.5064152601083437E-4</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="20"/>
+        <v>3.3659343457467322E-4</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="20"/>
+        <v>1.7226641972398543E-4</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="20"/>
+        <v>8.7379185753770402E-5</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="20"/>
+        <v>9.3187011300130279E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <f>SUM(G24:Z24)</f>
+        <v>0.34347681302399036</v>
+      </c>
+      <c r="C25">
+        <f>SUM(G25:Z25)</f>
+        <v>0.20556961979493613</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" ref="G25:Z25" si="21">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
+        <v>9.0172622404559115E-6</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="21"/>
+        <v>5.2837170996308889E-4</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.5964174066227886E-3</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.1633691902710276E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.3414000565015296E-2</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.3139638557344933E-2</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.5876888740752108E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.176189195470739E-2</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.4247743240183042E-2</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.6619662485916412E-2</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.0532672377694664E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="21"/>
+        <v>6.3025307390905446E-3</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.6137543998017189E-3</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="21"/>
+        <v>2.0062753835346872E-3</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.0865035961720897E-3</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="21"/>
+        <v>5.7704251995251621E-4</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="21"/>
+        <v>3.0173878380582267E-4</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="21"/>
+        <v>1.5580491986550175E-4</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="21"/>
+        <v>7.9621936789209819E-5</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="21"/>
+        <v>8.6351312773579511E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <f>ro/(reck-1)*phie/phif^2*dphif</f>
+        <v>-1.3890619552499104</v>
+      </c>
+      <c r="C26">
+        <f>ro/(reck-1)*phie/phif^2*dphif</f>
+        <v>-1.1156959463122724</v>
+      </c>
+      <c r="G26">
+        <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
+        <v>1.3483854755621215E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
+        <v>-7.3176471018413061</v>
+      </c>
+      <c r="C27">
+        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
+        <v>-4.7083973682996811</v>
+      </c>
+      <c r="Y27">
+        <f>(Y15-2*Y14+Y16)/dh^2</f>
+        <v>1.1274955510789766E-3</v>
+      </c>
+      <c r="Z27">
+        <f>(Z15-2*Z14+Z16)/dh^2</f>
+        <v>1.245012809007414E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <f>f*re*phiq</f>
+        <v>1.1321773959183073E-2</v>
+      </c>
+      <c r="C29">
+        <f>f*re*phiq</f>
+        <v>1.698266092811259E-2</v>
+      </c>
+      <c r="D29">
+        <f>SUM(Ye)</f>
+        <v>2.8304434887295664E-2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>B29</f>
+        <v>1.1321773959183073E-2</v>
+      </c>
+      <c r="H29">
+        <f>B30</f>
+        <v>1.5165233113236684E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>1.5165233113236684E-2</v>
+      </c>
+      <c r="C30">
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>-1.2068311263364565E-2</v>
+      </c>
+      <c r="D30">
+        <f>SUM(dYe)</f>
+        <v>3.0969218498721196E-3</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
+        <v>1.1297213740116758E-2</v>
+      </c>
+      <c r="H30">
+        <v>2.8455754455137462E-2</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
+        <v>5.6259865880015435E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <f>ak*SUMPRODUCT(f*re,phiq)</f>
+        <v>1.1321773954918266E-2</v>
+      </c>
+      <c r="C31">
+        <f>ak*SUMPRODUCT(f*re,phiq)</f>
+        <v>1.6982660932377398E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.1322457177649381E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.6269182449222044E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <f>ak*(B30+C20*dre*phiq+C20*re*dphiq)</f>
+        <v>-3.3872946520929585E-2</v>
+      </c>
+      <c r="C32">
+        <f>ak*(C30+B20*dre*phiq+B20*re*dphiq)</f>
+        <v>-2.9508807990083999E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.21</v>
+      </c>
+      <c r="G32">
+        <v>1.1339563960600716E-2</v>
+      </c>
+      <c r="H32">
+        <v>2.4132474473163905E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33">
+        <v>0.215</v>
+      </c>
+      <c r="G33">
+        <v>1.134873075221624E-2</v>
+      </c>
+      <c r="H33">
+        <v>2.2043910356780501E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34">
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>1.5165233113236684E-2</v>
+      </c>
+      <c r="C34">
+        <f>f*phiq*B26+f*re*B24</f>
+        <v>-9.1142605173449465E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.22</v>
+      </c>
+      <c r="G34">
+        <v>1.1350146961161434E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.0001835300009665E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35">
+        <f>f*phiq*C26+f*re*C24</f>
+        <v>-4.0904400465229272E-2</v>
+      </c>
+      <c r="C35">
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>-1.2068311263364565E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G35">
+        <v>1.1343995024788018E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.8004656985793878E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <f t="array" ref="B36:C37">-MINVERSE(B34:C35)</f>
+        <v>-3.0856152116054947</v>
+      </c>
+      <c r="C36">
+        <v>23.303261144935369</v>
+      </c>
+      <c r="F36">
+        <v>0.23</v>
+      </c>
+      <c r="G36">
+        <v>1.1330450679654115E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.6050842836438619E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37">
+        <v>10.458401141861694</v>
+      </c>
+      <c r="C37">
+        <v>3.8774334669174411</v>
+      </c>
+      <c r="F37">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G37">
+        <v>1.1309683219939096E-2</v>
+      </c>
+      <c r="H37">
+        <v>1.4138917405506025E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="F38">
+        <v>0.24</v>
+      </c>
+      <c r="G38">
+        <v>1.1281855744358148E-2</v>
+      </c>
+      <c r="H38">
+        <v>1.2267459897789247E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <f t="array" ref="B39:C39">MMULT(B30:C30,B36:C37)</f>
+        <v>-0.17300931427886079</v>
+      </c>
+      <c r="C39">
+        <v>0.30660531357982923</v>
+      </c>
+      <c r="F39">
+        <v>0.245</v>
+      </c>
+      <c r="G39">
+        <v>1.1247125392148052E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.043510181036485E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <f>f+delta</f>
+        <v>-9.6548281791138668E-3</v>
+      </c>
+      <c r="C40">
+        <f>f+delta</f>
+        <v>0.60785609827814313</v>
+      </c>
+      <c r="F40">
+        <v>0.25</v>
+      </c>
+      <c r="G40">
+        <v>1.1205643568664408E-2</v>
+      </c>
+      <c r="H40">
+        <v>8.6405246881416063E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="F41">
+        <v>0.255</v>
+      </c>
+      <c r="G41">
+        <v>1.1157556161100323E-2</v>
+      </c>
+      <c r="H41">
+        <v>6.8824579877171943E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
+        <v>-0.6323485244803736</v>
+      </c>
+      <c r="C42">
+        <f>f*B27*phiq+2*f*B26*B24+f*re*B25</f>
+        <v>0.1021757996708077</v>
+      </c>
+      <c r="D42">
+        <f>B42+C43</f>
+        <v>-1.0405745595722342</v>
+      </c>
+      <c r="F42">
+        <v>0.26</v>
+      </c>
+      <c r="G42">
+        <v>1.1103003744809634E-2</v>
+      </c>
+      <c r="H42">
+        <v>5.1596770437240987E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43">
+        <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
+        <v>9.0305893352991169E-3</v>
+      </c>
+      <c r="C43">
+        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
+        <v>-0.40822603509186073</v>
+      </c>
+      <c r="F43">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.1042121780690839E-2</v>
+      </c>
+      <c r="H43">
+        <v>3.4710011321888237E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f t="array" ref="B44:C45">-MINVERSE(B42:C43)</f>
+        <v>1.5870792998463739</v>
+      </c>
+      <c r="C44">
+        <v>0.39723359772068112</v>
+      </c>
+      <c r="F44">
+        <v>0.27</v>
+      </c>
+      <c r="G44">
+        <v>1.0975040804063585E-2</v>
+      </c>
+      <c r="H44">
+        <v>1.8152916257508124E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45">
+        <v>3.5108641212071509E-2</v>
+      </c>
+      <c r="C45">
+        <v>2.4584107019665407</v>
+      </c>
+      <c r="F45">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G45">
+        <v>1.0901886605446755E-2</v>
+      </c>
+      <c r="H45">
+        <v>1.9145023588976878E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="F46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G46">
+        <v>1.0822780403624626E-2</v>
+      </c>
+      <c r="H46">
+        <v>-1.4015826624095666E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <f t="array" ref="B47:C47">MMULT(B30:C30,B44:C45)</f>
+        <v>2.3644725541181653E-2</v>
+      </c>
+      <c r="C47">
+        <v>-2.3644725454674977E-2</v>
+      </c>
+      <c r="D47">
+        <f>D30/D42</f>
+        <v>-2.9761652554192958E-3</v>
+      </c>
+      <c r="F47">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G47">
+        <v>1.0737839011368025E-2</v>
+      </c>
+      <c r="H47">
+        <v>-2.9648296278598392E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="5">
+        <f>(f+dta)</f>
+        <v>0.18699921164092859</v>
+      </c>
+      <c r="C48" s="5">
+        <f>(f+dta)</f>
+        <v>0.27760605924363896</v>
+      </c>
+      <c r="D48" s="5">
+        <f>B6-D47</f>
+        <v>0.23527880065444975</v>
+      </c>
+      <c r="F48">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G48">
+        <v>1.0647174994157229E-2</v>
+      </c>
+      <c r="H48">
+        <v>-4.499277675999884E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
+      <c r="D49">
+        <f>AVERAGE(B48:C48)</f>
+        <v>0.23230263544228377</v>
+      </c>
+      <c r="F49">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G49">
+        <v>1.0550896822235862E-2</v>
+      </c>
+      <c r="H49">
+        <v>-6.0058797320750035E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8">
+      <c r="F50">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G50">
+        <v>1.0449109016307306E-2</v>
+      </c>
+      <c r="H50">
+        <v>-7.4855560172781832E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="F51">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G51">
+        <v>1.0341912287169379E-2</v>
+      </c>
+      <c r="H51">
+        <v>-8.939195371757639E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="F52">
+        <v>0.309999999999999</v>
+      </c>
+      <c r="G52">
+        <v>1.0229403669567922E-2</v>
+      </c>
+      <c r="H52">
+        <v>-1.0367656517598422E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="F53">
+        <v>0.314999999999999</v>
+      </c>
+      <c r="G53">
+        <v>1.0111676650534512E-2</v>
+      </c>
+      <c r="H53">
+        <v>-1.17717692648227E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="F54">
+        <v>0.31999999999999901</v>
+      </c>
+      <c r="G54">
+        <v>9.9888212924618171E-3</v>
+      </c>
+      <c r="H54">
+        <v>-1.3152335663259077E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="F55">
+        <v>0.32499999999999901</v>
+      </c>
+      <c r="G55">
+        <v>9.860924351155145E-3</v>
+      </c>
+      <c r="H55">
+        <v>-1.4510131102999351E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8">
+      <c r="F56">
+        <v>0.32999999999999902</v>
+      </c>
+      <c r="G56">
+        <v>9.7280693890884843E-3</v>
+      </c>
+      <c r="H56">
+        <v>-1.5845905365992542E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,11 +7666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
@@ -6683,11 +10458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -9500,12 +13276,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9615,7 +13392,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -9676,31 +13453,31 @@
       </c>
       <c r="F5">
         <f t="shared" ref="F5:L5" si="0">m+fe*va</f>
-        <v>0.3</v>
+        <v>0.30166048000000001</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.33395359999999996</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.54099600000000003</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>1.0383600000000002</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.99771999999999994</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.84367999999999999</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.84367999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -9715,31 +13492,31 @@
       </c>
       <c r="F6">
         <f t="shared" ref="F6:L6" si="1">EXP(-za)</f>
-        <v>0.74081822068171788</v>
+        <v>0.73958912756731154</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.74081822068171788</v>
+        <v>0.7160870078935333</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.74081822068171788</v>
+        <v>0.58216812406648033</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.74081822068171788</v>
+        <v>0.35403482322300017</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.74081822068171788</v>
+        <v>0.36871916321667725</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.74081822068171788</v>
+        <v>0.43012474831866354</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.74081822068171788</v>
+        <v>0.43012474831866354</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -9748,38 +13525,38 @@
       </c>
       <c r="B7" s="2">
         <f>fe+dh</f>
-        <v>1.0000000000000001E-5</v>
+        <v>0.40001000000000003</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:L7" si="2">1-sa</f>
-        <v>0.25918177931828212</v>
+        <v>0.26041087243268846</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.25918177931828212</v>
+        <v>0.2839129921064667</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.25918177931828212</v>
+        <v>0.41783187593351967</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.25918177931828212</v>
+        <v>0.64596517677699983</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0.25918177931828212</v>
+        <v>0.6312808367833227</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>0.25918177931828212</v>
+        <v>0.56987525168133646</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>0.25918177931828212</v>
+        <v>0.56987525168133646</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -9788,7 +13565,7 @@
       </c>
       <c r="B8">
         <f>fe-dh</f>
-        <v>-1.0000000000000001E-5</v>
+        <v>0.39999000000000001</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -9834,31 +13611,31 @@
       </c>
       <c r="F9">
         <f>1*EXP(-za*zf)</f>
-        <v>0.74081822068171788</v>
+        <v>0.73958912756731154</v>
       </c>
       <c r="G9">
         <f>F9*F6*EXP(-za*zf)</f>
-        <v>0.40656965974059917</v>
+        <v>0.39169392020134913</v>
       </c>
       <c r="H9">
         <f>G9*G6*EXP(-za*zf)</f>
-        <v>0.22313016014842987</v>
+        <v>0.16329054830717299</v>
       </c>
       <c r="I9">
         <f>H9*H6*EXP(-za*zf)</f>
-        <v>0.12245642825298195</v>
+        <v>3.3655453858217686E-2</v>
       </c>
       <c r="J9">
         <f>I9*I6*EXP(-za*zf)</f>
-        <v>6.7205512739749784E-2</v>
+        <v>4.3933635533139909E-3</v>
       </c>
       <c r="K9">
         <f>J9*J6*EXP(-za*zf)</f>
-        <v>3.6883167401240015E-2</v>
+        <v>6.9676653519004672E-4</v>
       </c>
       <c r="L9">
         <f>K9*K6*EXP(-za*zf)/(1-EXP(-za*(1+zf)))</f>
-        <v>4.4863549384493329E-2</v>
+        <v>1.5816938562795437E-4</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -9874,31 +13651,31 @@
       </c>
       <c r="F10">
         <f>1*EXP(-za*zf)</f>
-        <v>0.74081822068171788</v>
+        <v>0.73958912756731154</v>
       </c>
       <c r="G10">
         <f>F10*EXP(-(m+feh*F4)-zf*(m+feh*va))</f>
-        <v>0.40656929775065059</v>
+        <v>0.39169357145603911</v>
       </c>
       <c r="H10">
         <f>G10*EXP(-(m+feh*G4)-zf*(m+feh*va))</f>
-        <v>0.22312842775206371</v>
+        <v>0.16328928050925487</v>
       </c>
       <c r="I10">
         <f>H10*EXP(-(m+feh*H4)-zf*(m+feh*va))</f>
-        <v>0.12245247934273581</v>
+        <v>3.3654368554910434E-2</v>
       </c>
       <c r="J10">
         <f>I10*EXP(-(m+feh*I4)-zf*(m+feh*va))</f>
-        <v>6.7200932840656008E-2</v>
+        <v>4.3930641558250633E-3</v>
       </c>
       <c r="K10">
         <f>J10*EXP(-(m+feh*J4)-zf*(m+feh*va))</f>
-        <v>3.687950932599246E-2</v>
+        <v>6.9669742983399156E-4</v>
       </c>
       <c r="L10">
         <f>K10*EXP(-(m+feh*K4)-zf*(m+feh*va))/(1-EXP(-(m+feh*K4)-zf*(m+feh*va)))</f>
-        <v>4.4856397189545878E-2</v>
+        <v>1.5814842328015408E-4</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -9907,38 +13684,38 @@
       </c>
       <c r="B11">
         <f>SUMPRODUCT(lz,fa)</f>
-        <v>1.284804142718704</v>
+        <v>0.6542350520999165</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11">
         <f>1*EXP(-za*zf)</f>
-        <v>0.74081822068171788</v>
+        <v>0.73958912756731154</v>
       </c>
       <c r="G11">
         <f>F11*EXP(-(m+fem*F4)-zf*(m+fem*va))</f>
-        <v>0.40657002173086998</v>
+        <v>0.39169426894696963</v>
       </c>
       <c r="H11">
         <f>G11*EXP(-(m+fem*G4)-zf*(m+fem*va))</f>
-        <v>0.2231318925582465</v>
+        <v>0.16329181611493448</v>
       </c>
       <c r="I11">
         <f>H11*EXP(-(m+fem*H4)-zf*(m+fem*va))</f>
-        <v>0.1224603772905745</v>
+        <v>3.3656539196524365E-2</v>
       </c>
       <c r="J11">
         <f>I11*EXP(-(m+fem*I4)-zf*(m+fem*va))</f>
-        <v>6.7210092950974257E-2</v>
+        <v>4.3936629712075514E-3</v>
       </c>
       <c r="K11">
         <f>J11*EXP(-(m+fem*J4)-zf*(m+fem*va))</f>
-        <v>3.688682583933172E-2</v>
+        <v>6.968356474006559E-4</v>
       </c>
       <c r="L11">
         <f>K11*EXP(-(m+fem*K4)-zf*(m+fem*va))/(1-EXP(-(m+fem*K4)-zf*(m+fem*va)))</f>
-        <v>4.4870702809224818E-2</v>
+        <v>1.5819035078684424E-4</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -9947,7 +13724,7 @@
       </c>
       <c r="B12">
         <f>ro*(kappa-phie/phif)/(kappa-1)</f>
-        <v>3598.1</v>
+        <v>2980.029924756494</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
@@ -9958,27 +13735,27 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>-3.6198994857183919E-2</v>
+        <v>-3.4874531001927167E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>-0.17323963661663996</v>
+        <v>-0.12677979181197063</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>-0.39489102461320863</v>
+        <v>-0.10853033072522054</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>-0.45798990937762069</v>
+        <v>-2.9939748892766901E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>-0.36580752475548478</v>
+        <v>-6.9105356055153963E-3</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>-0.71521949474503954</v>
+        <v>-2.0962347800287939E-3</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -9987,7 +13764,7 @@
       </c>
       <c r="B13">
         <f>SUMPRODUCT(lz,qa)</f>
-        <v>1.1116714111708506</v>
+        <v>0.26380905008660777</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
@@ -9998,27 +13775,27 @@
       </c>
       <c r="G13">
         <f>F13*F6*EXP(-zf*za)+F9*(-F4-zf*G4)*EXP(-F5-zf*G5)</f>
-        <v>-3.6199010968936185E-2</v>
+        <v>-3.4874546523911157E-2</v>
       </c>
       <c r="H13">
         <f>G13*G6*EXP(-zf*za)+G9*(-G4-zf*H4)*EXP(-G5-zf*H5)</f>
-        <v>-0.17324030913671426</v>
+        <v>-0.12678028397873353</v>
       </c>
       <c r="I13">
         <f>H13*H6*EXP(-zf*za)+H9*(-H4-zf*I4)*EXP(-H5-zf*I5)</f>
-        <v>-0.39489739186507344</v>
+        <v>-0.1085320806776173</v>
       </c>
       <c r="J13">
         <f>I13*I6*EXP(-zf*za)+I9*(-I4-zf*J4)*EXP(-I5-zf*J5)</f>
-        <v>-0.45800551555698454</v>
+        <v>-2.9940769101144002E-2</v>
       </c>
       <c r="K13">
         <f>J13*J6*EXP(-zf*za)+J9*(-J4-zf*K4)*EXP(-J5-zf*K5)</f>
-        <v>-0.36582566636266511</v>
+        <v>-6.9108783218692496E-3</v>
       </c>
       <c r="L13">
         <f>K13*K6*EXP(-zf*za)/(1-EXP(-za-zf*za))+K9*(-K4-zf*L4)*EXP(-K5-zf*za)/(1-EXP(-za-zf*za))  + K9*EXP(-K5-zf*za)*(-L4-zf*L4)*EXP(-za-zf*za)/(1-EXP(-za-zf*za))^2</f>
-        <v>-0.71528098006477769</v>
+        <v>-2.0963753281322936E-3</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -10030,27 +13807,27 @@
       </c>
       <c r="G14">
         <f>F14*F6+F9*F4^2*F6</f>
-        <v>9.457375356813622E-6</v>
+        <v>9.4260198854993641E-6</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:L14" si="4">G14*G6+G9*G4^2*G6</f>
-        <v>2.1771988800602213E-3</v>
+        <v>2.0277404723394554E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>6.1615446307810566E-2</v>
+        <v>3.5687640957015029E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>0.35475337405067098</v>
+        <v>5.3233895421921938E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>0.41428902578954974</v>
+        <v>2.4557089487625812E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>0.35739137703902596</v>
+        <v>1.111627869043009E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -10059,7 +13836,7 @@
       </c>
       <c r="B15">
         <f>SUMPRODUCT(dlz,fa)</f>
-        <v>-4.8957987624255805</v>
+        <v>-0.53165232960459019</v>
       </c>
       <c r="E15" t="s">
         <v>94</v>
@@ -10070,27 +13847,27 @@
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>3.2224223289745164E-3</v>
+        <v>3.1047386883642498E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>0.13450462965636231</v>
+        <v>9.8433761142047146E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>1.273464250717282</v>
+        <v>0.34999426967718955</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>3.1213069628943653</v>
+        <v>0.20404632844472911</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>3.6284415055876091</v>
+        <v>6.8545540337500141E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>12.297840384922763</v>
+        <v>2.8110895772606722E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -10099,38 +13876,38 @@
       </c>
       <c r="B16">
         <f>SUM(dqa)</f>
-        <v>-6.9966384244772097</v>
+        <v>-0.55841451664336661</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:L16" si="6">wa*va/za*oa</f>
-        <v>3.6297799289131869E-3</v>
+        <v>3.6269183380191247E-3</v>
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
-        <v>0.10162711711501336</v>
+        <v>0.10000587887287199</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>0.89788797377346286</v>
+        <v>0.80268742089829914</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>3.2172395477845099</v>
+        <v>2.3166548937844946</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>3.4071067974084204</v>
+        <v>2.4952637800042492</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.8874032776121732</v>
+        <v>2.2574922904934054</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>3.0731721980718283</v>
+        <v>2.4027341792876054</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -10139,38 +13916,38 @@
       </c>
       <c r="B17">
         <f>ro*phie*dphif/(phif^2*(kappa-1))</f>
-        <v>-2443.5738966452454</v>
+        <v>-1023.3775352790319</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
       </c>
       <c r="F17">
         <f t="shared" ref="F17:L17" si="7">wa*oa*va/za*dlz+lz*wa*va^p*sa/za - lz*wa*va^p*oa/za^2</f>
-        <v>-5.3026556992476152E-6</v>
+        <v>-5.2881506786343045E-6</v>
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>-5.3448902549372342E-3</v>
+        <v>-5.0578219144214939E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="7"/>
-        <v>-0.21289044396114773</v>
+        <v>-0.13770658453316434</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
-        <v>-1.6159420591272251</v>
+        <v>-0.31115669441095828</v>
       </c>
       <c r="J17">
         <f t="shared" si="7"/>
-        <v>-1.7502052960696139</v>
+        <v>-8.2707044075783623E-2</v>
       </c>
       <c r="K17">
         <f t="shared" si="7"/>
-        <v>-1.1250479655896308</v>
+        <v>-1.6521669583537523E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>-2.2872024668189561</v>
+        <v>-5.2594139748226082E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -10187,7 +13964,7 @@
       </c>
       <c r="B20">
         <f>fe*re*phiq</f>
-        <v>0</v>
+        <v>314.46354547187036</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -10196,7 +13973,7 @@
       </c>
       <c r="B21">
         <f>re*phiq+fe*re*dphiq+fe*phiq*dre</f>
-        <v>3999.9049045338375</v>
+        <v>12.531573488635388</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -10224,11 +14001,11 @@
       </c>
       <c r="E28">
         <f>ye</f>
-        <v>0</v>
+        <v>314.46354547187036</v>
       </c>
       <c r="F28">
         <f>dye</f>
-        <v>3999.9049045338375</v>
+        <v>12.531573488635388</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -10663,8 +14440,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10878,8 +14656,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Allocation(2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Allocation Mar" sheetId="8" r:id="rId3"/>
     <sheet name="Allocation" sheetId="3" r:id="rId4"/>
     <sheet name="SingleFleet" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
@@ -20,30 +20,31 @@
     <definedName name="age" localSheetId="5">Sheet5!$G$1:$M$1</definedName>
     <definedName name="age">SingleFleet!$F$1:$L$1</definedName>
     <definedName name="ah" localSheetId="3">Allocation!$E$6:$E$7</definedName>
-    <definedName name="ah" localSheetId="2">'Allocation(2)'!$E$6:$E$7</definedName>
+    <definedName name="ah" localSheetId="2">'Allocation Mar'!$E$6:$E$7</definedName>
     <definedName name="ah">Sheet2!$E$6:$E$7</definedName>
-    <definedName name="ak" localSheetId="2">'Allocation(2)'!$B$12:$C$12</definedName>
+    <definedName name="ak" localSheetId="2">'Allocation Mar'!$B$10:$C$10</definedName>
     <definedName name="ak">Allocation!$B$9:$C$9</definedName>
+    <definedName name="akdYe">'Allocation Mar'!$B$31:$C$31</definedName>
     <definedName name="B">Sheet1!$B$1</definedName>
     <definedName name="beta">FlakLake!$B$15</definedName>
     <definedName name="ca">Sheet5!$G$6:$M$6</definedName>
     <definedName name="Ct">Sheet5!$B$2</definedName>
     <definedName name="ddphif" localSheetId="3">Allocation!$B$22:$C$22</definedName>
-    <definedName name="ddphif" localSheetId="2">'Allocation(2)'!$B$25:$C$25</definedName>
+    <definedName name="ddphif" localSheetId="2">'Allocation Mar'!$B$22:$C$22</definedName>
     <definedName name="ddphif">Sheet2!$B$22:$C$22</definedName>
     <definedName name="ddphiq" localSheetId="3">Allocation!$B$25:$C$25</definedName>
-    <definedName name="ddphiq" localSheetId="2">'Allocation(2)'!$B$28:$C$28</definedName>
+    <definedName name="ddphiq" localSheetId="2">'Allocation Mar'!$B$25:$C$25</definedName>
     <definedName name="ddphiq">Sheet2!$B$25:$C$25</definedName>
     <definedName name="ddre" localSheetId="3">Allocation!$B$27:$C$27</definedName>
-    <definedName name="ddre" localSheetId="2">'Allocation(2)'!$B$30:$C$30</definedName>
+    <definedName name="ddre" localSheetId="2">'Allocation Mar'!$B$27:$C$27</definedName>
     <definedName name="ddre">Sheet2!$B$27:$C$27</definedName>
     <definedName name="delta" localSheetId="3">Allocation!$B$39:$C$39</definedName>
-    <definedName name="delta" localSheetId="2">'Allocation(2)'!#REF!</definedName>
+    <definedName name="delta" localSheetId="2">'Allocation Mar'!$B$37:$C$37</definedName>
     <definedName name="delta">Sheet2!$B$37:$C$37</definedName>
     <definedName name="dfe" localSheetId="6">FlakLake!$B$22</definedName>
     <definedName name="dfe">SingleFleet!$B$19</definedName>
     <definedName name="dh" localSheetId="3">Allocation!$B$14</definedName>
-    <definedName name="dh" localSheetId="2">'Allocation(2)'!$B$17</definedName>
+    <definedName name="dh" localSheetId="2">'Allocation Mar'!$B$13</definedName>
     <definedName name="dh" localSheetId="6">FlakLake!$B$6</definedName>
     <definedName name="dh" localSheetId="4">SingleFleet!$B$6</definedName>
     <definedName name="dh">Sheet2!$B$13</definedName>
@@ -52,43 +53,43 @@
     <definedName name="dlz" localSheetId="6">FlakLake!$F$15:$L$15</definedName>
     <definedName name="dlz">SingleFleet!$F$13:$L$13</definedName>
     <definedName name="dphif" localSheetId="3">Allocation!$B$21:$C$21</definedName>
-    <definedName name="dphif" localSheetId="2">'Allocation(2)'!$B$24:$C$24</definedName>
+    <definedName name="dphif" localSheetId="2">'Allocation Mar'!$B$21:$C$21</definedName>
     <definedName name="dphif" localSheetId="6">FlakLake!$B$16</definedName>
     <definedName name="dphif" localSheetId="4">SingleFleet!$B$15</definedName>
     <definedName name="dphif">Sheet2!$B$21:$C$21</definedName>
     <definedName name="dphiq" localSheetId="3">Allocation!$B$24:$C$24</definedName>
-    <definedName name="dphiq" localSheetId="2">'Allocation(2)'!$B$27:$C$27</definedName>
+    <definedName name="dphiq" localSheetId="2">'Allocation Mar'!$B$24:$C$24</definedName>
     <definedName name="dphiq" localSheetId="6">FlakLake!$B$17</definedName>
     <definedName name="dphiq" localSheetId="4">SingleFleet!$B$16</definedName>
     <definedName name="dphiq">Sheet2!$B$24:$C$24</definedName>
     <definedName name="dqa" localSheetId="6">FlakLake!$F$20:$L$20</definedName>
     <definedName name="dqa">SingleFleet!$F$17:$L$17</definedName>
     <definedName name="dre" localSheetId="3">Allocation!$B$26:$C$26</definedName>
-    <definedName name="dre" localSheetId="2">'Allocation(2)'!$B$29:$C$29</definedName>
+    <definedName name="dre" localSheetId="2">'Allocation Mar'!$B$26:$C$26</definedName>
     <definedName name="dre" localSheetId="6">FlakLake!$B$18</definedName>
     <definedName name="dre" localSheetId="4">SingleFleet!$B$17</definedName>
     <definedName name="dre">Sheet2!$B$26:$C$26</definedName>
     <definedName name="dta" localSheetId="3">Allocation!$B$47:$C$47</definedName>
-    <definedName name="dta" localSheetId="2">'Allocation(2)'!$B$41:$C$41</definedName>
+    <definedName name="dta" localSheetId="2">'Allocation Mar'!$B$45:$C$45</definedName>
     <definedName name="dta">Sheet2!$B$45:$C$45</definedName>
-    <definedName name="dYe" localSheetId="2">'Allocation(2)'!$B$33:$C$33</definedName>
+    <definedName name="dYe" localSheetId="2">'Allocation Mar'!$B$30:$C$30</definedName>
     <definedName name="dye" localSheetId="6">FlakLake!$B$24</definedName>
     <definedName name="dye" localSheetId="4">SingleFleet!$B$21</definedName>
     <definedName name="dYe">Allocation!$B$30:$C$30</definedName>
     <definedName name="f" localSheetId="3">Allocation!$B$20:$C$20</definedName>
-    <definedName name="f" localSheetId="2">'Allocation(2)'!$B$23:$C$23</definedName>
+    <definedName name="f" localSheetId="2">'Allocation Mar'!$B$20:$C$20</definedName>
     <definedName name="f">Sheet2!$B$20:$C$20</definedName>
     <definedName name="f_1">Sheet1!$B$3</definedName>
     <definedName name="f_2">Sheet1!$B$4</definedName>
     <definedName name="fa" localSheetId="3">Allocation!$G$3:$Z$3</definedName>
-    <definedName name="fa" localSheetId="2">'Allocation(2)'!$G$3:$Z$3</definedName>
+    <definedName name="fa" localSheetId="2">'Allocation Mar'!$G$3:$Z$3</definedName>
     <definedName name="fa" localSheetId="6">FlakLake!$F$3:$L$3</definedName>
     <definedName name="fa" localSheetId="4">SingleFleet!$F$3:$L$3</definedName>
     <definedName name="fa">Sheet2!$G$3:$Z$3</definedName>
-    <definedName name="favg">'Allocation(2)'!$D$23</definedName>
-    <definedName name="fbar">'Allocation(2)'!$D$42</definedName>
+    <definedName name="favg">#REF!</definedName>
+    <definedName name="fbar">Allocation!$D$48</definedName>
     <definedName name="fe" localSheetId="3">Allocation!$B$6:$B$7</definedName>
-    <definedName name="fe" localSheetId="2">'Allocation(2)'!$B$6:$B$7</definedName>
+    <definedName name="fe" localSheetId="2">'Allocation Mar'!$B$6:$B$7</definedName>
     <definedName name="fe" localSheetId="6">FlakLake!$B$4</definedName>
     <definedName name="fe" localSheetId="4">SingleFleet!$B$4</definedName>
     <definedName name="fe">Sheet2!$B$6:$B$7</definedName>
@@ -97,32 +98,32 @@
     <definedName name="fem" localSheetId="6">FlakLake!$B$8</definedName>
     <definedName name="fem">SingleFleet!$B$8</definedName>
     <definedName name="fiter" localSheetId="3">Allocation!$B$40:$C$40</definedName>
-    <definedName name="fiter" localSheetId="2">'Allocation(2)'!#REF!</definedName>
+    <definedName name="fiter" localSheetId="2">'Allocation Mar'!$B$38:$C$38</definedName>
     <definedName name="fiter">Sheet2!$B$38:$C$38</definedName>
+    <definedName name="fstp">'Allocation Mar'!$B$36:$C$36</definedName>
     <definedName name="ft">Sheet5!$B$3</definedName>
     <definedName name="h" localSheetId="3">Allocation!$B$2</definedName>
-    <definedName name="h" localSheetId="2">'Allocation(2)'!$B$2</definedName>
+    <definedName name="h" localSheetId="2">'Allocation Mar'!$B$2</definedName>
     <definedName name="h" localSheetId="6">FlakLake!$B$2</definedName>
     <definedName name="h" localSheetId="4">SingleFleet!$B$2</definedName>
     <definedName name="h">Sheet2!$B$2</definedName>
     <definedName name="kappa" localSheetId="6">FlakLake!$B$5</definedName>
     <definedName name="kappa">SingleFleet!$B$5</definedName>
-    <definedName name="lambda" localSheetId="2">'Allocation(2)'!$B$14:$C$14</definedName>
     <definedName name="lambda">Allocation!$B$11:$C$11</definedName>
     <definedName name="lw">FlakLake!$F$10:$L$10</definedName>
     <definedName name="lx" localSheetId="3">Allocation!$G$4:$Z$4</definedName>
-    <definedName name="lx" localSheetId="2">'Allocation(2)'!$G$4:$Z$4</definedName>
+    <definedName name="lx" localSheetId="2">'Allocation Mar'!$G$4:$Z$4</definedName>
     <definedName name="lx" localSheetId="6">FlakLake!$F$8:$L$8</definedName>
     <definedName name="lx" localSheetId="4">SingleFleet!$F$8:$L$8</definedName>
     <definedName name="lx">Sheet2!$G$4:$Z$4</definedName>
     <definedName name="lYe">Allocation!$B$31:$C$31</definedName>
     <definedName name="lz" localSheetId="3">Allocation!$G$14:$Z$14</definedName>
-    <definedName name="lz" localSheetId="2">'Allocation(2)'!$G$14:$Z$14</definedName>
+    <definedName name="lz" localSheetId="2">'Allocation Mar'!$G$14:$Z$14</definedName>
     <definedName name="lz" localSheetId="6">FlakLake!$F$9:$L$9</definedName>
     <definedName name="lz" localSheetId="4">SingleFleet!$F$9:$L$9</definedName>
     <definedName name="lz">Sheet2!$G$14:$Z$14</definedName>
     <definedName name="m" localSheetId="3">Allocation!$B$3</definedName>
-    <definedName name="m" localSheetId="2">'Allocation(2)'!$B$3</definedName>
+    <definedName name="m" localSheetId="2">'Allocation Mar'!$B$3</definedName>
     <definedName name="m" localSheetId="6">FlakLake!$B$3</definedName>
     <definedName name="m" localSheetId="1">Sheet2!$B$3</definedName>
     <definedName name="m" localSheetId="5">Sheet5!$B$1</definedName>
@@ -130,7 +131,7 @@
     <definedName name="M">Sheet1!$B$2</definedName>
     <definedName name="na">Sheet5!$G$3:$M$3</definedName>
     <definedName name="oa" localSheetId="3">Allocation!$G$10:$Z$10</definedName>
-    <definedName name="oa" localSheetId="2">'Allocation(2)'!$G$10:$Z$10</definedName>
+    <definedName name="oa" localSheetId="2">'Allocation Mar'!$G$10:$Z$10</definedName>
     <definedName name="oa" localSheetId="6">FlakLake!$F$7:$L$7</definedName>
     <definedName name="oa" localSheetId="4">SingleFleet!$F$7:$L$7</definedName>
     <definedName name="oa">Sheet2!$G$10:$Z$10</definedName>
@@ -139,67 +140,66 @@
     <definedName name="phef" localSheetId="6">FlakLake!$B$11</definedName>
     <definedName name="phef">SingleFleet!$B$11</definedName>
     <definedName name="phie" localSheetId="3">Allocation!$B$18</definedName>
-    <definedName name="phie" localSheetId="2">'Allocation(2)'!$B$21</definedName>
+    <definedName name="phie" localSheetId="2">'Allocation Mar'!$B$18</definedName>
     <definedName name="phie" localSheetId="6">FlakLake!$B$10</definedName>
     <definedName name="phie" localSheetId="4">SingleFleet!$B$10</definedName>
     <definedName name="phie">Sheet2!$B$18</definedName>
     <definedName name="phif" localSheetId="3">Allocation!$B$19</definedName>
-    <definedName name="phif" localSheetId="2">'Allocation(2)'!$B$22</definedName>
+    <definedName name="phif" localSheetId="2">'Allocation Mar'!$B$19</definedName>
     <definedName name="phif" localSheetId="6">FlakLake!$B$11</definedName>
     <definedName name="phif" localSheetId="4">SingleFleet!$B$11</definedName>
     <definedName name="phif">Sheet2!$B$19</definedName>
     <definedName name="phiq" localSheetId="3">Allocation!$B$23:$C$23</definedName>
-    <definedName name="phiq" localSheetId="2">'Allocation(2)'!$B$26:$C$26</definedName>
+    <definedName name="phiq" localSheetId="2">'Allocation Mar'!$B$23:$C$23</definedName>
     <definedName name="phiq" localSheetId="6">FlakLake!$B$13</definedName>
     <definedName name="phiq" localSheetId="4">SingleFleet!$B$13</definedName>
     <definedName name="phiq">Sheet2!$B$23:$C$23</definedName>
-    <definedName name="pk" localSheetId="2">'Allocation(2)'!$B$13:$C$13</definedName>
     <definedName name="pk">Allocation!$B$10:$C$10</definedName>
-    <definedName name="plambda">'Allocation(2)'!$B$15:$C$15</definedName>
+    <definedName name="plambda">#REF!</definedName>
     <definedName name="qa" localSheetId="6">FlakLake!$F$19:$L$19</definedName>
     <definedName name="qa">SingleFleet!$F$16:$L$16</definedName>
     <definedName name="re" localSheetId="3">Allocation!$B$17</definedName>
-    <definedName name="re" localSheetId="2">'Allocation(2)'!$B$20</definedName>
+    <definedName name="re" localSheetId="2">'Allocation Mar'!$B$17</definedName>
     <definedName name="re" localSheetId="6">FlakLake!$B$12</definedName>
     <definedName name="re" localSheetId="4">SingleFleet!$B$12</definedName>
     <definedName name="re">Sheet2!$B$17</definedName>
     <definedName name="reck" localSheetId="3">Allocation!$B$8</definedName>
-    <definedName name="reck" localSheetId="2">'Allocation(2)'!$B$8</definedName>
+    <definedName name="reck" localSheetId="2">'Allocation Mar'!$B$8</definedName>
     <definedName name="reck">Sheet2!$B$8</definedName>
     <definedName name="ro" localSheetId="3">Allocation!$B$1</definedName>
-    <definedName name="ro" localSheetId="2">'Allocation(2)'!$B$1</definedName>
+    <definedName name="ro" localSheetId="2">'Allocation Mar'!$B$1</definedName>
     <definedName name="ro" localSheetId="6">FlakLake!$B$1</definedName>
     <definedName name="ro" localSheetId="4">SingleFleet!$B$1</definedName>
     <definedName name="ro">Sheet2!$B$1</definedName>
     <definedName name="sa" localSheetId="3">Allocation!$G$9:$Z$9</definedName>
-    <definedName name="sa" localSheetId="2">'Allocation(2)'!$G$9:$Z$9</definedName>
+    <definedName name="sa" localSheetId="2">'Allocation Mar'!$G$9:$Z$9</definedName>
     <definedName name="sa" localSheetId="6">FlakLake!$F$6:$L$6</definedName>
     <definedName name="sa" localSheetId="4">SingleFleet!$F$6:$L$6</definedName>
     <definedName name="sa">Sheet2!$G$9:$Z$9</definedName>
     <definedName name="so">FlakLake!$B$14</definedName>
     <definedName name="V" localSheetId="3">Allocation!$G$6:$Z$7</definedName>
-    <definedName name="V" localSheetId="2">'Allocation(2)'!$G$6:$Z$7</definedName>
+    <definedName name="V" localSheetId="2">'Allocation Mar'!$G$6:$Z$7</definedName>
     <definedName name="V">Sheet2!$G$6:$Z$7</definedName>
     <definedName name="va" localSheetId="6">FlakLake!$F$4:$L$4</definedName>
     <definedName name="va" localSheetId="5">Sheet5!$G$2:$M$2</definedName>
     <definedName name="va">SingleFleet!$F$4:$L$4</definedName>
     <definedName name="vbk" localSheetId="3">Allocation!$B$4</definedName>
-    <definedName name="vbk" localSheetId="2">'Allocation(2)'!$B$4</definedName>
+    <definedName name="vbk" localSheetId="2">'Allocation Mar'!$B$4</definedName>
     <definedName name="vbk">Sheet2!$B$4</definedName>
     <definedName name="wa" localSheetId="3">Allocation!$G$2:$Z$2</definedName>
-    <definedName name="wa" localSheetId="2">'Allocation(2)'!$G$2:$Z$2</definedName>
+    <definedName name="wa" localSheetId="2">'Allocation Mar'!$G$2:$Z$2</definedName>
     <definedName name="wa" localSheetId="6">FlakLake!$F$2:$L$2</definedName>
     <definedName name="wa" localSheetId="5">Sheet5!$G$4:$M$4</definedName>
     <definedName name="wa" localSheetId="4">SingleFleet!$F$2:$L$2</definedName>
     <definedName name="wa">Sheet2!$G$2:$Z$2</definedName>
-    <definedName name="Ye" localSheetId="2">'Allocation(2)'!$B$32:$C$32</definedName>
+    <definedName name="Ye" localSheetId="2">'Allocation Mar'!$B$29:$C$29</definedName>
     <definedName name="ye" localSheetId="6">FlakLake!$B$23</definedName>
     <definedName name="Ye" localSheetId="1">Sheet2!$B$29:$C$29</definedName>
     <definedName name="ye" localSheetId="4">SingleFleet!$B$20</definedName>
     <definedName name="Ye">Allocation!$B$29:$C$29</definedName>
     <definedName name="Z">Sheet1!$B$5</definedName>
     <definedName name="za" localSheetId="3">Allocation!$G$8:$Z$8</definedName>
-    <definedName name="za" localSheetId="2">'Allocation(2)'!$G$8:$Z$8</definedName>
+    <definedName name="za" localSheetId="2">'Allocation Mar'!$G$8:$Z$8</definedName>
     <definedName name="za" localSheetId="6">FlakLake!$F$5:$L$5</definedName>
     <definedName name="za" localSheetId="5">Sheet5!$G$5:$M$5</definedName>
     <definedName name="za" localSheetId="4">SingleFleet!$F$5:$L$5</definedName>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="109">
   <si>
     <t>B</t>
   </si>
@@ -537,27 +537,23 @@
     <t>spr</t>
   </si>
   <si>
-    <t>lfi</t>
+    <t>akdYe</t>
   </si>
   <si>
-    <t>plambda</t>
+    <t>invJacobian</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4378 3.90</t>
-  </si>
-  <si>
-    <t>allocation</t>
+    <t>fstp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00;\驠"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,16 +612,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,13 +653,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -694,23 +677,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1904">
+  <cellStyleXfs count="1909">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2124,7 +2092,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2616,7 +2589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2629,15 +2602,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="52"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="1413"/>
   </cellXfs>
-  <cellStyles count="1904">
+  <cellStyles count="1909">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
-    <cellStyle name="Check Cell" xfId="1413" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3341,251 +3310,254 @@
     <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1415" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1417" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1419" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1421" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1423" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1425" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1427" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1429" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1431" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1433" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1435" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1437" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1439" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1441" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1443" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1445" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1447" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1449" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1451" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1453" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1455" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1461" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1463" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1471" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1473" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1475" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1477" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1479" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1481" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1483" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1485" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1487" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1489" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1491" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1493" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1495" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1497" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1499" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1501" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1503" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1505" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1507" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1509" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1511" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1513" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1515" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1517" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1519" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1521" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1523" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1525" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1527" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1529" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1531" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1533" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1535" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1537" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1539" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1541" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1543" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1545" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1547" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1549" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1551" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1553" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1555" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1557" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1559" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1561" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1563" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1565" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1567" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1569" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1571" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1573" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1575" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1577" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1579" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1581" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1583" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1585" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1587" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1589" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1591" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1593" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1595" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1597" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1599" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1601" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1603" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1605" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1607" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1609" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1611" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1613" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1615" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1617" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1619" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1621" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1623" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1625" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1627" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1629" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1631" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1633" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1635" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1637" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1639" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1641" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1643" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1645" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1647" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1649" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1651" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1653" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1655" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1657" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1659" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1661" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1663" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1665" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1667" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1669" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1671" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1673" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1675" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1677" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1679" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1681" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1683" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1685" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1687" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1689" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1691" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1693" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1695" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1697" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1699" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1701" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1703" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1705" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1707" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1709" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1711" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1713" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1715" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1717" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1719" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1721" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1723" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1725" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1727" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1729" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1731" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1733" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1735" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1737" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1739" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1741" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1743" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1745" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1747" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1749" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1751" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1753" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1755" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1757" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1759" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1761" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1763" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1765" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1767" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1769" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1771" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1773" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1775" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1777" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1779" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1787" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1789" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1791" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1793" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1795" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1797" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1799" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1801" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1803" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1805" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1807" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1809" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1811" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1813" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1815" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1817" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1819" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1821" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1823" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1825" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1829" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1833" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1835" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1837" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1839" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1841" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1843" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1845" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1847" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1849" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1851" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1853" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1855" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1857" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1859" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1861" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1863" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1865" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1867" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1869" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1871" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1873" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1875" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1877" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1879" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1881" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1883" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1885" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1887" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1889" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1891" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1893" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1895" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1897" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1899" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1901" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1908" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -4290,251 +4262,254 @@
     <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1414" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1416" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1418" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1420" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1422" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1424" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1426" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1428" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1430" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1432" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1434" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1436" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1438" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1440" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1442" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1444" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1446" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1448" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1450" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1452" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1454" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1460" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1462" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1470" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1472" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1474" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1476" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1478" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1480" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1482" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1484" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1486" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1488" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1490" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1492" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1494" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1496" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1498" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1500" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1502" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1504" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1506" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1508" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1510" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1512" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1514" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1516" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1518" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1520" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1522" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1524" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1526" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1528" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1530" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1532" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1534" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1536" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1538" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1540" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1542" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1544" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1546" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1548" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1550" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1552" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1554" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1556" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1558" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1560" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1562" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1564" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1566" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1568" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1570" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1572" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1574" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1576" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1578" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1580" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1582" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1584" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1586" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1588" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1590" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1592" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1594" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1596" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1598" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1600" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1602" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1604" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1606" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1608" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1610" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1612" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1614" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1616" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1618" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1620" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1622" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1624" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1626" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1628" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1630" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1632" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1634" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1636" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1638" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1640" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1642" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1644" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1646" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1648" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1650" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1652" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1654" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1656" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1658" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1660" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1662" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1664" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1666" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1668" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1670" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1672" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1674" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1676" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1678" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1680" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1682" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1684" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1686" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1688" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1690" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1692" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1694" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1696" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1698" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1700" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1702" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1704" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1706" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1708" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1710" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1712" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1714" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1716" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1718" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1720" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1722" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1724" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1726" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1728" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1730" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1732" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1734" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1736" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1738" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1740" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1742" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1744" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1746" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1748" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1750" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1752" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1754" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1756" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1758" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1760" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1762" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1764" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1766" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1768" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1770" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1772" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1774" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1776" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1778" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1786" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1788" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1790" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1792" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1794" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1796" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1798" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1800" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1802" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1804" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1806" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1808" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1810" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1812" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1814" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1816" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1818" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1820" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1822" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1824" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1828" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1832" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1834" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1836" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1838" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1840" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1842" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1844" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1846" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1848" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1850" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1852" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1854" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1856" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1858" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1860" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1862" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1864" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1866" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1868" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1870" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1872" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1874" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1876" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1878" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1880" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1882" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1884" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1886" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1888" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1890" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1892" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1894" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1896" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1898" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1900" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1907" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4816,11 +4791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116479608"/>
-        <c:axId val="2116482136"/>
+        <c:axId val="2142774472"/>
+        <c:axId val="2142775880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116479608"/>
+        <c:axId val="2142774472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,7 +4804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116482136"/>
+        <c:crossAx val="2142775880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4837,7 +4812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116482136"/>
+        <c:axId val="2142775880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4848,13 +4823,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116479608"/>
+        <c:crossAx val="2142774472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4897,7 +4873,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Allocation(2)'!$G$6:$Z$6</c:f>
+              <c:f>'Allocation Mar'!$G$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4974,7 +4950,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Allocation(2)'!$G$7:$Z$7</c:f>
+              <c:f>'Allocation Mar'!$G$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5048,7 +5024,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Allocation(2)'!$F$3</c:f>
+              <c:f>'Allocation Mar'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5062,7 +5038,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Allocation(2)'!$G$3:$Z$3</c:f>
+              <c:f>'Allocation Mar'!$G$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5141,11 +5117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116565592"/>
-        <c:axId val="2116568568"/>
+        <c:axId val="-2137736984"/>
+        <c:axId val="-2137734008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116565592"/>
+        <c:axId val="-2137736984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +5130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116568568"/>
+        <c:crossAx val="-2137734008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5162,7 +5138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116568568"/>
+        <c:axId val="-2137734008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5173,7 +5149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116565592"/>
+        <c:crossAx val="-2137736984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5379,11 +5355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116614856"/>
-        <c:axId val="2116617832"/>
+        <c:axId val="2142859016"/>
+        <c:axId val="2142861992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116614856"/>
+        <c:axId val="2142859016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,7 +5368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116617832"/>
+        <c:crossAx val="2142861992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5400,7 +5376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116617832"/>
+        <c:axId val="2142861992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,13 +5387,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116614856"/>
+        <c:crossAx val="2142859016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5710,8 +5687,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116665784"/>
-        <c:axId val="2116668776"/>
+        <c:axId val="2142909752"/>
+        <c:axId val="2142912744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5974,11 +5951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116675112"/>
-        <c:axId val="2116671816"/>
+        <c:axId val="2142919080"/>
+        <c:axId val="2142915784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116665784"/>
+        <c:axId val="2142909752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,12 +5965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116668776"/>
+        <c:crossAx val="2142912744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116668776"/>
+        <c:axId val="2142912744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6004,12 +5981,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116665784"/>
+        <c:crossAx val="2142909752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116671816"/>
+        <c:axId val="2142915784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -6021,12 +5998,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116675112"/>
+        <c:crossAx val="2142919080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116675112"/>
+        <c:axId val="2142919080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,7 +6013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116671816"/>
+        <c:crossAx val="2142915784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6335,8 +6312,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116727848"/>
-        <c:axId val="2116730840"/>
+        <c:axId val="2142971976"/>
+        <c:axId val="2142974968"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -6599,11 +6576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116737176"/>
-        <c:axId val="2116733880"/>
+        <c:axId val="2142981304"/>
+        <c:axId val="2142978008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116727848"/>
+        <c:axId val="2142971976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6613,12 +6590,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116730840"/>
+        <c:crossAx val="2142974968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116730840"/>
+        <c:axId val="2142974968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6629,12 +6606,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116727848"/>
+        <c:crossAx val="2142971976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116733880"/>
+        <c:axId val="2142978008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6646,12 +6623,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116737176"/>
+        <c:crossAx val="2142981304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116737176"/>
+        <c:axId val="2142981304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116733880"/>
+        <c:crossAx val="2142978008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7389,10 +7366,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10137,18 +10114,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="23" width="7.33203125" customWidth="1"/>
@@ -10601,15 +10576,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="11">
-        <v>0.22797681823165919</v>
+        <v>0.22198504671239971</v>
       </c>
       <c r="C6">
         <f>B6+dh</f>
-        <v>0.22797781823165919</v>
+        <v>0.22198604671239971</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
-        <v>0.22797581823165919</v>
+        <v>0.22198404671239971</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -10703,15 +10678,15 @@
         <v>28</v>
       </c>
       <c r="B7" s="11">
-        <v>0.43854729534046094</v>
+        <v>0.22198504671239971</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>0.43854729534046094</v>
+        <v>0.22198504671239971</v>
       </c>
       <c r="D7">
         <f>C7</f>
-        <v>0.43854729534046094</v>
+        <v>0.22198504671239971</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -10805,88 +10780,91 @@
         <f>4*h/(1-h)</f>
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:Z8" si="6">m+SUMPRODUCT(fe,G6:G7)</f>
-        <v>0.30020908417921827</v>
+        <v>0.3001647538788268</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>0.3018722084310474</v>
+        <v>0.30166105125303944</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>0.31873570152688419</v>
+        <v>0.31756919330186456</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.4199425293205708</v>
+        <v>0.41400639589816735</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.53450184767714792</v>
+        <v>0.51720239799642365</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.61123156723135752</v>
+        <v>0.56341378719340385</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>0.74712444518705745</v>
+        <v>0.63285486147706049</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0.8817332000521434</v>
+        <v>0.70104556247072436</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>0.94270432802117732</v>
+        <v>0.73191253324704664</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>0.96056992362876259</v>
+        <v>0.74095615297711181</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.96508231283882773</v>
+        <v>0.74324027618442579</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>0.96617771952979492</v>
+        <v>0.74379475453928123</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>0.96644105006916292</v>
+        <v>0.74392804809995428</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>0.96650420445642038</v>
+        <v>0.74396001577371207</v>
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>0.96651934216770663</v>
+        <v>0.74396767822238874</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>0.96652297009068855</v>
+        <v>0.74396951461429017</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>0.96652383953507004</v>
+        <v>0.74396995471198923</v>
       </c>
       <c r="X8">
         <f t="shared" si="6"/>
-        <v>0.96652404789882618</v>
+        <v>0.7439700601821152</v>
       </c>
       <c r="Y8">
         <f t="shared" si="6"/>
-        <v>0.96652409783344551</v>
+        <v>0.74397008545815491</v>
       </c>
       <c r="Z8">
         <f t="shared" si="6"/>
-        <v>0.96652410980033043</v>
+        <v>0.7439700915155848</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -10895,385 +10873,356 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:Z9" si="7">EXP(-za)</f>
-        <v>0.74066334350384477</v>
+        <v>0.74069617806012866</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="7"/>
-        <v>0.73943255209803616</v>
+        <v>0.73958870507489516</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="7"/>
-        <v>0.72706768679386902</v>
+        <v>0.72791631209862906</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="7"/>
-        <v>0.65708458182730223</v>
+        <v>0.66099672358465955</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="7"/>
-        <v>0.58596111534276785</v>
+        <v>0.59618610854786458</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="7"/>
-        <v>0.54268210784575455</v>
+        <v>0.56926240229655334</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.47372682348444495</v>
+        <v>0.53107349350122179</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="7"/>
-        <v>0.41406463255794207</v>
+        <v>0.49606636417342198</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38957287667761381</v>
+        <v>0.48098820392235364</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38267472844458045</v>
+        <v>0.47665793965636655</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38095184122124304</v>
+        <v>0.47557043666267168</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38053477249707252</v>
+        <v>0.47530681624199572</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38043457926273078</v>
+        <v>0.47524346512628834</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38041055390864709</v>
+        <v>0.4752282729410704</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38040479540709715</v>
+        <v>0.47522463154277034</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38040341533030092</v>
+        <v>0.47522375884490692</v>
       </c>
       <c r="W9" s="7">
         <f t="shared" si="7"/>
-        <v>0.3804030845908325</v>
+        <v>0.47522354970007014</v>
       </c>
       <c r="X9" s="7">
         <f t="shared" si="7"/>
-        <v>0.3804030053286252</v>
+        <v>0.4752234995781851</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38040298633334646</v>
+        <v>0.47522348756641719</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="7"/>
-        <v>0.38040298178110771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="16" thickBot="1">
+        <v>0.47522348468778425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <f>1-B10</f>
+        <v>0.6</v>
+      </c>
       <c r="F10" t="s">
         <v>61</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:Z10" si="8">1-sa</f>
-        <v>0.25933665649615523</v>
+        <v>0.25930382193987134</v>
       </c>
       <c r="H10">
         <f t="shared" si="8"/>
-        <v>0.26056744790196384</v>
+        <v>0.26041129492510484</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
-        <v>0.27293231320613098</v>
+        <v>0.27208368790137094</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.34291541817269777</v>
+        <v>0.33900327641534045</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.41403888465723215</v>
+        <v>0.40381389145213542</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.45731789215424545</v>
+        <v>0.43073759770344666</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>0.52627317651555505</v>
+        <v>0.46892650649877821</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>0.58593536744205799</v>
+        <v>0.50393363582657802</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0.61042712332238613</v>
+        <v>0.51901179607764636</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
-        <v>0.61732527155541961</v>
+        <v>0.5233420603436334</v>
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>0.61904815877875696</v>
+        <v>0.52442956333732837</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>0.61946522750292754</v>
+        <v>0.52469318375800422</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>0.61956542073726917</v>
+        <v>0.52475653487371166</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0.61958944609135291</v>
+        <v>0.5247717270589296</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
-        <v>0.61959520459290285</v>
+        <v>0.52477536845722961</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>0.61959658466969914</v>
+        <v>0.52477624115509314</v>
       </c>
       <c r="W10">
         <f t="shared" si="8"/>
-        <v>0.6195969154091675</v>
+        <v>0.52477645029992992</v>
       </c>
       <c r="X10">
         <f t="shared" si="8"/>
-        <v>0.61959699467137486</v>
+        <v>0.5247765004218149</v>
       </c>
       <c r="Y10">
         <f t="shared" si="8"/>
-        <v>0.61959701366665354</v>
+        <v>0.52477651243358281</v>
       </c>
       <c r="Z10">
         <f t="shared" si="8"/>
-        <v>0.61959701821889235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17" thickTop="1" thickBot="1">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="14">
-        <f>Ye/SUM(Ye)</f>
-        <v>0.65806690320872352</v>
-      </c>
-      <c r="C11" s="14">
-        <f>Ye/SUM(Ye)</f>
-        <v>0.34193309679127654</v>
-      </c>
+        <v>0.5247765153122157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:Z11" si="9">wa*G6/za*(1-EXP(-za))</f>
-        <v>2.844223496420916E-6</v>
+        <v>2.8442833903233952E-6</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>2.0700736711258333E-4</v>
+        <v>2.0702812615141169E-4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="9"/>
-        <v>5.9662347280344486E-3</v>
+        <f>wa*I6/za*(1-EXP(-za))</f>
+        <v>5.9695312604443451E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>6.817793756504241E-2</v>
+        <v>6.8366532256935564E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>0.18081326523765018</v>
+        <v>0.1822464573414547</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
-        <v>0.25360946590052708</v>
+        <v>0.2591423262633164</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.30106498730197689</v>
+        <v>0.31669603389935391</v>
       </c>
       <c r="N11">
         <f t="shared" si="9"/>
-        <v>0.33780838059701218</v>
+        <v>0.36541384875993488</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.37657343422056988</v>
+        <v>0.41239121198241591</v>
       </c>
       <c r="P11">
         <f t="shared" si="9"/>
-        <v>0.4154589813049912</v>
+        <v>0.45660031959900554</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.45097638740561641</v>
+        <v>0.4960799257272403</v>
       </c>
       <c r="R11">
         <f t="shared" si="9"/>
-        <v>0.48200968294632307</v>
+        <v>0.53033239800175513</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>0.5085805890129903</v>
+        <v>0.55959638548245694</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>0.5310807456769524</v>
+        <v>0.58436086892961103</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.54999698374267447</v>
+        <v>0.60517667908113149</v>
       </c>
       <c r="V11">
         <f t="shared" si="9"/>
-        <v>0.56581659787535143</v>
+        <v>0.62258388067067572</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>0.57899268643817248</v>
+        <v>0.63708201072048454</v>
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>0.58993153297591361</v>
+        <v>0.64911835948583985</v>
       </c>
       <c r="Y11">
         <f t="shared" si="9"/>
-        <v>0.59898943296898877</v>
+        <v>0.65908502970573268</v>
       </c>
       <c r="Z11">
         <f t="shared" si="9"/>
-        <v>0.60647408020638927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="16" thickTop="1">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
-      </c>
+        <v>0.66732060052832298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="G12">
         <f t="shared" ref="G12:Z12" si="10">wa*G7/za*(1-EXP(-za))</f>
-        <v>9.7455436915488243E-7</v>
+        <v>9.7457489140442438E-7</v>
       </c>
       <c r="H12">
         <f t="shared" si="10"/>
-        <v>2.4430257123684155E-5</v>
+        <v>2.4432707030000494E-5</v>
       </c>
       <c r="I12">
         <f t="shared" si="10"/>
-        <v>2.5857408560664571E-4</v>
+        <v>2.5871695592476386E-4</v>
       </c>
       <c r="J12">
         <f t="shared" si="10"/>
-        <v>1.8512923914327398E-3</v>
+        <v>1.8564134603684685E-3</v>
       </c>
       <c r="K12">
         <f t="shared" si="10"/>
-        <v>1.0626679566768207E-2</v>
+        <v>1.0710910517549034E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>4.935847827969736E-2</v>
+        <v>5.043530546779787E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="10"/>
-        <v>0.15061575082042619</v>
+        <v>0.1584355967628957</v>
       </c>
       <c r="N12">
         <f t="shared" si="10"/>
-        <v>0.27251517333735675</v>
+        <v>0.29478492558027752</v>
       </c>
       <c r="O12">
         <f t="shared" si="10"/>
-        <v>0.35612182820686061</v>
+        <v>0.38999435170352448</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>0.40981845458665866</v>
+        <v>0.45040123276206284</v>
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
-        <v>0.44949374103755874</v>
+        <v>0.49444899532669961</v>
       </c>
       <c r="R12">
         <f t="shared" si="10"/>
-        <v>0.48162896090688795</v>
+        <v>0.52991350759500733</v>
       </c>
       <c r="S12">
         <f t="shared" si="10"/>
-        <v>0.5084842609125475</v>
+        <v>0.55949039469556361</v>
       </c>
       <c r="T12">
         <f t="shared" si="10"/>
-        <v>0.5310566357503651</v>
+        <v>0.58433434019972386</v>
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>0.54999099976410326</v>
+        <v>0.60517009474633232</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>0.565815122548186</v>
+        <v>0.62258225732679484</v>
       </c>
       <c r="W12">
         <f t="shared" si="10"/>
-        <v>0.57899232464037653</v>
+        <v>0.63708161262414797</v>
       </c>
       <c r="X12">
         <f t="shared" si="10"/>
-        <v>0.58993144463254177</v>
+        <v>0.64911826227912783</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>0.59898941147233398</v>
+        <v>0.65908500605235476</v>
       </c>
       <c r="Z12">
         <f t="shared" si="10"/>
-        <v>0.6064740749903208</v>
+        <v>0.66732059478893513</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <f>(Ye/SUM(Ye))</f>
-        <v>0.65806690320872352</v>
-      </c>
-      <c r="C13">
-        <f>(Ye/SUM(Ye))</f>
-        <v>0.34193309679127654</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="1">
-        <f>ak/pk</f>
-        <v>0.75980116544686893</v>
-      </c>
-      <c r="C14" s="1">
-        <f>ak/pk</f>
-        <v>1.4622743592007736</v>
-      </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
@@ -11283,90 +11232,88 @@
       </c>
       <c r="H14">
         <f>G14*EXP(-m-SUMPRODUCT(G$6:G$7,$B$6:$B$7))</f>
-        <v>0.74066334350384477</v>
+        <v>0.74069617806012866</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:Y14" si="11">H14*EXP(-m-SUMPRODUCT(H$6:H$7,$B$6:$B$7))</f>
-        <v>0.54767058633251231</v>
+        <v>0.54781052718541456</v>
       </c>
       <c r="J14">
         <f t="shared" si="11"/>
-        <v>0.39819358632982166</v>
+        <v>0.39876021867761274</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>0.26164686615984462</v>
+        <v>0.26357919804180441</v>
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
-        <v>0.15331488952096245</v>
+        <v>0.1571422563747103</v>
       </c>
       <c r="M14">
-        <f>L14*EXP(-m-SUMPRODUCT(L$6:L$7,$B$6:$B$7))</f>
-        <v>8.3201247409374887E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.9455178366168453E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
-        <v>3.9414662645186567E-2</v>
+        <v>4.7507274086696E-2</v>
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>1.6320217805574421E-2</v>
+        <v>2.3566760727977511E-2</v>
       </c>
       <c r="P14">
         <f t="shared" si="11"/>
-        <v>6.3579141985228406E-3</v>
+        <v>1.1335333914817763E-2</v>
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>2.4330130893936703E-3</v>
+        <v>5.4030769091539706E-3</v>
       </c>
       <c r="R14">
         <f t="shared" si="11"/>
-        <v>9.2686081611990348E-4</v>
+        <v>2.5695436450083524E-3</v>
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>3.5270276979863845E-4</v>
+        <v>1.2213216091037729E-3</v>
       </c>
       <c r="T14">
         <f t="shared" si="11"/>
-        <v>1.3418032983314481E-4</v>
+        <v>5.804251135440912E-4</v>
       </c>
       <c r="U14">
         <f t="shared" si="11"/>
-        <v>5.1043613595471585E-5</v>
+        <v>2.7583442428118313E-4</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>1.9417235386624289E-5</v>
+        <v>1.3108331264583743E-4</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
-        <v>7.3863826573442556E-6</v>
+        <v>6.2293904557396984E-5</v>
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
-        <v>2.8098027468219851E-6</v>
+        <v>2.960353044844357E-5</v>
       </c>
       <c r="Y14">
         <f t="shared" si="11"/>
-        <v>1.0688574092717094E-6</v>
+        <v>1.4068293339578713E-5</v>
       </c>
       <c r="Z14">
         <f>Y14*EXP(-m-SUMPRODUCT(Y$6:Y$7,$B$6:$B$7))/(1-EXP(-m-SUMPRODUCT(B$6:B$7,Z6:Z7)))</f>
-        <v>6.5622741636216036E-7</v>
+        <v>1.273986779108133E-5</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>0.75992272743886402</v>
-      </c>
-      <c r="C15">
-        <v>1.4618243178015364</v>
+        <f>phif/phie</f>
+        <v>0.39514573861617147</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -11377,93 +11324,82 @@
       </c>
       <c r="H15">
         <f>G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.74066334309442183</v>
+        <v>0.74069617765068774</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:Y15" si="12">H15*EXP(-m-SUMPRODUCT(H$6:H$7,$C$6:$C$7))</f>
-        <v>0.54767058236429411</v>
+        <v>0.54781052321618251</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.39819355323841898</v>
+        <v>0.39876018553912085</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.26164671359260466</v>
+        <v>0.26357904434781471</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.15331465843793943</v>
+        <v>0.15714201952290968</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>8.3201039360524601E-2</v>
+        <v>8.9454954679053303E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>3.9414524694108721E-2</v>
+        <v>4.7507107811527685E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>1.6320144365500437E-2</v>
+        <v>2.3566654678862726E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>6.3578792304032393E-3</v>
+        <v>1.1335271571209518E-2</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>2.4329972749802505E-3</v>
+        <v>5.4030417895352756E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>9.268538647356886E-4</v>
+        <v>2.5695243736303603E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>3.526997718552802E-4</v>
+        <v>1.2213112279746187E-3</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>1.3417905513270244E-4</v>
+        <v>5.8041959956041042E-4</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>5.104307764286707E-5</v>
+        <v>2.7583152804857555E-4</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>1.9417012090661623E-5</v>
+        <v>1.310818052028929E-4</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>7.3862903285034056E-6</v>
+        <v>6.2293125891537613E-5</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>2.8097648148799091E-6</v>
+        <v>2.9603130804944239E-5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>1.0688419110045004E-6</v>
+        <v>1.4068089351499991E-5</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>6.5621684206288718E-7</v>
+        <v>1.2739658788604744E-5</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1">
-        <f>fbar*plambda</f>
-        <v>0.22797681823165919</v>
-      </c>
-      <c r="C16" s="1">
-        <f>fbar*plambda</f>
-        <v>0.43854729534046094</v>
-      </c>
       <c r="F16" t="s">
         <v>66</v>
       </c>
@@ -11473,87 +11409,88 @@
       </c>
       <c r="H16">
         <f>G16*EXP(-m-SUMPRODUCT(G$6:G$7,$D$6:$D$7))</f>
-        <v>0.7406633439132676</v>
+        <v>0.7406961784695697</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:Y16" si="13">H16*EXP(-m-SUMPRODUCT(H$6:H$7,$D$6:$D$7))</f>
-        <v>0.54767059030073062</v>
+        <v>0.54781053115464673</v>
       </c>
       <c r="J16">
         <f t="shared" si="13"/>
-        <v>0.39819361942122711</v>
+        <v>0.39876025181610741</v>
       </c>
       <c r="K16">
         <f t="shared" si="13"/>
-        <v>0.26164701872717361</v>
+        <v>0.2635793517358837</v>
       </c>
       <c r="L16">
         <f t="shared" si="13"/>
-        <v>0.15331512060433383</v>
+        <v>0.15714249322686794</v>
       </c>
       <c r="M16">
         <f t="shared" si="13"/>
-        <v>8.3201455458745424E-2</v>
+        <v>8.9455402053842947E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="13"/>
-        <v>3.9414800596747256E-2</v>
+        <v>4.7507440362446286E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="13"/>
-        <v>1.6320291245978891E-2</v>
+        <v>2.3566866777569518E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>6.3579491668347681E-3</v>
+        <v>1.1335396258768896E-2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="13"/>
-        <v>2.4330289039098847E-3</v>
+        <v>5.4031120290009421E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="13"/>
-        <v>9.2686776755625429E-4</v>
+        <v>2.569562916530879E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>3.527057677674794E-4</v>
+        <v>1.2213319903211664E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="13"/>
-        <v>1.3418160454569688E-4</v>
+        <v>5.8043062758015489E-4</v>
       </c>
       <c r="U16">
         <f t="shared" si="13"/>
-        <v>5.1044149553703617E-5</v>
+        <v>2.7583732054420123E-4</v>
       </c>
       <c r="V16">
         <f t="shared" si="13"/>
-        <v>1.9417458685154871E-5</v>
+        <v>1.310848201061176E-4</v>
       </c>
       <c r="W16">
         <f t="shared" si="13"/>
-        <v>7.386474987339221E-6</v>
+        <v>6.2294683232989712E-5</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>2.8098406792761446E-6</v>
+        <v>2.9603930097338107E-5</v>
       </c>
       <c r="Y16">
         <f t="shared" si="13"/>
-        <v>1.0688729077636446E-6</v>
-      </c>
-      <c r="Z16" s="13">
+        <v>1.4068497330615273E-5</v>
+      </c>
+      <c r="Z16">
         <f>Y16*EXP(-m-SUMPRODUCT(Y$6:Y$7,$D$6:$D$7))/(1-EXP(-m-SUMPRODUCT(D$6:D$7,Z6:Z7)))</f>
-        <v>6.5623799083247893E-7</v>
+        <v>1.2740076797008714E-5</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9.9999999999999995E-7</v>
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <f>ro*(reck-phie/phif)/(reck-1)</f>
+        <v>0.86084437800731195</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>31</v>
@@ -11563,89 +11500,89 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:X17" si="14">(H15-H14)/dh</f>
-        <v>-4.0942293999535195E-4</v>
+        <f t="shared" ref="H17:Y17" si="14">(H15-H14)/dh</f>
+        <v>-4.0944092560835088E-4</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.9682181984801446E-3</v>
+        <v>-3.9692320541462323E-3</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.3091402673601777E-2</v>
+        <v>-3.3138491895012834E-2</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.1525672399527167</v>
+        <v>-0.15369398970177528</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.23108302302232708</v>
+        <v>-0.23685180061683297</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.20804885028646858</v>
+        <v>-0.2236871151500841</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-0.13795107784569938</v>
+        <v>-0.166275168314578</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-7.3440073983938037E-2</v>
+        <v>-0.106049114784873</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.496811960129742E-2</v>
+        <v>-6.2343608244613824E-2</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.5814413419860257E-2</v>
+        <v>-3.5119618694949561E-2</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-6.9513842148845664E-3</v>
+        <v>-1.9271377992100686E-2</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.9979433582437605E-3</v>
+        <v>-1.0381129154218849E-2</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-1.2747004423676288E-3</v>
+        <v>-5.5139836807821876E-3</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-5.3595260451493086E-4</v>
+        <v>-2.896232607582129E-3</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-2.2329596266641716E-4</v>
+        <v>-1.5074429445319486E-3</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-9.2328840849947966E-5</v>
+        <v>-7.7866585937089432E-4</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-3.7931942076030657E-5</v>
+        <v>-3.9964349933069255E-4</v>
       </c>
       <c r="Y17" s="3">
-        <f>(Y15-Y14)/dh</f>
-        <v>-1.5498267208928154E-5</v>
+        <f t="shared" si="14"/>
+        <v>-2.03988078722477E-4</v>
       </c>
       <c r="Z17" s="3">
         <f>(Z15-Z14)/dh</f>
-        <v>-1.0574299273180406E-5</v>
+        <v>-2.0900247658547607E-4</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <f>phif/phie</f>
-        <v>0.35627128424474719</v>
+        <f>SUMPRODUCT(lx,fa)</f>
+        <v>0.53468880128210072</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -11656,85 +11593,88 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
-        <v>-4.0942287344133109E-4</v>
+        <v>-4.0944102368259768E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="15"/>
-        <v>-3.9682181901352183E-3</v>
+        <v>-3.9692321497158279E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="15"/>
-        <v>-3.309140397530716E-2</v>
+        <v>-3.3138493282041256E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="15"/>
-        <v>-0.15256728442311535</v>
+        <v>-0.15369403450486374</v>
       </c>
       <c r="L18">
         <f t="shared" si="15"/>
-        <v>-0.23108319717713016</v>
+        <v>-0.23685197914016906</v>
       </c>
       <c r="M18">
         <f t="shared" si="15"/>
-        <v>-0.2080491103955705</v>
+        <v>-0.22368739482698413</v>
       </c>
       <c r="N18">
         <f t="shared" si="15"/>
-        <v>-0.13795131925815299</v>
+        <v>-0.16627545930343599</v>
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>-7.3440239221979758E-2</v>
+        <v>-0.10604935339518952</v>
       </c>
       <c r="P18">
         <f t="shared" si="15"/>
-        <v>-3.49682157624688E-2</v>
+        <v>-6.2343779688796258E-2</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>-1.5814464816223794E-2</v>
+        <v>-3.5119732833192766E-2</v>
       </c>
       <c r="R18">
         <f t="shared" si="15"/>
-        <v>-6.951410282515458E-3</v>
+        <v>-1.9271450259444985E-2</v>
       </c>
       <c r="S18">
         <f t="shared" si="15"/>
-        <v>-2.9979560994624942E-3</v>
+        <v>-1.038117327376922E-2</v>
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
-        <v>-1.2747064971575944E-3</v>
+        <v>-5.5140098721483885E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="15"/>
-        <v>-5.359554182494344E-4</v>
+        <v>-2.8962478127984434E-3</v>
       </c>
       <c r="V18">
         <f t="shared" si="15"/>
-        <v>-2.2329724661310341E-4</v>
+        <v>-1.5074516123393827E-3</v>
       </c>
       <c r="W18">
         <f t="shared" si="15"/>
-        <v>-9.2329417902820574E-5</v>
+        <v>-7.7867072605012808E-4</v>
       </c>
       <c r="X18">
         <f t="shared" si="15"/>
-        <v>-3.7932198115530941E-5</v>
+        <v>-3.9964619692951607E-4</v>
       </c>
       <c r="Y18">
         <f t="shared" si="15"/>
-        <v>-1.5498379571140493E-5</v>
+        <v>-2.0398955763753585E-4</v>
       </c>
       <c r="Z18">
         <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
-        <v>-1.0574384795113847E-5</v>
+        <v>-2.0900420197627822E-4</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="D19">
-        <f>B15/SUM(plambda)*favg</f>
-        <v>0.11398840911582959</v>
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <f>SUMPRODUCT(lz,fa)</f>
+        <v>0.21128000131241101</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -11744,88 +11684,92 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
-        <v>-1.402860396330637E-4</v>
+        <v>-1.4029225869318672E-4</v>
       </c>
       <c r="I19">
         <f t="shared" si="16"/>
-        <v>-5.3631840774449283E-4</v>
+        <v>-5.364554478873814E-4</v>
       </c>
       <c r="J19">
         <f t="shared" si="16"/>
-        <v>-1.6990654620068959E-3</v>
+        <v>-1.7014832444243913E-3</v>
       </c>
       <c r="K19">
         <f t="shared" si="16"/>
-        <v>-4.6687874890432223E-3</v>
+        <v>-4.7032677297110456E-3</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
-        <v>-1.1062760321026557E-2</v>
+        <v>-1.1338932076398465E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>-2.2088141208048213E-2</v>
+        <v>-2.3748425330945577E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>-3.0171076293757836E-2</v>
+        <v>-3.6365796249006176E-2</v>
       </c>
       <c r="O19">
         <f t="shared" si="16"/>
-        <v>-2.5657946563381218E-2</v>
+        <v>-3.7050650587757611E-2</v>
       </c>
       <c r="P19">
         <f t="shared" si="16"/>
-        <v>-1.6008235164946892E-2</v>
+        <v>-2.8540600787560148E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" si="16"/>
-        <v>-8.525927317378966E-3</v>
+        <v>-1.8933823750671017E-2</v>
       </c>
       <c r="R19">
         <f t="shared" si="16"/>
-        <v>-4.1717813212786212E-3</v>
+        <v>-1.1565462684387866E-2</v>
       </c>
       <c r="S19">
         <f t="shared" si="16"/>
-        <v>-1.939932037893515E-3</v>
+        <v>-6.7175001756428366E-3</v>
       </c>
       <c r="T19">
         <f t="shared" si="16"/>
-        <v>-8.7217214391544136E-4</v>
+        <v>-3.7727632380365928E-3</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
-        <v>-3.8282478469476883E-4</v>
+        <v>-2.0687456598138965E-3</v>
       </c>
       <c r="V19">
         <f t="shared" si="16"/>
-        <v>-1.6504540802525866E-4</v>
+        <v>-1.1142007803972966E-3</v>
       </c>
       <c r="W19">
         <f t="shared" si="16"/>
-        <v>-7.0170200295259369E-5</v>
+        <v>-5.9178842509872835E-4</v>
       </c>
       <c r="X19">
         <f t="shared" si="16"/>
-        <v>-2.9502761629720941E-5</v>
+        <v>-3.1083530799678224E-4</v>
       </c>
       <c r="Y19">
         <f t="shared" si="16"/>
-        <v>-1.2291796438648167E-5</v>
+        <v>-1.6178453409151881E-4</v>
       </c>
       <c r="Z19">
         <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-8.6056958240602576E-6</v>
+        <v>-1.707844680721562E-4</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20">
-        <f>ro*(reck-phie/phif)/(reck-1)</f>
-        <v>0.83574092291652491</v>
+        <f>B6</f>
+        <v>0.22198504671239971</v>
+      </c>
+      <c r="C20">
+        <f>B7</f>
+        <v>0.22198504671239971</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -11835,88 +11779,92 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:Y21" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
-        <v>2.263202179062424E-7</v>
+        <v>2.2633025097186959E-7</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="17"/>
-        <v>2.4699843612087686E-5</v>
+        <v>2.470615491904462E-5</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="17"/>
-        <v>2.3093489071255354E-3</v>
+        <v>2.3126351272908935E-3</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="17"/>
-        <v>6.6929154100893076E-2</v>
+        <v>6.7423443752437168E-2</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="17"/>
-        <v>0.17015463926052943</v>
+        <v>0.17440239515920308</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="17"/>
-        <v>0.17443114554952954</v>
+        <v>0.18754249153228519</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="17"/>
-        <v>0.12200381201984517</v>
+        <v>0.14705361274876602</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="17"/>
-        <v>6.6836199627665002E-2</v>
+        <v>9.6512972029975996E-2</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="17"/>
-        <v>3.239543736645422E-2</v>
+        <v>5.7756850501480363E-2</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="17"/>
-        <v>1.4829926797916936E-2</v>
+        <v>3.293333496460437E-2</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="17"/>
-        <v>6.5763486884156813E-3</v>
+        <v>1.823166400584085E-2</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="17"/>
-        <v>2.8552321203523714E-3</v>
+        <v>9.8869557774791152E-3</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="17"/>
-        <v>1.2204093601914301E-3</v>
+        <v>5.2791362365872379E-3</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="17"/>
-        <v>5.1530021429977335E-4</v>
+        <v>2.784629220607497E-3</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="17"/>
-        <v>2.1543990798051862E-4</v>
+        <v>1.454407707991968E-3</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="17"/>
-        <v>8.934045945157792E-5</v>
+        <v>7.534630024423341E-4</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="17"/>
-        <v>3.6795189100964382E-5</v>
+        <v>3.8766689303676173E-4</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="17"/>
-        <v>1.5065857924913632E-5</v>
+        <v>1.9829671091911057E-4</v>
       </c>
       <c r="Z20" s="4">
         <f>Y20*Y9/oa+2*Y$14*(Y6)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z6^2*sa^2/oa^3 +Y$14*Y$9*Z6^2*sa/oa^2</f>
-        <v>1.0953107595344321E-5</v>
+        <v>2.3507778626202615E-4</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <f>SUMPRODUCT(lx,fa)</f>
-        <v>0.53468880128210072</v>
+        <f>SUMPRODUCT(fa,G18:Z18)</f>
+        <v>-0.45906729022292792</v>
+      </c>
+      <c r="C21">
+        <f>SUMPRODUCT(fa,G19:Z19)</f>
+        <v>-0.10805055992994111</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>59</v>
@@ -11926,493 +11874,493 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="17"/>
-        <v>2.6571009742197889E-8</v>
+        <v>2.6572187669150196E-8</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="17"/>
-        <v>3.6133268908502742E-7</v>
+        <v>3.614250168564176E-7</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="17"/>
-        <v>4.5666752629928879E-6</v>
+        <v>4.5731736748576282E-6</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="17"/>
-        <v>5.1230758309297139E-5</v>
+        <v>5.1609111121509116E-5</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="17"/>
-        <v>4.8228755893305823E-4</v>
+        <v>4.9432742944271915E-4</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="17"/>
-        <v>3.3712216969402293E-3</v>
+        <v>3.6246240002611408E-3</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="17"/>
-        <v>1.1450703807049977E-2</v>
+        <v>1.3801760252121058E-2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="17"/>
-        <v>1.5361393527762862E-2</v>
+        <v>2.2182196955327207E-2</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="17"/>
-        <v>1.1670413700498431E-2</v>
+        <v>2.0806829423704515E-2</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="17"/>
-        <v>6.8333683336002458E-3</v>
+        <v>1.5175099063778792E-2</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="17"/>
-        <v>3.5239606736938893E-3</v>
+        <v>9.7695043277976762E-3</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="17"/>
-        <v>1.6931353872876313E-3</v>
+        <v>5.8629050086939569E-3</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="17"/>
-        <v>7.7825675424039319E-4</v>
+        <v>3.3665125544717033E-3</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="17"/>
-        <v>3.4709606212186838E-4</v>
+        <v>1.8756713273557332E-3</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="17"/>
-        <v>1.5145381936711085E-4</v>
+        <v>1.0224456757207112E-3</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="17"/>
-        <v>6.4999894290509232E-5</v>
+        <v>5.4818405693453636E-4</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" si="17"/>
-        <v>2.7535959521462325E-5</v>
+        <v>2.9011346687688469E-4</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="17"/>
-        <v>1.1543618845716504E-5</v>
+        <v>1.5193702613006452E-4</v>
       </c>
       <c r="Z21" s="4">
         <f>Y21*EXP(-Y$8)/oa+2*Y$14*(Y7)*Y$9*sa/oa^2 + 2*Y$14*Y$9*Z7^2*sa^2/oa^3 +Y$14*Y$9*Z7^2*sa/oa^2</f>
-        <v>8.7906209267635164E-6</v>
+        <v>1.9309570213210932E-4</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <f>SUMPRODUCT(lz,fa)</f>
-        <v>0.19049426590405846</v>
+        <f>SUMPRODUCT(fa,G20:Z20)</f>
+        <v>0.37916357724459171</v>
+      </c>
+      <c r="C22">
+        <f>SUMPRODUCT(fa,G21:Z21)</f>
+        <v>6.4151354343679051E-2</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
         <f>G11*G18+lz*wa*G6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.351063256662056E-6</v>
+        <v>-1.3511021676229991E-6</v>
       </c>
       <c r="H22">
         <f>H11*H18+lz*wa*H6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-7.2894992888035268E-5</v>
+        <v>-7.2908220852422288E-5</v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22:Z22" si="18">I11*I18+lz*wa*I6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-1.5707976497681302E-3</v>
+        <v>-1.5723834448617747E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="18"/>
-        <v>-1.4882842525571413E-2</v>
+        <v>-1.4958618010957206E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="18"/>
-        <v>-4.9143527919776026E-2</v>
+        <v>-4.9967175450824283E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="18"/>
-        <v>-7.6077665574167869E-2</v>
+        <v>-7.9837562757625088E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="18"/>
-        <v>-7.3615553886919122E-2</v>
+        <v>-8.3521769629464782E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="18"/>
-        <v>-5.2292532669696266E-2</v>
+        <v>-6.8433306092444343E-2</v>
       </c>
       <c r="O22">
         <f t="shared" si="18"/>
-        <v>-3.0252723434764706E-2</v>
+        <v>-4.8005638308254411E-2</v>
       </c>
       <c r="P22">
         <f t="shared" si="18"/>
-        <v>-1.5640325697411753E-2</v>
+        <v>-3.0737353205787746E-2</v>
       </c>
       <c r="Q22">
         <f t="shared" si="18"/>
-        <v>-7.5936628356970716E-3</v>
+        <v>-1.8597869559807526E-2</v>
       </c>
       <c r="R22">
         <f t="shared" si="18"/>
-        <v>-3.5386020299966784E-3</v>
+        <v>-1.0817934389444351E-2</v>
       </c>
       <c r="S22">
         <f t="shared" si="18"/>
-        <v>-1.6001646646628947E-3</v>
+        <v>-6.1090067244360825E-3</v>
       </c>
       <c r="T22">
         <f t="shared" si="18"/>
-        <v>-7.0695031506876711E-4</v>
+        <v>-3.3709240260312878E-3</v>
       </c>
       <c r="U22">
         <f t="shared" si="18"/>
-        <v>-3.0658406118800507E-4</v>
+        <v>-1.8259510200359498E-3</v>
       </c>
       <c r="V22">
         <f t="shared" si="18"/>
-        <v>-1.3096716374883327E-4</v>
+        <v>-9.7430668628097734E-4</v>
       </c>
       <c r="W22">
         <f t="shared" si="18"/>
-        <v>-5.5257176998548301E-5</v>
+        <v>-5.1348222427088322E-4</v>
       </c>
       <c r="X22">
         <f t="shared" si="18"/>
-        <v>-2.3074720399920117E-5</v>
+        <v>-2.6784527236792493E-4</v>
       </c>
       <c r="Y22">
         <f t="shared" si="18"/>
-        <v>-9.5527013338463728E-6</v>
+        <v>-1.3851294505184516E-4</v>
       </c>
       <c r="Z22">
         <f t="shared" si="18"/>
-        <v>-6.5805158184183618E-6</v>
+        <v>-1.4320132015623009E-4</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="12">
-        <f>B6</f>
-        <v>0.22797681823165919</v>
-      </c>
-      <c r="C23" s="12">
-        <f>B7</f>
-        <v>0.43854729534046094</v>
-      </c>
-      <c r="D23" s="12">
-        <f>AVERAGE(f)</f>
-        <v>0.33326205678606008</v>
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <f>SUMPRODUCT(lz*G11:Z11)</f>
+        <v>0.18542206809774034</v>
+      </c>
+      <c r="C23">
+        <f>SUMPRODUCT(lz*G12:Z12)</f>
+        <v>5.9504294198978319E-2</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:Z23" si="19">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
-        <v>-4.6293288886808878E-7</v>
+        <v>-4.6294622145149615E-7</v>
       </c>
       <c r="H23">
         <f t="shared" si="19"/>
-        <v>-8.5962270506635169E-6</v>
+        <v>-8.5977872160739734E-6</v>
       </c>
       <c r="I23">
         <f t="shared" si="19"/>
-        <v>-6.7190304347826616E-5</v>
+        <v>-6.7258314844845574E-5</v>
       </c>
       <c r="J23">
         <f t="shared" si="19"/>
-        <v>-3.4600983627406572E-4</v>
+        <v>-3.4782374006835841E-4</v>
       </c>
       <c r="K23">
         <f t="shared" si="19"/>
-        <v>-1.3165723808435028E-3</v>
+        <v>-1.3408226042439292E-3</v>
       </c>
       <c r="L23">
         <f t="shared" si="19"/>
-        <v>-3.9466625077497113E-3</v>
+        <v>-4.1644831208397862E-3</v>
       </c>
       <c r="M23">
         <f t="shared" si="19"/>
-        <v>-8.8194837521140615E-3</v>
+        <v>-1.0106532159143686E-2</v>
       </c>
       <c r="N23">
         <f t="shared" si="19"/>
-        <v>-1.2813432147206696E-2</v>
+        <v>-1.6910781506343009E-2</v>
       </c>
       <c r="O23">
         <f t="shared" si="19"/>
-        <v>-1.1593388416173462E-2</v>
+        <v>-1.8489360112883525E-2</v>
       </c>
       <c r="P23">
         <f t="shared" si="19"/>
-        <v>-7.6578330664297855E-3</v>
+        <v>-1.509505054081791E-2</v>
       </c>
       <c r="Q23">
         <f t="shared" si="19"/>
-        <v>-4.2925456466159839E-3</v>
+        <v>-1.0533620043349963E-2</v>
       </c>
       <c r="R23">
         <f t="shared" si="19"/>
-        <v>-2.1970572077524763E-3</v>
+        <v>-6.7258827884079395E-3</v>
       </c>
       <c r="S23">
         <f t="shared" si="19"/>
-        <v>-1.0618730012603949E-3</v>
+        <v>-4.0580597355787448E-3</v>
       </c>
       <c r="T23">
         <f t="shared" si="19"/>
-        <v>-4.931496816342753E-4</v>
+        <v>-2.3533007902430559E-3</v>
       </c>
       <c r="U23">
         <f t="shared" si="19"/>
-        <v>-2.2236025530383025E-4</v>
+        <v>-1.3251515973265917E-3</v>
       </c>
       <c r="V23">
         <f t="shared" si="19"/>
-        <v>-9.8007051071884432E-5</v>
+        <v>-7.2947315519836134E-4</v>
       </c>
       <c r="W23">
         <f t="shared" si="19"/>
-        <v>-4.2427125554930716E-5</v>
+        <v>-3.9442262574787882E-4</v>
       </c>
       <c r="X23">
         <f t="shared" si="19"/>
-        <v>-1.8101927300924593E-5</v>
+        <v>-2.1019646236210388E-4</v>
       </c>
       <c r="Y23">
         <f t="shared" si="19"/>
-        <v>-7.6319916476483891E-6</v>
+        <v>-1.1069624188159793E-4</v>
       </c>
       <c r="Z23">
         <f t="shared" si="19"/>
-        <v>-5.3865569391583071E-6</v>
+        <v>-1.1769650336303277E-4</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <f>SUMPRODUCT(fa,G18:Z18)</f>
-        <v>-0.362386893582481</v>
+        <f>SUM(G22:Z22)</f>
+        <v>-0.41986710039112274</v>
       </c>
       <c r="C24">
-        <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-6.6984884640302195E-2</v>
+        <f>SUM(G23:Z23)</f>
+        <v>-9.3089672776081822E-2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ref="G24:Z24" si="20">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>2.6820487945064326E-13</v>
+        <v>2.6821365960263372E-13</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="20"/>
-        <v>2.7041488278855059E-9</v>
+        <v>2.7046776699178183E-9</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="20"/>
-        <v>7.6224239744949866E-6</v>
+        <v>7.6307135048239694E-6</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="20"/>
-        <v>3.2356048884670391E-3</v>
+        <v>3.2535327335717068E-3</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="20"/>
-        <v>4.7043568514133466E-2</v>
+        <v>4.7896536419774149E-2</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="20"/>
-        <v>0.1063570864726664</v>
+        <v>0.11201928533910005</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="20"/>
-        <v>0.11422834028992671</v>
+        <v>0.13075878482792214</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="20"/>
-        <v>8.4552282414369684E-2</v>
+        <v>0.11225427887452208</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="20"/>
-        <v>5.0129769787905266E-2</v>
+        <v>8.0913212185490982E-2</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="20"/>
-        <v>2.6374841411077449E-2</v>
+        <v>5.2770698350747255E-2</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="20"/>
-        <v>1.2971783044834621E-2</v>
+        <v>3.2354234391018748E-2</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="20"/>
-        <v>6.1037985544762589E-3</v>
+        <v>1.9006290557755514E-2</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="20"/>
-        <v>2.7809900920466339E-3</v>
+        <v>1.0815118517258596E-2</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="20"/>
-        <v>1.2360018322783166E-3</v>
+        <v>6.003939506489901E-3</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="20"/>
-        <v>5.3862903831874444E-4</v>
+        <v>3.2682238184766968E-3</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="20"/>
-        <v>2.31020817678577E-4</v>
+        <v>1.7510080482952503E-3</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="20"/>
-        <v>9.7802475633587173E-5</v>
+        <v>9.2599476211197506E-4</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="20"/>
-        <v>4.0959493209083775E-5</v>
+        <v>4.8443980722222572E-4</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="20"/>
-        <v>1.6999254859949907E-5</v>
+        <v>2.511571368320585E-4</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="20"/>
-        <v>1.2140638153461183E-5</v>
+        <v>2.8153306857718933E-4</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <f>SUMPRODUCT(fa,G20:Z20)</f>
-        <v>0.29081630442677187</v>
+        <f>SUM(G24:Z24)</f>
+        <v>0.61501590176361709</v>
       </c>
       <c r="C25">
-        <f>SUMPRODUCT(fa,G21:Z21)</f>
-        <v>3.3894497724346107E-2</v>
+        <f>SUM(G25:Z25)</f>
+        <v>0.10561386177572663</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ref="G25:Z25" si="21">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
-        <v>1.0789311546921533E-14</v>
+        <v>1.0789664753751024E-14</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="21"/>
-        <v>6.7024905010085787E-12</v>
+        <v>6.7037484417897258E-12</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="21"/>
-        <v>9.9524170097530477E-10</v>
+        <v>9.9627933308531121E-10</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="21"/>
-        <v>8.8799639248318258E-8</v>
+        <v>8.9279109423762603E-8</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="21"/>
-        <v>5.3770678602778078E-6</v>
+        <v>5.4789216992315494E-6</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="21"/>
-        <v>1.989256658720762E-4</v>
+        <v>2.1032071075924178E-4</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="21"/>
-        <v>2.8217595850226537E-3</v>
+        <v>3.2577999171205449E-3</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="21"/>
-        <v>1.0628400095037991E-2</v>
+        <v>1.423591464491402E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="21"/>
-        <v>1.4116387197515567E-2</v>
+        <v>2.2918508741264533E-2</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="21"/>
-        <v>1.0885274835816068E-2</v>
+        <v>2.1859275399896901E-2</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="21"/>
-        <v>6.5650921053046381E-3</v>
+        <v>1.6414783895545553E-2</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="21"/>
-        <v>3.5008900604810546E-3</v>
+        <v>1.0920332690341697E-2</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="21"/>
-        <v>1.7367283179704901E-3</v>
+        <v>6.7630028518707239E-3</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" si="21"/>
-        <v>8.2125999631027947E-4</v>
+        <v>3.9934997144097893E-3</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="21"/>
-        <v>3.7525000456853851E-4</v>
+        <v>2.2788502372354507E-3</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="21"/>
-        <v>1.6708445630240359E-4</v>
+        <v>1.2673202851302611E-3</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>7.2914648466755174E-5</v>
+        <v>6.9078358413859507E-4</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="21"/>
-        <v>3.1313236981166085E-5</v>
+        <v>3.7055030241484944E-4</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="21"/>
-        <v>1.3273450209485325E-5</v>
+        <v>1.9620318067193693E-4</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="21"/>
-        <v>9.8245893298376492E-6</v>
+        <v>2.3114641620998089E-4</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26">
-        <f>SUMPRODUCT(lz*G11:Z11)</f>
-        <v>0.16575450467747987</v>
+        <f>ro/(reck-1)*phie/phif^2*dphif</f>
+        <v>-0.49988254293678641</v>
       </c>
       <c r="C26">
-        <f>SUMPRODUCT(lz*G12:Z12)</f>
-        <v>4.4772431613819379E-2</v>
+        <f>ro/(reck-1)*phie/phif^2*dphif</f>
+        <v>-0.11765723634392143</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
-        <v>2.6820487945064326E-13</v>
+        <v>2.6821365960263372E-13</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <f>SUM(G22:Z22)</f>
-        <v>-0.32752161159913296</v>
+        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
+        <v>-1.7594059398940818</v>
       </c>
       <c r="C27">
-        <f>SUM(G23:Z23)</f>
-        <v>-5.5008172016160151E-2</v>
+        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
+        <v>-5.0487019821761264E-2</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:Z27" si="22">(G15-2*G14+G16)/dh^2</f>
@@ -12420,7 +12368,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="22"/>
-        <v>-1.1102230246251565E-4</v>
+        <v>1.1102230246251565E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="22"/>
@@ -12432,81 +12380,70 @@
       </c>
       <c r="K27">
         <f t="shared" si="22"/>
-        <v>8.9039886574937555E-2</v>
+        <v>8.9594998087250133E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="22"/>
-        <v>0.34836022955175849</v>
+        <v>0.35701996914383471</v>
       </c>
       <c r="M27">
         <f t="shared" si="22"/>
-        <v>0.52025050933934835</v>
+        <v>0.55934423759396168</v>
       </c>
       <c r="N27">
         <f t="shared" si="22"/>
-        <v>0.48284293230338449</v>
+        <v>0.58197197061460315</v>
       </c>
       <c r="O27">
         <f t="shared" si="22"/>
-        <v>0.33048563885529347</v>
+        <v>0.47722242824121963</v>
       </c>
       <c r="P27">
         <f t="shared" si="22"/>
-        <v>0.19232618969633464</v>
+        <v>0.34288891170852764</v>
       </c>
       <c r="Q27">
         <f t="shared" si="22"/>
-        <v>0.10279450901595766</v>
+        <v>0.22827659901247799</v>
       </c>
       <c r="R27">
         <f t="shared" si="22"/>
-        <v>5.2135921448093203E-2</v>
+        <v>0.1445345579331736</v>
       </c>
       <c r="S27">
         <f t="shared" si="22"/>
-        <v>2.5482708391338926E-2</v>
+        <v>8.8239311690774258E-2</v>
       </c>
       <c r="T27">
         <f t="shared" si="22"/>
-        <v>1.2109698009979408E-2</v>
+        <v>5.2382902702985401E-2</v>
       </c>
       <c r="U27">
         <f t="shared" si="22"/>
-        <v>5.6275174949681206E-3</v>
+        <v>3.0410515685502792E-2</v>
       </c>
       <c r="V27">
         <f t="shared" si="22"/>
-        <v>2.5679159048729722E-3</v>
+        <v>1.7335633796522476E-2</v>
       </c>
       <c r="W27">
         <f t="shared" si="22"/>
-        <v>1.1541154249189271E-3</v>
+        <v>9.7333572408528357E-3</v>
       </c>
       <c r="X27">
         <f t="shared" si="22"/>
-        <v>5.1208350914148069E-4</v>
+        <v>5.3952068507223672E-3</v>
       </c>
       <c r="Y27">
         <f t="shared" si="22"/>
-        <v>2.2472631123603842E-4</v>
+        <v>2.9578373577461223E-3</v>
       </c>
       <c r="Z27">
         <f t="shared" si="22"/>
-        <v>1.7104538644556033E-4</v>
+        <v>3.4507986745868635E-3</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28">
-        <f>SUM(G24:Z24)</f>
-        <v>0.4559592441484267</v>
-      </c>
-      <c r="C28">
-        <f>SUM(G25:Z25)</f>
-        <v>5.1949845114643525E-2</v>
-      </c>
       <c r="F28" t="s">
         <v>30</v>
       </c>
@@ -12519,293 +12456,298 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.48541933428342954</v>
+        <f>f*re*phiq</f>
+        <v>3.5433152126493957E-2</v>
       </c>
       <c r="C29">
-        <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-8.9726639359673954E-2</v>
+        <f>f*re*phiq</f>
+        <v>1.1370948076259458E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <f>B32</f>
-        <v>3.1581132259519119E-2</v>
+        <f>B29</f>
+        <v>3.5433152126493957E-2</v>
       </c>
       <c r="H29">
-        <f>B33</f>
-        <v>5.7782159919073532E-2</v>
+        <f>B30</f>
+        <v>5.8809589317839361E-2</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30">
-        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-1.4573254703034795</v>
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>5.8809589317839361E-2</v>
       </c>
       <c r="C30">
-        <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-1.7700586776129748E-2</v>
+        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
+        <v>3.1880863347572175E-2</v>
       </c>
       <c r="F30">
         <v>0.2</v>
       </c>
       <c r="G30">
         <f t="dataTable" ref="G30:H56" dt2D="0" dtr="0" r1="B6"/>
-        <v>2.9728945043416319E-2</v>
+        <v>3.396599399742567E-2</v>
       </c>
       <c r="H30">
-        <v>7.1462787155911506E-2</v>
+        <v>7.1383047929654275E-2</v>
       </c>
       <c r="Z30" s="4">
         <f>Y30*EXP(-Y$8)/oa+Y$14*(Y16)^2*Y$9/oa + 2*Y$14*Y16*Y$9*Z16*sa/oa^2 + 2*Y$14*Y$9*Z16^2*sa/oa^3 + Y$14*Y$9*Z16^2*sa/oa^2</f>
-        <v>2.0485003961974628E-18</v>
+        <v>1.5666197587887692E-14</v>
       </c>
     </row>
     <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31">
+        <f>ak*SUM(dYe)</f>
+        <v>3.6276181066164613E-2</v>
+      </c>
+      <c r="C31">
+        <f>ak*SUM(dYe)</f>
+        <v>5.4414271599246923E-2</v>
+      </c>
       <c r="F31">
         <v>0.20499999999999999</v>
       </c>
       <c r="G31">
-        <v>3.0088097988063205E-2</v>
+        <v>3.4323950787470199E-2</v>
       </c>
       <c r="H31">
-        <v>6.8877970021831769E-2</v>
+        <v>6.8379210345511768E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <f>f*re*phiq</f>
-        <v>3.1581132259519119E-2</v>
+        <f>ak*SUM(B40,C41)</f>
+        <v>-0.36794595232515442</v>
       </c>
       <c r="C32">
-        <f>f*re*phiq</f>
-        <v>1.6409629934309552E-2</v>
-      </c>
-      <c r="D32">
-        <f>SUM(Ye)</f>
-        <v>4.7990762193828668E-2</v>
+        <f>ak*SUM(C40,B41)</f>
+        <v>0.12626113602840591</v>
       </c>
       <c r="F32">
         <v>0.21</v>
       </c>
       <c r="G32">
-        <v>3.0434645064195558E-2</v>
+        <v>3.4667272742697236E-2</v>
       </c>
       <c r="H32">
-        <v>6.6356092205559297E-2</v>
+        <v>6.5462682818601667E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
       <c r="B33">
-        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>5.7782159919073532E-2</v>
+        <f>ak*SUM(B41,C40)</f>
+        <v>8.4174090685603956E-2</v>
       </c>
       <c r="C33">
-        <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>1.5495235300800877E-2</v>
-      </c>
-      <c r="D33">
-        <f>SUM(dYe)</f>
-        <v>7.3277395219874406E-2</v>
+        <f>ak*SUM(B40,C41)</f>
+        <v>-0.55191892848773161</v>
       </c>
       <c r="F33">
         <v>0.215</v>
       </c>
       <c r="G33">
-        <v>3.0768894423796635E-2</v>
+        <v>3.4996386723931183E-2</v>
       </c>
       <c r="H33">
-        <v>6.3895377632580366E-2</v>
+        <v>6.2630471888328279E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <f t="array" ref="B34:C35">-MINVERSE(B32:C33)</f>
+        <v>2.8678797680402006</v>
+      </c>
+      <c r="C34">
+        <v>0.65607780203843102</v>
+      </c>
       <c r="F34">
         <v>0.22</v>
       </c>
       <c r="G34">
-        <v>3.1091145488381478E-2</v>
+        <v>3.5311704929879839E-2</v>
       </c>
       <c r="H34">
-        <v>6.1494106794718249E-2</v>
+        <v>5.9879701928461246E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
+      <c r="B35">
+        <v>0.43738520135895415</v>
+      </c>
+      <c r="C35">
+        <v>1.9119198453601338</v>
+      </c>
       <c r="F35">
         <v>0.22500000000000001</v>
       </c>
       <c r="G35">
-        <v>3.1401689226700294E-2</v>
+        <v>3.5613625472981032E-2</v>
       </c>
       <c r="H35">
-        <v>5.9150614724936372E-2</v>
+        <v>5.7207609873364235E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B36">
-        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.60407334583573657</v>
+        <f t="array" ref="B36:C36">MMULT(B31:C31,B34:C35)</f>
+        <v>0.12783572288165393</v>
       </c>
       <c r="C36">
-        <f>f*B30*phiq+2*f*B29*B27+f*re*B28</f>
-        <v>0.27794532903742164</v>
-      </c>
-      <c r="D36">
-        <f>B38+C39</f>
-        <v>15.729091608614045</v>
+        <v>0.12783572288165393</v>
       </c>
       <c r="F36">
         <v>0.23</v>
       </c>
       <c r="G36">
-        <v>3.1700808422519294E-2</v>
+        <v>3.5902532929549182E-2</v>
       </c>
       <c r="H36">
-        <v>5.6863289053074514E-2</v>
+        <v>5.46115402095253E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37">
-        <f>f*C30*phiq+2*f*C29*C27+f*re*C28</f>
-        <v>1.1479557547755303E-2</v>
-      </c>
-      <c r="C37">
-        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-7.695795661213492E-2</v>
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7">
+        <f>f+fstp</f>
+        <v>0.34982076959405362</v>
+      </c>
+      <c r="C37" s="7">
+        <f>f+fstp</f>
+        <v>0.34982076959405362</v>
       </c>
       <c r="F37">
         <v>0.23499999999999999</v>
       </c>
       <c r="G37">
-        <v>3.1988777932875356E-2</v>
+        <v>3.6178798865511438E-2</v>
       </c>
       <c r="H37">
-        <v>5.4630568138937297E-2</v>
+        <v>5.2088940217553781E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <f t="array" ref="B38:C39">-MINVERSE(B36:C37)</f>
-        <v>1.7774201350409577</v>
-      </c>
-      <c r="C38">
-        <v>6.4194223186247932</v>
-      </c>
       <c r="F38">
         <v>0.24</v>
       </c>
       <c r="G38">
-        <v>3.2265864937181622E-2</v>
+        <v>3.6442782338949993E-2</v>
       </c>
       <c r="H38">
-        <v>5.2450939279322262E-2</v>
+        <v>4.9637355450713225E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39">
-        <v>0.26513173718446059</v>
-      </c>
-      <c r="C39">
-        <v>13.951671473573088</v>
-      </c>
       <c r="F39">
         <v>0.245</v>
       </c>
       <c r="G39">
-        <v>3.2532329177546865E-2</v>
+        <v>3.6694830380600771E-2</v>
       </c>
       <c r="H39">
-        <v>5.0322936985746705E-2</v>
+        <v>4.7254425436918768E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
+        <v>-0.76996922606580975</v>
+      </c>
+      <c r="C40">
+        <f>f*B27*phiq+2*f*B26*B24+f*re*B25</f>
+        <v>0.18746842318667006</v>
+      </c>
       <c r="F40">
         <v>0.25</v>
       </c>
       <c r="G40">
-        <v>3.2788423190653067E-2</v>
+        <v>3.6935278453394414E-2</v>
       </c>
       <c r="H40">
-        <v>4.8245141329782623E-2</v>
+        <v>4.4937879591918667E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
       <c r="B41">
-        <f t="array" ref="B41:C41">MMULT(B33:C33,B38:C39)</f>
-        <v>0.10681145313970121</v>
+        <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
+        <v>2.2966803527339808E-2</v>
       </c>
       <c r="C41">
-        <v>0.58711251932533393</v>
-      </c>
-      <c r="D41">
-        <f>D33/D36</f>
-        <v>4.6587175561838548E-3</v>
+        <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
+        <v>-0.14989565474707625</v>
       </c>
       <c r="F41">
         <v>0.255</v>
       </c>
       <c r="G41">
-        <v>3.3034392531522891E-2</v>
+        <v>3.7164450892066443E-2</v>
       </c>
       <c r="H41">
-        <v>4.6216176353063215E-2</v>
+        <v>4.268553333212545E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="5">
-        <f>(f+dta)/plambda</f>
-        <v>0.44055567662738998</v>
-      </c>
-      <c r="C42" s="5">
-        <f>(f+dta)/plambda</f>
-        <v>0.70163001270104941</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0.3</v>
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f t="array" ref="B42:C43">-MINVERSE(B40:C41)</f>
+        <v>1.3490805656911284</v>
+      </c>
+      <c r="C42">
+        <v>1.6872404128634673</v>
       </c>
       <c r="F42">
         <v>0.26</v>
       </c>
       <c r="G42">
-        <v>3.3270475989492503E-2</v>
+        <v>3.7382661323807589E-2</v>
       </c>
       <c r="H42">
-        <v>4.4234708539159104E-2</v>
+        <v>4.049528437625427E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
+      <c r="B43">
+        <v>0.20670424601074</v>
+      </c>
+      <c r="C43">
+        <v>6.9298240887525395</v>
+      </c>
       <c r="F43">
         <v>0.26500000000000001</v>
       </c>
       <c r="G43">
-        <v>3.349690579669299E-2</v>
+        <v>3.7590213070872514E-2</v>
       </c>
       <c r="H43">
-        <v>4.229944534466093E-2</v>
+        <v>3.8365109225574859E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -12813,32 +12755,53 @@
         <v>0.27</v>
       </c>
       <c r="G44">
-        <v>3.3713907829329766E-2</v>
+        <v>3.7787399536015807E-2</v>
       </c>
       <c r="H44">
-        <v>4.0409133786927579E-2</v>
+        <v>3.6293059813189837E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45">
+        <f t="array" ref="B45:C45">MMULT(B30:C30,B42:C43)</f>
+        <v>8.5928783845405005E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.32015469055719581</v>
+      </c>
       <c r="F45">
         <v>0.27500000000000002</v>
       </c>
       <c r="G45">
-        <v>3.3921701802037033E-2</v>
+        <v>3.7974504571577639E-2</v>
       </c>
       <c r="H45">
-        <v>3.8562559086080445E-2</v>
+        <v>3.4277260313317195E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
+      <c r="A46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="5">
+        <f>f+dta</f>
+        <v>0.30791383055780475</v>
+      </c>
+      <c r="C46" s="5">
+        <f>f+dta</f>
+        <v>0.54213973726959552</v>
+      </c>
       <c r="F46">
         <v>0.28000000000000003</v>
       </c>
       <c r="G46">
-        <v>3.4120501455573091E-2</v>
+        <v>3.8151802832997433E-2</v>
       </c>
       <c r="H46">
-        <v>3.6758543358937024E-2</v>
+        <v>3.231590410208561E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -12846,10 +12809,10 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="G47">
-        <v>3.4310514738110358E-2</v>
+        <v>3.8319560117493628E-2</v>
       </c>
       <c r="H47">
-        <v>3.4995944362686993E-2</v>
+        <v>3.0407250861850033E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -12857,10 +12820,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G48">
-        <v>3.4491943980363461E-2</v>
+        <v>3.8478033688606916E-2</v>
       </c>
       <c r="H48">
-        <v>3.327365428621161E-2</v>
+        <v>2.8549623821491871E-2</v>
       </c>
     </row>
     <row r="49" spans="6:8">
@@ -12868,10 +12831,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G49">
-        <v>3.4664986064789204E-2</v>
+        <v>3.8627472587270451E-2</v>
       </c>
       <c r="H49">
-        <v>3.1590598587050794E-2</v>
+        <v>2.6741407125614014E-2</v>
       </c>
     </row>
     <row r="50" spans="6:8">
@@ -12879,10 +12842,10 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="G50">
-        <v>3.4829832589080748E-2</v>
+        <v>3.8768117930033361E-2</v>
       </c>
       <c r="H50">
-        <v>2.9945734872107832E-2</v>
+        <v>2.4981043325937619E-2</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -12890,10 +12853,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>3.4986670024171475E-2</v>
+        <v>3.890020319503365E-2</v>
       </c>
       <c r="H51">
-        <v>2.8338051820272395E-2</v>
+        <v>2.3267030988595186E-2</v>
       </c>
     </row>
     <row r="52" spans="6:8">
@@ -12901,10 +12864,10 @@
         <v>0.309999999999999</v>
       </c>
       <c r="G52">
-        <v>3.5135679866952117E-2</v>
+        <v>3.9023954496283736E-2</v>
       </c>
       <c r="H52">
-        <v>2.6766568145231151E-2</v>
+        <v>2.1597922411378256E-2</v>
       </c>
     </row>
     <row r="53" spans="6:8">
@@ -12912,10 +12875,10 @@
         <v>0.314999999999999</v>
       </c>
       <c r="G53">
-        <v>3.5277038787899902E-2</v>
+        <v>3.9139590846805981E-2</v>
       </c>
       <c r="H53">
-        <v>2.5230331596796343E-2</v>
+        <v>1.9972321445313468E-2</v>
       </c>
     </row>
     <row r="54" spans="6:8">
@@ -12923,10 +12886,10 @@
         <v>0.31999999999999901</v>
       </c>
       <c r="G54">
-        <v>3.5410918773806331E-2</v>
+        <v>3.9247324411124863E-2</v>
       </c>
       <c r="H54">
-        <v>2.372841799918525E-2</v>
+        <v>1.8388881415288605E-2</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -12934,10 +12897,10 @@
         <v>0.32499999999999901</v>
       </c>
       <c r="G55">
-        <v>3.5537487265785789E-2</v>
+        <v>3.9347360747599217E-2</v>
       </c>
       <c r="H55">
-        <v>2.2259930324726993E-2</v>
+        <v>1.6846303134711638E-2</v>
       </c>
     </row>
     <row r="56" spans="6:8">
@@ -12945,14 +12908,15 @@
         <v>0.32999999999999902</v>
       </c>
       <c r="G56">
-        <v>3.5656907292738405E-2</v>
+        <v>3.943989904105287E-2</v>
       </c>
       <c r="H56">
-        <v>2.0823997801561314E-2</v>
+        <v>1.5343333009489327E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12967,8 +12931,8 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13429,7 +13393,7 @@
       </c>
       <c r="C6">
         <f>fbar*lambda</f>
-        <v>0.37946351321637939</v>
+        <v>0.2406542626817135</v>
       </c>
       <c r="D6">
         <f>B6-dh</f>
@@ -14099,11 +14063,11 @@
       </c>
       <c r="B13">
         <f>fbar*B12</f>
-        <v>0.23717695342339751</v>
+        <v>0.15041668793767735</v>
       </c>
       <c r="C13">
         <f>fbar*C12</f>
-        <v>0.36282304657660247</v>
+        <v>0.23010094440367487</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -14216,79 +14180,79 @@
       </c>
       <c r="H15">
         <f t="shared" ref="H15:Y15" si="12">G15*EXP(-m-SUMPRODUCT(G$6:G$7,$C$6:$C$7))</f>
-        <v>0.68080136505630007</v>
+        <v>0.69826098198545472</v>
       </c>
       <c r="I15">
         <f t="shared" si="12"/>
-        <v>0.44669899956876574</v>
+        <v>0.47558179975962273</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.27990281760651814</v>
+        <v>0.31403439169594038</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.16648696920521339</v>
+        <v>0.20021298266431431</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>9.3937128541513343E-2</v>
+        <v>0.12316112979027531</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>5.0517020356753622E-2</v>
+        <v>7.3306977315344218E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>2.6103532061830009E-2</v>
+        <v>4.2432009144946999E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>1.3075570212301551E-2</v>
+        <v>2.4018894201588266E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>6.3991056834971655E-3</v>
+        <v>1.3363576524415293E-2</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
-        <v>3.0786302741873557E-3</v>
+        <v>7.3381405177668935E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>1.4627581655266369E-3</v>
+        <v>3.9894961427511108E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="12"/>
-        <v>6.8867731363111138E-4</v>
+        <v>2.1525889388133487E-3</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
-        <v>3.2206046849402091E-4</v>
+        <v>1.1547939545046859E-3</v>
       </c>
       <c r="U15">
         <f t="shared" si="12"/>
-        <v>1.4986513504731071E-4</v>
+        <v>6.168056024502454E-4</v>
       </c>
       <c r="V15">
         <f t="shared" si="12"/>
-        <v>6.948063275876973E-5</v>
+        <v>3.2835995862759231E-4</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>3.2124622987969866E-5</v>
+        <v>1.7436507406295052E-4</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>1.4822707042927862E-5</v>
+        <v>9.2415023540416322E-5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="12"/>
-        <v>6.8290107710563044E-6</v>
+        <v>4.8910490769615902E-5</v>
       </c>
       <c r="Z15">
         <f>Y15*EXP(-m-SUMPRODUCT(Y$6:Y$7,$C$6:$C$7))/(1-EXP(-m-SUMPRODUCT(C$6:C$7,Z6:Z7)))</f>
-        <v>5.817607249002134E-6</v>
+        <v>5.481196605646795E-5</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -14393,79 +14357,79 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:Z17" si="14">(H15-H14)/dh</f>
-        <v>-3560.808427235806</v>
+        <v>-1814.8467343203411</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="14"/>
-        <v>-6005.4950901339989</v>
+        <v>-3117.2150710483011</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="14"/>
-        <v>-7296.4422865455726</v>
+        <v>-3883.2848776033488</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="14"/>
-        <v>-7487.5115916825271</v>
+        <v>-4114.9102457724348</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="14"/>
-        <v>-6812.2051150256821</v>
+        <v>-3889.8049901494851</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>-5638.9025977510137</v>
+        <v>-3359.906901891954</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>-4331.7711888779431</v>
+        <v>-2698.9234805662445</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="14"/>
-        <v>-3140.3491805170656</v>
+        <v>-2046.0167815883945</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="14"/>
-        <v>-2178.322205241629</v>
+        <v>-1481.8751211498161</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="14"/>
-        <v>-1461.5471585824469</v>
+        <v>-1035.5961342244932</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="14"/>
-        <v>-956.41909487165321</v>
+        <v>-703.74529714920584</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="14"/>
-        <v>-614.23355173323989</v>
+        <v>-467.84238921501617</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="14"/>
-        <v>-388.94969601867587</v>
+        <v>-305.67634741760935</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="14"/>
-        <v>-243.69361623443763</v>
+        <v>-196.9995694941442</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="14"/>
-        <v>-151.46890471030983</v>
+        <v>-125.58097212342756</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="14"/>
-        <v>-93.580845637081708</v>
+        <v>-79.356800529583637</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="14"/>
-        <v>-57.554430442007266</v>
+        <v>-49.795198792258411</v>
       </c>
       <c r="Y17" s="3">
         <f>(Y15-Y14)/dh</f>
-        <v>-35.276400027663854</v>
+        <v>-31.068252027807894</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="14"/>
-        <v>-55.234621921905088</v>
+        <v>-50.335186041158501</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -15260,11 +15224,11 @@
       </c>
       <c r="Y27">
         <f>(Y15-2*Y14+Y16)/dh^2</f>
-        <v>-3527129.9349776707</v>
+        <v>-3106315.1349920747</v>
       </c>
       <c r="Z27">
         <f>(Z15-2*Z14+Z16)/dh^2</f>
-        <v>-5522528.1094698934</v>
+        <v>-5032584.5213952344</v>
       </c>
     </row>
     <row r="28" spans="1:26">

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-30540" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4791,11 +4791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142774472"/>
-        <c:axId val="2142775880"/>
+        <c:axId val="-2094691576"/>
+        <c:axId val="-2094688552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142774472"/>
+        <c:axId val="-2094691576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,7 +4804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142775880"/>
+        <c:crossAx val="-2094688552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4812,7 +4812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142775880"/>
+        <c:axId val="-2094688552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,14 +4823,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142774472"/>
+        <c:crossAx val="-2094691576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5117,11 +5116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137736984"/>
-        <c:axId val="-2137734008"/>
+        <c:axId val="-2094662408"/>
+        <c:axId val="-2094659432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137736984"/>
+        <c:axId val="-2094662408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,7 +5129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137734008"/>
+        <c:crossAx val="-2094659432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5138,7 +5137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137734008"/>
+        <c:axId val="-2094659432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +5148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137736984"/>
+        <c:crossAx val="-2094662408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5355,11 +5354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142859016"/>
-        <c:axId val="2142861992"/>
+        <c:axId val="-2094603672"/>
+        <c:axId val="-2094600696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142859016"/>
+        <c:axId val="-2094603672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5368,7 +5367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142861992"/>
+        <c:crossAx val="-2094600696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5376,7 +5375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142861992"/>
+        <c:axId val="-2094600696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,14 +5386,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142859016"/>
+        <c:crossAx val="-2094603672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5687,8 +5685,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142909752"/>
-        <c:axId val="2142912744"/>
+        <c:axId val="-2094553160"/>
+        <c:axId val="-2094550168"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5951,11 +5949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142919080"/>
-        <c:axId val="2142915784"/>
+        <c:axId val="-2094543832"/>
+        <c:axId val="-2094547128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142909752"/>
+        <c:axId val="-2094553160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5965,12 +5963,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142912744"/>
+        <c:crossAx val="-2094550168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142912744"/>
+        <c:axId val="-2094550168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,12 +5979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142909752"/>
+        <c:crossAx val="-2094553160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142915784"/>
+        <c:axId val="-2094547128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -5998,12 +5996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142919080"/>
+        <c:crossAx val="-2094543832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142919080"/>
+        <c:axId val="-2094543832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6013,7 +6011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142915784"/>
+        <c:crossAx val="-2094547128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6312,8 +6310,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142971976"/>
-        <c:axId val="2142974968"/>
+        <c:axId val="-2094491704"/>
+        <c:axId val="-2094488712"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -6576,11 +6574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142981304"/>
-        <c:axId val="2142978008"/>
+        <c:axId val="-2094482376"/>
+        <c:axId val="-2094485672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142971976"/>
+        <c:axId val="-2094491704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,12 +6588,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142974968"/>
+        <c:crossAx val="-2094488712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142974968"/>
+        <c:axId val="-2094488712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6606,12 +6604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142971976"/>
+        <c:crossAx val="-2094491704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142978008"/>
+        <c:axId val="-2094485672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6623,12 +6621,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142981304"/>
+        <c:crossAx val="-2094482376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142981304"/>
+        <c:axId val="-2094482376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6638,7 +6636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142978008"/>
+        <c:crossAx val="-2094485672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10116,10 +10114,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30540" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <definedName name="zf" localSheetId="6">FlakLake!$B$9</definedName>
     <definedName name="zf">SingleFleet!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" iterateCount="2500" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2589,7 +2589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2602,6 +2602,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="52"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1909">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
@@ -4791,11 +4792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094691576"/>
-        <c:axId val="-2094688552"/>
+        <c:axId val="-2122540376"/>
+        <c:axId val="-2122537400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094691576"/>
+        <c:axId val="-2122540376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,7 +4805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094688552"/>
+        <c:crossAx val="-2122537400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4812,7 +4813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094688552"/>
+        <c:axId val="-2122537400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,7 +4824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094691576"/>
+        <c:crossAx val="-2122540376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5116,11 +5117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094662408"/>
-        <c:axId val="-2094659432"/>
+        <c:axId val="-2122487992"/>
+        <c:axId val="-2122485016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094662408"/>
+        <c:axId val="-2122487992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5129,7 +5130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094659432"/>
+        <c:crossAx val="-2122485016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5137,7 +5138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094659432"/>
+        <c:axId val="-2122485016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5148,7 +5149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094662408"/>
+        <c:crossAx val="-2122487992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5354,11 +5355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094603672"/>
-        <c:axId val="-2094600696"/>
+        <c:axId val="-2122439048"/>
+        <c:axId val="-2122436072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094603672"/>
+        <c:axId val="-2122439048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,7 +5368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094600696"/>
+        <c:crossAx val="-2122436072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5375,7 +5376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094600696"/>
+        <c:axId val="-2122436072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5386,7 +5387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094603672"/>
+        <c:crossAx val="-2122439048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5685,8 +5686,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094553160"/>
-        <c:axId val="-2094550168"/>
+        <c:axId val="-2122387992"/>
+        <c:axId val="-2122385000"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5949,11 +5950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094543832"/>
-        <c:axId val="-2094547128"/>
+        <c:axId val="-2122378664"/>
+        <c:axId val="-2122381960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094553160"/>
+        <c:axId val="-2122387992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,12 +5964,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094550168"/>
+        <c:crossAx val="-2122385000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094550168"/>
+        <c:axId val="-2122385000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5979,12 +5980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094553160"/>
+        <c:crossAx val="-2122387992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094547128"/>
+        <c:axId val="-2122381960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -5996,12 +5997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094543832"/>
+        <c:crossAx val="-2122378664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094543832"/>
+        <c:axId val="-2122378664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6011,7 +6012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094547128"/>
+        <c:crossAx val="-2122381960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6310,8 +6311,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094491704"/>
-        <c:axId val="-2094488712"/>
+        <c:axId val="-2123300328"/>
+        <c:axId val="-2123303320"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -6574,11 +6575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094482376"/>
-        <c:axId val="-2094485672"/>
+        <c:axId val="-2123309656"/>
+        <c:axId val="-2123306360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094491704"/>
+        <c:axId val="-2123300328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,12 +6589,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094488712"/>
+        <c:crossAx val="-2123303320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094488712"/>
+        <c:axId val="-2123303320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,12 +6605,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094491704"/>
+        <c:crossAx val="-2123300328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094485672"/>
+        <c:axId val="-2123306360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6621,12 +6622,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094482376"/>
+        <c:crossAx val="-2123309656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094482376"/>
+        <c:axId val="-2123309656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,7 +6637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094485672"/>
+        <c:crossAx val="-2123306360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10115,9 +10116,9 @@
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="B36" sqref="B36"/>
+      <selection pane="topRight" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10576,11 +10577,11 @@
       <c r="B6" s="11">
         <v>0.22198504671239971</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <f>B6+dh</f>
         <v>0.22198604671239971</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <f>B6-dh</f>
         <v>0.22198404671239971</v>
       </c>
@@ -10678,11 +10679,11 @@
       <c r="B7" s="11">
         <v>0.22198504671239971</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <f>B7</f>
         <v>0.22198504671239971</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <f>C7</f>
         <v>0.22198504671239971</v>
       </c>
@@ -11494,84 +11495,84 @@
         <v>31</v>
       </c>
       <c r="G17" s="3">
-        <f>(G14-G15)/dh</f>
+        <f>(G15-G16)/(2*dh)</f>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:Y17" si="14">(H15-H14)/dh</f>
-        <v>-4.0944092560835088E-4</v>
+        <f>(H15-H16)/(2*dh)</f>
+        <v>-4.0944098111950211E-4</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.9692320541462323E-3</v>
+        <f>(I15-I16)/(2*dh)</f>
+        <v>-3.9692321096573835E-3</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3138491895012834E-2</v>
+        <f>(J15-J16)/(2*dh)</f>
+        <v>-3.3138493282791615E-2</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.15369398970177528</v>
+        <f>(K15-K16)/(2*dh)</f>
+        <v>-0.15369403449927432</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.23685180061683297</v>
+        <f>(L15-L16)/(2*dh)</f>
+        <v>-0.23685197912681755</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.2236871151500841</v>
+        <f>(M15-M16)/(2*dh)</f>
+        <v>-0.2236873948222029</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.166275168314578</v>
+        <f>(N15-N16)/(2*dh)</f>
+        <v>-0.16627545930056331</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.106049114784873</v>
+        <f>(O15-O16)/(2*dh)</f>
+        <v>-0.10604935339608712</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="14"/>
-        <v>-6.2343608244613824E-2</v>
+        <f>(P15-P16)/(2*dh)</f>
+        <v>-6.2343779689069678E-2</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.5119618694949561E-2</v>
+        <f>(Q15-Q16)/(2*dh)</f>
+        <v>-3.5119732833249068E-2</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="14"/>
-        <v>-1.9271377992100686E-2</v>
+        <f>(R15-R16)/(2*dh)</f>
+        <v>-1.9271450259379652E-2</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="14"/>
-        <v>-1.0381129154218849E-2</v>
+        <f>(S15-S16)/(2*dh)</f>
+        <v>-1.0381173273874694E-2</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="14"/>
-        <v>-5.5139836807821876E-3</v>
+        <f>(T15-T16)/(2*dh)</f>
+        <v>-5.5140098722335391E-3</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="14"/>
-        <v>-2.896232607582129E-3</v>
+        <f>(U15-U16)/(2*dh)</f>
+        <v>-2.8962478128399718E-3</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="14"/>
-        <v>-1.5074429445319486E-3</v>
+        <f>(V15-V16)/(2*dh)</f>
+        <v>-1.5074516123488469E-3</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="14"/>
-        <v>-7.7866585937089432E-4</v>
+        <f>(W15-W16)/(2*dh)</f>
+        <v>-7.7867072604951475E-4</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.9964349933069255E-4</v>
+        <f>(X15-X16)/(2*dh)</f>
+        <v>-3.9964619693411791E-4</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="14"/>
-        <v>-2.03988078722477E-4</v>
+        <f>(Y15-Y16)/(2*dh)</f>
+        <v>-2.0398955764115587E-4</v>
       </c>
       <c r="Z17" s="3">
-        <f>(Z15-Z14)/dh</f>
-        <v>-2.0900247658547607E-4</v>
+        <f>(Z15-Z16)/(2*dh)</f>
+        <v>-2.0900420198481336E-4</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -11590,79 +11591,79 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:Y18" si="15">G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
+        <f>G18*EXP(-G8) - G14*G6*EXP(-G8)</f>
         <v>-4.0944102368259768E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H18:Y18" si="14">H18*EXP(-H8) - H14*H6*EXP(-H8)</f>
         <v>-3.9692321497158279E-3</v>
       </c>
       <c r="J18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3.3138493282041256E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.15369403450486374</v>
       </c>
       <c r="L18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.23685197914016906</v>
       </c>
       <c r="M18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.22368739482698413</v>
       </c>
       <c r="N18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.16627545930343599</v>
       </c>
       <c r="O18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.10604935339518952</v>
       </c>
       <c r="P18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-6.2343779688796258E-2</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3.5119732833192766E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-1.9271450259444985E-2</v>
       </c>
       <c r="S18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-1.038117327376922E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5.5140098721483885E-3</v>
       </c>
       <c r="U18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2.8962478127984434E-3</v>
       </c>
       <c r="V18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-1.5074516123393827E-3</v>
       </c>
       <c r="W18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-7.7867072605012808E-4</v>
       </c>
       <c r="X18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3.9964619692951607E-4</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2.0398955763753585E-4</v>
       </c>
       <c r="Z18">
-        <f>(Y18-Y14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
+        <f>(Y18-Y$14*Y6)*Y$9/oa-Y14*Y$9*Z6*sa/oa^2</f>
         <v>-2.0900420197627822E-4</v>
       </c>
     </row>
@@ -11681,80 +11682,80 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:Y19" si="16">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
+        <f t="shared" ref="H19:Y19" si="15">G19*EXP(-G8) - G14*G7*EXP(-G8)</f>
         <v>-1.4029225869318672E-4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-5.364554478873814E-4</v>
       </c>
       <c r="J19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.7014832444243913E-3</v>
       </c>
       <c r="K19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-4.7032677297110456E-3</v>
       </c>
       <c r="L19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.1338932076398465E-2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-2.3748425330945577E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-3.6365796249006176E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-3.7050650587757611E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-2.8540600787560148E-2</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.8933823750671017E-2</v>
       </c>
       <c r="R19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.1565462684387866E-2</v>
       </c>
       <c r="S19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-6.7175001756428366E-3</v>
       </c>
       <c r="T19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-3.7727632380365928E-3</v>
       </c>
       <c r="U19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-2.0687456598138965E-3</v>
       </c>
       <c r="V19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.1142007803972966E-3</v>
       </c>
       <c r="W19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-5.9178842509872835E-4</v>
       </c>
       <c r="X19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-3.1083530799678224E-4</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1.6178453409151881E-4</v>
       </c>
       <c r="Z19">
-        <f>Y19*EXP(-Y8)/(1-EXP(-za))-Y14*Y7*EXP(-Y8)/(1-EXP(-za))-Y14*EXP(-Y8)*Z7*EXP(-za)/(1-EXP(-za))^2</f>
-        <v>-1.707844680721562E-4</v>
+        <f>(Y19-Y$14*Y7)*Y$9/oa-Y15*Y$9*Z7*sa/oa^2</f>
+        <v>-1.7078430078916218E-4</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -11776,75 +11777,75 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:Y21" si="17">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
+        <f t="shared" ref="H20:Y21" si="16">G20*EXP(-G$8)+G$14*G6^2*EXP(-G$8)</f>
         <v>2.2633025097186959E-7</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.470615491904462E-5</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.3126351272908935E-3</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.7423443752437168E-2</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.17440239515920308</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.18754249153228519</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.14705361274876602</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9.6512972029975996E-2</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5.7756850501480363E-2</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.293333496460437E-2</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.823166400584085E-2</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9.8869557774791152E-3</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5.2791362365872379E-3</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.784629220607497E-3</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.454407707991968E-3</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7.534630024423341E-4</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.8766689303676173E-4</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.9829671091911057E-4</v>
       </c>
       <c r="Z20" s="4">
@@ -11862,7 +11863,7 @@
       </c>
       <c r="C21">
         <f>SUMPRODUCT(fa,G19:Z19)</f>
-        <v>-0.10805055992994111</v>
+        <v>-0.10805055977168247</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>59</v>
@@ -11871,75 +11872,75 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.6572187669150196E-8</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.614250168564176E-7</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4.5731736748576282E-6</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5.1609111121509116E-5</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4.9432742944271915E-4</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.6246240002611408E-3</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.3801760252121058E-2</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.2182196955327207E-2</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.0806829423704515E-2</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.5175099063778792E-2</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9.7695043277976762E-3</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5.8629050086939569E-3</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.3665125544717033E-3</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.8756713273557332E-3</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.0224456757207112E-3</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5.4818405693453636E-4</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.9011346687688469E-4</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.5193702613006452E-4</v>
       </c>
       <c r="Z21" s="4">
@@ -11971,75 +11972,75 @@
         <v>-7.2908220852422288E-5</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:Z22" si="18">I11*I18+lz*wa*I6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <f t="shared" ref="I22:Z22" si="17">I11*I18+lz*wa*I6/za*(EXP(-za)-(1-EXP(-za))/za)</f>
         <v>-1.5723834448617747E-3</v>
       </c>
       <c r="J22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.4958618010957206E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-4.9967175450824283E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-7.9837562757625088E-2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-8.3521769629464782E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-6.8433306092444343E-2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-4.8005638308254411E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3.0737353205787746E-2</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.8597869559807526E-2</v>
       </c>
       <c r="R22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.0817934389444351E-2</v>
       </c>
       <c r="S22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-6.1090067244360825E-3</v>
       </c>
       <c r="T22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3.3709240260312878E-3</v>
       </c>
       <c r="U22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.8259510200359498E-3</v>
       </c>
       <c r="V22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-9.7430668628097734E-4</v>
       </c>
       <c r="W22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-5.1348222427088322E-4</v>
       </c>
       <c r="X22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-2.6784527236792493E-4</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.3851294505184516E-4</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.4320132015623009E-4</v>
       </c>
     </row>
@@ -12059,84 +12060,84 @@
         <v>45</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:Z23" si="19">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
+        <f t="shared" ref="G23:Z23" si="18">G12*G19+lz*wa*G7/za*(EXP(-za)-(1-EXP(-za))/za)</f>
         <v>-4.6294622145149615E-7</v>
       </c>
       <c r="H23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-8.5977872160739734E-6</v>
       </c>
       <c r="I23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-6.7258314844845574E-5</v>
       </c>
       <c r="J23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-3.4782374006835841E-4</v>
       </c>
       <c r="K23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.3408226042439292E-3</v>
       </c>
       <c r="L23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-4.1644831208397862E-3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.0106532159143686E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.6910781506343009E-2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.8489360112883525E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.509505054081791E-2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.0533620043349963E-2</v>
       </c>
       <c r="R23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-6.7258827884079395E-3</v>
       </c>
       <c r="S23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-4.0580597355787448E-3</v>
       </c>
       <c r="T23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2.3533007902430559E-3</v>
       </c>
       <c r="U23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.3251515973265917E-3</v>
       </c>
       <c r="V23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-7.2947315519836134E-4</v>
       </c>
       <c r="W23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-3.9442262574787882E-4</v>
       </c>
       <c r="X23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2.1019646236210388E-4</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1.1069624188159793E-4</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="19"/>
-        <v>-1.1769650336303277E-4</v>
+        <f t="shared" si="18"/>
+        <v>-1.176963917316457E-4</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -12149,89 +12150,89 @@
       </c>
       <c r="C24">
         <f>SUM(G23:Z23)</f>
-        <v>-9.3089672776081822E-2</v>
+        <v>-9.3089672664450437E-2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ref="G24:Z24" si="20">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
+        <f t="shared" ref="G24:Z24" si="19">G20*G11+2*G18*wa*G6^2*sa/za - 2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za -2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
         <v>2.6821365960263372E-13</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.7046776699178183E-9</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.6307135048239694E-6</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.2535327335717068E-3</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.7896536419774149E-2</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.11201928533910005</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.13075878482792214</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.11225427887452208</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8.0913212185490982E-2</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.2770698350747255E-2</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.2354234391018748E-2</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.9006290557755514E-2</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.0815118517258596E-2</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.003939506489901E-3</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.2682238184766968E-3</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.7510080482952503E-3</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.2599476211197506E-4</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.8443980722222572E-4</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.511571368320585E-4</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.8153306857718933E-4</v>
       </c>
     </row>
@@ -12245,90 +12246,90 @@
       </c>
       <c r="C25">
         <f>SUM(G25:Z25)</f>
-        <v>0.10561386177572663</v>
+        <v>0.10561386167781094</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ref="G25:Z25" si="21">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
+        <f t="shared" ref="G25:Z25" si="20">G21*G12+2*G19*wa*G7^2*sa/za - 2*G19*wa*G7^2*oa/za^2-lz*wa*G7^3*sa/za -2*lz*wa*G7^3*sa/za^2+2*lz*wa*G7^3*oa/za^3</f>
         <v>1.0789664753751024E-14</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6.7037484417897258E-12</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>9.9627933308531121E-10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>8.9279109423762603E-8</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5.4789216992315494E-6</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.1032071075924178E-4</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3.2577999171205449E-3</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.423591464491402E-2</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.2918508741264533E-2</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.1859275399896901E-2</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.6414783895545553E-2</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.0920332690341697E-2</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6.7630028518707239E-3</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3.9934997144097893E-3</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.2788502372354507E-3</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.2673202851302611E-3</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6.9078358413859507E-4</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3.7055030241484944E-4</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.9620318067193693E-4</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="21"/>
-        <v>2.3114641620998089E-4</v>
+        <f t="shared" si="20"/>
+        <v>2.3114631829430197E-4</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -12341,7 +12342,7 @@
       </c>
       <c r="C26">
         <f>ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-0.11765723634392143</v>
+        <v>-0.11765723617159216</v>
       </c>
       <c r="G26">
         <f>G20*G11+2*G18*wa*G6^2*sa/za-2*G18*wa*G6^2*oa/za^2-lz*wa*G6^3*sa/za-2*lz*wa*G6^3*sa/za^2+2*lz*wa*G6^3*oa/za^3</f>
@@ -12358,86 +12359,86 @@
       </c>
       <c r="C27">
         <f>-2*ro*phie*dphif^2/(phif^3*(reck-1)) + ro*phie*ddphif/(phif^2*(reck-1))</f>
-        <v>-5.0487019821761264E-2</v>
+        <v>-5.0487019469238073E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:Z27" si="22">(G15-2*G14+G16)/dh^2</f>
+        <f t="shared" ref="G27:Z27" si="21">(G15-2*G14+G16)/dh^2</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1102230246251565E-4</v>
       </c>
       <c r="I27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1102230246251565E-4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.7755575615628914E-3</v>
       </c>
       <c r="K27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8.9594998087250133E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.35701996914383471</v>
       </c>
       <c r="M27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.55934423759396168</v>
       </c>
       <c r="N27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.58197197061460315</v>
       </c>
       <c r="O27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.47722242824121963</v>
       </c>
       <c r="P27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.34288891170852764</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.22827659901247799</v>
       </c>
       <c r="R27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1445345579331736</v>
       </c>
       <c r="S27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8.8239311690774258E-2</v>
       </c>
       <c r="T27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5.2382902702985401E-2</v>
       </c>
       <c r="U27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0410515685502792E-2</v>
       </c>
       <c r="V27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.7335633796522476E-2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.7333572408528357E-3</v>
       </c>
       <c r="X27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5.3952068507223672E-3</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.9578373577461223E-3</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.4507986745868635E-3</v>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="C30">
         <f>re*phiq+f*phiq*dre+f*re*dphiq</f>
-        <v>3.1880863347572175E-2</v>
+        <v>3.188086337118063E-2</v>
       </c>
       <c r="F30">
         <v>0.2</v>
@@ -12509,11 +12510,11 @@
       </c>
       <c r="B31">
         <f>ak*SUM(dYe)</f>
-        <v>3.6276181066164613E-2</v>
+        <v>3.6276181075607997E-2</v>
       </c>
       <c r="C31">
         <f>ak*SUM(dYe)</f>
-        <v>5.4414271599246923E-2</v>
+        <v>5.4414271613411988E-2</v>
       </c>
       <c r="F31">
         <v>0.20499999999999999</v>
@@ -12531,11 +12532,11 @@
       </c>
       <c r="B32">
         <f>ak*SUM(B40,C41)</f>
-        <v>-0.36794595232515442</v>
+        <v>-0.3679459522508764</v>
       </c>
       <c r="C32">
         <f>ak*SUM(C40,B41)</f>
-        <v>0.12626113602840591</v>
+        <v>0.12626113601811328</v>
       </c>
       <c r="F32">
         <v>0.21</v>
@@ -12550,11 +12551,11 @@
     <row r="33" spans="1:8">
       <c r="B33">
         <f>ak*SUM(B41,C40)</f>
-        <v>8.4174090685603956E-2</v>
+        <v>8.4174090678742208E-2</v>
       </c>
       <c r="C33">
         <f>ak*SUM(B40,C41)</f>
-        <v>-0.55191892848773161</v>
+        <v>-0.55191892837631451</v>
       </c>
       <c r="F33">
         <v>0.215</v>
@@ -12572,10 +12573,10 @@
       </c>
       <c r="B34">
         <f t="array" ref="B34:C35">-MINVERSE(B32:C33)</f>
-        <v>2.8678797680402006</v>
+        <v>2.8678797686572683</v>
       </c>
       <c r="C34">
-        <v>0.65607780203843102</v>
+        <v>0.65607780225855761</v>
       </c>
       <c r="F34">
         <v>0.22</v>
@@ -12589,10 +12590,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35">
-        <v>0.43738520135895415</v>
+        <v>0.43738520150570515</v>
       </c>
       <c r="C35">
-        <v>1.9119198453601338</v>
+        <v>1.9119198457715127</v>
       </c>
       <c r="F35">
         <v>0.22500000000000001</v>
@@ -12610,10 +12611,10 @@
       </c>
       <c r="B36">
         <f t="array" ref="B36:C36">MMULT(B31:C31,B34:C35)</f>
-        <v>0.12783572288165393</v>
+        <v>0.12783572294530221</v>
       </c>
       <c r="C36">
-        <v>0.12783572288165393</v>
+        <v>0.12783572294530224</v>
       </c>
       <c r="F36">
         <v>0.23</v>
@@ -12631,11 +12632,11 @@
       </c>
       <c r="B37" s="7">
         <f>f+fstp</f>
-        <v>0.34982076959405362</v>
+        <v>0.34982076965770192</v>
       </c>
       <c r="C37" s="7">
         <f>f+fstp</f>
-        <v>0.34982076959405362</v>
+        <v>0.34982076965770192</v>
       </c>
       <c r="F37">
         <v>0.23499999999999999</v>
@@ -12694,11 +12695,11 @@
     <row r="41" spans="1:8">
       <c r="B41">
         <f>f*C27*phiq+2*f*C26*C24+f*re*C25</f>
-        <v>2.2966803527339808E-2</v>
+        <v>2.2966803510185419E-2</v>
       </c>
       <c r="C41">
         <f>2*dre*phiq+2*re*dphiq+f*ddre*phiq+2*f*dre*dphiq+f*re*ddphiq</f>
-        <v>-0.14989565474707625</v>
+        <v>-0.14989565456138115</v>
       </c>
       <c r="F41">
         <v>0.255</v>
@@ -12716,10 +12717,10 @@
       </c>
       <c r="B42">
         <f t="array" ref="B42:C43">-MINVERSE(B40:C41)</f>
-        <v>1.3490805656911284</v>
+        <v>1.3490805657168443</v>
       </c>
       <c r="C42">
-        <v>1.6872404128634673</v>
+        <v>1.6872404149858315</v>
       </c>
       <c r="F42">
         <v>0.26</v>
@@ -12733,10 +12734,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43">
-        <v>0.20670424601074</v>
+        <v>0.20670424611635957</v>
       </c>
       <c r="C43">
-        <v>6.9298240887525395</v>
+        <v>6.9298240974695009</v>
       </c>
       <c r="F43">
         <v>0.26500000000000001</v>
@@ -12765,10 +12766,10 @@
       </c>
       <c r="B45">
         <f t="array" ref="B45:C45">MMULT(B30:C30,B42:C43)</f>
-        <v>8.5928783845405005E-2</v>
+        <v>8.5928783855164559E-2</v>
       </c>
       <c r="C45">
-        <v>0.32015469055719581</v>
+        <v>0.32015469112351791</v>
       </c>
       <c r="F45">
         <v>0.27500000000000002</v>
@@ -12786,11 +12787,11 @@
       </c>
       <c r="B46" s="5">
         <f>f+dta</f>
-        <v>0.30791383055780475</v>
+        <v>0.30791383056756427</v>
       </c>
       <c r="C46" s="5">
         <f>f+dta</f>
-        <v>0.54213973726959552</v>
+        <v>0.54213973783591762</v>
       </c>
       <c r="F46">
         <v>0.28000000000000003</v>

--- a/examples/MSF.xlsx
+++ b/examples/MSF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1909">
+  <cellStyleXfs count="1911">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -734,6 +734,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2604,7 +2606,7 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="51" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1909">
+  <cellStyles count="1911">
     <cellStyle name="20% - Accent1" xfId="52" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="53" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="54" builtinId="50"/>
@@ -3559,6 +3561,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1904" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1906" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1910" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="49" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -4511,6 +4514,7 @@
     <cellStyle name="Hyperlink" xfId="1903" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1905" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1909" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="51" builtinId="20"/>
     <cellStyle name="Neutral" xfId="50" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5188,6 +5192,394 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Allocation Mar'!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dlz/df1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Allocation Mar'!$G$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allocation Mar'!$G$18:$Z$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.000409441023682598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00396923214971583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0331384932820412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.153694034504864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.236851979140169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.223687394826984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.166275459303436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10604935339519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0623437796887962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.0351197328331928</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.019271450259445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.0103811732737692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.00551400987214839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.00289624781279844</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.00150745161233938</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.000778670726050128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.000399646196929516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.000203989557637536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.000209004201976278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Allocation Mar'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dlz/df</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Allocation Mar'!$G$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allocation Mar'!$G$17:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.000409440981119502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00396923210965738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0331384932827916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.153694034499274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.236851979126818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.223687394822203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.166275459300563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.106049353396087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0623437796890697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.0351197328332491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.0192714502593796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.0103811732738747</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.00551400987223354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.00289624781283997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.00150745161234885</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.000778670726049515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.000399646196934118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.000203989557641156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.000209004201984813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2123607720"/>
+        <c:axId val="-2123609864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2123607720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123609864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2123609864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123607720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5408,7 +5800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6033,7 +6425,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6722,6 +7114,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10118,7 +10540,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="Z19" sqref="Z19"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
